--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1671">
   <si>
     <t>date</t>
   </si>
@@ -4755,660 +4755,11 @@
     <t>5-九鼎新材-002201.SZ-实体-江苏-34.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>金力永磁 银河磁体 同属一个题材 金力永磁是龙头</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头潜能恒信当天18个点大面 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>涨停价开盘|连续3个一字</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头华讯方舟15个点大面 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头泰晶科技18个点以上大面，隔天跌停开盘 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">涨停价开盘 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头森远股份18个点以上大面 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头宝德股份跌停且隔日竞价低开破5日线 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头一拖股份跌停且隔日竞价低开破5日线 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>连续3个一字 未破板 不买 筹码断层严重 没换手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>近两个月最高板无法突破8板 连杀[7-6-5-4]5连杀 没换手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>涨停价开盘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有减持利空的股票排除掉 
-直接找人气最好的下一只 兰石重装</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有减持利空的股票排除掉 
-直接找人气最好的下一只 铭普光磁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>换手 人气好</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有减持利空的股票排除掉 
-直接找人气最好的下一只 金力永磁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-天龙光电-300029.SZ-非实体-江苏-20.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6-实达集团-600734.SH-非实体-福建-10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>前一个龙头实达集团跌停且隔日竞价低开破5日线 谨慎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>连续3个一字以上 未破板 不买 筹码断层严重 没换手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>筹码断层严重 没换手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人气足 筹码交换充分 充分换</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>全是一字板上来 中间没有换手过 筹码断层严重</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>东北+涨停价开盘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>连续3个一字以上 未破板 不买</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量上涨 筹码断层 没经过爆量的考验</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5570,43 +4921,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>反例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量(小票) 筹码断层 没换手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>反例：</t>
     </r>
     <r>
@@ -5820,6 +5134,211 @@
   </si>
   <si>
     <t>3-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缩量一字板 没换手 真正龙头是诚迈科技 并架的票 选择低开的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情刚起步加分 缩量减分 开盘价4%个多点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 开盘价不高加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前个龙头国风锁业大面泛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 开盘价在5%左右加分 相比其他并驾的票 位置合适</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 开盘价位置不高加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 水下低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择复旦复华 放量加分比国电好 隔日水下大幅低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 前个龙头复旦复华大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 水下开盘加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 水平价附件开盘加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 水下开盘加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风科技大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北票减分 涨停价开盘放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 开盘价太高减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续3个一字以上 未破板 不买 筹码断层严重 没换手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一个龙头实达集团跌停且隔日竞价低开破5日线 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有减持利空的股票排除掉 
+直接找人气最好的下一只 金力永磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 4%左右开盘加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有减持利空的股票排除掉 
+直接找人气最好的下一只 铭普光磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有减持利空的股票排除掉 
+直接找人气最好的下一只 兰石重装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续3个一字 未破板 不买 筹码断层严重 没换手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量太厉害减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">涨停价开盘 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙森远大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙宝德大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙一拖大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙泰晶科技大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 行情起步加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 高开太高减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘|连续3个一字放弃 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙头潜能恒信当天18个点大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 缩量减分 实体加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一个龙头华讯方舟15个点大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金力永磁 银河磁体 同属一个题材 金力永磁是龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 缩量加分 T叠加一字减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6464,7 +5983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6513,9 +6032,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6539,6 +6055,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6921,22 +6446,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F431" sqref="F431"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -20781,6 +20306,9 @@
       <c r="D272" t="s">
         <v>266</v>
       </c>
+      <c r="H272" s="25" t="s">
+        <v>1627</v>
+      </c>
       <c r="I272" t="s">
         <v>1464</v>
       </c>
@@ -21079,6 +20607,9 @@
         <f>(F281-E281)/E281*100</f>
         <v>17.142857142857132</v>
       </c>
+      <c r="H281" s="25" t="s">
+        <v>1628</v>
+      </c>
       <c r="I281" t="s">
         <v>1473</v>
       </c>
@@ -21141,6 +20672,9 @@
         <f t="shared" si="12"/>
         <v>12.023898431665417</v>
       </c>
+      <c r="H283" s="24" t="s">
+        <v>1629</v>
+      </c>
       <c r="I283" t="s">
         <v>1475</v>
       </c>
@@ -21219,6 +20753,9 @@
         <f t="shared" si="12"/>
         <v>83.852691218130332</v>
       </c>
+      <c r="H285" s="25" t="s">
+        <v>1630</v>
+      </c>
       <c r="I285" t="s">
         <v>1477</v>
       </c>
@@ -21258,6 +20795,9 @@
         <f t="shared" si="12"/>
         <v>52.762803234501362</v>
       </c>
+      <c r="H286" s="25" t="s">
+        <v>1631</v>
+      </c>
       <c r="I286" t="s">
         <v>1478</v>
       </c>
@@ -21412,6 +20952,9 @@
         <f t="shared" si="12"/>
         <v>9.5625000000000071</v>
       </c>
+      <c r="H292" s="25" t="s">
+        <v>1632</v>
+      </c>
       <c r="I292" t="s">
         <v>1298</v>
       </c>
@@ -21451,6 +20994,9 @@
         <f t="shared" si="12"/>
         <v>-4.5000000000000036</v>
       </c>
+      <c r="H293" s="24" t="s">
+        <v>1634</v>
+      </c>
       <c r="I293" t="s">
         <v>1480</v>
       </c>
@@ -21513,6 +21059,9 @@
         <f t="shared" si="12"/>
         <v>13.749999999999996</v>
       </c>
+      <c r="H295" s="25" t="s">
+        <v>1633</v>
+      </c>
       <c r="I295" t="s">
         <v>1299</v>
       </c>
@@ -21591,6 +21140,9 @@
         <f t="shared" si="12"/>
         <v>2.1479713603818578</v>
       </c>
+      <c r="H297" s="25" t="s">
+        <v>1635</v>
+      </c>
       <c r="I297" t="s">
         <v>1301</v>
       </c>
@@ -21692,6 +21244,9 @@
         <f t="shared" si="12"/>
         <v>5.26315789473683</v>
       </c>
+      <c r="H300" s="24" t="s">
+        <v>1636</v>
+      </c>
       <c r="I300" t="s">
         <v>1304</v>
       </c>
@@ -21770,6 +21325,9 @@
         <f t="shared" si="12"/>
         <v>10.169491525423737</v>
       </c>
+      <c r="H302" s="25" t="s">
+        <v>1633</v>
+      </c>
       <c r="I302" t="s">
         <v>1306</v>
       </c>
@@ -21809,6 +21367,9 @@
         <f t="shared" si="12"/>
         <v>18.945868945868948</v>
       </c>
+      <c r="H303" s="25" t="s">
+        <v>1633</v>
+      </c>
       <c r="I303" t="s">
         <v>1307</v>
       </c>
@@ -21937,6 +21498,9 @@
         <f>(F307-E307)/E307*100</f>
         <v>2.4287222808869973</v>
       </c>
+      <c r="H307" s="25" t="s">
+        <v>1628</v>
+      </c>
       <c r="I307" t="s">
         <v>1311</v>
       </c>
@@ -21976,6 +21540,9 @@
         <f t="shared" si="12"/>
         <v>-3.8922155688622673</v>
       </c>
+      <c r="H308" s="24" t="s">
+        <v>1637</v>
+      </c>
       <c r="I308" t="s">
         <v>1312</v>
       </c>
@@ -22015,6 +21582,9 @@
         <f t="shared" si="12"/>
         <v>7.5268817204301026</v>
       </c>
+      <c r="H309" s="25" t="s">
+        <v>1638</v>
+      </c>
       <c r="I309" t="s">
         <v>1313</v>
       </c>
@@ -22093,8 +21663,8 @@
         <f t="shared" si="12"/>
         <v>-3.4482758620689689</v>
       </c>
-      <c r="H311" s="14" t="s">
-        <v>1599</v>
+      <c r="H311" s="24" t="s">
+        <v>1639</v>
       </c>
       <c r="I311" t="s">
         <v>1315</v>
@@ -22158,6 +21728,9 @@
         <f t="shared" si="12"/>
         <v>-2.4390243902438939</v>
       </c>
+      <c r="H313" s="24" t="s">
+        <v>1637</v>
+      </c>
       <c r="I313" t="s">
         <v>1317</v>
       </c>
@@ -22187,8 +21760,8 @@
       <c r="D314" t="s">
         <v>308</v>
       </c>
-      <c r="H314" s="15" t="s">
-        <v>1598</v>
+      <c r="H314" s="24" t="s">
+        <v>1521</v>
       </c>
       <c r="I314" t="s">
         <v>1318</v>
@@ -22263,6 +21836,9 @@
         <f t="shared" si="12"/>
         <v>10.134739308728765</v>
       </c>
+      <c r="H317" s="25" t="s">
+        <v>1638</v>
+      </c>
       <c r="O317">
         <v>20170523</v>
       </c>
@@ -22313,6 +21889,9 @@
         <f t="shared" si="12"/>
         <v>12.408759124087593</v>
       </c>
+      <c r="H319" s="24" t="s">
+        <v>1640</v>
+      </c>
       <c r="O319">
         <v>20170525</v>
       </c>
@@ -22343,6 +21922,9 @@
         <f t="shared" si="12"/>
         <v>10.114068441064639</v>
       </c>
+      <c r="H320" s="25" t="s">
+        <v>1638</v>
+      </c>
       <c r="O320">
         <v>20170526</v>
       </c>
@@ -22383,8 +21965,8 @@
       <c r="D322" t="s">
         <v>1489</v>
       </c>
-      <c r="H322" s="15" t="s">
-        <v>1597</v>
+      <c r="H322" s="24" t="s">
+        <v>1641</v>
       </c>
       <c r="O322">
         <v>20170601</v>
@@ -22506,6 +22088,9 @@
       <c r="D328" t="s">
         <v>1495</v>
       </c>
+      <c r="H328" s="24" t="s">
+        <v>1642</v>
+      </c>
       <c r="O328">
         <v>20170609</v>
       </c>
@@ -22536,6 +22121,9 @@
         <f t="shared" ref="G329:G391" si="14">(F329-E329)/E329*100</f>
         <v>2.6622296173044946</v>
       </c>
+      <c r="H329" s="25" t="s">
+        <v>1643</v>
+      </c>
       <c r="O329">
         <v>20170612</v>
       </c>
@@ -22616,6 +22204,9 @@
         <f t="shared" si="14"/>
         <v>3.0303030303030365</v>
       </c>
+      <c r="H332" s="24" t="s">
+        <v>1644</v>
+      </c>
       <c r="O332">
         <v>20170615</v>
       </c>
@@ -22636,6 +22227,9 @@
       <c r="D333" t="s">
         <v>1500</v>
       </c>
+      <c r="H333" s="25" t="s">
+        <v>1638</v>
+      </c>
       <c r="O333">
         <v>20170616</v>
       </c>
@@ -22716,6 +22310,9 @@
         <f t="shared" si="14"/>
         <v>10.140093395597074</v>
       </c>
+      <c r="H336" s="25" t="s">
+        <v>1638</v>
+      </c>
       <c r="O336">
         <v>20170621</v>
       </c>
@@ -22756,6 +22353,9 @@
       <c r="D338" t="s">
         <v>1505</v>
       </c>
+      <c r="H338" s="24" t="s">
+        <v>1645</v>
+      </c>
       <c r="O338">
         <v>20170623</v>
       </c>
@@ -22794,7 +22394,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="E340">
         <v>9.76</v>
@@ -22806,9 +22406,7 @@
         <f t="shared" si="14"/>
         <v>-12.704918032786889</v>
       </c>
-      <c r="H340" s="14" t="s">
-        <v>1594</v>
-      </c>
+      <c r="H340" s="14"/>
       <c r="O340">
         <v>20170627</v>
       </c>
@@ -22827,10 +22425,10 @@
         <v>10</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>1591</v>
-      </c>
-      <c r="H341" s="15" t="s">
-        <v>1593</v>
+        <v>1575</v>
+      </c>
+      <c r="H341" s="24" t="s">
+        <v>1646</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22852,8 +22450,8 @@
       <c r="D342" t="s">
         <v>1507</v>
       </c>
-      <c r="H342" s="15" t="s">
-        <v>1592</v>
+      <c r="H342" s="24" t="s">
+        <v>1647</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -22862,7 +22460,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22875,8 +22473,8 @@
       <c r="D343" t="s">
         <v>1508</v>
       </c>
-      <c r="H343" s="16" t="s">
-        <v>1589</v>
+      <c r="H343" s="26" t="s">
+        <v>1648</v>
       </c>
       <c r="O343">
         <v>20170630</v>
@@ -22928,6 +22526,9 @@
         <f t="shared" si="14"/>
         <v>-3.7565973300217346</v>
       </c>
+      <c r="H345" s="24" t="s">
+        <v>1649</v>
+      </c>
       <c r="O345">
         <v>20170704</v>
       </c>
@@ -22958,6 +22559,9 @@
         <f t="shared" si="14"/>
         <v>9.0014064697608944</v>
       </c>
+      <c r="H346" s="25" t="s">
+        <v>1650</v>
+      </c>
       <c r="O346">
         <v>20170705</v>
       </c>
@@ -22985,7 +22589,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22998,8 +22602,8 @@
       <c r="D348" t="s">
         <v>1513</v>
       </c>
-      <c r="H348" s="16" t="s">
-        <v>1587</v>
+      <c r="H348" s="26" t="s">
+        <v>1651</v>
       </c>
       <c r="O348">
         <v>20170707</v>
@@ -23031,8 +22635,8 @@
         <f t="shared" si="14"/>
         <v>1.0356150543066343</v>
       </c>
-      <c r="H349" s="14" t="s">
-        <v>1595</v>
+      <c r="H349" s="25" t="s">
+        <v>1628</v>
       </c>
       <c r="O349">
         <v>20170710</v>
@@ -23084,6 +22688,9 @@
         <f t="shared" si="14"/>
         <v>33.140283140283152</v>
       </c>
+      <c r="H351" s="25" t="s">
+        <v>1652</v>
+      </c>
       <c r="O351">
         <v>20170712</v>
       </c>
@@ -23151,7 +22758,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -23164,8 +22771,8 @@
       <c r="D355" t="s">
         <v>1524</v>
       </c>
-      <c r="H355" s="16" t="s">
-        <v>1586</v>
+      <c r="H355" s="26" t="s">
+        <v>1653</v>
       </c>
       <c r="O355">
         <v>20170718</v>
@@ -23257,6 +22864,9 @@
         <f t="shared" si="14"/>
         <v>12.903225806451612</v>
       </c>
+      <c r="H359" s="25" t="s">
+        <v>1654</v>
+      </c>
       <c r="O359">
         <v>20170724</v>
       </c>
@@ -23299,8 +22909,8 @@
         <v>1530</v>
       </c>
       <c r="G361" s="4"/>
-      <c r="H361" s="15" t="s">
-        <v>1585</v>
+      <c r="H361" s="24" t="s">
+        <v>1655</v>
       </c>
       <c r="O361">
         <v>20170726</v>
@@ -23323,8 +22933,8 @@
         <v>1531</v>
       </c>
       <c r="G362" s="4"/>
-      <c r="H362" s="15" t="s">
-        <v>1583</v>
+      <c r="H362" s="24" t="s">
+        <v>1656</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -23347,8 +22957,8 @@
         <v>1532</v>
       </c>
       <c r="G363" s="4"/>
-      <c r="H363" s="15" t="s">
-        <v>1584</v>
+      <c r="H363" s="24" t="s">
+        <v>1657</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>1560</v>
@@ -23374,8 +22984,8 @@
         <v>1533</v>
       </c>
       <c r="G364" s="4"/>
-      <c r="H364" s="15" t="s">
-        <v>1582</v>
+      <c r="H364" s="24" t="s">
+        <v>1661</v>
       </c>
       <c r="O364">
         <v>20170731</v>
@@ -23398,8 +23008,8 @@
         <v>1534</v>
       </c>
       <c r="G365" s="4"/>
-      <c r="H365" s="15" t="s">
-        <v>1581</v>
+      <c r="H365" s="24" t="s">
+        <v>1660</v>
       </c>
       <c r="O365">
         <v>20170801</v>
@@ -23422,8 +23032,8 @@
         <v>1535</v>
       </c>
       <c r="G366" s="4"/>
-      <c r="H366" s="15" t="s">
-        <v>1580</v>
+      <c r="H366" s="24" t="s">
+        <v>1659</v>
       </c>
       <c r="O366">
         <v>20170802</v>
@@ -23446,8 +23056,8 @@
         <v>1564</v>
       </c>
       <c r="G367" s="4"/>
-      <c r="H367" s="15" t="s">
-        <v>1579</v>
+      <c r="H367" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="O367">
         <v>20170803</v>
@@ -23470,8 +23080,8 @@
         <v>1536</v>
       </c>
       <c r="G368" s="4"/>
-      <c r="H368" s="15" t="s">
-        <v>1578</v>
+      <c r="H368" s="24" t="s">
+        <v>1662</v>
       </c>
       <c r="O368">
         <v>20170804</v>
@@ -23692,8 +23302,8 @@
         <f t="shared" si="14"/>
         <v>9.3939393939393963</v>
       </c>
-      <c r="H378" s="14" t="s">
-        <v>1588</v>
+      <c r="H378" s="25" t="s">
+        <v>1663</v>
       </c>
       <c r="O378">
         <v>20170818</v>
@@ -23737,8 +23347,8 @@
         <v>1548</v>
       </c>
       <c r="G380" s="6"/>
-      <c r="H380" s="15" t="s">
-        <v>1596</v>
+      <c r="H380" s="24" t="s">
+        <v>1664</v>
       </c>
       <c r="O380">
         <v>20170822</v>
@@ -23824,8 +23434,8 @@
         <v>1552</v>
       </c>
       <c r="G384" s="6"/>
-      <c r="H384" s="15" t="s">
-        <v>1576</v>
+      <c r="H384" s="24" t="s">
+        <v>1665</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23848,8 +23458,8 @@
         <v>1553</v>
       </c>
       <c r="G385" s="6"/>
-      <c r="H385" s="15" t="s">
-        <v>1575</v>
+      <c r="H385" s="24" t="s">
+        <v>1666</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -23965,6 +23575,9 @@
         <f t="shared" si="14"/>
         <v>14.057507987220447</v>
       </c>
+      <c r="H390" s="25" t="s">
+        <v>1667</v>
+      </c>
       <c r="O390">
         <v>20170905</v>
       </c>
@@ -23983,7 +23596,7 @@
         <v>4</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>1633</v>
+        <v>1608</v>
       </c>
       <c r="E391">
         <v>8.99</v>
@@ -23995,6 +23608,9 @@
         <f t="shared" si="14"/>
         <v>-1.0011123470522787</v>
       </c>
+      <c r="H391" s="24" t="s">
+        <v>1644</v>
+      </c>
       <c r="O391">
         <v>20170906</v>
       </c>
@@ -24013,11 +23629,11 @@
         <v>6</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>1632</v>
+        <v>1607</v>
       </c>
       <c r="G392" s="13"/>
-      <c r="H392" s="15" t="s">
-        <v>1577</v>
+      <c r="H392" s="24" t="s">
+        <v>1668</v>
       </c>
       <c r="O392">
         <v>20170907</v>
@@ -24049,8 +23665,8 @@
         <f t="shared" ref="G393:G411" si="15">(F393-E393)/E393*100</f>
         <v>4.8412698412698365</v>
       </c>
-      <c r="H393" s="15" t="s">
-        <v>1574</v>
+      <c r="H393" s="25" t="s">
+        <v>1669</v>
       </c>
       <c r="O393">
         <v>20170908</v>
@@ -24103,6 +23719,9 @@
         <f t="shared" si="15"/>
         <v>-4.1424169804861375</v>
       </c>
+      <c r="H395" s="25" t="s">
+        <v>1652</v>
+      </c>
       <c r="O395">
         <v>20170912</v>
       </c>
@@ -24259,8 +23878,8 @@
         <f t="shared" si="15"/>
         <v>-7.1005917159763277</v>
       </c>
-      <c r="H402" s="14" t="s">
-        <v>1622</v>
+      <c r="H402" s="24" t="s">
+        <v>1670</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -24322,7 +23941,7 @@
         <v>8</v>
       </c>
       <c r="D405" s="13" t="s">
-        <v>1602</v>
+        <v>1578</v>
       </c>
       <c r="E405">
         <v>23.36</v>
@@ -24335,7 +23954,7 @@
         <v>19.306506849315074</v>
       </c>
       <c r="H405" s="14" t="s">
-        <v>1601</v>
+        <v>1577</v>
       </c>
       <c r="O405">
         <v>20170926</v>
@@ -24355,7 +23974,7 @@
         <v>11</v>
       </c>
       <c r="D406" s="13" t="s">
-        <v>1603</v>
+        <v>1579</v>
       </c>
       <c r="G406" s="13"/>
       <c r="O406">
@@ -24376,11 +23995,11 @@
         <v>16</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>1604</v>
+        <v>1580</v>
       </c>
       <c r="G407" s="13"/>
       <c r="H407" s="14" t="s">
-        <v>1600</v>
+        <v>1576</v>
       </c>
       <c r="O407">
         <v>20170928</v>
@@ -24400,7 +24019,7 @@
         <v>13</v>
       </c>
       <c r="D408" s="13" t="s">
-        <v>1605</v>
+        <v>1581</v>
       </c>
       <c r="E408">
         <v>8.56</v>
@@ -24430,7 +24049,7 @@
         <v>15</v>
       </c>
       <c r="D409" s="13" t="s">
-        <v>1606</v>
+        <v>1582</v>
       </c>
       <c r="G409" s="13"/>
       <c r="O409">
@@ -24451,7 +24070,7 @@
         <v>13</v>
       </c>
       <c r="D410" s="13" t="s">
-        <v>1607</v>
+        <v>1583</v>
       </c>
       <c r="G410" s="13"/>
       <c r="O410">
@@ -24472,7 +24091,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="13" t="s">
-        <v>1608</v>
+        <v>1584</v>
       </c>
       <c r="E411">
         <v>4.2699999999999996</v>
@@ -24502,7 +24121,7 @@
         <v>11</v>
       </c>
       <c r="D412" s="13" t="s">
-        <v>1609</v>
+        <v>1585</v>
       </c>
       <c r="G412" s="13"/>
       <c r="O412">
@@ -24523,7 +24142,7 @@
         <v>15</v>
       </c>
       <c r="D413" s="13" t="s">
-        <v>1610</v>
+        <v>1586</v>
       </c>
       <c r="G413" s="13"/>
       <c r="O413">
@@ -24544,7 +24163,7 @@
         <v>12</v>
       </c>
       <c r="D414" s="13" t="s">
-        <v>1611</v>
+        <v>1587</v>
       </c>
       <c r="E414">
         <v>10.88</v>
@@ -24556,8 +24175,8 @@
         <f>(F414-E414)/E414*100</f>
         <v>3.8602941176470575</v>
       </c>
-      <c r="H414" s="13" t="s">
-        <v>1627</v>
+      <c r="H414" s="25" t="s">
+        <v>1602</v>
       </c>
       <c r="O414">
         <v>20171016</v>
@@ -24577,7 +24196,7 @@
         <v>11</v>
       </c>
       <c r="D415" s="13" t="s">
-        <v>1612</v>
+        <v>1588</v>
       </c>
       <c r="G415" s="13"/>
       <c r="O415">
@@ -24598,7 +24217,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="13" t="s">
-        <v>1620</v>
+        <v>1596</v>
       </c>
       <c r="E416">
         <v>30.99</v>
@@ -24628,7 +24247,7 @@
         <v>15</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>1613</v>
+        <v>1589</v>
       </c>
       <c r="G417" s="13"/>
       <c r="O417">
@@ -24649,7 +24268,7 @@
         <v>16</v>
       </c>
       <c r="D418" s="13" t="s">
-        <v>1614</v>
+        <v>1590</v>
       </c>
       <c r="E418">
         <v>13.59</v>
@@ -24662,7 +24281,7 @@
         <v>-10.890360559234736</v>
       </c>
       <c r="H418" s="14" t="s">
-        <v>1625</v>
+        <v>1600</v>
       </c>
       <c r="O418">
         <v>20171020</v>
@@ -24682,7 +24301,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="13" t="s">
-        <v>1615</v>
+        <v>1591</v>
       </c>
       <c r="E419">
         <v>9</v>
@@ -24695,7 +24314,7 @@
         <v>12.888888888888891</v>
       </c>
       <c r="H419" s="14" t="s">
-        <v>1624</v>
+        <v>1599</v>
       </c>
       <c r="O419">
         <v>20171023</v>
@@ -24715,7 +24334,7 @@
         <v>7</v>
       </c>
       <c r="D420" s="13" t="s">
-        <v>1616</v>
+        <v>1592</v>
       </c>
       <c r="E420">
         <v>12.5</v>
@@ -24728,7 +24347,7 @@
         <v>-14.560000000000004</v>
       </c>
       <c r="H420" s="14" t="s">
-        <v>1623</v>
+        <v>1598</v>
       </c>
       <c r="O420">
         <v>20171024</v>
@@ -24748,7 +24367,7 @@
         <v>10</v>
       </c>
       <c r="D421" s="13" t="s">
-        <v>1617</v>
+        <v>1593</v>
       </c>
       <c r="E421">
         <v>22</v>
@@ -24761,7 +24380,7 @@
         <v>-17.136363636363637</v>
       </c>
       <c r="H421" s="14" t="s">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24781,7 +24400,7 @@
         <v>6</v>
       </c>
       <c r="D422" s="13" t="s">
-        <v>1618</v>
+        <v>1594</v>
       </c>
       <c r="G422" s="13"/>
       <c r="O422">
@@ -24802,7 +24421,7 @@
         <v>7</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1619</v>
+        <v>1595</v>
       </c>
       <c r="E423">
         <v>28.61</v>
@@ -24814,8 +24433,8 @@
         <f t="shared" ref="G423:G427" si="17">(F423-E423)/E423*100</f>
         <v>28.940929744844464</v>
       </c>
-      <c r="H423" s="17" t="s">
-        <v>1621</v>
+      <c r="H423" s="16" t="s">
+        <v>1597</v>
       </c>
       <c r="O423">
         <v>20171027</v>
@@ -24835,9 +24454,9 @@
         <v>9</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G424" s="19"/>
+        <v>1603</v>
+      </c>
+      <c r="G424" s="18"/>
       <c r="O424">
         <v>20171030</v>
       </c>
@@ -24856,9 +24475,9 @@
         <v>7</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G425" s="19"/>
+        <v>1604</v>
+      </c>
+      <c r="G425" s="18"/>
       <c r="O425">
         <v>20171031</v>
       </c>
@@ -24877,11 +24496,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="13" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G426" s="19"/>
+        <v>1605</v>
+      </c>
+      <c r="G426" s="18"/>
       <c r="H426" s="15" t="s">
-        <v>1636</v>
+        <v>1611</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24901,7 +24520,7 @@
         <v>10</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1631</v>
+        <v>1606</v>
       </c>
       <c r="E427">
         <v>16</v>
@@ -24909,7 +24528,7 @@
       <c r="F427">
         <v>26.96</v>
       </c>
-      <c r="G427" s="19">
+      <c r="G427" s="18">
         <f t="shared" si="17"/>
         <v>68.5</v>
       </c>
@@ -24931,7 +24550,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1634</v>
+        <v>1609</v>
       </c>
       <c r="O428">
         <v>20171103</v>
@@ -24941,17 +24560,17 @@
       </c>
     </row>
     <row r="429" spans="1:16">
-      <c r="A429" s="18">
+      <c r="A429" s="17">
         <v>20190926</v>
       </c>
-      <c r="B429" s="18">
+      <c r="B429" s="17">
         <v>11</v>
       </c>
-      <c r="C429" s="18">
+      <c r="C429" s="17">
         <v>7</v>
       </c>
-      <c r="D429" s="19" t="s">
-        <v>1635</v>
+      <c r="D429" s="18" t="s">
+        <v>1610</v>
       </c>
       <c r="O429">
         <v>20171106</v>
@@ -24961,17 +24580,17 @@
       </c>
     </row>
     <row r="430" spans="1:16">
-      <c r="A430" s="18">
+      <c r="A430" s="17">
         <v>20190927</v>
       </c>
-      <c r="B430" s="18">
+      <c r="B430" s="17">
         <v>9</v>
       </c>
-      <c r="C430" s="18">
+      <c r="C430" s="17">
         <v>5</v>
       </c>
-      <c r="D430" s="19" t="s">
-        <v>1637</v>
+      <c r="D430" s="18" t="s">
+        <v>1612</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -24981,17 +24600,17 @@
       </c>
     </row>
     <row r="431" spans="1:16">
-      <c r="A431" s="18">
+      <c r="A431" s="17">
         <v>20190930</v>
       </c>
-      <c r="B431" s="18">
+      <c r="B431" s="17">
         <v>7</v>
       </c>
-      <c r="C431" s="18">
+      <c r="C431" s="17">
         <v>5</v>
       </c>
-      <c r="D431" s="19" t="s">
-        <v>1638</v>
+      <c r="D431" s="18" t="s">
+        <v>1613</v>
       </c>
       <c r="O431">
         <v>20171108</v>
@@ -25001,17 +24620,17 @@
       </c>
     </row>
     <row r="432" spans="1:16">
-      <c r="A432" s="18">
+      <c r="A432" s="17">
         <v>20191008</v>
       </c>
-      <c r="B432" s="18">
+      <c r="B432" s="17">
         <v>8</v>
       </c>
-      <c r="C432" s="18">
+      <c r="C432" s="17">
         <v>7</v>
       </c>
-      <c r="D432" s="19" t="s">
-        <v>1639</v>
+      <c r="D432" s="18" t="s">
+        <v>1614</v>
       </c>
       <c r="O432">
         <v>20171109</v>
@@ -25021,17 +24640,17 @@
       </c>
     </row>
     <row r="433" spans="1:16">
-      <c r="A433" s="18">
+      <c r="A433" s="17">
         <v>20191009</v>
       </c>
-      <c r="B433" s="18">
+      <c r="B433" s="17">
         <v>8</v>
       </c>
-      <c r="C433" s="18">
+      <c r="C433" s="17">
         <v>7</v>
       </c>
-      <c r="D433" s="19" t="s">
-        <v>1640</v>
+      <c r="D433" s="18" t="s">
+        <v>1615</v>
       </c>
       <c r="O433">
         <v>20171110</v>
@@ -25041,17 +24660,17 @@
       </c>
     </row>
     <row r="434" spans="1:16">
-      <c r="A434" s="18">
+      <c r="A434" s="17">
         <v>20191010</v>
       </c>
-      <c r="B434" s="18">
+      <c r="B434" s="17">
         <v>10</v>
       </c>
-      <c r="C434" s="18">
+      <c r="C434" s="17">
         <v>8</v>
       </c>
-      <c r="D434" s="19" t="s">
-        <v>1641</v>
+      <c r="D434" s="18" t="s">
+        <v>1616</v>
       </c>
       <c r="O434">
         <v>20171113</v>
@@ -25061,20 +24680,20 @@
       </c>
     </row>
     <row r="435" spans="1:16">
-      <c r="A435" s="21">
+      <c r="A435" s="20">
         <v>20191011</v>
       </c>
-      <c r="B435" s="21">
+      <c r="B435" s="20">
         <v>10</v>
       </c>
-      <c r="C435" s="21">
+      <c r="C435" s="20">
         <v>8</v>
       </c>
-      <c r="D435" s="22" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H435" s="20" t="s">
-        <v>1646</v>
+      <c r="D435" s="21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H435" s="19" t="s">
+        <v>1626</v>
       </c>
       <c r="O435">
         <v>20171114</v>
@@ -25084,17 +24703,17 @@
       </c>
     </row>
     <row r="436" spans="1:16">
-      <c r="A436" s="21">
+      <c r="A436" s="20">
         <v>20191014</v>
       </c>
-      <c r="B436" s="21">
+      <c r="B436" s="20">
         <v>19</v>
       </c>
-      <c r="C436" s="21">
+      <c r="C436" s="20">
         <v>16</v>
       </c>
-      <c r="D436" s="22" t="s">
-        <v>1643</v>
+      <c r="D436" s="21" t="s">
+        <v>1618</v>
       </c>
       <c r="O436">
         <v>20171115</v>
@@ -25104,20 +24723,20 @@
       </c>
     </row>
     <row r="437" spans="1:16">
-      <c r="A437" s="21">
+      <c r="A437" s="20">
         <v>20191015</v>
       </c>
-      <c r="B437" s="21">
+      <c r="B437" s="20">
         <v>14</v>
       </c>
-      <c r="C437" s="21">
+      <c r="C437" s="20">
         <v>11</v>
       </c>
-      <c r="D437" s="22" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H437" s="20" t="s">
-        <v>1646</v>
+      <c r="D437" s="21" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H437" s="19" t="s">
+        <v>1621</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -25127,17 +24746,17 @@
       </c>
     </row>
     <row r="438" spans="1:16">
-      <c r="A438" s="23">
+      <c r="A438" s="22">
         <v>20191016</v>
       </c>
-      <c r="B438" s="23">
+      <c r="B438" s="22">
         <v>7</v>
       </c>
-      <c r="C438" s="23">
+      <c r="C438" s="22">
         <v>6</v>
       </c>
-      <c r="D438" s="24" t="s">
-        <v>1645</v>
+      <c r="D438" s="23" t="s">
+        <v>1620</v>
       </c>
       <c r="O438">
         <v>20171117</v>
@@ -25147,17 +24766,17 @@
       </c>
     </row>
     <row r="439" spans="1:16">
-      <c r="A439" s="23">
+      <c r="A439" s="22">
         <v>20191017</v>
       </c>
-      <c r="B439" s="23">
+      <c r="B439" s="22">
         <v>5</v>
       </c>
-      <c r="C439" s="23">
+      <c r="C439" s="22">
         <v>3</v>
       </c>
-      <c r="D439" s="24" t="s">
-        <v>1647</v>
+      <c r="D439" s="23" t="s">
+        <v>1622</v>
       </c>
       <c r="O439">
         <v>20171120</v>
@@ -25167,17 +24786,17 @@
       </c>
     </row>
     <row r="440" spans="1:16">
-      <c r="A440" s="23">
+      <c r="A440" s="22">
         <v>20191018</v>
       </c>
-      <c r="B440" s="23">
+      <c r="B440" s="22">
         <v>9</v>
       </c>
-      <c r="C440" s="23">
+      <c r="C440" s="22">
         <v>8</v>
       </c>
-      <c r="D440" s="24" t="s">
-        <v>1648</v>
+      <c r="D440" s="23" t="s">
+        <v>1623</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -25187,17 +24806,17 @@
       </c>
     </row>
     <row r="441" spans="1:16">
-      <c r="A441" s="23">
+      <c r="A441" s="22">
         <v>20191021</v>
       </c>
-      <c r="B441" s="23">
+      <c r="B441" s="22">
         <v>6</v>
       </c>
-      <c r="C441" s="23">
+      <c r="C441" s="22">
         <v>6</v>
       </c>
-      <c r="D441" s="24" t="s">
-        <v>1649</v>
+      <c r="D441" s="23" t="s">
+        <v>1624</v>
       </c>
       <c r="O441">
         <v>20171122</v>
@@ -25207,17 +24826,17 @@
       </c>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="23">
+      <c r="A442" s="22">
         <v>20191022</v>
       </c>
-      <c r="B442" s="23">
+      <c r="B442" s="22">
         <v>7</v>
       </c>
-      <c r="C442" s="23">
+      <c r="C442" s="22">
         <v>5</v>
       </c>
-      <c r="D442" s="24" t="s">
-        <v>1650</v>
+      <c r="D442" s="23" t="s">
+        <v>1625</v>
       </c>
       <c r="O442">
         <v>20171123</v>
@@ -25885,7 +25504,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27371,7 +26990,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28873,7 +28492,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30819,7 +30438,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31569,7 +31188,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1678">
   <si>
     <t>date</t>
   </si>
@@ -4884,141 +4884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正例：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>换手充分 水下开盘 买入</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量板(小票) 有利空 高度限制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量板(小票) 天津普林 低开太多 投机龙头 控制仓位 高度限制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量板(小票) 秒板 一字板 投机龙头 控制仓位 高度限制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量板(小票) 高度限制 赚钱效应衰退期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赚钱效应亢奋期 赚钱效应衰退期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-东方中科-002819.SZ-实体-北京-31.0</t>
   </si>
   <si>
@@ -5045,32 +4910,6 @@
     <t>7-宝鼎科技-002552.SZ-实体-浙江-15.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>庄股 换银保山新</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-威派格-603956.SH-实体-上海-24.0</t>
   </si>
   <si>
@@ -5098,32 +4937,6 @@
     <t>7-诚迈科技-300598.SZ-非实体-江苏-0.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量一字板 没换手</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-华金资本-000532.SZ-实体-广东-0.0</t>
   </si>
   <si>
@@ -5134,32 +4947,6 @@
   </si>
   <si>
     <t>3-鲁商发展-600223.SH-非实体-山东-5.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缩量一字板 没换手 真正龙头是诚迈科技 并架的票 选择低开的</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行情刚起步加分 缩量减分 开盘价4%个多点</t>
@@ -5187,10 +4974,6 @@
   </si>
   <si>
     <t>放量加分 水下低开加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5289,10 +5072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">涨停价开盘 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前龙森远大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5337,7 +5116,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行情起步加分 缩量加分 T叠加一字减分</t>
+    <t>涨停价开盘放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 缩量减分 T或者一字板减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T字板 没有充分放量 但是成交量却是历史新高 半仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 前个龙头深赛格大面 但是距离有3个板以上的距离加分 不影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意宝缩量减分 高开减分|山顶设计缩量减分 但是水平附件开盘加分 
+|天津普林一字放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量加分 但是低开加分 尾盘可以考虑 半仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利空 发了一个想要减持的想法 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开加分 行情起步加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金奥博是庄股 换银保山新 缩量减分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 高开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量一字板 一字板开盘放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题股放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 水平价开盘加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">缩量减分 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 行情起步加分 东北票减分 放量也才成交2个多亿减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄股放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5345,7 +5197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5543,15 +5395,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5983,7 +5826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6029,19 +5872,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -6063,6 +5897,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6110,35 +5947,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -6446,8 +6255,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B204" sqref="B204:C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16528,8 +16337,8 @@
       <c r="D182" t="s">
         <v>177</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>1520</v>
+      <c r="H182" s="21" t="s">
+        <v>1632</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16592,6 +16401,9 @@
         <f t="shared" si="8"/>
         <v>-11.464245175936442</v>
       </c>
+      <c r="H183" s="21" t="s">
+        <v>1675</v>
+      </c>
       <c r="I183">
         <v>0</v>
       </c>
@@ -16700,9 +16512,7 @@
         <f t="shared" si="8"/>
         <v>-10.160427807486624</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>1519</v>
-      </c>
+      <c r="H185" s="1"/>
       <c r="I185">
         <v>0</v>
       </c>
@@ -16754,6 +16564,9 @@
       <c r="D186" t="s">
         <v>181</v>
       </c>
+      <c r="H186" s="21" t="s">
+        <v>1676</v>
+      </c>
       <c r="I186">
         <v>0</v>
       </c>
@@ -19015,6 +18828,9 @@
         <f t="shared" si="11"/>
         <v>-1.5261044176706788</v>
       </c>
+      <c r="H231" s="21" t="s">
+        <v>1677</v>
+      </c>
       <c r="I231">
         <v>0</v>
       </c>
@@ -19605,8 +19421,8 @@
       <c r="D245" t="s">
         <v>239</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>1520</v>
+      <c r="H245" s="21" t="s">
+        <v>1632</v>
       </c>
       <c r="I245" t="s">
         <v>1442</v>
@@ -19659,6 +19475,9 @@
         <f t="shared" si="11"/>
         <v>14.554455445544562</v>
       </c>
+      <c r="H246" s="22" t="s">
+        <v>1674</v>
+      </c>
       <c r="I246" t="s">
         <v>1443</v>
       </c>
@@ -19767,6 +19586,9 @@
         <f t="shared" si="11"/>
         <v>44.329896907216501</v>
       </c>
+      <c r="H250" s="22" t="s">
+        <v>1652</v>
+      </c>
       <c r="I250" t="s">
         <v>1447</v>
       </c>
@@ -19905,8 +19727,8 @@
       <c r="D256" t="s">
         <v>250</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>1520</v>
+      <c r="H256" s="21" t="s">
+        <v>1632</v>
       </c>
       <c r="I256" t="s">
         <v>1453</v>
@@ -19941,6 +19763,9 @@
         <f t="shared" si="11"/>
         <v>3.087971274685815</v>
       </c>
+      <c r="H257" s="22" t="s">
+        <v>1670</v>
+      </c>
       <c r="I257" t="s">
         <v>1454</v>
       </c>
@@ -20066,6 +19891,9 @@
       <c r="D262" t="s">
         <v>256</v>
       </c>
+      <c r="H262" s="22" t="s">
+        <v>1670</v>
+      </c>
       <c r="I262">
         <v>0</v>
       </c>
@@ -20168,6 +19996,9 @@
         <f t="shared" si="12"/>
         <v>-6.0975609756097455</v>
       </c>
+      <c r="H266" s="22" t="s">
+        <v>1628</v>
+      </c>
       <c r="I266" t="s">
         <v>1461</v>
       </c>
@@ -20306,8 +20137,8 @@
       <c r="D272" t="s">
         <v>266</v>
       </c>
-      <c r="H272" s="25" t="s">
-        <v>1627</v>
+      <c r="H272" s="22" t="s">
+        <v>1618</v>
       </c>
       <c r="I272" t="s">
         <v>1464</v>
@@ -20607,8 +20438,8 @@
         <f>(F281-E281)/E281*100</f>
         <v>17.142857142857132</v>
       </c>
-      <c r="H281" s="25" t="s">
-        <v>1628</v>
+      <c r="H281" s="22" t="s">
+        <v>1619</v>
       </c>
       <c r="I281" t="s">
         <v>1473</v>
@@ -20672,8 +20503,8 @@
         <f t="shared" si="12"/>
         <v>12.023898431665417</v>
       </c>
-      <c r="H283" s="24" t="s">
-        <v>1629</v>
+      <c r="H283" s="21" t="s">
+        <v>1620</v>
       </c>
       <c r="I283" t="s">
         <v>1475</v>
@@ -20753,8 +20584,8 @@
         <f t="shared" si="12"/>
         <v>83.852691218130332</v>
       </c>
-      <c r="H285" s="25" t="s">
-        <v>1630</v>
+      <c r="H285" s="22" t="s">
+        <v>1621</v>
       </c>
       <c r="I285" t="s">
         <v>1477</v>
@@ -20795,8 +20626,8 @@
         <f t="shared" si="12"/>
         <v>52.762803234501362</v>
       </c>
-      <c r="H286" s="25" t="s">
-        <v>1631</v>
+      <c r="H286" s="22" t="s">
+        <v>1622</v>
       </c>
       <c r="I286" t="s">
         <v>1478</v>
@@ -20952,8 +20783,8 @@
         <f t="shared" si="12"/>
         <v>9.5625000000000071</v>
       </c>
-      <c r="H292" s="25" t="s">
-        <v>1632</v>
+      <c r="H292" s="22" t="s">
+        <v>1623</v>
       </c>
       <c r="I292" t="s">
         <v>1298</v>
@@ -20994,8 +20825,8 @@
         <f t="shared" si="12"/>
         <v>-4.5000000000000036</v>
       </c>
-      <c r="H293" s="24" t="s">
-        <v>1634</v>
+      <c r="H293" s="21" t="s">
+        <v>1673</v>
       </c>
       <c r="I293" t="s">
         <v>1480</v>
@@ -21059,8 +20890,8 @@
         <f t="shared" si="12"/>
         <v>13.749999999999996</v>
       </c>
-      <c r="H295" s="25" t="s">
-        <v>1633</v>
+      <c r="H295" s="22" t="s">
+        <v>1624</v>
       </c>
       <c r="I295" t="s">
         <v>1299</v>
@@ -21140,8 +20971,8 @@
         <f t="shared" si="12"/>
         <v>2.1479713603818578</v>
       </c>
-      <c r="H297" s="25" t="s">
-        <v>1635</v>
+      <c r="H297" s="22" t="s">
+        <v>1625</v>
       </c>
       <c r="I297" t="s">
         <v>1301</v>
@@ -21244,8 +21075,8 @@
         <f t="shared" si="12"/>
         <v>5.26315789473683</v>
       </c>
-      <c r="H300" s="24" t="s">
-        <v>1636</v>
+      <c r="H300" s="21" t="s">
+        <v>1626</v>
       </c>
       <c r="I300" t="s">
         <v>1304</v>
@@ -21325,8 +21156,8 @@
         <f t="shared" si="12"/>
         <v>10.169491525423737</v>
       </c>
-      <c r="H302" s="25" t="s">
-        <v>1633</v>
+      <c r="H302" s="22" t="s">
+        <v>1624</v>
       </c>
       <c r="I302" t="s">
         <v>1306</v>
@@ -21367,8 +21198,8 @@
         <f t="shared" si="12"/>
         <v>18.945868945868948</v>
       </c>
-      <c r="H303" s="25" t="s">
-        <v>1633</v>
+      <c r="H303" s="22" t="s">
+        <v>1624</v>
       </c>
       <c r="I303" t="s">
         <v>1307</v>
@@ -21498,8 +21329,8 @@
         <f>(F307-E307)/E307*100</f>
         <v>2.4287222808869973</v>
       </c>
-      <c r="H307" s="25" t="s">
-        <v>1628</v>
+      <c r="H307" s="22" t="s">
+        <v>1619</v>
       </c>
       <c r="I307" t="s">
         <v>1311</v>
@@ -21540,8 +21371,8 @@
         <f t="shared" si="12"/>
         <v>-3.8922155688622673</v>
       </c>
-      <c r="H308" s="24" t="s">
-        <v>1637</v>
+      <c r="H308" s="21" t="s">
+        <v>1627</v>
       </c>
       <c r="I308" t="s">
         <v>1312</v>
@@ -21582,8 +21413,8 @@
         <f t="shared" si="12"/>
         <v>7.5268817204301026</v>
       </c>
-      <c r="H309" s="25" t="s">
-        <v>1638</v>
+      <c r="H309" s="22" t="s">
+        <v>1628</v>
       </c>
       <c r="I309" t="s">
         <v>1313</v>
@@ -21663,8 +21494,8 @@
         <f t="shared" si="12"/>
         <v>-3.4482758620689689</v>
       </c>
-      <c r="H311" s="24" t="s">
-        <v>1639</v>
+      <c r="H311" s="21" t="s">
+        <v>1629</v>
       </c>
       <c r="I311" t="s">
         <v>1315</v>
@@ -21728,8 +21559,8 @@
         <f t="shared" si="12"/>
         <v>-2.4390243902438939</v>
       </c>
-      <c r="H313" s="24" t="s">
-        <v>1637</v>
+      <c r="H313" s="21" t="s">
+        <v>1627</v>
       </c>
       <c r="I313" t="s">
         <v>1317</v>
@@ -21760,7 +21591,7 @@
       <c r="D314" t="s">
         <v>308</v>
       </c>
-      <c r="H314" s="24" t="s">
+      <c r="H314" s="21" t="s">
         <v>1521</v>
       </c>
       <c r="I314" t="s">
@@ -21836,8 +21667,8 @@
         <f t="shared" si="12"/>
         <v>10.134739308728765</v>
       </c>
-      <c r="H317" s="25" t="s">
-        <v>1638</v>
+      <c r="H317" s="22" t="s">
+        <v>1628</v>
       </c>
       <c r="O317">
         <v>20170523</v>
@@ -21889,8 +21720,8 @@
         <f t="shared" si="12"/>
         <v>12.408759124087593</v>
       </c>
-      <c r="H319" s="24" t="s">
-        <v>1640</v>
+      <c r="H319" s="21" t="s">
+        <v>1630</v>
       </c>
       <c r="O319">
         <v>20170525</v>
@@ -21922,8 +21753,8 @@
         <f t="shared" si="12"/>
         <v>10.114068441064639</v>
       </c>
-      <c r="H320" s="25" t="s">
-        <v>1638</v>
+      <c r="H320" s="22" t="s">
+        <v>1628</v>
       </c>
       <c r="O320">
         <v>20170526</v>
@@ -21965,8 +21796,8 @@
       <c r="D322" t="s">
         <v>1489</v>
       </c>
-      <c r="H322" s="24" t="s">
-        <v>1641</v>
+      <c r="H322" s="21" t="s">
+        <v>1631</v>
       </c>
       <c r="O322">
         <v>20170601</v>
@@ -22088,8 +21919,8 @@
       <c r="D328" t="s">
         <v>1495</v>
       </c>
-      <c r="H328" s="24" t="s">
-        <v>1642</v>
+      <c r="H328" s="21" t="s">
+        <v>1632</v>
       </c>
       <c r="O328">
         <v>20170609</v>
@@ -22121,8 +21952,8 @@
         <f t="shared" ref="G329:G391" si="14">(F329-E329)/E329*100</f>
         <v>2.6622296173044946</v>
       </c>
-      <c r="H329" s="25" t="s">
-        <v>1643</v>
+      <c r="H329" s="22" t="s">
+        <v>1633</v>
       </c>
       <c r="O329">
         <v>20170612</v>
@@ -22204,8 +22035,8 @@
         <f t="shared" si="14"/>
         <v>3.0303030303030365</v>
       </c>
-      <c r="H332" s="24" t="s">
-        <v>1644</v>
+      <c r="H332" s="21" t="s">
+        <v>1634</v>
       </c>
       <c r="O332">
         <v>20170615</v>
@@ -22227,8 +22058,8 @@
       <c r="D333" t="s">
         <v>1500</v>
       </c>
-      <c r="H333" s="25" t="s">
-        <v>1638</v>
+      <c r="H333" s="22" t="s">
+        <v>1628</v>
       </c>
       <c r="O333">
         <v>20170616</v>
@@ -22310,8 +22141,8 @@
         <f t="shared" si="14"/>
         <v>10.140093395597074</v>
       </c>
-      <c r="H336" s="25" t="s">
-        <v>1638</v>
+      <c r="H336" s="22" t="s">
+        <v>1628</v>
       </c>
       <c r="O336">
         <v>20170621</v>
@@ -22353,8 +22184,8 @@
       <c r="D338" t="s">
         <v>1505</v>
       </c>
-      <c r="H338" s="24" t="s">
-        <v>1645</v>
+      <c r="H338" s="21" t="s">
+        <v>1635</v>
       </c>
       <c r="O338">
         <v>20170623</v>
@@ -22427,8 +22258,8 @@
       <c r="D341" s="13" t="s">
         <v>1575</v>
       </c>
-      <c r="H341" s="24" t="s">
-        <v>1646</v>
+      <c r="H341" s="21" t="s">
+        <v>1636</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22450,8 +22281,8 @@
       <c r="D342" t="s">
         <v>1507</v>
       </c>
-      <c r="H342" s="24" t="s">
-        <v>1647</v>
+      <c r="H342" s="21" t="s">
+        <v>1637</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -22473,8 +22304,8 @@
       <c r="D343" t="s">
         <v>1508</v>
       </c>
-      <c r="H343" s="26" t="s">
-        <v>1648</v>
+      <c r="H343" s="23" t="s">
+        <v>1638</v>
       </c>
       <c r="O343">
         <v>20170630</v>
@@ -22526,8 +22357,8 @@
         <f t="shared" si="14"/>
         <v>-3.7565973300217346</v>
       </c>
-      <c r="H345" s="24" t="s">
-        <v>1649</v>
+      <c r="H345" s="21" t="s">
+        <v>1639</v>
       </c>
       <c r="O345">
         <v>20170704</v>
@@ -22559,8 +22390,8 @@
         <f t="shared" si="14"/>
         <v>9.0014064697608944</v>
       </c>
-      <c r="H346" s="25" t="s">
-        <v>1650</v>
+      <c r="H346" s="22" t="s">
+        <v>1640</v>
       </c>
       <c r="O346">
         <v>20170705</v>
@@ -22602,8 +22433,8 @@
       <c r="D348" t="s">
         <v>1513</v>
       </c>
-      <c r="H348" s="26" t="s">
-        <v>1651</v>
+      <c r="H348" s="23" t="s">
+        <v>1641</v>
       </c>
       <c r="O348">
         <v>20170707</v>
@@ -22635,8 +22466,8 @@
         <f t="shared" si="14"/>
         <v>1.0356150543066343</v>
       </c>
-      <c r="H349" s="25" t="s">
-        <v>1628</v>
+      <c r="H349" s="22" t="s">
+        <v>1619</v>
       </c>
       <c r="O349">
         <v>20170710</v>
@@ -22688,8 +22519,8 @@
         <f t="shared" si="14"/>
         <v>33.140283140283152</v>
       </c>
-      <c r="H351" s="25" t="s">
-        <v>1652</v>
+      <c r="H351" s="22" t="s">
+        <v>1642</v>
       </c>
       <c r="O351">
         <v>20170712</v>
@@ -22771,8 +22602,8 @@
       <c r="D355" t="s">
         <v>1524</v>
       </c>
-      <c r="H355" s="26" t="s">
-        <v>1653</v>
+      <c r="H355" s="23" t="s">
+        <v>1643</v>
       </c>
       <c r="O355">
         <v>20170718</v>
@@ -22864,8 +22695,8 @@
         <f t="shared" si="14"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="H359" s="25" t="s">
-        <v>1654</v>
+      <c r="H359" s="22" t="s">
+        <v>1644</v>
       </c>
       <c r="O359">
         <v>20170724</v>
@@ -22909,8 +22740,8 @@
         <v>1530</v>
       </c>
       <c r="G361" s="4"/>
-      <c r="H361" s="24" t="s">
-        <v>1655</v>
+      <c r="H361" s="21" t="s">
+        <v>1645</v>
       </c>
       <c r="O361">
         <v>20170726</v>
@@ -22933,8 +22764,8 @@
         <v>1531</v>
       </c>
       <c r="G362" s="4"/>
-      <c r="H362" s="24" t="s">
-        <v>1656</v>
+      <c r="H362" s="21" t="s">
+        <v>1646</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -22957,8 +22788,8 @@
         <v>1532</v>
       </c>
       <c r="G363" s="4"/>
-      <c r="H363" s="24" t="s">
-        <v>1657</v>
+      <c r="H363" s="21" t="s">
+        <v>1647</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>1560</v>
@@ -22984,8 +22815,8 @@
         <v>1533</v>
       </c>
       <c r="G364" s="4"/>
-      <c r="H364" s="24" t="s">
-        <v>1661</v>
+      <c r="H364" s="21" t="s">
+        <v>1650</v>
       </c>
       <c r="O364">
         <v>20170731</v>
@@ -23008,8 +22839,8 @@
         <v>1534</v>
       </c>
       <c r="G365" s="4"/>
-      <c r="H365" s="24" t="s">
-        <v>1660</v>
+      <c r="H365" s="21" t="s">
+        <v>1649</v>
       </c>
       <c r="O365">
         <v>20170801</v>
@@ -23032,8 +22863,8 @@
         <v>1535</v>
       </c>
       <c r="G366" s="4"/>
-      <c r="H366" s="24" t="s">
-        <v>1659</v>
+      <c r="H366" s="21" t="s">
+        <v>1648</v>
       </c>
       <c r="O366">
         <v>20170802</v>
@@ -23056,8 +22887,8 @@
         <v>1564</v>
       </c>
       <c r="G367" s="4"/>
-      <c r="H367" s="24" t="s">
-        <v>1658</v>
+      <c r="H367" s="21" t="s">
+        <v>1659</v>
       </c>
       <c r="O367">
         <v>20170803</v>
@@ -23080,8 +22911,8 @@
         <v>1536</v>
       </c>
       <c r="G368" s="4"/>
-      <c r="H368" s="24" t="s">
-        <v>1662</v>
+      <c r="H368" s="21" t="s">
+        <v>1651</v>
       </c>
       <c r="O368">
         <v>20170804</v>
@@ -23302,8 +23133,8 @@
         <f t="shared" si="14"/>
         <v>9.3939393939393963</v>
       </c>
-      <c r="H378" s="25" t="s">
-        <v>1663</v>
+      <c r="H378" s="22" t="s">
+        <v>1652</v>
       </c>
       <c r="O378">
         <v>20170818</v>
@@ -23347,8 +23178,8 @@
         <v>1548</v>
       </c>
       <c r="G380" s="6"/>
-      <c r="H380" s="24" t="s">
-        <v>1664</v>
+      <c r="H380" s="21" t="s">
+        <v>1653</v>
       </c>
       <c r="O380">
         <v>20170822</v>
@@ -23434,8 +23265,8 @@
         <v>1552</v>
       </c>
       <c r="G384" s="6"/>
-      <c r="H384" s="24" t="s">
-        <v>1665</v>
+      <c r="H384" s="21" t="s">
+        <v>1654</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23458,8 +23289,8 @@
         <v>1553</v>
       </c>
       <c r="G385" s="6"/>
-      <c r="H385" s="24" t="s">
-        <v>1666</v>
+      <c r="H385" s="21" t="s">
+        <v>1655</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -23575,8 +23406,8 @@
         <f t="shared" si="14"/>
         <v>14.057507987220447</v>
       </c>
-      <c r="H390" s="25" t="s">
-        <v>1667</v>
+      <c r="H390" s="22" t="s">
+        <v>1656</v>
       </c>
       <c r="O390">
         <v>20170905</v>
@@ -23596,7 +23427,7 @@
         <v>4</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="E391">
         <v>8.99</v>
@@ -23608,8 +23439,8 @@
         <f t="shared" si="14"/>
         <v>-1.0011123470522787</v>
       </c>
-      <c r="H391" s="24" t="s">
-        <v>1644</v>
+      <c r="H391" s="21" t="s">
+        <v>1634</v>
       </c>
       <c r="O391">
         <v>20170906</v>
@@ -23629,11 +23460,11 @@
         <v>6</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="G392" s="13"/>
-      <c r="H392" s="24" t="s">
-        <v>1668</v>
+      <c r="H392" s="21" t="s">
+        <v>1657</v>
       </c>
       <c r="O392">
         <v>20170907</v>
@@ -23665,8 +23496,8 @@
         <f t="shared" ref="G393:G411" si="15">(F393-E393)/E393*100</f>
         <v>4.8412698412698365</v>
       </c>
-      <c r="H393" s="25" t="s">
-        <v>1669</v>
+      <c r="H393" s="22" t="s">
+        <v>1658</v>
       </c>
       <c r="O393">
         <v>20170908</v>
@@ -23719,8 +23550,8 @@
         <f t="shared" si="15"/>
         <v>-4.1424169804861375</v>
       </c>
-      <c r="H395" s="25" t="s">
-        <v>1652</v>
+      <c r="H395" s="22" t="s">
+        <v>1642</v>
       </c>
       <c r="O395">
         <v>20170912</v>
@@ -23878,8 +23709,8 @@
         <f t="shared" si="15"/>
         <v>-7.1005917159763277</v>
       </c>
-      <c r="H402" s="24" t="s">
-        <v>1670</v>
+      <c r="H402" s="21" t="s">
+        <v>1660</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -23923,6 +23754,9 @@
         <v>1573</v>
       </c>
       <c r="G404" s="13"/>
+      <c r="H404" s="22" t="s">
+        <v>1661</v>
+      </c>
       <c r="O404">
         <v>20170925</v>
       </c>
@@ -23953,7 +23787,7 @@
         <f t="shared" si="15"/>
         <v>19.306506849315074</v>
       </c>
-      <c r="H405" s="14" t="s">
+      <c r="I405" s="14" t="s">
         <v>1577</v>
       </c>
       <c r="O405">
@@ -23977,6 +23811,9 @@
         <v>1579</v>
       </c>
       <c r="G406" s="13"/>
+      <c r="H406" s="22" t="s">
+        <v>1662</v>
+      </c>
       <c r="O406">
         <v>20170927</v>
       </c>
@@ -23998,7 +23835,7 @@
         <v>1580</v>
       </c>
       <c r="G407" s="13"/>
-      <c r="H407" s="14" t="s">
+      <c r="I407" s="14" t="s">
         <v>1576</v>
       </c>
       <c r="O407">
@@ -24103,6 +23940,9 @@
         <f t="shared" si="15"/>
         <v>14.754098360655757</v>
       </c>
+      <c r="H411" s="22" t="s">
+        <v>1663</v>
+      </c>
       <c r="O411">
         <v>20171011</v>
       </c>
@@ -24175,8 +24015,8 @@
         <f>(F414-E414)/E414*100</f>
         <v>3.8602941176470575</v>
       </c>
-      <c r="H414" s="25" t="s">
-        <v>1602</v>
+      <c r="H414" s="22" t="s">
+        <v>1642</v>
       </c>
       <c r="O414">
         <v>20171016</v>
@@ -24206,7 +24046,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="416" spans="1:16">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -24229,6 +24069,9 @@
         <f t="shared" ref="G416:G419" si="16">(F416-E416)/E416*100</f>
         <v>-5.0984188447886361</v>
       </c>
+      <c r="H416" s="24" t="s">
+        <v>1664</v>
+      </c>
       <c r="O416">
         <v>20171018</v>
       </c>
@@ -24280,8 +24123,8 @@
         <f t="shared" si="16"/>
         <v>-10.890360559234736</v>
       </c>
-      <c r="H418" s="14" t="s">
-        <v>1600</v>
+      <c r="H418" s="21" t="s">
+        <v>1665</v>
       </c>
       <c r="O418">
         <v>20171020</v>
@@ -24313,8 +24156,8 @@
         <f t="shared" si="16"/>
         <v>12.888888888888891</v>
       </c>
-      <c r="H419" s="14" t="s">
-        <v>1599</v>
+      <c r="H419" s="21" t="s">
+        <v>1666</v>
       </c>
       <c r="O419">
         <v>20171023</v>
@@ -24346,8 +24189,8 @@
         <f>(F420-E420)/E420*100</f>
         <v>-14.560000000000004</v>
       </c>
-      <c r="H420" s="14" t="s">
-        <v>1598</v>
+      <c r="H420" s="21" t="s">
+        <v>1667</v>
       </c>
       <c r="O420">
         <v>20171024</v>
@@ -24379,8 +24222,8 @@
         <f>(F421-E421)/E421*100</f>
         <v>-17.136363636363637</v>
       </c>
-      <c r="H421" s="14" t="s">
-        <v>1601</v>
+      <c r="H421" s="21" t="s">
+        <v>1639</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24433,8 +24276,8 @@
         <f t="shared" ref="G423:G427" si="17">(F423-E423)/E423*100</f>
         <v>28.940929744844464</v>
       </c>
-      <c r="H423" s="16" t="s">
-        <v>1597</v>
+      <c r="H423" s="22" t="s">
+        <v>1668</v>
       </c>
       <c r="O423">
         <v>20171027</v>
@@ -24454,9 +24297,9 @@
         <v>9</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G424" s="18"/>
+        <v>1597</v>
+      </c>
+      <c r="G424" s="16"/>
       <c r="O424">
         <v>20171030</v>
       </c>
@@ -24475,9 +24318,9 @@
         <v>7</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G425" s="18"/>
+        <v>1598</v>
+      </c>
+      <c r="G425" s="16"/>
       <c r="O425">
         <v>20171031</v>
       </c>
@@ -24496,11 +24339,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="13" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G426" s="18"/>
-      <c r="H426" s="15" t="s">
-        <v>1611</v>
+        <v>1599</v>
+      </c>
+      <c r="G426" s="16"/>
+      <c r="H426" s="22" t="s">
+        <v>1669</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24520,7 +24363,7 @@
         <v>10</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="E427">
         <v>16</v>
@@ -24528,9 +24371,12 @@
       <c r="F427">
         <v>26.96</v>
       </c>
-      <c r="G427" s="18">
+      <c r="G427" s="16">
         <f t="shared" si="17"/>
         <v>68.5</v>
+      </c>
+      <c r="H427" s="22" t="s">
+        <v>1670</v>
       </c>
       <c r="O427">
         <v>20171102</v>
@@ -24550,7 +24396,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="O428">
         <v>20171103</v>
@@ -24560,17 +24406,17 @@
       </c>
     </row>
     <row r="429" spans="1:16">
-      <c r="A429" s="17">
+      <c r="A429" s="15">
         <v>20190926</v>
       </c>
-      <c r="B429" s="17">
+      <c r="B429" s="15">
         <v>11</v>
       </c>
-      <c r="C429" s="17">
+      <c r="C429" s="15">
         <v>7</v>
       </c>
-      <c r="D429" s="18" t="s">
-        <v>1610</v>
+      <c r="D429" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="O429">
         <v>20171106</v>
@@ -24580,17 +24426,17 @@
       </c>
     </row>
     <row r="430" spans="1:16">
-      <c r="A430" s="17">
+      <c r="A430" s="15">
         <v>20190927</v>
       </c>
-      <c r="B430" s="17">
+      <c r="B430" s="15">
         <v>9</v>
       </c>
-      <c r="C430" s="17">
+      <c r="C430" s="15">
         <v>5</v>
       </c>
-      <c r="D430" s="18" t="s">
-        <v>1612</v>
+      <c r="D430" s="16" t="s">
+        <v>1605</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -24600,17 +24446,17 @@
       </c>
     </row>
     <row r="431" spans="1:16">
-      <c r="A431" s="17">
+      <c r="A431" s="15">
         <v>20190930</v>
       </c>
-      <c r="B431" s="17">
+      <c r="B431" s="15">
         <v>7</v>
       </c>
-      <c r="C431" s="17">
+      <c r="C431" s="15">
         <v>5</v>
       </c>
-      <c r="D431" s="18" t="s">
-        <v>1613</v>
+      <c r="D431" s="16" t="s">
+        <v>1606</v>
       </c>
       <c r="O431">
         <v>20171108</v>
@@ -24620,17 +24466,17 @@
       </c>
     </row>
     <row r="432" spans="1:16">
-      <c r="A432" s="17">
+      <c r="A432" s="15">
         <v>20191008</v>
       </c>
-      <c r="B432" s="17">
+      <c r="B432" s="15">
         <v>8</v>
       </c>
-      <c r="C432" s="17">
+      <c r="C432" s="15">
         <v>7</v>
       </c>
-      <c r="D432" s="18" t="s">
-        <v>1614</v>
+      <c r="D432" s="16" t="s">
+        <v>1607</v>
       </c>
       <c r="O432">
         <v>20171109</v>
@@ -24640,17 +24486,17 @@
       </c>
     </row>
     <row r="433" spans="1:16">
-      <c r="A433" s="17">
+      <c r="A433" s="15">
         <v>20191009</v>
       </c>
-      <c r="B433" s="17">
+      <c r="B433" s="15">
         <v>8</v>
       </c>
-      <c r="C433" s="17">
+      <c r="C433" s="15">
         <v>7</v>
       </c>
-      <c r="D433" s="18" t="s">
-        <v>1615</v>
+      <c r="D433" s="16" t="s">
+        <v>1608</v>
       </c>
       <c r="O433">
         <v>20171110</v>
@@ -24660,17 +24506,17 @@
       </c>
     </row>
     <row r="434" spans="1:16">
-      <c r="A434" s="17">
+      <c r="A434" s="15">
         <v>20191010</v>
       </c>
-      <c r="B434" s="17">
+      <c r="B434" s="15">
         <v>10</v>
       </c>
-      <c r="C434" s="17">
+      <c r="C434" s="15">
         <v>8</v>
       </c>
-      <c r="D434" s="18" t="s">
-        <v>1616</v>
+      <c r="D434" s="16" t="s">
+        <v>1609</v>
       </c>
       <c r="O434">
         <v>20171113</v>
@@ -24680,20 +24526,20 @@
       </c>
     </row>
     <row r="435" spans="1:16">
-      <c r="A435" s="20">
+      <c r="A435" s="17">
         <v>20191011</v>
       </c>
-      <c r="B435" s="20">
+      <c r="B435" s="17">
         <v>10</v>
       </c>
-      <c r="C435" s="20">
+      <c r="C435" s="17">
         <v>8</v>
       </c>
-      <c r="D435" s="21" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H435" s="19" t="s">
-        <v>1626</v>
+      <c r="D435" s="18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H435" s="21" t="s">
+        <v>1671</v>
       </c>
       <c r="O435">
         <v>20171114</v>
@@ -24703,17 +24549,17 @@
       </c>
     </row>
     <row r="436" spans="1:16">
-      <c r="A436" s="20">
+      <c r="A436" s="17">
         <v>20191014</v>
       </c>
-      <c r="B436" s="20">
+      <c r="B436" s="17">
         <v>19</v>
       </c>
-      <c r="C436" s="20">
+      <c r="C436" s="17">
         <v>16</v>
       </c>
-      <c r="D436" s="21" t="s">
-        <v>1618</v>
+      <c r="D436" s="18" t="s">
+        <v>1611</v>
       </c>
       <c r="O436">
         <v>20171115</v>
@@ -24723,20 +24569,20 @@
       </c>
     </row>
     <row r="437" spans="1:16">
-      <c r="A437" s="20">
+      <c r="A437" s="17">
         <v>20191015</v>
       </c>
-      <c r="B437" s="20">
+      <c r="B437" s="17">
         <v>14</v>
       </c>
-      <c r="C437" s="20">
+      <c r="C437" s="17">
         <v>11</v>
       </c>
-      <c r="D437" s="21" t="s">
-        <v>1619</v>
-      </c>
-      <c r="H437" s="19" t="s">
-        <v>1621</v>
+      <c r="D437" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H437" s="21" t="s">
+        <v>1672</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -24746,17 +24592,17 @@
       </c>
     </row>
     <row r="438" spans="1:16">
-      <c r="A438" s="22">
+      <c r="A438" s="19">
         <v>20191016</v>
       </c>
-      <c r="B438" s="22">
+      <c r="B438" s="19">
         <v>7</v>
       </c>
-      <c r="C438" s="22">
+      <c r="C438" s="19">
         <v>6</v>
       </c>
-      <c r="D438" s="23" t="s">
-        <v>1620</v>
+      <c r="D438" s="20" t="s">
+        <v>1613</v>
       </c>
       <c r="O438">
         <v>20171117</v>
@@ -24766,17 +24612,17 @@
       </c>
     </row>
     <row r="439" spans="1:16">
-      <c r="A439" s="22">
+      <c r="A439" s="19">
         <v>20191017</v>
       </c>
-      <c r="B439" s="22">
+      <c r="B439" s="19">
         <v>5</v>
       </c>
-      <c r="C439" s="22">
+      <c r="C439" s="19">
         <v>3</v>
       </c>
-      <c r="D439" s="23" t="s">
-        <v>1622</v>
+      <c r="D439" s="20" t="s">
+        <v>1614</v>
       </c>
       <c r="O439">
         <v>20171120</v>
@@ -24786,17 +24632,17 @@
       </c>
     </row>
     <row r="440" spans="1:16">
-      <c r="A440" s="22">
+      <c r="A440" s="19">
         <v>20191018</v>
       </c>
-      <c r="B440" s="22">
+      <c r="B440" s="19">
         <v>9</v>
       </c>
-      <c r="C440" s="22">
+      <c r="C440" s="19">
         <v>8</v>
       </c>
-      <c r="D440" s="23" t="s">
-        <v>1623</v>
+      <c r="D440" s="20" t="s">
+        <v>1615</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -24806,17 +24652,17 @@
       </c>
     </row>
     <row r="441" spans="1:16">
-      <c r="A441" s="22">
+      <c r="A441" s="19">
         <v>20191021</v>
       </c>
-      <c r="B441" s="22">
+      <c r="B441" s="19">
         <v>6</v>
       </c>
-      <c r="C441" s="22">
+      <c r="C441" s="19">
         <v>6</v>
       </c>
-      <c r="D441" s="23" t="s">
-        <v>1624</v>
+      <c r="D441" s="20" t="s">
+        <v>1616</v>
       </c>
       <c r="O441">
         <v>20171122</v>
@@ -24826,17 +24672,17 @@
       </c>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="22">
+      <c r="A442" s="19">
         <v>20191022</v>
       </c>
-      <c r="B442" s="22">
+      <c r="B442" s="19">
         <v>7</v>
       </c>
-      <c r="C442" s="22">
+      <c r="C442" s="19">
         <v>5</v>
       </c>
-      <c r="D442" s="23" t="s">
-        <v>1625</v>
+      <c r="D442" s="20" t="s">
+        <v>1617</v>
       </c>
       <c r="O442">
         <v>20171123</v>
@@ -25462,32 +25308,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B423:B427">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C423:C427">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B428:B429">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C428:C429">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1703">
   <si>
     <t>date</t>
   </si>
@@ -5254,6 +5254,34 @@
   </si>
   <si>
     <t>缩量减分 低开加分 行情起步加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>5-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>6-鲁商发展-600223.SH-非实体-山东-5.0</t>
+  </si>
+  <si>
+    <t>5-古鳌科技-300551.SZ-实体-上海-9.0</t>
+  </si>
+  <si>
+    <t>4-文化长城-300089.SZ-非实体-广东-16.0</t>
+  </si>
+  <si>
+    <t>5-文化长城-300089.SZ-实体-广东-29.0</t>
+  </si>
+  <si>
+    <t>6-文化长城-300089.SZ-实体-广东-40.0</t>
+  </si>
+  <si>
+    <t>5-新湖中宝-600208.SH-实体-浙江-8.0</t>
+  </si>
+  <si>
+    <t>缩量减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6014,7 +6042,21 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6322,22 +6364,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H450" sqref="H450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22369,7 +22411,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="27">
+    <row r="341" spans="1:16" ht="28.8">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22392,7 +22434,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22415,7 +22457,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22544,7 +22586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22713,7 +22755,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24170,7 +24212,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -24806,22 +24848,19 @@
       </c>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="19">
+      <c r="A442" s="25">
         <v>20191022</v>
       </c>
-      <c r="B442" s="19">
+      <c r="B442" s="25">
         <v>7</v>
       </c>
-      <c r="C442" s="19">
+      <c r="C442" s="25">
         <v>5</v>
       </c>
-      <c r="D442" s="20" t="s">
+      <c r="D442" s="25" t="s">
         <v>1301</v>
       </c>
       <c r="G442" s="25"/>
-      <c r="H442" s="22" t="s">
-        <v>1689</v>
-      </c>
       <c r="O442">
         <v>20171123</v>
       </c>
@@ -24830,6 +24869,18 @@
       </c>
     </row>
     <row r="443" spans="1:16">
+      <c r="A443" s="25">
+        <v>20191023</v>
+      </c>
+      <c r="B443" s="25">
+        <v>8</v>
+      </c>
+      <c r="C443" s="25">
+        <v>5</v>
+      </c>
+      <c r="D443" s="25" t="s">
+        <v>1694</v>
+      </c>
       <c r="G443" s="25"/>
       <c r="O443">
         <v>20171124</v>
@@ -24839,15 +24890,17 @@
       </c>
     </row>
     <row r="444" spans="1:16">
-      <c r="E444">
-        <v>5.35</v>
-      </c>
-      <c r="F444">
-        <v>5.83</v>
-      </c>
-      <c r="G444" s="25">
-        <f t="shared" si="17"/>
-        <v>8.9719626168224398</v>
+      <c r="A444" s="25">
+        <v>20191024</v>
+      </c>
+      <c r="B444" s="25">
+        <v>11</v>
+      </c>
+      <c r="C444" s="25">
+        <v>6</v>
+      </c>
+      <c r="D444" s="25" t="s">
+        <v>1695</v>
       </c>
       <c r="O444">
         <v>20171127</v>
@@ -24857,6 +24910,21 @@
       </c>
     </row>
     <row r="445" spans="1:16">
+      <c r="A445" s="25">
+        <v>20191025</v>
+      </c>
+      <c r="B445" s="25">
+        <v>10</v>
+      </c>
+      <c r="C445" s="25">
+        <v>4</v>
+      </c>
+      <c r="D445" s="25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H445" s="21" t="s">
+        <v>1689</v>
+      </c>
       <c r="O445">
         <v>20171128</v>
       </c>
@@ -24865,6 +24933,21 @@
       </c>
     </row>
     <row r="446" spans="1:16">
+      <c r="A446" s="25">
+        <v>20191028</v>
+      </c>
+      <c r="B446" s="25">
+        <v>13</v>
+      </c>
+      <c r="C446" s="25">
+        <v>9</v>
+      </c>
+      <c r="D446" s="25" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H446" s="21" t="s">
+        <v>1702</v>
+      </c>
       <c r="O446">
         <v>20171129</v>
       </c>
@@ -24873,6 +24956,28 @@
       </c>
     </row>
     <row r="447" spans="1:16">
+      <c r="A447" s="25">
+        <v>20191029</v>
+      </c>
+      <c r="B447" s="25">
+        <v>33</v>
+      </c>
+      <c r="C447" s="25">
+        <v>16</v>
+      </c>
+      <c r="D447" s="25" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E447">
+        <v>5.35</v>
+      </c>
+      <c r="F447">
+        <v>5.83</v>
+      </c>
+      <c r="G447" s="25">
+        <f>(F447-E447)/E447*100</f>
+        <v>8.9719626168224398</v>
+      </c>
       <c r="O447">
         <v>20171130</v>
       </c>
@@ -24881,6 +24986,18 @@
       </c>
     </row>
     <row r="448" spans="1:16">
+      <c r="A448" s="25">
+        <v>20191030</v>
+      </c>
+      <c r="B448" s="25">
+        <v>14</v>
+      </c>
+      <c r="C448" s="25">
+        <v>8</v>
+      </c>
+      <c r="D448" s="25" t="s">
+        <v>1699</v>
+      </c>
       <c r="O448">
         <v>20171201</v>
       </c>
@@ -24888,7 +25005,19 @@
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="15:16">
+    <row r="449" spans="1:16">
+      <c r="A449" s="25">
+        <v>20191031</v>
+      </c>
+      <c r="B449" s="25">
+        <v>7</v>
+      </c>
+      <c r="C449" s="25">
+        <v>3</v>
+      </c>
+      <c r="D449" s="25" t="s">
+        <v>1700</v>
+      </c>
       <c r="O449">
         <v>20171204</v>
       </c>
@@ -24896,7 +25025,19 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="15:16">
+    <row r="450" spans="1:16">
+      <c r="A450" s="25">
+        <v>20191101</v>
+      </c>
+      <c r="B450" s="25">
+        <v>8</v>
+      </c>
+      <c r="C450" s="25">
+        <v>7</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1701</v>
+      </c>
       <c r="O450">
         <v>20171205</v>
       </c>
@@ -24904,7 +25045,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="15:16">
+    <row r="451" spans="1:16">
       <c r="O451">
         <v>20171206</v>
       </c>
@@ -24912,7 +25053,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="452" spans="15:16">
+    <row r="452" spans="1:16">
       <c r="O452">
         <v>20171207</v>
       </c>
@@ -24920,7 +25061,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="15:16">
+    <row r="453" spans="1:16">
       <c r="O453">
         <v>20171208</v>
       </c>
@@ -24928,7 +25069,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="15:16">
+    <row r="454" spans="1:16">
       <c r="O454">
         <v>20171211</v>
       </c>
@@ -24936,7 +25077,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="15:16">
+    <row r="455" spans="1:16">
       <c r="O455">
         <v>20171212</v>
       </c>
@@ -24944,7 +25085,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="15:16">
+    <row r="456" spans="1:16">
       <c r="O456">
         <v>20171213</v>
       </c>
@@ -24952,7 +25093,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="15:16">
+    <row r="457" spans="1:16">
       <c r="O457">
         <v>20171214</v>
       </c>
@@ -24960,7 +25101,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="15:16">
+    <row r="458" spans="1:16">
       <c r="O458">
         <v>20171215</v>
       </c>
@@ -24968,7 +25109,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="459" spans="15:16">
+    <row r="459" spans="1:16">
       <c r="O459">
         <v>20171218</v>
       </c>
@@ -24976,7 +25117,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="460" spans="15:16">
+    <row r="460" spans="1:16">
       <c r="O460">
         <v>20171219</v>
       </c>
@@ -24984,7 +25125,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="461" spans="15:16">
+    <row r="461" spans="1:16">
       <c r="O461">
         <v>20171220</v>
       </c>
@@ -24992,7 +25133,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="462" spans="15:16">
+    <row r="462" spans="1:16">
       <c r="O462">
         <v>20171221</v>
       </c>
@@ -25000,7 +25141,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="463" spans="15:16">
+    <row r="463" spans="1:16">
       <c r="O463">
         <v>20171222</v>
       </c>
@@ -25008,7 +25149,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="464" spans="15:16">
+    <row r="464" spans="1:16">
       <c r="O464">
         <v>20171225</v>
       </c>
@@ -25457,12 +25598,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25479,7 +25620,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -26965,7 +27106,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28467,7 +28608,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30413,7 +30554,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31163,7 +31304,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1706">
   <si>
     <t>date</t>
   </si>
@@ -3939,9 +3939,6 @@
     <t>6-东方中科-002819.SZ-实体-北京-36.0</t>
   </si>
   <si>
-    <t>5-金奥博-002917.SZ-实体-深圳-44.0</t>
-  </si>
-  <si>
     <t>5-宝鼎科技-002552.SZ-非实体-浙江-9.0</t>
   </si>
   <si>
@@ -4173,11 +4170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生意宝缩量减分 高开减分|山顶设计缩量减分 但是水平附件开盘加分 
-|天津普林一字放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缩量减分 高开减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4202,10 +4194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩量一字板 一字板开盘放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题股放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5228,14 +5216,6 @@
   </si>
   <si>
     <t>缩量减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前龙吃面放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩量减分 一字板未破放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5281,7 +5261,40 @@
     <t>5-新湖中宝-600208.SH-实体-浙江-8.0</t>
   </si>
   <si>
-    <t>缩量减分</t>
+    <t>前龙孤傲科技大面 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">涨停价开盘放弃 缩量减分 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一字板未破放弃 缩量减分 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-金奥博-002917.SZ-实体-深圳-44.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意宝缩量减分 高开减分|山顶设计缩量减分 但是水平附件开盘加分 
+|天津普林一字板放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙惠威科技吃大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6042,21 +6055,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -6364,22 +6363,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H450" sqref="H450"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -6709,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I6" t="s">
         <v>1016</v>
@@ -6760,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="I7" t="s">
         <v>1017</v>
@@ -6817,7 +6816,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="E8">
         <v>14.45</v>
@@ -6888,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E9">
         <v>40.479999999999997</v>
@@ -6959,7 +6958,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="I10" t="s">
         <v>1018</v>
@@ -7026,7 +7025,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E11">
         <v>4.95</v>
@@ -7097,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="I12" t="s">
         <v>986</v>
@@ -7164,7 +7163,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E13">
         <v>36.93</v>
@@ -7235,7 +7234,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E14">
         <v>9.93</v>
@@ -7306,7 +7305,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="I15" t="s">
         <v>459</v>
@@ -7347,7 +7346,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I16" t="s">
         <v>1020</v>
@@ -7398,7 +7397,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E17">
         <v>26</v>
@@ -7449,7 +7448,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I18" t="s">
         <v>1021</v>
@@ -7510,7 +7509,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I19" t="s">
         <v>1022</v>
@@ -7561,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E20">
         <v>11.87</v>
@@ -7632,7 +7631,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E21">
         <v>7.18</v>
@@ -7683,7 +7682,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E22">
         <v>8.8699999999999992</v>
@@ -7744,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I23" t="s">
         <v>1025</v>
@@ -7795,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I24" t="s">
         <v>1026</v>
@@ -7846,7 +7845,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E25">
         <v>15.27</v>
@@ -7903,7 +7902,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I26" t="s">
         <v>1016</v>
@@ -7964,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8021,7 +8020,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -8062,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I29" t="s">
         <v>1027</v>
@@ -8113,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I30" t="s">
         <v>1028</v>
@@ -8164,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E31">
         <v>3.6</v>
@@ -8225,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I32" t="s">
         <v>1029</v>
@@ -8282,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I33" t="s">
         <v>1030</v>
@@ -8323,7 +8322,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -8386,7 +8385,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I35" t="s">
         <v>1031</v>
@@ -8453,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I36" t="s">
         <v>1032</v>
@@ -8510,7 +8509,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I37" t="s">
         <v>1033</v>
@@ -8551,7 +8550,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I38" t="s">
         <v>1034</v>
@@ -8612,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I39" t="s">
         <v>1035</v>
@@ -8663,7 +8662,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I40" t="s">
         <v>1036</v>
@@ -8704,7 +8703,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="E41">
         <v>15.3</v>
@@ -8771,7 +8770,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -8822,7 +8821,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I43" t="s">
         <v>1037</v>
@@ -8873,7 +8872,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E44">
         <v>12.11</v>
@@ -8944,7 +8943,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E45">
         <v>15.6</v>
@@ -9011,7 +9010,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I46" t="s">
         <v>1039</v>
@@ -9052,7 +9051,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E47">
         <v>79.77</v>
@@ -9113,7 +9112,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I48" t="s">
         <v>1041</v>
@@ -9170,7 +9169,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E49">
         <v>7.48</v>
@@ -9231,7 +9230,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E50">
         <v>10.34</v>
@@ -9298,7 +9297,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E51">
         <v>18.04</v>
@@ -9355,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9416,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I53" t="s">
         <v>1045</v>
@@ -9457,7 +9456,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -9508,7 +9507,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9559,7 +9558,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I56" t="s">
         <v>1046</v>
@@ -9606,7 +9605,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E57">
         <v>18.75</v>
@@ -9657,7 +9656,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I58" t="s">
         <v>1048</v>
@@ -9708,7 +9707,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I59" t="s">
         <v>1049</v>
@@ -9759,7 +9758,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I60" t="s">
         <v>1050</v>
@@ -9810,7 +9809,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I61" t="s">
         <v>1051</v>
@@ -9871,7 +9870,7 @@
         <v>10</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="E62">
         <v>35.9</v>
@@ -9922,7 +9921,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E63">
         <v>56.45</v>
@@ -9983,7 +9982,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I64" t="s">
         <v>1053</v>
@@ -10024,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I65" t="s">
         <v>1054</v>
@@ -10075,7 +10074,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E66">
         <v>45</v>
@@ -10126,7 +10125,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I67" t="s">
         <v>1056</v>
@@ -10177,7 +10176,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I68" t="s">
         <v>1057</v>
@@ -10228,7 +10227,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E69">
         <v>51</v>
@@ -10279,7 +10278,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E70">
         <v>40.18</v>
@@ -10340,7 +10339,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E71">
         <v>71</v>
@@ -10353,7 +10352,7 @@
         <v>-12.676056338028168</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>1688</v>
+        <v>1705</v>
       </c>
       <c r="I71" t="s">
         <v>1058</v>
@@ -10394,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -10445,7 +10444,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I73" t="s">
         <v>1059</v>
@@ -10506,7 +10505,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E74">
         <v>42.29</v>
@@ -10567,7 +10566,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I75" t="s">
         <v>1061</v>
@@ -10614,7 +10613,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I76" t="s">
         <v>1062</v>
@@ -10655,7 +10654,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I77" t="s">
         <v>1063</v>
@@ -10706,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="I78" t="s">
         <v>1064</v>
@@ -10757,7 +10756,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I79" t="s">
         <v>1065</v>
@@ -10808,7 +10807,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E80">
         <v>6.5</v>
@@ -10821,7 +10820,7 @@
         <v>-11.538461538461538</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="I80" t="s">
         <v>1066</v>
@@ -10868,7 +10867,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E81">
         <v>22.88</v>
@@ -10881,7 +10880,7 @@
         <v>-18.269230769230766</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -10928,7 +10927,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I82" t="s">
         <v>1067</v>
@@ -10979,7 +10978,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E83">
         <v>19.02</v>
@@ -11040,7 +11039,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I84" t="s">
         <v>1068</v>
@@ -11087,7 +11086,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -11138,7 +11137,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I86" t="s">
         <v>1069</v>
@@ -11189,7 +11188,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -11240,7 +11239,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E88">
         <v>15.11</v>
@@ -11291,7 +11290,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E89">
         <v>32.770000000000003</v>
@@ -11304,7 +11303,7 @@
         <v>-21.269453768690884</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="I89" t="s">
         <v>1071</v>
@@ -11355,7 +11354,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="I90" t="s">
         <v>1072</v>
@@ -11396,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="I91" t="s">
         <v>1073</v>
@@ -11437,7 +11436,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="I92" t="s">
         <v>1074</v>
@@ -11488,7 +11487,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E93">
         <v>45.88</v>
@@ -11549,7 +11548,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E94">
         <v>50</v>
@@ -11620,7 +11619,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="I95" t="s">
         <v>1076</v>
@@ -11681,7 +11680,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="I96" t="s">
         <v>1077</v>
@@ -11732,7 +11731,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="I97" t="s">
         <v>1078</v>
@@ -11783,7 +11782,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="I98" t="s">
         <v>1079</v>
@@ -11834,7 +11833,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E99">
         <v>32.549999999999997</v>
@@ -11911,7 +11910,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E100">
         <v>22.79</v>
@@ -11972,7 +11971,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -12023,7 +12022,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -12074,7 +12073,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -12115,7 +12114,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="I104" t="s">
         <v>1082</v>
@@ -12166,7 +12165,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -12217,7 +12216,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -12268,7 +12267,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="E107">
         <v>14.38</v>
@@ -12329,7 +12328,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E108">
         <v>16.8</v>
@@ -12390,7 +12389,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="I109" t="s">
         <v>1084</v>
@@ -12451,7 +12450,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I110" t="s">
         <v>1085</v>
@@ -12492,7 +12491,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -12549,7 +12548,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -12610,7 +12609,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E113">
         <v>14.31</v>
@@ -12677,7 +12676,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E114">
         <v>12.73</v>
@@ -12690,7 +12689,7 @@
         <v>-12.018853102906528</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="I114" t="s">
         <v>1086</v>
@@ -12741,7 +12740,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -12792,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -12833,7 +12832,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="I117" t="s">
         <v>1087</v>
@@ -12884,7 +12883,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -12941,7 +12940,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I119" t="s">
         <v>1088</v>
@@ -12998,7 +12997,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -13049,7 +13048,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -13100,7 +13099,7 @@
         <v>10</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E122">
         <v>11.63</v>
@@ -13157,7 +13156,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I123" t="s">
         <v>1089</v>
@@ -13208,7 +13207,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="I124" t="s">
         <v>1090</v>
@@ -13255,7 +13254,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -13306,7 +13305,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E126">
         <v>10</v>
@@ -13357,7 +13356,7 @@
         <v>10</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="I127" t="s">
         <v>1092</v>
@@ -13414,7 +13413,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -13465,7 +13464,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -13522,7 +13521,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E130">
         <v>78</v>
@@ -13535,7 +13534,7 @@
         <v>-12.179487179487179</v>
       </c>
       <c r="H130" s="22" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="I130" t="s">
         <v>1093</v>
@@ -13592,7 +13591,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I131" t="s">
         <v>1094</v>
@@ -13665,7 +13664,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E132">
         <v>10.37</v>
@@ -13722,7 +13721,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="I133" t="s">
         <v>1096</v>
@@ -13773,7 +13772,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="I134" t="s">
         <v>1097</v>
@@ -13824,7 +13823,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E135">
         <v>8.8000000000000007</v>
@@ -13891,7 +13890,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="I136" t="s">
         <v>1099</v>
@@ -13948,7 +13947,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="I137" t="s">
         <v>1100</v>
@@ -13999,7 +13998,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -14060,7 +14059,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E139">
         <v>4.4800000000000004</v>
@@ -14127,7 +14126,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="I140" t="s">
         <v>1101</v>
@@ -14184,7 +14183,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="I141" t="s">
         <v>1102</v>
@@ -14235,7 +14234,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="I142" t="s">
         <v>1103</v>
@@ -14292,7 +14291,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -14349,7 +14348,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E144">
         <v>6.39</v>
@@ -14426,7 +14425,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E145">
         <v>5.23</v>
@@ -14503,7 +14502,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I146" t="s">
         <v>1105</v>
@@ -14554,7 +14553,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="I147" t="s">
         <v>1106</v>
@@ -14615,7 +14614,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -14676,7 +14675,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -14737,7 +14736,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -14788,7 +14787,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E151">
         <v>11.6</v>
@@ -14801,7 +14800,7 @@
         <v>7.7586206896551753</v>
       </c>
       <c r="H151" s="22" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="I151" t="s">
         <v>1107</v>
@@ -14848,7 +14847,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14889,7 +14888,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="I153" t="s">
         <v>1108</v>
@@ -14940,7 +14939,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14981,7 +14980,7 @@
         <v>7</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="I155" t="s">
         <v>995</v>
@@ -15032,7 +15031,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -15093,7 +15092,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -15154,7 +15153,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -15205,7 +15204,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -15262,7 +15261,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15313,7 +15312,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="I161" t="s">
         <v>1109</v>
@@ -15364,7 +15363,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15421,7 +15420,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15462,7 +15461,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15519,7 +15518,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="I165" t="s">
         <v>1110</v>
@@ -15580,7 +15579,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15637,7 +15636,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15688,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15729,7 +15728,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15780,7 +15779,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E170">
         <v>6.74</v>
@@ -15841,10 +15840,10 @@
         <v>11</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H171" s="22" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="I171" t="s">
         <v>1051</v>
@@ -15895,7 +15894,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E172">
         <v>7.91</v>
@@ -15908,7 +15907,7 @@
         <v>7.2060682680151738</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="I172" t="s">
         <v>1111</v>
@@ -15959,7 +15958,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E173">
         <v>10.050000000000001</v>
@@ -15972,7 +15971,7 @@
         <v>3.4825870646766131</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="I173" t="s">
         <v>1112</v>
@@ -16023,7 +16022,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="I174" t="s">
         <v>1113</v>
@@ -16080,7 +16079,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16143,7 +16142,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16194,7 +16193,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16255,7 +16254,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="I178" t="s">
         <v>1055</v>
@@ -16306,7 +16305,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16373,7 +16372,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="I180" t="s">
         <v>1114</v>
@@ -16430,7 +16429,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I181" t="s">
         <v>1115</v>
@@ -16471,10 +16470,10 @@
         <v>11</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16525,7 +16524,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E183">
         <v>8.81</v>
@@ -16538,7 +16537,7 @@
         <v>-11.464245175936442</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16579,7 +16578,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="I184" t="s">
         <v>1116</v>
@@ -16636,7 +16635,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E185">
         <v>9.35</v>
@@ -16698,10 +16697,10 @@
         <v>7</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H186" s="21" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -16752,7 +16751,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="I187" t="s">
         <v>1117</v>
@@ -16803,7 +16802,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I188" t="s">
         <v>1118</v>
@@ -16854,7 +16853,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E189">
         <v>44.44</v>
@@ -16867,7 +16866,7 @@
         <v>7.9657965796579644</v>
       </c>
       <c r="H189" s="22" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -16934,7 +16933,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -16985,7 +16984,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17036,7 +17035,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17087,7 +17086,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -17138,7 +17137,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="I194" t="s">
         <v>1119</v>
@@ -17191,10 +17190,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H195" s="21" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17255,7 +17254,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="I196" t="s">
         <v>1120</v>
@@ -17306,7 +17305,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -17363,7 +17362,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="E198">
         <v>30.77</v>
@@ -17424,7 +17423,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="I199" t="s">
         <v>1122</v>
@@ -17475,7 +17474,7 @@
         <v>26</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -17526,7 +17525,7 @@
         <v>13</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -17587,7 +17586,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E202">
         <v>4.3</v>
@@ -17600,7 +17599,7 @@
         <v>83.72093023255816</v>
       </c>
       <c r="H202" s="22" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="I202" t="s">
         <v>1123</v>
@@ -17647,7 +17646,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -17704,7 +17703,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -17755,7 +17754,7 @@
         <v>10</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I205" t="s">
         <v>1124</v>
@@ -17806,7 +17805,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E206">
         <v>24</v>
@@ -17857,7 +17856,7 @@
         <v>12</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E207">
         <v>6.99</v>
@@ -17870,7 +17869,7 @@
         <v>-8.1545064377682444</v>
       </c>
       <c r="H207" s="22" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="I207" t="s">
         <v>1126</v>
@@ -17911,7 +17910,7 @@
         <v>16</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E208">
         <v>5.57</v>
@@ -17968,7 +17967,7 @@
         <v>16</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="G209" s="25"/>
       <c r="I209">
@@ -18010,7 +18009,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="G210" s="25"/>
       <c r="I210" t="s">
@@ -18062,7 +18061,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="G211" s="25"/>
       <c r="I211">
@@ -18104,7 +18103,7 @@
         <v>13</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E212">
         <v>7.38</v>
@@ -18117,7 +18116,7 @@
         <v>32.791327913279147</v>
       </c>
       <c r="H212" s="22" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -18164,7 +18163,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -18211,7 +18210,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -18252,7 +18251,7 @@
         <v>30</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="I215" t="s">
         <v>1128</v>
@@ -18303,7 +18302,7 @@
         <v>19</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E216">
         <v>9.32</v>
@@ -18364,7 +18363,7 @@
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="I217" t="s">
         <v>1129</v>
@@ -18415,7 +18414,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E218">
         <v>10.53</v>
@@ -18466,7 +18465,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="I219" t="s">
         <v>1131</v>
@@ -18507,7 +18506,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -18548,7 +18547,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="I221" t="s">
         <v>1132</v>
@@ -18589,7 +18588,7 @@
         <v>10</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="H222" s="21" t="s">
         <v>1206</v>
@@ -18633,10 +18632,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H223" s="22" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -18677,7 +18676,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -18718,7 +18717,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -18759,7 +18758,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -18800,7 +18799,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -18841,7 +18840,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -18888,7 +18887,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E229">
         <v>5.9</v>
@@ -18939,7 +18938,7 @@
         <v>16</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -18980,7 +18979,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E231">
         <v>24.9</v>
@@ -18993,7 +18992,7 @@
         <v>-1.5261044176706788</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -19044,7 +19043,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -19085,7 +19084,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -19126,7 +19125,7 @@
         <v>2</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -19167,7 +19166,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -19208,7 +19207,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -19249,7 +19248,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -19290,7 +19289,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -19331,7 +19330,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -19372,7 +19371,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -19413,7 +19412,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -19454,7 +19453,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -19501,7 +19500,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -19542,7 +19541,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -19583,10 +19582,10 @@
         <v>15</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="H245" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I245" t="s">
         <v>1135</v>
@@ -19627,7 +19626,7 @@
         <v>7</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E246">
         <v>10.1</v>
@@ -19640,7 +19639,7 @@
         <v>14.554455445544562</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="I246" t="s">
         <v>1136</v>
@@ -19669,7 +19668,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="I247" t="s">
         <v>1137</v>
@@ -19692,7 +19691,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="I248" t="s">
         <v>1138</v>
@@ -19715,7 +19714,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="I249" t="s">
         <v>1139</v>
@@ -19738,7 +19737,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E250">
         <v>4.8499999999999996</v>
@@ -19751,7 +19750,7 @@
         <v>44.329896907216501</v>
       </c>
       <c r="H250" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I250" t="s">
         <v>1140</v>
@@ -19774,7 +19773,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="I251" t="s">
         <v>1141</v>
@@ -19797,7 +19796,7 @@
         <v>19</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="I252" t="s">
         <v>1142</v>
@@ -19820,7 +19819,7 @@
         <v>16</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="I253" t="s">
         <v>1143</v>
@@ -19843,7 +19842,7 @@
         <v>15</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="I254" t="s">
         <v>1144</v>
@@ -19866,7 +19865,7 @@
         <v>13</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="I255" t="s">
         <v>1145</v>
@@ -19889,10 +19888,10 @@
         <v>16</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H256" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I256" t="s">
         <v>1146</v>
@@ -19915,7 +19914,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E257">
         <v>27.85</v>
@@ -19928,7 +19927,7 @@
         <v>3.087971274685815</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I257" t="s">
         <v>1147</v>
@@ -19951,7 +19950,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="I258" t="s">
         <v>1148</v>
@@ -19974,7 +19973,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="I259" t="s">
         <v>1149</v>
@@ -19997,7 +19996,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="I260" t="s">
         <v>1150</v>
@@ -20020,7 +20019,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E261">
         <v>6.23</v>
@@ -20053,10 +20052,10 @@
         <v>8</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="H262" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -20079,7 +20078,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="I263" t="s">
         <v>1151</v>
@@ -20102,7 +20101,7 @@
         <v>9</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="I264" t="s">
         <v>1152</v>
@@ -20125,7 +20124,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="I265" t="s">
         <v>1153</v>
@@ -20148,7 +20147,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E266">
         <v>8.1999999999999993</v>
@@ -20161,7 +20160,7 @@
         <v>-6.0975609756097455</v>
       </c>
       <c r="H266" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I266" t="s">
         <v>1154</v>
@@ -20184,7 +20183,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -20207,7 +20206,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="I268" t="s">
         <v>1155</v>
@@ -20230,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -20253,7 +20252,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -20276,7 +20275,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="I271" t="s">
         <v>1156</v>
@@ -20299,10 +20298,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="I272" t="s">
         <v>1157</v>
@@ -20342,7 +20341,7 @@
         <v>16</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="I273" t="s">
         <v>1158</v>
@@ -20381,7 +20380,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -20420,7 +20419,7 @@
         <v>15</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="I275" t="s">
         <v>1160</v>
@@ -20443,7 +20442,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I276" t="s">
         <v>1161</v>
@@ -20482,7 +20481,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I277" t="s">
         <v>1162</v>
@@ -20505,7 +20504,7 @@
         <v>21</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="I278" t="s">
         <v>1163</v>
@@ -20528,7 +20527,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="I279" t="s">
         <v>1164</v>
@@ -20567,7 +20566,7 @@
         <v>17</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I280" t="s">
         <v>1165</v>
@@ -20590,7 +20589,7 @@
         <v>28</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -20603,7 +20602,7 @@
         <v>17.142857142857132</v>
       </c>
       <c r="H281" s="22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I281" t="s">
         <v>1166</v>
@@ -20632,7 +20631,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="I282" t="s">
         <v>1167</v>
@@ -20655,7 +20654,7 @@
         <v>37</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E283">
         <v>13.39</v>
@@ -20668,7 +20667,7 @@
         <v>12.023898431665417</v>
       </c>
       <c r="H283" s="21" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I283" t="s">
         <v>1168</v>
@@ -20697,7 +20696,7 @@
         <v>15</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="I284" t="s">
         <v>1169</v>
@@ -20736,7 +20735,7 @@
         <v>7</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E285">
         <v>7.06</v>
@@ -20749,7 +20748,7 @@
         <v>83.852691218130332</v>
       </c>
       <c r="H285" s="22" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I285" t="s">
         <v>1170</v>
@@ -20778,7 +20777,7 @@
         <v>7</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="E286">
         <v>14.84</v>
@@ -20791,7 +20790,7 @@
         <v>52.762803234501362</v>
       </c>
       <c r="H286" s="22" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I286" t="s">
         <v>1171</v>
@@ -20820,7 +20819,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="I287" t="s">
         <v>1172</v>
@@ -20843,7 +20842,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="I288" t="s">
         <v>987</v>
@@ -20866,7 +20865,7 @@
         <v>60</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="I289" t="s">
         <v>988</v>
@@ -20889,7 +20888,7 @@
         <v>79</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="I290" t="s">
         <v>989</v>
@@ -20912,7 +20911,7 @@
         <v>31</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="I291" t="s">
         <v>990</v>
@@ -20935,7 +20934,7 @@
         <v>19</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="E292">
         <v>16</v>
@@ -20948,7 +20947,7 @@
         <v>9.5625000000000071</v>
       </c>
       <c r="H292" s="22" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I292" t="s">
         <v>991</v>
@@ -20977,7 +20976,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E293">
         <v>8</v>
@@ -20990,7 +20989,7 @@
         <v>-4.5000000000000036</v>
       </c>
       <c r="H293" s="21" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I293" t="s">
         <v>1173</v>
@@ -21019,7 +21018,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="I294" t="s">
         <v>1174</v>
@@ -21042,7 +21041,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E295">
         <v>16</v>
@@ -21055,7 +21054,7 @@
         <v>13.749999999999996</v>
       </c>
       <c r="H295" s="22" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I295" t="s">
         <v>992</v>
@@ -21084,7 +21083,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="I296" t="s">
         <v>993</v>
@@ -21123,7 +21122,7 @@
         <v>10</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E297">
         <v>8.3800000000000008</v>
@@ -21136,7 +21135,7 @@
         <v>2.1479713603818578</v>
       </c>
       <c r="H297" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I297" t="s">
         <v>994</v>
@@ -21165,7 +21164,7 @@
         <v>19</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E298">
         <v>14.02</v>
@@ -21204,7 +21203,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="I299" t="s">
         <v>996</v>
@@ -21227,7 +21226,7 @@
         <v>23</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E300">
         <v>10.64</v>
@@ -21240,7 +21239,7 @@
         <v>5.26315789473683</v>
       </c>
       <c r="H300" s="21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I300" t="s">
         <v>997</v>
@@ -21269,7 +21268,7 @@
         <v>24</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="I301" t="s">
         <v>998</v>
@@ -21308,7 +21307,7 @@
         <v>24</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E302">
         <v>18.88</v>
@@ -21321,7 +21320,7 @@
         <v>10.169491525423737</v>
       </c>
       <c r="H302" s="22" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I302" t="s">
         <v>999</v>
@@ -21350,7 +21349,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E303">
         <v>14.04</v>
@@ -21363,7 +21362,7 @@
         <v>18.945868945868948</v>
       </c>
       <c r="H303" s="22" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I303" t="s">
         <v>1000</v>
@@ -21392,7 +21391,7 @@
         <v>18</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="I304" t="s">
         <v>1001</v>
@@ -21415,7 +21414,7 @@
         <v>10</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="I305" t="s">
         <v>1002</v>
@@ -21448,7 +21447,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="I306" t="s">
         <v>1003</v>
@@ -21481,7 +21480,7 @@
         <v>28</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="E307">
         <v>18.940000000000001</v>
@@ -21494,7 +21493,7 @@
         <v>2.4287222808869973</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I307" t="s">
         <v>1004</v>
@@ -21523,7 +21522,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E308">
         <v>16.7</v>
@@ -21536,7 +21535,7 @@
         <v>-3.8922155688622673</v>
       </c>
       <c r="H308" s="21" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I308" t="s">
         <v>1005</v>
@@ -21565,7 +21564,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="E309">
         <v>7.44</v>
@@ -21578,7 +21577,7 @@
         <v>7.5268817204301026</v>
       </c>
       <c r="H309" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I309" t="s">
         <v>1006</v>
@@ -21607,7 +21606,7 @@
         <v>26</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="I310" t="s">
         <v>1007</v>
@@ -21646,7 +21645,7 @@
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E311">
         <v>11.6</v>
@@ -21659,7 +21658,7 @@
         <v>-3.4482758620689689</v>
       </c>
       <c r="H311" s="21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I311" t="s">
         <v>1008</v>
@@ -21688,7 +21687,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="I312" t="s">
         <v>1009</v>
@@ -21711,7 +21710,7 @@
         <v>19</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E313">
         <v>8.1999999999999993</v>
@@ -21724,7 +21723,7 @@
         <v>-2.4390243902438939</v>
       </c>
       <c r="H313" s="21" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I313" t="s">
         <v>1010</v>
@@ -21753,7 +21752,7 @@
         <v>14</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="H314" s="21" t="s">
         <v>1206</v>
@@ -21779,7 +21778,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="O315">
         <v>20170519</v>
@@ -21799,7 +21798,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="O316">
         <v>20170522</v>
@@ -21819,7 +21818,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E317">
         <v>17.07</v>
@@ -21832,7 +21831,7 @@
         <v>10.134739308728765</v>
       </c>
       <c r="H317" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O317">
         <v>20170523</v>
@@ -21852,7 +21851,7 @@
         <v>26</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="O318">
         <v>20170524</v>
@@ -21872,7 +21871,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E319">
         <v>20.55</v>
@@ -21885,7 +21884,7 @@
         <v>12.408759124087593</v>
       </c>
       <c r="H319" s="21" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O319">
         <v>20170525</v>
@@ -21905,7 +21904,7 @@
         <v>18</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E320">
         <v>13.15</v>
@@ -21918,7 +21917,7 @@
         <v>10.114068441064639</v>
       </c>
       <c r="H320" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O320">
         <v>20170526</v>
@@ -21961,7 +21960,7 @@
         <v>1176</v>
       </c>
       <c r="H322" s="21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="O322">
         <v>20170601</v>
@@ -22084,7 +22083,7 @@
         <v>1182</v>
       </c>
       <c r="H328" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="O328">
         <v>20170609</v>
@@ -22117,7 +22116,7 @@
         <v>2.6622296173044946</v>
       </c>
       <c r="H329" s="22" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="O329">
         <v>20170612</v>
@@ -22200,7 +22199,7 @@
         <v>3.0303030303030365</v>
       </c>
       <c r="H332" s="21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O332">
         <v>20170615</v>
@@ -22223,7 +22222,7 @@
         <v>1187</v>
       </c>
       <c r="H333" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O333">
         <v>20170616</v>
@@ -22306,7 +22305,7 @@
         <v>10.140093395597074</v>
       </c>
       <c r="H336" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O336">
         <v>20170621</v>
@@ -22349,7 +22348,7 @@
         <v>1192</v>
       </c>
       <c r="H338" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O338">
         <v>20170623</v>
@@ -22402,7 +22401,7 @@
         <v>-12.704918032786889</v>
       </c>
       <c r="H340" s="21" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="O340">
         <v>20170627</v>
@@ -22411,7 +22410,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="28.8">
+    <row r="341" spans="1:16" ht="27">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22425,7 +22424,7 @@
         <v>1259</v>
       </c>
       <c r="H341" s="23" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22434,7 +22433,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22448,7 +22447,7 @@
         <v>1194</v>
       </c>
       <c r="H342" s="23" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -22457,7 +22456,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22471,7 +22470,7 @@
         <v>1195</v>
       </c>
       <c r="H343" s="23" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O343">
         <v>20170630</v>
@@ -22524,7 +22523,7 @@
         <v>-3.7565973300217346</v>
       </c>
       <c r="H345" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="O345">
         <v>20170704</v>
@@ -22557,7 +22556,7 @@
         <v>9.0014064697608944</v>
       </c>
       <c r="H346" s="22" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O346">
         <v>20170705</v>
@@ -22586,7 +22585,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22600,7 +22599,7 @@
         <v>1200</v>
       </c>
       <c r="H348" s="23" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O348">
         <v>20170707</v>
@@ -22633,7 +22632,7 @@
         <v>1.0356150543066343</v>
       </c>
       <c r="H349" s="22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="O349">
         <v>20170710</v>
@@ -22686,7 +22685,7 @@
         <v>33.140283140283152</v>
       </c>
       <c r="H351" s="22" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O351">
         <v>20170712</v>
@@ -22755,7 +22754,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -22769,7 +22768,7 @@
         <v>1209</v>
       </c>
       <c r="H355" s="23" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O355">
         <v>20170718</v>
@@ -22862,7 +22861,7 @@
         <v>12.903225806451612</v>
       </c>
       <c r="H359" s="22" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="O359">
         <v>20170724</v>
@@ -22907,7 +22906,7 @@
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="O361">
         <v>20170726</v>
@@ -22931,7 +22930,7 @@
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -22955,7 +22954,7 @@
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>1244</v>
@@ -22982,7 +22981,7 @@
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O364">
         <v>20170731</v>
@@ -23006,7 +23005,7 @@
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="21" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="O365">
         <v>20170801</v>
@@ -23030,7 +23029,7 @@
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="21" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O366">
         <v>20170802</v>
@@ -23054,7 +23053,7 @@
       </c>
       <c r="G367" s="4"/>
       <c r="H367" s="21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="O367">
         <v>20170803</v>
@@ -23078,7 +23077,7 @@
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="21" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O368">
         <v>20170804</v>
@@ -23300,7 +23299,7 @@
         <v>9.3939393939393963</v>
       </c>
       <c r="H378" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="O378">
         <v>20170818</v>
@@ -23345,7 +23344,7 @@
       </c>
       <c r="G380" s="6"/>
       <c r="H380" s="21" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="O380">
         <v>20170822</v>
@@ -23432,7 +23431,7 @@
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23456,7 +23455,7 @@
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="21" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -23573,7 +23572,7 @@
         <v>14.057507987220447</v>
       </c>
       <c r="H390" s="22" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O390">
         <v>20170905</v>
@@ -23593,7 +23592,7 @@
         <v>4</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E391">
         <v>8.99</v>
@@ -23606,7 +23605,7 @@
         <v>-1.0011123470522787</v>
       </c>
       <c r="H391" s="21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O391">
         <v>20170906</v>
@@ -23626,11 +23625,11 @@
         <v>6</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G392" s="13"/>
       <c r="H392" s="21" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="O392">
         <v>20170907</v>
@@ -23663,7 +23662,7 @@
         <v>4.8412698412698365</v>
       </c>
       <c r="H393" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O393">
         <v>20170908</v>
@@ -23717,7 +23716,7 @@
         <v>-4.1424169804861375</v>
       </c>
       <c r="H395" s="22" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O395">
         <v>20170912</v>
@@ -23876,7 +23875,7 @@
         <v>-7.1005917159763277</v>
       </c>
       <c r="H402" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -23921,7 +23920,7 @@
       </c>
       <c r="G404" s="13"/>
       <c r="H404" s="22" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="O404">
         <v>20170925</v>
@@ -23978,7 +23977,7 @@
       </c>
       <c r="G406" s="13"/>
       <c r="H406" s="22" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="O406">
         <v>20170927</v>
@@ -24107,7 +24106,7 @@
         <v>14.754098360655757</v>
       </c>
       <c r="H411" s="22" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="O411">
         <v>20171011</v>
@@ -24182,7 +24181,7 @@
         <v>3.8602941176470575</v>
       </c>
       <c r="H414" s="22" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O414">
         <v>20171016</v>
@@ -24212,7 +24211,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -24236,7 +24235,7 @@
         <v>-5.0984188447886361</v>
       </c>
       <c r="H416" s="24" t="s">
-        <v>1345</v>
+        <v>1704</v>
       </c>
       <c r="O416">
         <v>20171018</v>
@@ -24287,7 +24286,7 @@
       </c>
       <c r="G418" s="13"/>
       <c r="H418" s="21" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="O418">
         <v>20171020</v>
@@ -24320,7 +24319,7 @@
         <v>12.888888888888891</v>
       </c>
       <c r="H419" s="21" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="O419">
         <v>20171023</v>
@@ -24350,7 +24349,7 @@
       </c>
       <c r="G420" s="13"/>
       <c r="H420" s="21" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="O420">
         <v>20171024</v>
@@ -24379,7 +24378,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24429,11 +24428,11 @@
         <v>36.89</v>
       </c>
       <c r="G423" s="13">
-        <f t="shared" ref="G423:G444" si="17">(F423-E423)/E423*100</f>
+        <f t="shared" ref="G423:G427" si="17">(F423-E423)/E423*100</f>
         <v>28.940929744844464</v>
       </c>
       <c r="H423" s="22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="O423">
         <v>20171027</v>
@@ -24494,12 +24493,12 @@
       <c r="C426" s="13">
         <v>10</v>
       </c>
-      <c r="D426" s="13" t="s">
-        <v>1283</v>
+      <c r="D426" s="25" t="s">
+        <v>1703</v>
       </c>
       <c r="G426" s="16"/>
       <c r="H426" s="22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24519,7 +24518,7 @@
         <v>10</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E427">
         <v>16</v>
@@ -24532,7 +24531,7 @@
         <v>68.5</v>
       </c>
       <c r="H427" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="O427">
         <v>20171102</v>
@@ -24552,7 +24551,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G428" s="25"/>
       <c r="O428">
@@ -24573,7 +24572,7 @@
         <v>7</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G429" s="25"/>
       <c r="O429">
@@ -24594,11 +24593,11 @@
         <v>5</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G430" s="25"/>
       <c r="H430" s="21" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -24618,7 +24617,7 @@
         <v>5</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G431" s="25"/>
       <c r="O431">
@@ -24639,7 +24638,7 @@
         <v>7</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G432" s="25"/>
       <c r="O432">
@@ -24660,7 +24659,7 @@
         <v>7</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G433" s="25"/>
       <c r="O433">
@@ -24681,9 +24680,12 @@
         <v>8</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G434" s="25"/>
+      <c r="H434" s="21" t="s">
+        <v>1699</v>
+      </c>
       <c r="O434">
         <v>20171113</v>
       </c>
@@ -24702,12 +24704,9 @@
         <v>8</v>
       </c>
       <c r="D435" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G435" s="25"/>
-      <c r="H435" s="21" t="s">
-        <v>1320</v>
-      </c>
       <c r="O435">
         <v>20171114</v>
       </c>
@@ -24726,9 +24725,12 @@
         <v>16</v>
       </c>
       <c r="D436" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G436" s="25"/>
+      <c r="H436" s="21" t="s">
+        <v>1319</v>
+      </c>
       <c r="O436">
         <v>20171115</v>
       </c>
@@ -24747,11 +24749,11 @@
         <v>11</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G437" s="25"/>
       <c r="H437" s="21" t="s">
-        <v>1352</v>
+        <v>1700</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -24771,7 +24773,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G438" s="25"/>
       <c r="O438">
@@ -24792,7 +24794,7 @@
         <v>3</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G439" s="25"/>
       <c r="O439">
@@ -24813,11 +24815,11 @@
         <v>8</v>
       </c>
       <c r="D440" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G440" s="25"/>
       <c r="H440" s="21" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -24837,7 +24839,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G441" s="25"/>
       <c r="O441">
@@ -24858,7 +24860,7 @@
         <v>5</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G442" s="25"/>
       <c r="O442">
@@ -24879,7 +24881,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="G443" s="25"/>
       <c r="O443">
@@ -24900,7 +24902,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="O444">
         <v>20171127</v>
@@ -24920,10 +24922,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="H445" s="21" t="s">
-        <v>1689</v>
+        <v>1701</v>
       </c>
       <c r="O445">
         <v>20171128</v>
@@ -24943,10 +24945,10 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="H446" s="21" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="O446">
         <v>20171129</v>
@@ -24966,17 +24968,10 @@
         <v>16</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E447">
-        <v>5.35</v>
-      </c>
-      <c r="F447">
-        <v>5.83</v>
-      </c>
-      <c r="G447" s="25">
-        <f>(F447-E447)/E447*100</f>
-        <v>8.9719626168224398</v>
+        <v>1693</v>
+      </c>
+      <c r="H447" s="21" t="s">
+        <v>1697</v>
       </c>
       <c r="O447">
         <v>20171130</v>
@@ -24996,7 +24991,20 @@
         <v>8</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1699</v>
+        <v>1694</v>
+      </c>
+      <c r="E448">
+        <v>5.35</v>
+      </c>
+      <c r="F448">
+        <v>5.83</v>
+      </c>
+      <c r="G448" s="25">
+        <f>(F448-E448)/E448*100</f>
+        <v>8.9719626168224398</v>
+      </c>
+      <c r="H448" s="22" t="s">
+        <v>1702</v>
       </c>
       <c r="O448">
         <v>20171201</v>
@@ -25016,7 +25024,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="O449">
         <v>20171204</v>
@@ -25036,7 +25044,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="O450">
         <v>20171205</v>
@@ -25620,7 +25628,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27106,7 +27114,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28608,7 +28616,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30554,7 +30562,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31304,7 +31312,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1721">
   <si>
     <t>date</t>
   </si>
@@ -3642,10 +3642,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续3个一字以上 未破板 不买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3999,10 +3995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前个龙头国风锁业大面泛起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放量加分 低开加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4035,10 +4027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩量减分 水下开盘加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东风科技大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4051,15 +4039,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放量加分 低开减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缩量减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩量减分 开盘价太高减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4098,10 +4078,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连续3个一字 未破板 不买 筹码断层严重 没换手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缩量太厉害减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4130,14 +4106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涨停价开盘|连续3个一字放弃 缩量减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前龙头潜能恒信当天18个点大面放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行情起步加分 缩量减分 实体加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4154,10 +4122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行情起步加分 缩量减分 T或者一字板减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放量加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4186,18 +4150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金奥博是庄股 换银保山新 缩量减分 低开加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放量加分 低开加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题股放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放量加分 水平价开盘加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5171,14 +5127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放量加分 低开加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择绿庭投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>减持利空放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5216,20 +5164,6 @@
   </si>
   <si>
     <t>缩量减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一字板后还未经受住爆量的考验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一字板后还未经受住爆量的考验
-连续3个一字以上 未破板 不买 筹码断层严重 没换手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一个龙头实达集团跌停且隔日竞价低开破5日线 放弃
-缩量减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5295,6 +5229,133 @@
   </si>
   <si>
     <t>前龙惠威科技吃大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙必创科技大面 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金奥博是庄股 换银保山新 缩量减分 低开加分 庄股减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄股放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃|连续3个一字放弃 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙头潜能恒信大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续3个一字 未破板 不买 筹码断层严重 没换手 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字板后还未经受住爆量的考验
+连续3个一字以上 未破板 不买 筹码断层严重 没换手
+缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一个龙头实达集团跌停且隔日竞价低开破5日线 放弃
+缩量减分 庄股减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字板后还未经受住爆量的考验 缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 平开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 3个一字未开板放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北票减分 庄股减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 水平附近开盘加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃 连续3个一字以上 未破板放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 水下开盘加分 位置高还玩秒板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题股放弃 隔日有利空消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前个龙头国风锁业大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 开盘价不高加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 缩量减分 高开减分 7%附近开盘减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续3个一字以上 未破板放弃 一字板未破放弃 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃 缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和晶科技缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择绿庭投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 低开加分 秒板减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字板未开放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 低开加分 实体大阳线加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙天华超净大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 中间实体阳线加分 行情起步加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6363,8 +6424,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H425" sqref="H425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6708,7 +6769,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="I6" t="s">
         <v>1016</v>
@@ -6759,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="I7" t="s">
         <v>1017</v>
@@ -6816,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="E8">
         <v>14.45</v>
@@ -6887,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="E9">
         <v>40.479999999999997</v>
@@ -6958,7 +7019,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="I10" t="s">
         <v>1018</v>
@@ -7025,7 +7086,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="E11">
         <v>4.95</v>
@@ -7096,7 +7157,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="I12" t="s">
         <v>986</v>
@@ -7163,7 +7224,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="E13">
         <v>36.93</v>
@@ -7234,7 +7295,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="E14">
         <v>9.93</v>
@@ -7305,7 +7366,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="I15" t="s">
         <v>459</v>
@@ -7346,7 +7407,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="I16" t="s">
         <v>1020</v>
@@ -7397,7 +7458,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="E17">
         <v>26</v>
@@ -7448,7 +7509,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="I18" t="s">
         <v>1021</v>
@@ -7509,7 +7570,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="I19" t="s">
         <v>1022</v>
@@ -7560,7 +7621,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="E20">
         <v>11.87</v>
@@ -7631,7 +7692,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="E21">
         <v>7.18</v>
@@ -7682,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="E22">
         <v>8.8699999999999992</v>
@@ -7743,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="I23" t="s">
         <v>1025</v>
@@ -7794,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="I24" t="s">
         <v>1026</v>
@@ -7845,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="E25">
         <v>15.27</v>
@@ -7902,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="I26" t="s">
         <v>1016</v>
@@ -7963,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8020,7 +8081,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -8061,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="I29" t="s">
         <v>1027</v>
@@ -8112,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="I30" t="s">
         <v>1028</v>
@@ -8163,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="E31">
         <v>3.6</v>
@@ -8224,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="I32" t="s">
         <v>1029</v>
@@ -8281,7 +8342,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="I33" t="s">
         <v>1030</v>
@@ -8322,7 +8383,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -8385,7 +8446,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="I35" t="s">
         <v>1031</v>
@@ -8452,7 +8513,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="I36" t="s">
         <v>1032</v>
@@ -8509,7 +8570,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="I37" t="s">
         <v>1033</v>
@@ -8550,7 +8611,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="I38" t="s">
         <v>1034</v>
@@ -8611,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="I39" t="s">
         <v>1035</v>
@@ -8662,7 +8723,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="I40" t="s">
         <v>1036</v>
@@ -8703,7 +8764,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="E41">
         <v>15.3</v>
@@ -8770,7 +8831,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -8821,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="I43" t="s">
         <v>1037</v>
@@ -8872,7 +8933,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="E44">
         <v>12.11</v>
@@ -8943,7 +9004,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="E45">
         <v>15.6</v>
@@ -9010,7 +9071,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="I46" t="s">
         <v>1039</v>
@@ -9051,7 +9112,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="E47">
         <v>79.77</v>
@@ -9112,7 +9173,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="I48" t="s">
         <v>1041</v>
@@ -9169,7 +9230,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="E49">
         <v>7.48</v>
@@ -9230,7 +9291,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="E50">
         <v>10.34</v>
@@ -9297,7 +9358,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="E51">
         <v>18.04</v>
@@ -9354,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9415,7 +9476,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="I53" t="s">
         <v>1045</v>
@@ -9456,7 +9517,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -9507,7 +9568,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9558,7 +9619,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="I56" t="s">
         <v>1046</v>
@@ -9605,7 +9666,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="E57">
         <v>18.75</v>
@@ -9656,7 +9717,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="I58" t="s">
         <v>1048</v>
@@ -9707,7 +9768,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="I59" t="s">
         <v>1049</v>
@@ -9758,7 +9819,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="I60" t="s">
         <v>1050</v>
@@ -9809,7 +9870,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="I61" t="s">
         <v>1051</v>
@@ -9870,7 +9931,7 @@
         <v>10</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="E62">
         <v>35.9</v>
@@ -9921,7 +9982,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="E63">
         <v>56.45</v>
@@ -9982,7 +10043,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="I64" t="s">
         <v>1053</v>
@@ -10023,7 +10084,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="I65" t="s">
         <v>1054</v>
@@ -10074,7 +10135,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="E66">
         <v>45</v>
@@ -10082,9 +10143,8 @@
       <c r="F66">
         <v>38</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>-15.555555555555555</v>
+      <c r="H66" s="21" t="s">
+        <v>1690</v>
       </c>
       <c r="I66" t="s">
         <v>1055</v>
@@ -10125,7 +10185,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="I67" t="s">
         <v>1056</v>
@@ -10176,7 +10236,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="I68" t="s">
         <v>1057</v>
@@ -10227,7 +10287,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="E69">
         <v>51</v>
@@ -10278,7 +10338,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="E70">
         <v>40.18</v>
@@ -10339,7 +10399,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="E71">
         <v>71</v>
@@ -10347,12 +10407,8 @@
       <c r="F71">
         <v>62</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="4"/>
-        <v>-12.676056338028168</v>
-      </c>
       <c r="H71" s="21" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="I71" t="s">
         <v>1058</v>
@@ -10393,7 +10449,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -10444,7 +10500,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="I73" t="s">
         <v>1059</v>
@@ -10505,7 +10561,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="E74">
         <v>42.29</v>
@@ -10566,7 +10622,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="I75" t="s">
         <v>1061</v>
@@ -10613,7 +10669,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="I76" t="s">
         <v>1062</v>
@@ -10654,7 +10710,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="I77" t="s">
         <v>1063</v>
@@ -10705,7 +10761,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="I78" t="s">
         <v>1064</v>
@@ -10756,7 +10812,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="I79" t="s">
         <v>1065</v>
@@ -10807,7 +10863,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="E80">
         <v>6.5</v>
@@ -10815,12 +10871,8 @@
       <c r="F80">
         <v>5.75</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="4"/>
-        <v>-11.538461538461538</v>
-      </c>
       <c r="H80" s="21" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="I80" t="s">
         <v>1066</v>
@@ -10867,7 +10919,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="E81">
         <v>22.88</v>
@@ -10875,12 +10927,8 @@
       <c r="F81">
         <v>18.7</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="4"/>
-        <v>-18.269230769230766</v>
-      </c>
       <c r="H81" s="21" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -10927,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="I82" t="s">
         <v>1067</v>
@@ -10978,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="E83">
         <v>19.02</v>
@@ -11039,7 +11087,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="I84" t="s">
         <v>1068</v>
@@ -11086,7 +11134,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -11137,7 +11185,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="I86" t="s">
         <v>1069</v>
@@ -11188,7 +11236,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -11239,7 +11287,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="E88">
         <v>15.11</v>
@@ -11290,7 +11338,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="E89">
         <v>32.770000000000003</v>
@@ -11298,12 +11346,8 @@
       <c r="F89">
         <v>25.8</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="4"/>
-        <v>-21.269453768690884</v>
-      </c>
       <c r="H89" s="21" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="I89" t="s">
         <v>1071</v>
@@ -11354,7 +11398,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="I90" t="s">
         <v>1072</v>
@@ -11395,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="I91" t="s">
         <v>1073</v>
@@ -11436,7 +11480,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="I92" t="s">
         <v>1074</v>
@@ -11487,7 +11531,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="E93">
         <v>45.88</v>
@@ -11548,7 +11592,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="E94">
         <v>50</v>
@@ -11619,7 +11663,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="I95" t="s">
         <v>1076</v>
@@ -11680,7 +11724,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="I96" t="s">
         <v>1077</v>
@@ -11731,7 +11775,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="I97" t="s">
         <v>1078</v>
@@ -11782,7 +11826,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="I98" t="s">
         <v>1079</v>
@@ -11833,7 +11877,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="E99">
         <v>32.549999999999997</v>
@@ -11910,7 +11954,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="E100">
         <v>22.79</v>
@@ -11971,7 +12015,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -12022,7 +12066,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -12073,7 +12117,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -12114,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="I104" t="s">
         <v>1082</v>
@@ -12165,7 +12209,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -12216,7 +12260,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -12267,7 +12311,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="E107">
         <v>14.38</v>
@@ -12328,7 +12372,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="E108">
         <v>16.8</v>
@@ -12389,7 +12433,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="I109" t="s">
         <v>1084</v>
@@ -12450,7 +12494,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="I110" t="s">
         <v>1085</v>
@@ -12491,7 +12535,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -12548,7 +12592,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -12609,17 +12653,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E113">
-        <v>14.31</v>
-      </c>
-      <c r="F113">
-        <v>14.31</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -12676,7 +12710,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="E114">
         <v>12.73</v>
@@ -12684,12 +12718,8 @@
       <c r="F114">
         <v>11.2</v>
       </c>
-      <c r="G114">
-        <f>(F114-E114)/E114*100</f>
-        <v>-12.018853102906528</v>
-      </c>
       <c r="H114" s="21" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="I114" t="s">
         <v>1086</v>
@@ -12740,7 +12770,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -12791,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -12832,7 +12862,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="I117" t="s">
         <v>1087</v>
@@ -12883,7 +12913,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -12940,7 +12970,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="I119" t="s">
         <v>1088</v>
@@ -12997,7 +13027,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -13048,7 +13078,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -13099,7 +13129,7 @@
         <v>10</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="E122">
         <v>11.63</v>
@@ -13111,6 +13141,9 @@
         <f t="shared" si="4"/>
         <v>20.378331900257944</v>
       </c>
+      <c r="H122" s="22" t="s">
+        <v>1720</v>
+      </c>
       <c r="I122">
         <v>0</v>
       </c>
@@ -13156,7 +13189,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="I123" t="s">
         <v>1089</v>
@@ -13207,7 +13240,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="I124" t="s">
         <v>1090</v>
@@ -13254,7 +13287,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -13305,17 +13338,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E126">
-        <v>10</v>
-      </c>
-      <c r="F126">
-        <v>10.3</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="4"/>
-        <v>3.0000000000000071</v>
+        <v>1463</v>
       </c>
       <c r="I126" t="s">
         <v>1091</v>
@@ -13356,7 +13379,20 @@
         <v>10</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>1475</v>
+        <v>1464</v>
+      </c>
+      <c r="E127">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F127">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G127">
+        <f>(F127-E127)/E127*100</f>
+        <v>-7.6616915422885707</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>1712</v>
       </c>
       <c r="I127" t="s">
         <v>1092</v>
@@ -13413,7 +13449,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -13464,7 +13500,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -13521,20 +13557,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E130">
-        <v>78</v>
-      </c>
-      <c r="F130">
-        <v>68.5</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="4"/>
-        <v>-12.179487179487179</v>
-      </c>
-      <c r="H130" s="22" t="s">
-        <v>1688</v>
+        <v>1467</v>
       </c>
       <c r="I130" t="s">
         <v>1093</v>
@@ -13591,7 +13614,20 @@
         <v>10</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>1479</v>
+        <v>1468</v>
+      </c>
+      <c r="E131">
+        <v>78</v>
+      </c>
+      <c r="F131">
+        <v>68.5</v>
+      </c>
+      <c r="G131">
+        <f>(F131-E131)/E131*100</f>
+        <v>-12.179487179487179</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>1672</v>
       </c>
       <c r="I131" t="s">
         <v>1094</v>
@@ -13664,7 +13700,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
       <c r="E132">
         <v>10.37</v>
@@ -13676,6 +13712,9 @@
         <f t="shared" ref="G132:G189" si="8">(F132-E132)/E132*100</f>
         <v>35.004821600771471</v>
       </c>
+      <c r="H132" s="22" t="s">
+        <v>1718</v>
+      </c>
       <c r="I132" t="s">
         <v>1095</v>
       </c>
@@ -13721,7 +13760,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="I133" t="s">
         <v>1096</v>
@@ -13772,7 +13811,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="I134" t="s">
         <v>1097</v>
@@ -13823,17 +13862,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E135">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F135">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="8"/>
-        <v>11.363636363636363</v>
+        <v>1472</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>1719</v>
       </c>
       <c r="I135" t="s">
         <v>1098</v>
@@ -13890,7 +13922,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="I136" t="s">
         <v>1099</v>
@@ -13947,7 +13979,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="I137" t="s">
         <v>1100</v>
@@ -13998,7 +14030,20 @@
         <v>6</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1486</v>
+        <v>1475</v>
+      </c>
+      <c r="E138">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F138">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G138">
+        <f>(F138-E138)/E138*100</f>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>1712</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -14059,7 +14104,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="E139">
         <v>4.4800000000000004</v>
@@ -14071,6 +14116,9 @@
         <f t="shared" si="8"/>
         <v>24.999999999999982</v>
       </c>
+      <c r="H139" s="22" t="s">
+        <v>1712</v>
+      </c>
       <c r="I139" t="s">
         <v>1059</v>
       </c>
@@ -14126,7 +14174,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="I140" t="s">
         <v>1101</v>
@@ -14183,7 +14231,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="I141" t="s">
         <v>1102</v>
@@ -14234,7 +14282,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="I142" t="s">
         <v>1103</v>
@@ -14291,7 +14339,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -14348,7 +14396,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="E144">
         <v>6.39</v>
@@ -14360,6 +14408,9 @@
         <f t="shared" si="8"/>
         <v>4.5383411580594686</v>
       </c>
+      <c r="H144" s="22" t="s">
+        <v>1712</v>
+      </c>
       <c r="I144" t="s">
         <v>1104</v>
       </c>
@@ -14425,7 +14476,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="E145">
         <v>5.23</v>
@@ -14437,6 +14488,9 @@
         <f t="shared" si="8"/>
         <v>-0.5736137667304062</v>
       </c>
+      <c r="H145" s="22" t="s">
+        <v>1712</v>
+      </c>
       <c r="I145">
         <v>0</v>
       </c>
@@ -14502,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="I146" t="s">
         <v>1105</v>
@@ -14553,7 +14607,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="I147" t="s">
         <v>1106</v>
@@ -14614,7 +14668,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -14675,7 +14729,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -14736,7 +14790,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -14787,7 +14841,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="E151">
         <v>11.6</v>
@@ -14800,7 +14854,7 @@
         <v>7.7586206896551753</v>
       </c>
       <c r="H151" s="22" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="I151" t="s">
         <v>1107</v>
@@ -14847,7 +14901,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14888,7 +14942,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="I153" t="s">
         <v>1108</v>
@@ -14939,7 +14993,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14980,7 +15034,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>1503</v>
+        <v>1492</v>
+      </c>
+      <c r="H155" s="21" t="s">
+        <v>1717</v>
       </c>
       <c r="I155" t="s">
         <v>995</v>
@@ -15031,7 +15088,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -15092,7 +15149,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -15153,7 +15210,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -15204,7 +15261,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -15261,7 +15318,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15312,7 +15369,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="I161" t="s">
         <v>1109</v>
@@ -15363,7 +15420,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15420,7 +15477,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15461,7 +15518,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15518,7 +15575,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="I165" t="s">
         <v>1110</v>
@@ -15579,7 +15636,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15636,7 +15693,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15687,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15728,7 +15785,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15779,17 +15836,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E170">
-        <v>6.74</v>
-      </c>
-      <c r="F170">
-        <v>7.28</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="8"/>
-        <v>8.0118694362017813</v>
+        <v>1507</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -15840,10 +15887,20 @@
         <v>11</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1519</v>
+        <v>1508</v>
+      </c>
+      <c r="E171">
+        <v>6.74</v>
+      </c>
+      <c r="F171">
+        <v>7.28</v>
+      </c>
+      <c r="G171">
+        <f>(F171-E171)/E171*100</f>
+        <v>8.0118694362017813</v>
       </c>
       <c r="H171" s="22" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="I171" t="s">
         <v>1051</v>
@@ -15894,7 +15951,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="E172">
         <v>7.91</v>
@@ -15902,12 +15959,8 @@
       <c r="F172">
         <v>8.48</v>
       </c>
-      <c r="G172">
-        <f t="shared" si="8"/>
-        <v>7.2060682680151738</v>
-      </c>
       <c r="H172" s="22" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="I172" t="s">
         <v>1111</v>
@@ -15958,7 +16011,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="E173">
         <v>10.050000000000001</v>
@@ -15971,7 +16024,7 @@
         <v>3.4825870646766131</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="I173" t="s">
         <v>1112</v>
@@ -16022,7 +16075,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="I174" t="s">
         <v>1113</v>
@@ -16079,7 +16132,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16142,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16193,7 +16246,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16254,7 +16307,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="I178" t="s">
         <v>1055</v>
@@ -16305,7 +16358,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16372,7 +16425,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="I180" t="s">
         <v>1114</v>
@@ -16429,7 +16482,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="I181" t="s">
         <v>1115</v>
@@ -16470,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16524,7 +16577,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="E183">
         <v>8.81</v>
@@ -16532,12 +16585,8 @@
       <c r="F183">
         <v>7.8</v>
       </c>
-      <c r="G183">
-        <f t="shared" si="8"/>
-        <v>-11.464245175936442</v>
-      </c>
       <c r="H183" s="21" t="s">
-        <v>1670</v>
+        <v>1716</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16578,7 +16627,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
       <c r="I184" t="s">
         <v>1116</v>
@@ -16635,17 +16684,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E185">
-        <v>9.35</v>
-      </c>
-      <c r="F185">
-        <v>8.4</v>
-      </c>
-      <c r="G185">
-        <f t="shared" si="8"/>
-        <v>-10.160427807486624</v>
+        <v>1522</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185">
@@ -16697,10 +16736,16 @@
         <v>7</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>1534</v>
+        <v>1523</v>
+      </c>
+      <c r="E186">
+        <v>9.35</v>
+      </c>
+      <c r="F186">
+        <v>8.4</v>
       </c>
       <c r="H186" s="21" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -16751,7 +16796,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="I187" t="s">
         <v>1117</v>
@@ -16802,7 +16847,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="I188" t="s">
         <v>1118</v>
@@ -16853,20 +16898,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E189">
-        <v>44.44</v>
-      </c>
-      <c r="F189">
-        <v>47.98</v>
-      </c>
-      <c r="G189">
-        <f t="shared" si="8"/>
-        <v>7.9657965796579644</v>
-      </c>
-      <c r="H189" s="22" t="s">
-        <v>1672</v>
+        <v>1526</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -16933,7 +16965,20 @@
         <v>7</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>1538</v>
+        <v>1527</v>
+      </c>
+      <c r="E190">
+        <v>44.44</v>
+      </c>
+      <c r="F190">
+        <v>47.98</v>
+      </c>
+      <c r="G190">
+        <f>(F190-E190)/E190*100</f>
+        <v>7.9657965796579644</v>
+      </c>
+      <c r="H190" s="22" t="s">
+        <v>1661</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -16984,7 +17029,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17035,7 +17080,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17086,7 +17131,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -17137,7 +17182,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="I194" t="s">
         <v>1119</v>
@@ -17190,10 +17235,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
       <c r="H195" s="21" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17254,7 +17299,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
       <c r="I196" t="s">
         <v>1120</v>
@@ -17305,7 +17350,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -17362,17 +17407,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E198">
-        <v>30.77</v>
-      </c>
-      <c r="F198">
-        <v>33.6</v>
-      </c>
-      <c r="G198">
-        <f t="shared" ref="G198:G257" si="11">(F198-E198)/E198*100</f>
-        <v>9.1972700682483008</v>
+        <v>1535</v>
       </c>
       <c r="I198" t="s">
         <v>1121</v>
@@ -17423,8 +17458,9 @@
         <v>24</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>1547</v>
-      </c>
+        <v>1536</v>
+      </c>
+      <c r="G199" s="25"/>
       <c r="I199" t="s">
         <v>1122</v>
       </c>
@@ -17474,8 +17510,9 @@
         <v>26</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1548</v>
-      </c>
+        <v>1537</v>
+      </c>
+      <c r="G200" s="25"/>
       <c r="I200">
         <v>0</v>
       </c>
@@ -17525,7 +17562,20 @@
         <v>13</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>1549</v>
+        <v>1538</v>
+      </c>
+      <c r="E201">
+        <v>31.8</v>
+      </c>
+      <c r="F201">
+        <v>33.18</v>
+      </c>
+      <c r="G201" s="25">
+        <f t="shared" ref="G198:G257" si="11">(F201-E201)/E201*100</f>
+        <v>4.3396226415094308</v>
+      </c>
+      <c r="H201" s="22" t="s">
+        <v>1712</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -17586,21 +17636,9 @@
         <v>12</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E202">
-        <v>4.3</v>
-      </c>
-      <c r="F202">
-        <v>7.9</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="11"/>
-        <v>83.72093023255816</v>
-      </c>
-      <c r="H202" s="22" t="s">
-        <v>1673</v>
-      </c>
+        <v>1539</v>
+      </c>
+      <c r="H202" s="22"/>
       <c r="I202" t="s">
         <v>1123</v>
       </c>
@@ -17646,7 +17684,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -17703,7 +17741,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -17754,7 +17792,7 @@
         <v>10</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="I205" t="s">
         <v>1124</v>
@@ -17805,7 +17843,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="E206">
         <v>24</v>
@@ -17817,6 +17855,9 @@
         <f t="shared" si="11"/>
         <v>7.291666666666667</v>
       </c>
+      <c r="H206" s="22" t="s">
+        <v>1712</v>
+      </c>
       <c r="I206" t="s">
         <v>1125</v>
       </c>
@@ -17856,20 +17897,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E207">
-        <v>6.99</v>
-      </c>
-      <c r="F207">
-        <v>6.42</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="11"/>
-        <v>-8.1545064377682444</v>
-      </c>
-      <c r="H207" s="22" t="s">
-        <v>1674</v>
+        <v>1544</v>
+      </c>
+      <c r="H207" s="21" t="s">
+        <v>1714</v>
       </c>
       <c r="I207" t="s">
         <v>1126</v>
@@ -17910,7 +17941,7 @@
         <v>16</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="E208">
         <v>5.57</v>
@@ -17922,6 +17953,9 @@
         <f t="shared" si="11"/>
         <v>9.5152603231597723</v>
       </c>
+      <c r="H208" s="22" t="s">
+        <v>1715</v>
+      </c>
       <c r="I208" t="s">
         <v>1127</v>
       </c>
@@ -17967,7 +18001,7 @@
         <v>16</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="G209" s="25"/>
       <c r="I209">
@@ -18009,7 +18043,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="G210" s="25"/>
       <c r="I210" t="s">
@@ -18061,7 +18095,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="G211" s="25"/>
       <c r="I211">
@@ -18103,7 +18137,7 @@
         <v>13</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="E212">
         <v>7.38</v>
@@ -18116,7 +18150,7 @@
         <v>32.791327913279147</v>
       </c>
       <c r="H212" s="22" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -18163,7 +18197,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -18210,7 +18244,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -18251,7 +18285,10 @@
         <v>30</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>1563</v>
+        <v>1552</v>
+      </c>
+      <c r="H215" s="21" t="s">
+        <v>1713</v>
       </c>
       <c r="I215" t="s">
         <v>1128</v>
@@ -18302,7 +18339,7 @@
         <v>19</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="E216">
         <v>9.32</v>
@@ -18310,9 +18347,8 @@
       <c r="F216">
         <v>9.52</v>
       </c>
-      <c r="G216">
-        <f t="shared" si="11"/>
-        <v>2.1459227467811082</v>
+      <c r="H216" s="21" t="s">
+        <v>1701</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -18363,7 +18399,7 @@
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="I217" t="s">
         <v>1129</v>
@@ -18414,7 +18450,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="E218">
         <v>10.53</v>
@@ -18426,6 +18462,9 @@
         <f t="shared" si="11"/>
         <v>6.9325735992402704</v>
       </c>
+      <c r="H218" s="22" t="s">
+        <v>1712</v>
+      </c>
       <c r="I218" t="s">
         <v>1130</v>
       </c>
@@ -18465,7 +18504,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="I219" t="s">
         <v>1131</v>
@@ -18506,7 +18545,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -18547,7 +18586,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="I221" t="s">
         <v>1132</v>
@@ -18588,10 +18627,10 @@
         <v>10</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="H222" s="21" t="s">
-        <v>1206</v>
+        <v>1711</v>
       </c>
       <c r="I222" t="s">
         <v>1133</v>
@@ -18632,10 +18671,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>1571</v>
-      </c>
-      <c r="H223" s="22" t="s">
-        <v>1314</v>
+        <v>1560</v>
+      </c>
+      <c r="H223" s="21" t="s">
+        <v>1311</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -18676,7 +18715,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -18717,7 +18756,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -18758,7 +18797,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -18799,7 +18838,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -18840,7 +18879,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -18887,7 +18926,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="E229">
         <v>5.9</v>
@@ -18938,7 +18977,7 @@
         <v>16</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -18979,7 +19018,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="E231">
         <v>24.9</v>
@@ -18992,7 +19031,7 @@
         <v>-1.5261044176706788</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -19043,7 +19082,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -19084,7 +19123,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -19125,7 +19164,7 @@
         <v>2</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -19166,7 +19205,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -19207,7 +19246,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -19248,7 +19287,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -19289,7 +19328,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -19330,7 +19369,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -19371,7 +19410,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -19412,7 +19451,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -19453,7 +19492,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -19500,7 +19539,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -19541,7 +19580,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -19582,10 +19621,10 @@
         <v>15</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="H245" s="21" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I245" t="s">
         <v>1135</v>
@@ -19626,7 +19665,7 @@
         <v>7</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="E246">
         <v>10.1</v>
@@ -19639,7 +19678,7 @@
         <v>14.554455445544562</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="I246" t="s">
         <v>1136</v>
@@ -19668,7 +19707,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="I247" t="s">
         <v>1137</v>
@@ -19691,7 +19730,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="I248" t="s">
         <v>1138</v>
@@ -19714,7 +19753,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="I249" t="s">
         <v>1139</v>
@@ -19737,7 +19776,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="E250">
         <v>4.8499999999999996</v>
@@ -19750,7 +19789,7 @@
         <v>44.329896907216501</v>
       </c>
       <c r="H250" s="22" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="I250" t="s">
         <v>1140</v>
@@ -19773,7 +19812,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="I251" t="s">
         <v>1141</v>
@@ -19796,7 +19835,7 @@
         <v>19</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="I252" t="s">
         <v>1142</v>
@@ -19819,7 +19858,7 @@
         <v>16</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="I253" t="s">
         <v>1143</v>
@@ -19842,7 +19881,7 @@
         <v>15</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="I254" t="s">
         <v>1144</v>
@@ -19865,7 +19904,7 @@
         <v>13</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="I255" t="s">
         <v>1145</v>
@@ -19888,10 +19927,10 @@
         <v>16</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="H256" s="21" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I256" t="s">
         <v>1146</v>
@@ -19914,7 +19953,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="E257">
         <v>27.85</v>
@@ -19927,7 +19966,7 @@
         <v>3.087971274685815</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="I257" t="s">
         <v>1147</v>
@@ -19950,7 +19989,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="I258" t="s">
         <v>1148</v>
@@ -19973,7 +20012,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="I259" t="s">
         <v>1149</v>
@@ -19996,7 +20035,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="I260" t="s">
         <v>1150</v>
@@ -20019,17 +20058,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E261">
-        <v>6.23</v>
-      </c>
-      <c r="F261">
-        <v>6.65</v>
-      </c>
-      <c r="G261">
-        <f t="shared" ref="G261:G320" si="12">(F261-E261)/E261*100</f>
-        <v>6.7415730337078639</v>
+        <v>1598</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -20052,10 +20081,20 @@
         <v>8</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>1610</v>
+        <v>1599</v>
+      </c>
+      <c r="E262">
+        <v>6.03</v>
+      </c>
+      <c r="F262">
+        <v>6.45</v>
+      </c>
+      <c r="G262">
+        <f>(F262-E262)/E262*100</f>
+        <v>6.9651741293532323</v>
       </c>
       <c r="H262" s="22" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -20078,7 +20117,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="I263" t="s">
         <v>1151</v>
@@ -20101,7 +20140,7 @@
         <v>9</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="I264" t="s">
         <v>1152</v>
@@ -20124,7 +20163,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="I265" t="s">
         <v>1153</v>
@@ -20147,7 +20186,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="E266">
         <v>8.1999999999999993</v>
@@ -20156,11 +20195,11 @@
         <v>7.7</v>
       </c>
       <c r="G266">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G261:G320" si="12">(F266-E266)/E266*100</f>
         <v>-6.0975609756097455</v>
       </c>
       <c r="H266" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I266" t="s">
         <v>1154</v>
@@ -20183,7 +20222,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -20206,7 +20245,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="I268" t="s">
         <v>1155</v>
@@ -20229,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -20252,7 +20291,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -20275,7 +20314,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="I271" t="s">
         <v>1156</v>
@@ -20298,10 +20337,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="I272" t="s">
         <v>1157</v>
@@ -20341,7 +20380,7 @@
         <v>16</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="I273" t="s">
         <v>1158</v>
@@ -20380,7 +20419,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -20419,7 +20458,7 @@
         <v>15</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="I275" t="s">
         <v>1160</v>
@@ -20442,7 +20481,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="I276" t="s">
         <v>1161</v>
@@ -20481,7 +20520,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="I277" t="s">
         <v>1162</v>
@@ -20504,7 +20543,7 @@
         <v>21</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="I278" t="s">
         <v>1163</v>
@@ -20527,7 +20566,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="I279" t="s">
         <v>1164</v>
@@ -20566,7 +20605,7 @@
         <v>17</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="I280" t="s">
         <v>1165</v>
@@ -20589,7 +20628,7 @@
         <v>28</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -20602,7 +20641,7 @@
         <v>17.142857142857132</v>
       </c>
       <c r="H281" s="22" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I281" t="s">
         <v>1166</v>
@@ -20631,7 +20670,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="I282" t="s">
         <v>1167</v>
@@ -20654,20 +20693,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E283">
-        <v>13.39</v>
-      </c>
-      <c r="F283">
-        <v>15</v>
-      </c>
-      <c r="G283">
-        <f t="shared" si="12"/>
-        <v>12.023898431665417</v>
+        <v>1620</v>
       </c>
       <c r="H283" s="21" t="s">
-        <v>1302</v>
+        <v>1708</v>
       </c>
       <c r="I283" t="s">
         <v>1168</v>
@@ -20696,7 +20725,20 @@
         <v>15</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>1632</v>
+        <v>1621</v>
+      </c>
+      <c r="E284">
+        <v>14.94</v>
+      </c>
+      <c r="F284">
+        <v>18.14</v>
+      </c>
+      <c r="G284">
+        <f>(F284-E284)/E284*100</f>
+        <v>21.419009370816607</v>
+      </c>
+      <c r="H284" s="22" t="s">
+        <v>1709</v>
       </c>
       <c r="I284" t="s">
         <v>1169</v>
@@ -20735,7 +20777,7 @@
         <v>7</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="E285">
         <v>7.06</v>
@@ -20748,7 +20790,7 @@
         <v>83.852691218130332</v>
       </c>
       <c r="H285" s="22" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I285" t="s">
         <v>1170</v>
@@ -20777,7 +20819,7 @@
         <v>7</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="E286">
         <v>14.84</v>
@@ -20790,7 +20832,7 @@
         <v>52.762803234501362</v>
       </c>
       <c r="H286" s="22" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I286" t="s">
         <v>1171</v>
@@ -20819,7 +20861,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="I287" t="s">
         <v>1172</v>
@@ -20842,7 +20884,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="I288" t="s">
         <v>987</v>
@@ -20865,7 +20907,7 @@
         <v>60</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="I289" t="s">
         <v>988</v>
@@ -20888,7 +20930,7 @@
         <v>79</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="I290" t="s">
         <v>989</v>
@@ -20911,7 +20953,7 @@
         <v>31</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="I291" t="s">
         <v>990</v>
@@ -20934,7 +20976,7 @@
         <v>19</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="E292">
         <v>16</v>
@@ -20947,7 +20989,7 @@
         <v>9.5625000000000071</v>
       </c>
       <c r="H292" s="22" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I292" t="s">
         <v>991</v>
@@ -20976,7 +21018,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="E293">
         <v>8</v>
@@ -20989,7 +21031,7 @@
         <v>-4.5000000000000036</v>
       </c>
       <c r="H293" s="21" t="s">
-        <v>1350</v>
+        <v>1707</v>
       </c>
       <c r="I293" t="s">
         <v>1173</v>
@@ -21018,7 +21060,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="I294" t="s">
         <v>1174</v>
@@ -21041,7 +21083,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="E295">
         <v>16</v>
@@ -21054,7 +21096,7 @@
         <v>13.749999999999996</v>
       </c>
       <c r="H295" s="22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I295" t="s">
         <v>992</v>
@@ -21083,7 +21125,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="I296" t="s">
         <v>993</v>
@@ -21122,7 +21164,7 @@
         <v>10</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="E297">
         <v>8.3800000000000008</v>
@@ -21135,7 +21177,7 @@
         <v>2.1479713603818578</v>
       </c>
       <c r="H297" s="22" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I297" t="s">
         <v>994</v>
@@ -21164,7 +21206,7 @@
         <v>19</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="E298">
         <v>14.02</v>
@@ -21176,6 +21218,9 @@
         <f t="shared" si="12"/>
         <v>9.8430813124108472</v>
       </c>
+      <c r="H298" s="22" t="s">
+        <v>1705</v>
+      </c>
       <c r="I298" t="s">
         <v>995</v>
       </c>
@@ -21203,7 +21248,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="I299" t="s">
         <v>996</v>
@@ -21226,7 +21271,7 @@
         <v>23</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="E300">
         <v>10.64</v>
@@ -21239,7 +21284,7 @@
         <v>5.26315789473683</v>
       </c>
       <c r="H300" s="21" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I300" t="s">
         <v>997</v>
@@ -21268,7 +21313,7 @@
         <v>24</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="I301" t="s">
         <v>998</v>
@@ -21307,7 +21352,7 @@
         <v>24</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="E302">
         <v>18.88</v>
@@ -21320,7 +21365,7 @@
         <v>10.169491525423737</v>
       </c>
       <c r="H302" s="22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I302" t="s">
         <v>999</v>
@@ -21349,7 +21394,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
       <c r="E303">
         <v>14.04</v>
@@ -21362,7 +21407,7 @@
         <v>18.945868945868948</v>
       </c>
       <c r="H303" s="22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I303" t="s">
         <v>1000</v>
@@ -21391,7 +21436,7 @@
         <v>18</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="I304" t="s">
         <v>1001</v>
@@ -21414,7 +21459,7 @@
         <v>10</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>1653</v>
+        <v>1642</v>
       </c>
       <c r="I305" t="s">
         <v>1002</v>
@@ -21447,7 +21492,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="I306" t="s">
         <v>1003</v>
@@ -21480,7 +21525,7 @@
         <v>28</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="E307">
         <v>18.940000000000001</v>
@@ -21493,7 +21538,7 @@
         <v>2.4287222808869973</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>1301</v>
+        <v>1660</v>
       </c>
       <c r="I307" t="s">
         <v>1004</v>
@@ -21522,7 +21567,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="E308">
         <v>16.7</v>
@@ -21530,12 +21575,8 @@
       <c r="F308">
         <v>16.05</v>
       </c>
-      <c r="G308">
-        <f t="shared" si="12"/>
-        <v>-3.8922155688622673</v>
-      </c>
       <c r="H308" s="21" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I308" t="s">
         <v>1005</v>
@@ -21564,7 +21605,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="E309">
         <v>7.44</v>
@@ -21577,7 +21618,7 @@
         <v>7.5268817204301026</v>
       </c>
       <c r="H309" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I309" t="s">
         <v>1006</v>
@@ -21606,7 +21647,7 @@
         <v>26</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="I310" t="s">
         <v>1007</v>
@@ -21645,7 +21686,7 @@
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="E311">
         <v>11.6</v>
@@ -21658,7 +21699,7 @@
         <v>-3.4482758620689689</v>
       </c>
       <c r="H311" s="21" t="s">
-        <v>1311</v>
+        <v>1706</v>
       </c>
       <c r="I311" t="s">
         <v>1008</v>
@@ -21687,7 +21728,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
       <c r="I312" t="s">
         <v>1009</v>
@@ -21710,7 +21751,7 @@
         <v>19</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="E313">
         <v>8.1999999999999993</v>
@@ -21723,7 +21764,7 @@
         <v>-2.4390243902438939</v>
       </c>
       <c r="H313" s="21" t="s">
-        <v>1309</v>
+        <v>1703</v>
       </c>
       <c r="I313" t="s">
         <v>1010</v>
@@ -21752,10 +21793,10 @@
         <v>14</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="H314" s="21" t="s">
-        <v>1206</v>
+        <v>1704</v>
       </c>
       <c r="I314" t="s">
         <v>1011</v>
@@ -21778,7 +21819,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="O315">
         <v>20170519</v>
@@ -21798,7 +21839,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="O316">
         <v>20170522</v>
@@ -21818,7 +21859,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="E317">
         <v>17.07</v>
@@ -21831,7 +21872,7 @@
         <v>10.134739308728765</v>
       </c>
       <c r="H317" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O317">
         <v>20170523</v>
@@ -21851,7 +21892,7 @@
         <v>26</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="O318">
         <v>20170524</v>
@@ -21871,7 +21912,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="E319">
         <v>20.55</v>
@@ -21879,12 +21920,8 @@
       <c r="F319">
         <v>23.1</v>
       </c>
-      <c r="G319">
-        <f t="shared" si="12"/>
-        <v>12.408759124087593</v>
-      </c>
       <c r="H319" s="21" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="O319">
         <v>20170525</v>
@@ -21904,7 +21941,7 @@
         <v>18</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="E320">
         <v>13.15</v>
@@ -21917,7 +21954,7 @@
         <v>10.114068441064639</v>
       </c>
       <c r="H320" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O320">
         <v>20170526</v>
@@ -21960,7 +21997,7 @@
         <v>1176</v>
       </c>
       <c r="H322" s="21" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="O322">
         <v>20170601</v>
@@ -22022,6 +22059,9 @@
       <c r="D325" s="25" t="s">
         <v>1179</v>
       </c>
+      <c r="H325" s="21" t="s">
+        <v>1702</v>
+      </c>
       <c r="O325">
         <v>20170606</v>
       </c>
@@ -22083,7 +22123,7 @@
         <v>1182</v>
       </c>
       <c r="H328" s="21" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="O328">
         <v>20170609</v>
@@ -22111,12 +22151,8 @@
       <c r="F329">
         <v>18.510000000000002</v>
       </c>
-      <c r="G329">
-        <f t="shared" ref="G329:G391" si="14">(F329-E329)/E329*100</f>
-        <v>2.6622296173044946</v>
-      </c>
-      <c r="H329" s="22" t="s">
-        <v>1315</v>
+      <c r="H329" s="21" t="s">
+        <v>1701</v>
       </c>
       <c r="O329">
         <v>20170612</v>
@@ -22138,6 +22174,19 @@
       <c r="D330" t="s">
         <v>1184</v>
       </c>
+      <c r="E330">
+        <v>12.11</v>
+      </c>
+      <c r="F330">
+        <v>12.5</v>
+      </c>
+      <c r="G330" s="25">
+        <f t="shared" ref="G329:G391" si="14">(F330-E330)/E330*100</f>
+        <v>3.2204789430223006</v>
+      </c>
+      <c r="H330" s="22" t="s">
+        <v>1301</v>
+      </c>
       <c r="O330">
         <v>20170613</v>
       </c>
@@ -22168,6 +22217,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="H331" s="22" t="s">
+        <v>1699</v>
+      </c>
       <c r="O331">
         <v>20170614</v>
       </c>
@@ -22199,7 +22251,7 @@
         <v>3.0303030303030365</v>
       </c>
       <c r="H332" s="21" t="s">
-        <v>1316</v>
+        <v>1700</v>
       </c>
       <c r="O332">
         <v>20170615</v>
@@ -22222,7 +22274,7 @@
         <v>1187</v>
       </c>
       <c r="H333" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O333">
         <v>20170616</v>
@@ -22305,7 +22357,7 @@
         <v>10.140093395597074</v>
       </c>
       <c r="H336" s="22" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O336">
         <v>20170621</v>
@@ -22348,7 +22400,7 @@
         <v>1192</v>
       </c>
       <c r="H338" s="21" t="s">
-        <v>1317</v>
+        <v>1684</v>
       </c>
       <c r="O338">
         <v>20170623</v>
@@ -22388,7 +22440,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E340">
         <v>9.76</v>
@@ -22396,12 +22448,8 @@
       <c r="F340">
         <v>8.52</v>
       </c>
-      <c r="G340">
-        <f t="shared" si="14"/>
-        <v>-12.704918032786889</v>
-      </c>
       <c r="H340" s="21" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
       <c r="O340">
         <v>20170627</v>
@@ -22410,7 +22458,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="27">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22421,10 +22469,10 @@
         <v>10</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H341" s="23" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22447,7 +22495,7 @@
         <v>1194</v>
       </c>
       <c r="H342" s="23" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -22470,7 +22518,7 @@
         <v>1195</v>
       </c>
       <c r="H343" s="23" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="O343">
         <v>20170630</v>
@@ -22518,12 +22566,8 @@
       <c r="F345">
         <v>31</v>
       </c>
-      <c r="G345">
-        <f t="shared" si="14"/>
-        <v>-3.7565973300217346</v>
-      </c>
       <c r="H345" s="21" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="O345">
         <v>20170704</v>
@@ -22556,7 +22600,7 @@
         <v>9.0014064697608944</v>
       </c>
       <c r="H346" s="22" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="O346">
         <v>20170705</v>
@@ -22599,7 +22643,7 @@
         <v>1200</v>
       </c>
       <c r="H348" s="23" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="O348">
         <v>20170707</v>
@@ -22632,7 +22676,7 @@
         <v>1.0356150543066343</v>
       </c>
       <c r="H349" s="22" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O349">
         <v>20170710</v>
@@ -22685,7 +22729,7 @@
         <v>33.140283140283152</v>
       </c>
       <c r="H351" s="22" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="O351">
         <v>20170712</v>
@@ -22725,7 +22769,7 @@
         <v>26</v>
       </c>
       <c r="D353" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O353">
         <v>20170714</v>
@@ -22745,7 +22789,7 @@
         <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O354">
         <v>20170717</v>
@@ -22765,10 +22809,10 @@
         <v>12</v>
       </c>
       <c r="D355" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H355" s="23" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="O355">
         <v>20170718</v>
@@ -22788,7 +22832,7 @@
         <v>7</v>
       </c>
       <c r="D356" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="O356">
         <v>20170719</v>
@@ -22808,7 +22852,7 @@
         <v>7</v>
       </c>
       <c r="D357" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O357">
         <v>20170720</v>
@@ -22828,7 +22872,7 @@
         <v>10</v>
       </c>
       <c r="D358" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O358">
         <v>20170721</v>
@@ -22848,7 +22892,7 @@
         <v>20</v>
       </c>
       <c r="D359" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E359">
         <v>31</v>
@@ -22861,7 +22905,7 @@
         <v>12.903225806451612</v>
       </c>
       <c r="H359" s="22" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="O359">
         <v>20170724</v>
@@ -22881,7 +22925,7 @@
         <v>19</v>
       </c>
       <c r="D360" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G360" s="4"/>
       <c r="O360">
@@ -22902,11 +22946,11 @@
         <v>23</v>
       </c>
       <c r="D361" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="21" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="O361">
         <v>20170726</v>
@@ -22926,11 +22970,11 @@
         <v>20</v>
       </c>
       <c r="D362" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="21" t="s">
-        <v>1326</v>
+        <v>1695</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -22950,14 +22994,14 @@
         <v>13</v>
       </c>
       <c r="D363" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="21" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="I363" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O363">
         <v>20170728</v>
@@ -22977,11 +23021,11 @@
         <v>11</v>
       </c>
       <c r="D364" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="21" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="O364">
         <v>20170731</v>
@@ -23001,11 +23045,11 @@
         <v>10</v>
       </c>
       <c r="D365" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="21" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="O365">
         <v>20170801</v>
@@ -23025,11 +23069,11 @@
         <v>7</v>
       </c>
       <c r="D366" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="21" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="O366">
         <v>20170802</v>
@@ -23049,11 +23093,11 @@
         <v>13</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G367" s="4"/>
       <c r="H367" s="21" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="O367">
         <v>20170803</v>
@@ -23073,11 +23117,11 @@
         <v>9</v>
       </c>
       <c r="D368" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="21" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="O368">
         <v>20170804</v>
@@ -23097,7 +23141,7 @@
         <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G369" s="4"/>
       <c r="O369">
@@ -23118,7 +23162,7 @@
         <v>6</v>
       </c>
       <c r="D370" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G370" s="4"/>
       <c r="O370">
@@ -23139,7 +23183,7 @@
         <v>5</v>
       </c>
       <c r="D371" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G371" s="4"/>
       <c r="O371">
@@ -23160,7 +23204,7 @@
         <v>4</v>
       </c>
       <c r="D372" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G372" s="4"/>
       <c r="O372">
@@ -23181,7 +23225,7 @@
         <v>6</v>
       </c>
       <c r="D373" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G373" s="4"/>
       <c r="O373">
@@ -23202,7 +23246,7 @@
         <v>3</v>
       </c>
       <c r="D374" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G374" s="4"/>
       <c r="O374">
@@ -23223,7 +23267,7 @@
         <v>4</v>
       </c>
       <c r="D375" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G375" s="4"/>
       <c r="O375">
@@ -23244,7 +23288,7 @@
         <v>3</v>
       </c>
       <c r="D376" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G376" s="4"/>
       <c r="O376">
@@ -23265,7 +23309,7 @@
         <v>8</v>
       </c>
       <c r="D377" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G377" s="4"/>
       <c r="O377">
@@ -23286,7 +23330,7 @@
         <v>11</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E378">
         <v>6.6</v>
@@ -23299,7 +23343,7 @@
         <v>9.3939393939393963</v>
       </c>
       <c r="H378" s="22" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="O378">
         <v>20170818</v>
@@ -23319,7 +23363,7 @@
         <v>7</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G379" s="6"/>
       <c r="O379">
@@ -23340,11 +23384,11 @@
         <v>4</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G380" s="6"/>
       <c r="H380" s="21" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="O380">
         <v>20170822</v>
@@ -23364,7 +23408,7 @@
         <v>2</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G381" s="6"/>
       <c r="O381">
@@ -23385,7 +23429,7 @@
         <v>2</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G382" s="6"/>
       <c r="O382">
@@ -23406,7 +23450,7 @@
         <v>4</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G383" s="6"/>
       <c r="O383">
@@ -23427,11 +23471,11 @@
         <v>10</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="21" t="s">
-        <v>1334</v>
+        <v>1693</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23451,11 +23495,11 @@
         <v>6</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="21" t="s">
-        <v>1335</v>
+        <v>1694</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -23475,7 +23519,7 @@
         <v>5</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G386" s="6"/>
       <c r="O386">
@@ -23496,7 +23540,7 @@
         <v>2</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G387" s="6"/>
       <c r="O387">
@@ -23517,7 +23561,7 @@
         <v>3</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G388" s="6"/>
       <c r="O388">
@@ -23538,7 +23582,7 @@
         <v>4</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G389" s="6"/>
       <c r="O389">
@@ -23559,7 +23603,7 @@
         <v>7</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E390">
         <v>6.26</v>
@@ -23572,7 +23616,7 @@
         <v>14.057507987220447</v>
       </c>
       <c r="H390" s="22" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="O390">
         <v>20170905</v>
@@ -23592,7 +23636,7 @@
         <v>4</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E391">
         <v>8.99</v>
@@ -23605,7 +23649,7 @@
         <v>-1.0011123470522787</v>
       </c>
       <c r="H391" s="21" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="O391">
         <v>20170906</v>
@@ -23625,11 +23669,11 @@
         <v>6</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G392" s="13"/>
       <c r="H392" s="21" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="O392">
         <v>20170907</v>
@@ -23649,7 +23693,7 @@
         <v>7</v>
       </c>
       <c r="D393" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E393">
         <v>63</v>
@@ -23662,7 +23706,7 @@
         <v>4.8412698412698365</v>
       </c>
       <c r="H393" s="22" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="O393">
         <v>20170908</v>
@@ -23682,7 +23726,7 @@
         <v>4</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G394" s="13"/>
       <c r="O394">
@@ -23703,7 +23747,7 @@
         <v>6</v>
       </c>
       <c r="D395" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E395">
         <v>29.21</v>
@@ -23716,7 +23760,7 @@
         <v>-4.1424169804861375</v>
       </c>
       <c r="H395" s="22" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="O395">
         <v>20170912</v>
@@ -23736,7 +23780,7 @@
         <v>3</v>
       </c>
       <c r="D396" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G396" s="13"/>
       <c r="O396">
@@ -23757,7 +23801,7 @@
         <v>4</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G397" s="13"/>
       <c r="O397">
@@ -23778,7 +23822,7 @@
         <v>5</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G398" s="13"/>
       <c r="O398">
@@ -23799,7 +23843,7 @@
         <v>3</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G399" s="13"/>
       <c r="O399">
@@ -23820,7 +23864,7 @@
         <v>5</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G400" s="13"/>
       <c r="O400">
@@ -23841,7 +23885,7 @@
         <v>6</v>
       </c>
       <c r="D401" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G401" s="13"/>
       <c r="O401">
@@ -23862,7 +23906,7 @@
         <v>11</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E402">
         <v>8.4499999999999993</v>
@@ -23875,7 +23919,7 @@
         <v>-7.1005917159763277</v>
       </c>
       <c r="H402" s="21" t="s">
-        <v>1340</v>
+        <v>1710</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -23895,7 +23939,7 @@
         <v>19</v>
       </c>
       <c r="D403" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G403" s="13"/>
       <c r="O403">
@@ -23916,11 +23960,11 @@
         <v>9</v>
       </c>
       <c r="D404" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G404" s="13"/>
       <c r="H404" s="22" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="O404">
         <v>20170925</v>
@@ -23940,7 +23984,7 @@
         <v>8</v>
       </c>
       <c r="D405" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E405">
         <v>23.36</v>
@@ -23953,7 +23997,7 @@
         <v>19.306506849315074</v>
       </c>
       <c r="I405" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O405">
         <v>20170926</v>
@@ -23973,11 +24017,11 @@
         <v>11</v>
       </c>
       <c r="D406" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G406" s="13"/>
       <c r="H406" s="22" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="O406">
         <v>20170927</v>
@@ -23997,11 +24041,11 @@
         <v>16</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G407" s="13"/>
       <c r="I407" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O407">
         <v>20170928</v>
@@ -24021,7 +24065,7 @@
         <v>13</v>
       </c>
       <c r="D408" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E408">
         <v>8.56</v>
@@ -24051,7 +24095,7 @@
         <v>15</v>
       </c>
       <c r="D409" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G409" s="13"/>
       <c r="O409">
@@ -24072,7 +24116,7 @@
         <v>13</v>
       </c>
       <c r="D410" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G410" s="13"/>
       <c r="O410">
@@ -24093,7 +24137,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E411">
         <v>4.2699999999999996</v>
@@ -24106,7 +24150,7 @@
         <v>14.754098360655757</v>
       </c>
       <c r="H411" s="22" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="O411">
         <v>20171011</v>
@@ -24126,7 +24170,7 @@
         <v>11</v>
       </c>
       <c r="D412" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G412" s="13"/>
       <c r="O412">
@@ -24147,7 +24191,7 @@
         <v>15</v>
       </c>
       <c r="D413" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G413" s="13"/>
       <c r="O413">
@@ -24168,7 +24212,7 @@
         <v>12</v>
       </c>
       <c r="D414" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E414">
         <v>10.88</v>
@@ -24181,7 +24225,7 @@
         <v>3.8602941176470575</v>
       </c>
       <c r="H414" s="22" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="O414">
         <v>20171016</v>
@@ -24201,7 +24245,7 @@
         <v>11</v>
       </c>
       <c r="D415" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G415" s="13"/>
       <c r="O415">
@@ -24222,7 +24266,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E416">
         <v>30.99</v>
@@ -24230,12 +24274,9 @@
       <c r="F416">
         <v>29.41</v>
       </c>
-      <c r="G416" s="13">
-        <f t="shared" ref="G416:G419" si="16">(F416-E416)/E416*100</f>
-        <v>-5.0984188447886361</v>
-      </c>
+      <c r="G416" s="13"/>
       <c r="H416" s="24" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="O416">
         <v>20171018</v>
@@ -24255,7 +24296,7 @@
         <v>15</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G417" s="13"/>
       <c r="O417">
@@ -24276,7 +24317,7 @@
         <v>16</v>
       </c>
       <c r="D418" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E418">
         <v>13.59</v>
@@ -24286,7 +24327,7 @@
       </c>
       <c r="G418" s="13"/>
       <c r="H418" s="21" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="O418">
         <v>20171020</v>
@@ -24306,7 +24347,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E419">
         <v>9</v>
@@ -24315,11 +24356,11 @@
         <v>10.16</v>
       </c>
       <c r="G419" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G416:G419" si="16">(F419-E419)/E419*100</f>
         <v>12.888888888888891</v>
       </c>
       <c r="H419" s="21" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="O419">
         <v>20171023</v>
@@ -24339,7 +24380,7 @@
         <v>7</v>
       </c>
       <c r="D420" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E420">
         <v>12.5</v>
@@ -24349,7 +24390,7 @@
       </c>
       <c r="G420" s="13"/>
       <c r="H420" s="21" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="O420">
         <v>20171024</v>
@@ -24369,7 +24410,7 @@
         <v>10</v>
       </c>
       <c r="D421" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E421">
         <v>22</v>
@@ -24378,7 +24419,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24398,7 +24439,7 @@
         <v>6</v>
       </c>
       <c r="D422" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G422" s="13"/>
       <c r="O422">
@@ -24419,7 +24460,7 @@
         <v>7</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E423">
         <v>28.61</v>
@@ -24432,7 +24473,7 @@
         <v>28.940929744844464</v>
       </c>
       <c r="H423" s="22" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="O423">
         <v>20171027</v>
@@ -24452,7 +24493,7 @@
         <v>9</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G424" s="16"/>
       <c r="O424">
@@ -24473,7 +24514,7 @@
         <v>7</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G425" s="16"/>
       <c r="O425">
@@ -24494,11 +24535,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="G426" s="16"/>
       <c r="H426" s="22" t="s">
-        <v>1348</v>
+        <v>1691</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24518,7 +24559,7 @@
         <v>10</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E427">
         <v>16</v>
@@ -24531,7 +24572,7 @@
         <v>68.5</v>
       </c>
       <c r="H427" s="22" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="O427">
         <v>20171102</v>
@@ -24551,7 +24592,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G428" s="25"/>
       <c r="O428">
@@ -24572,7 +24613,7 @@
         <v>7</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G429" s="25"/>
       <c r="O429">
@@ -24593,11 +24634,11 @@
         <v>5</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G430" s="25"/>
       <c r="H430" s="21" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -24617,7 +24658,7 @@
         <v>5</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G431" s="25"/>
       <c r="O431">
@@ -24638,9 +24679,12 @@
         <v>7</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G432" s="25"/>
+      <c r="H432" s="21" t="s">
+        <v>1692</v>
+      </c>
       <c r="O432">
         <v>20171109</v>
       </c>
@@ -24659,7 +24703,7 @@
         <v>7</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G433" s="25"/>
       <c r="O433">
@@ -24680,11 +24724,11 @@
         <v>8</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G434" s="25"/>
       <c r="H434" s="21" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="O434">
         <v>20171113</v>
@@ -24704,7 +24748,7 @@
         <v>8</v>
       </c>
       <c r="D435" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G435" s="25"/>
       <c r="O435">
@@ -24725,11 +24769,11 @@
         <v>16</v>
       </c>
       <c r="D436" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G436" s="25"/>
       <c r="H436" s="21" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="O436">
         <v>20171115</v>
@@ -24749,11 +24793,11 @@
         <v>11</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G437" s="25"/>
       <c r="H437" s="21" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -24773,7 +24817,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G438" s="25"/>
       <c r="O438">
@@ -24794,7 +24838,7 @@
         <v>3</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G439" s="25"/>
       <c r="O439">
@@ -24815,11 +24859,11 @@
         <v>8</v>
       </c>
       <c r="D440" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G440" s="25"/>
       <c r="H440" s="21" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -24839,7 +24883,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G441" s="25"/>
       <c r="O441">
@@ -24860,7 +24904,7 @@
         <v>5</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G442" s="25"/>
       <c r="O442">
@@ -24881,7 +24925,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="G443" s="25"/>
       <c r="O443">
@@ -24902,7 +24946,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="O444">
         <v>20171127</v>
@@ -24922,10 +24966,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="H445" s="21" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="O445">
         <v>20171128</v>
@@ -24945,10 +24989,10 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="H446" s="21" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="O446">
         <v>20171129</v>
@@ -24968,10 +25012,10 @@
         <v>16</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="H447" s="21" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="O447">
         <v>20171130</v>
@@ -24991,7 +25035,7 @@
         <v>8</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="E448">
         <v>5.35</v>
@@ -25004,7 +25048,7 @@
         <v>8.9719626168224398</v>
       </c>
       <c r="H448" s="22" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="O448">
         <v>20171201</v>
@@ -25024,7 +25068,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="O449">
         <v>20171204</v>
@@ -25044,7 +25088,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="O450">
         <v>20171205</v>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1723">
   <si>
     <t>date</t>
   </si>
@@ -5356,6 +5356,14 @@
   </si>
   <si>
     <t>缩量减分 中间实体阳线加分 行情起步加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 一字板减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙南京聚拢大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6424,8 +6432,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H425" sqref="H425"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H456" sqref="H456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6666,7 +6674,7 @@
         <v>16.559999999999999</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G66" si="0">(F4-E4)/E4*100</f>
+        <f t="shared" ref="G4:G63" si="0">(F4-E4)/E4*100</f>
         <v>-6.334841628959281</v>
       </c>
       <c r="I4" t="s">
@@ -6960,6 +6968,9 @@
         <f t="shared" si="0"/>
         <v>-4.3725296442687656</v>
       </c>
+      <c r="H9" s="21" t="s">
+        <v>1721</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -10296,7 +10307,7 @@
         <v>50</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G130" si="4">(F69-E69)/E69*100</f>
+        <f t="shared" ref="G69:G122" si="4">(F69-E69)/E69*100</f>
         <v>-1.9607843137254901</v>
       </c>
       <c r="I69">
@@ -11885,9 +11896,8 @@
       <c r="F99">
         <v>30.5</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="4"/>
-        <v>-6.2980030721966118</v>
+      <c r="H99" s="21" t="s">
+        <v>1722</v>
       </c>
       <c r="I99" t="s">
         <v>1080</v>
@@ -13709,7 +13719,7 @@
         <v>14</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G189" si="8">(F132-E132)/E132*100</f>
+        <f t="shared" ref="G132:G173" si="8">(F132-E132)/E132*100</f>
         <v>35.004821600771471</v>
       </c>
       <c r="H132" s="22" t="s">
@@ -17571,7 +17581,7 @@
         <v>33.18</v>
       </c>
       <c r="G201" s="25">
-        <f t="shared" ref="G198:G257" si="11">(F201-E201)/E201*100</f>
+        <f t="shared" ref="G201:G257" si="11">(F201-E201)/E201*100</f>
         <v>4.3396226415094308</v>
       </c>
       <c r="H201" s="22" t="s">
@@ -19026,10 +19036,6 @@
       <c r="F231">
         <v>24.52</v>
       </c>
-      <c r="G231">
-        <f t="shared" si="11"/>
-        <v>-1.5261044176706788</v>
-      </c>
       <c r="H231" s="21" t="s">
         <v>1342</v>
       </c>
@@ -20195,7 +20201,7 @@
         <v>7.7</v>
       </c>
       <c r="G266">
-        <f t="shared" ref="G261:G320" si="12">(F266-E266)/E266*100</f>
+        <f t="shared" ref="G266:G320" si="12">(F266-E266)/E266*100</f>
         <v>-6.0975609756097455</v>
       </c>
       <c r="H266" s="22" t="s">
@@ -22181,7 +22187,7 @@
         <v>12.5</v>
       </c>
       <c r="G330" s="25">
-        <f t="shared" ref="G329:G391" si="14">(F330-E330)/E330*100</f>
+        <f t="shared" ref="G330:G391" si="14">(F330-E330)/E330*100</f>
         <v>3.2204789430223006</v>
       </c>
       <c r="H330" s="22" t="s">
@@ -23756,7 +23762,7 @@
         <v>28</v>
       </c>
       <c r="G395" s="13">
-        <f t="shared" si="15"/>
+        <f>(F395-E395)/E395*100</f>
         <v>-4.1424169804861375</v>
       </c>
       <c r="H395" s="22" t="s">
@@ -24355,10 +24361,7 @@
       <c r="F419">
         <v>10.16</v>
       </c>
-      <c r="G419" s="13">
-        <f t="shared" ref="G416:G419" si="16">(F419-E419)/E419*100</f>
-        <v>12.888888888888891</v>
-      </c>
+      <c r="G419" s="13"/>
       <c r="H419" s="21" t="s">
         <v>1336</v>
       </c>
@@ -24469,7 +24472,7 @@
         <v>36.89</v>
       </c>
       <c r="G423" s="13">
-        <f t="shared" ref="G423:G427" si="17">(F423-E423)/E423*100</f>
+        <f t="shared" ref="G423:G427" si="16">(F423-E423)/E423*100</f>
         <v>28.940929744844464</v>
       </c>
       <c r="H423" s="22" t="s">
@@ -24568,7 +24571,7 @@
         <v>26.96</v>
       </c>
       <c r="G427" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>68.5</v>
       </c>
       <c r="H427" s="22" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -6432,8 +6432,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H456" sqref="H456"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8236,16 +8236,6 @@
       </c>
       <c r="D31" s="25" t="s">
         <v>1368</v>
-      </c>
-      <c r="E31">
-        <v>3.6</v>
-      </c>
-      <c r="F31">
-        <v>4.45</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>23.611111111111114</v>
       </c>
       <c r="I31">
         <v>0</v>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1727">
   <si>
     <t>date</t>
   </si>
@@ -5365,6 +5365,18 @@
   <si>
     <t>前龙南京聚拢大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-环球印务-002799.SZ-实体-陕西-12.0</t>
+  </si>
+  <si>
+    <t>3-当代东方-000673.SZ-实体-山西-27.0</t>
+  </si>
+  <si>
+    <t>4-当代东方-000673.SZ-实体-山西-32.0</t>
+  </si>
+  <si>
+    <t>5-当代东方-000673.SZ-实体-山西-39.0</t>
   </si>
 </sst>
 </file>
@@ -6124,7 +6136,35 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6432,22 +6472,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D450" sqref="D450:D454"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22454,7 +22494,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.5">
+    <row r="341" spans="1:16" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22477,7 +22517,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22500,7 +22540,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22625,7 +22665,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22794,7 +22834,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24251,7 +24291,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25091,6 +25131,18 @@
       </c>
     </row>
     <row r="451" spans="1:16">
+      <c r="A451" s="25">
+        <v>20191104</v>
+      </c>
+      <c r="B451" s="25">
+        <v>7</v>
+      </c>
+      <c r="C451" s="25">
+        <v>6</v>
+      </c>
+      <c r="D451" s="25" t="s">
+        <v>1723</v>
+      </c>
       <c r="O451">
         <v>20171206</v>
       </c>
@@ -25099,6 +25151,18 @@
       </c>
     </row>
     <row r="452" spans="1:16">
+      <c r="A452" s="25">
+        <v>20191105</v>
+      </c>
+      <c r="B452" s="25">
+        <v>8</v>
+      </c>
+      <c r="C452" s="25">
+        <v>6</v>
+      </c>
+      <c r="D452" s="25" t="s">
+        <v>1724</v>
+      </c>
       <c r="O452">
         <v>20171207</v>
       </c>
@@ -25107,6 +25171,18 @@
       </c>
     </row>
     <row r="453" spans="1:16">
+      <c r="A453" s="25">
+        <v>20191106</v>
+      </c>
+      <c r="B453" s="25">
+        <v>7</v>
+      </c>
+      <c r="C453" s="25">
+        <v>5</v>
+      </c>
+      <c r="D453" s="25" t="s">
+        <v>1725</v>
+      </c>
       <c r="O453">
         <v>20171208</v>
       </c>
@@ -25115,6 +25191,18 @@
       </c>
     </row>
     <row r="454" spans="1:16">
+      <c r="A454" s="25">
+        <v>20191107</v>
+      </c>
+      <c r="B454" s="25">
+        <v>6</v>
+      </c>
+      <c r="C454" s="25">
+        <v>4</v>
+      </c>
+      <c r="D454" s="25" t="s">
+        <v>1726</v>
+      </c>
       <c r="O454">
         <v>20171211</v>
       </c>
@@ -25643,12 +25731,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="39" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B450:B454">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C450:C454">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25665,7 +25763,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27151,7 +27249,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28653,7 +28751,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30599,7 +30697,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31349,7 +31447,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1728">
   <si>
     <t>date</t>
   </si>
@@ -5377,6 +5377,9 @@
   </si>
   <si>
     <t>5-当代东方-000673.SZ-实体-山西-39.0</t>
+  </si>
+  <si>
+    <t>2-安德利-603031.SH-实体-nan-5.0</t>
   </si>
 </sst>
 </file>
@@ -6136,7 +6139,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -6155,6 +6158,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6473,7 +6490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D450" sqref="D450:D454"/>
+      <selection pane="bottomLeft" activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25211,6 +25228,18 @@
       </c>
     </row>
     <row r="455" spans="1:16">
+      <c r="A455" s="25">
+        <v>20191108</v>
+      </c>
+      <c r="B455" s="25">
+        <v>8</v>
+      </c>
+      <c r="C455" s="25">
+        <v>6</v>
+      </c>
+      <c r="D455" s="25" t="s">
+        <v>1727</v>
+      </c>
       <c r="O455">
         <v>20171212</v>
       </c>
@@ -25731,21 +25760,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="42" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="39" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="41" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450:B454">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C450:C454">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B455">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C450:C454">
+  <conditionalFormatting sqref="C455">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1730">
   <si>
     <t>date</t>
   </si>
@@ -5380,6 +5380,14 @@
   </si>
   <si>
     <t>2-安德利-603031.SH-实体-nan-5.0</t>
+  </si>
+  <si>
+    <t>宝顶科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎龙文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6139,25 +6147,11 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6489,22 +6483,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D458" sqref="D458"/>
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22511,7 +22505,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="43.2">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22534,7 +22528,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22557,7 +22551,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22682,7 +22676,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22851,7 +22845,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24308,7 +24302,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25272,6 +25266,24 @@
       </c>
     </row>
     <row r="459" spans="1:16">
+      <c r="A459">
+        <v>20191115</v>
+      </c>
+      <c r="B459">
+        <v>10</v>
+      </c>
+      <c r="D459" s="25" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E459">
+        <v>27</v>
+      </c>
+      <c r="F459">
+        <v>27</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
       <c r="O459">
         <v>20171218</v>
       </c>
@@ -25288,6 +25300,18 @@
       </c>
     </row>
     <row r="461" spans="1:16">
+      <c r="A461" s="25">
+        <v>20191119</v>
+      </c>
+      <c r="B461">
+        <v>11</v>
+      </c>
+      <c r="D461" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E461">
+        <v>3.39</v>
+      </c>
       <c r="O461">
         <v>20171220</v>
       </c>
@@ -25760,32 +25784,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="42" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="6" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="41" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450:B454">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C450:C454">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C455">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25802,7 +25826,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27288,7 +27312,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28790,7 +28814,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30736,7 +30760,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31486,7 +31510,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1737">
   <si>
     <t>date</t>
   </si>
@@ -5379,15 +5379,34 @@
     <t>5-当代东方-000673.SZ-实体-山西-39.0</t>
   </si>
   <si>
-    <t>2-安德利-603031.SH-实体-nan-5.0</t>
-  </si>
-  <si>
-    <t>宝顶科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎龙文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2-四川双马-000935.SZ-实体-四川-11.0</t>
+  </si>
+  <si>
+    <t>3-先进数通-300541.SZ-实体-北京-13.0</t>
+  </si>
+  <si>
+    <t>3-得利斯-002330.SZ-实体-山东-7.0</t>
+  </si>
+  <si>
+    <t>4-得利斯-002330.SZ-实体-山东-12.0</t>
+  </si>
+  <si>
+    <t>4-宝鼎科技-002552.SZ-实体-浙江-40.0</t>
+  </si>
+  <si>
+    <t>5-宝鼎科技-002552.SZ-实体-浙江-48.0</t>
+  </si>
+  <si>
+    <t>3-鼎龙文化-002502.SZ-实体-广东-22.0</t>
+  </si>
+  <si>
+    <t>4-鼎龙文化-002502.SZ-实体-广东-35.0</t>
+  </si>
+  <si>
+    <t>5-鼎龙文化-002502.SZ-实体-广东-36.0</t>
+  </si>
+  <si>
+    <t>5-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
   </si>
 </sst>
 </file>
@@ -6147,7 +6166,35 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6483,22 +6530,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D466" sqref="D466"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22505,7 +22552,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.5">
+    <row r="341" spans="1:16" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22528,7 +22575,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22551,7 +22598,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22676,7 +22723,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22845,7 +22892,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24302,7 +24349,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25242,6 +25289,18 @@
       </c>
     </row>
     <row r="456" spans="1:16">
+      <c r="A456" s="25">
+        <v>20191111</v>
+      </c>
+      <c r="B456" s="25">
+        <v>5</v>
+      </c>
+      <c r="C456" s="25">
+        <v>3</v>
+      </c>
+      <c r="D456" s="25" t="s">
+        <v>1728</v>
+      </c>
       <c r="O456">
         <v>20171213</v>
       </c>
@@ -25250,6 +25309,18 @@
       </c>
     </row>
     <row r="457" spans="1:16">
+      <c r="A457" s="25">
+        <v>20191112</v>
+      </c>
+      <c r="B457" s="25">
+        <v>8</v>
+      </c>
+      <c r="C457" s="25">
+        <v>4</v>
+      </c>
+      <c r="D457" s="25" t="s">
+        <v>1729</v>
+      </c>
       <c r="O457">
         <v>20171214</v>
       </c>
@@ -25258,6 +25329,18 @@
       </c>
     </row>
     <row r="458" spans="1:16">
+      <c r="A458" s="25">
+        <v>20191113</v>
+      </c>
+      <c r="B458" s="25">
+        <v>9</v>
+      </c>
+      <c r="C458" s="25">
+        <v>5</v>
+      </c>
+      <c r="D458" s="25" t="s">
+        <v>1730</v>
+      </c>
       <c r="O458">
         <v>20171215</v>
       </c>
@@ -25266,14 +25349,17 @@
       </c>
     </row>
     <row r="459" spans="1:16">
-      <c r="A459">
-        <v>20191115</v>
-      </c>
-      <c r="B459">
+      <c r="A459" s="25">
+        <v>20191114</v>
+      </c>
+      <c r="B459" s="25">
         <v>10</v>
       </c>
+      <c r="C459" s="25">
+        <v>6</v>
+      </c>
       <c r="D459" s="25" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="E459">
         <v>27</v>
@@ -25292,6 +25378,18 @@
       </c>
     </row>
     <row r="460" spans="1:16">
+      <c r="A460" s="25">
+        <v>20191115</v>
+      </c>
+      <c r="B460" s="25">
+        <v>8</v>
+      </c>
+      <c r="C460" s="25">
+        <v>5</v>
+      </c>
+      <c r="D460" s="25" t="s">
+        <v>1732</v>
+      </c>
       <c r="O460">
         <v>20171219</v>
       </c>
@@ -25301,13 +25399,16 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461" s="25">
-        <v>20191119</v>
-      </c>
-      <c r="B461">
-        <v>11</v>
+        <v>20191118</v>
+      </c>
+      <c r="B461" s="25">
+        <v>9</v>
+      </c>
+      <c r="C461" s="25">
+        <v>4</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="E461">
         <v>3.39</v>
@@ -25320,6 +25421,18 @@
       </c>
     </row>
     <row r="462" spans="1:16">
+      <c r="A462" s="25">
+        <v>20191119</v>
+      </c>
+      <c r="B462" s="25">
+        <v>12</v>
+      </c>
+      <c r="C462" s="25">
+        <v>6</v>
+      </c>
+      <c r="D462" s="25" t="s">
+        <v>1734</v>
+      </c>
       <c r="O462">
         <v>20171221</v>
       </c>
@@ -25328,6 +25441,18 @@
       </c>
     </row>
     <row r="463" spans="1:16">
+      <c r="A463" s="25">
+        <v>20191120</v>
+      </c>
+      <c r="B463" s="25">
+        <v>14</v>
+      </c>
+      <c r="C463" s="25">
+        <v>7</v>
+      </c>
+      <c r="D463" s="25" t="s">
+        <v>1735</v>
+      </c>
       <c r="O463">
         <v>20171222</v>
       </c>
@@ -25336,6 +25461,18 @@
       </c>
     </row>
     <row r="464" spans="1:16">
+      <c r="A464" s="25">
+        <v>20191121</v>
+      </c>
+      <c r="B464" s="25">
+        <v>10</v>
+      </c>
+      <c r="C464" s="25">
+        <v>6</v>
+      </c>
+      <c r="D464" s="25" t="s">
+        <v>1736</v>
+      </c>
       <c r="O464">
         <v>20171225</v>
       </c>
@@ -25784,32 +25921,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="44" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="41" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="43" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B450:B454">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C450:C454">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B455">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C455">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B455:B464">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C455:C464">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25826,7 +25973,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27312,7 +27459,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28814,7 +28961,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30760,7 +30907,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31510,7 +31657,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1739">
   <si>
     <t>date</t>
   </si>
@@ -5407,6 +5407,14 @@
   </si>
   <si>
     <t>5-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行情起步加分 换手加分 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 换手加分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6166,63 +6174,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -6529,23 +6481,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F463" sqref="F463"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G459" sqref="G459"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22552,7 +22504,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="43.2">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22575,7 +22527,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22598,7 +22550,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22723,7 +22675,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22892,7 +22844,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24349,7 +24301,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25161,6 +25113,7 @@
       <c r="D449" s="25" t="s">
         <v>1679</v>
       </c>
+      <c r="G449" s="25"/>
       <c r="O449">
         <v>20171204</v>
       </c>
@@ -25181,6 +25134,7 @@
       <c r="D450" s="25" t="s">
         <v>1680</v>
       </c>
+      <c r="G450" s="25"/>
       <c r="O450">
         <v>20171205</v>
       </c>
@@ -25201,6 +25155,7 @@
       <c r="D451" s="25" t="s">
         <v>1723</v>
       </c>
+      <c r="G451" s="25"/>
       <c r="O451">
         <v>20171206</v>
       </c>
@@ -25221,6 +25176,7 @@
       <c r="D452" s="25" t="s">
         <v>1724</v>
       </c>
+      <c r="G452" s="25"/>
       <c r="O452">
         <v>20171207</v>
       </c>
@@ -25241,6 +25197,7 @@
       <c r="D453" s="25" t="s">
         <v>1725</v>
       </c>
+      <c r="G453" s="25"/>
       <c r="O453">
         <v>20171208</v>
       </c>
@@ -25261,6 +25218,7 @@
       <c r="D454" s="25" t="s">
         <v>1726</v>
       </c>
+      <c r="G454" s="25"/>
       <c r="O454">
         <v>20171211</v>
       </c>
@@ -25281,6 +25239,7 @@
       <c r="D455" s="25" t="s">
         <v>1727</v>
       </c>
+      <c r="G455" s="25"/>
       <c r="O455">
         <v>20171212</v>
       </c>
@@ -25301,6 +25260,7 @@
       <c r="D456" s="25" t="s">
         <v>1728</v>
       </c>
+      <c r="G456" s="25"/>
       <c r="O456">
         <v>20171213</v>
       </c>
@@ -25321,6 +25281,7 @@
       <c r="D457" s="25" t="s">
         <v>1729</v>
       </c>
+      <c r="G457" s="25"/>
       <c r="O457">
         <v>20171214</v>
       </c>
@@ -25341,6 +25302,7 @@
       <c r="D458" s="25" t="s">
         <v>1730</v>
       </c>
+      <c r="G458" s="25"/>
       <c r="O458">
         <v>20171215</v>
       </c>
@@ -25367,8 +25329,11 @@
       <c r="F459">
         <v>27</v>
       </c>
-      <c r="G459">
+      <c r="G459" s="25">
         <v>0</v>
+      </c>
+      <c r="H459" s="22" t="s">
+        <v>1737</v>
       </c>
       <c r="O459">
         <v>20171218</v>
@@ -25390,6 +25355,7 @@
       <c r="D460" s="25" t="s">
         <v>1732</v>
       </c>
+      <c r="G460" s="25"/>
       <c r="O460">
         <v>20171219</v>
       </c>
@@ -25410,9 +25376,7 @@
       <c r="D461" s="25" t="s">
         <v>1733</v>
       </c>
-      <c r="E461">
-        <v>3.39</v>
-      </c>
+      <c r="G461" s="25"/>
       <c r="O461">
         <v>20171220</v>
       </c>
@@ -25433,6 +25397,19 @@
       <c r="D462" s="25" t="s">
         <v>1734</v>
       </c>
+      <c r="E462">
+        <v>3.39</v>
+      </c>
+      <c r="F462">
+        <v>4.22</v>
+      </c>
+      <c r="G462" s="25">
+        <f t="shared" ref="G449:G462" si="17">(F462-E462)/E462*100</f>
+        <v>24.483775811209426</v>
+      </c>
+      <c r="H462" s="22" t="s">
+        <v>1738</v>
+      </c>
       <c r="O462">
         <v>20171221</v>
       </c>
@@ -25921,42 +25898,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="43" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B450:B454">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C450:C454">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B455">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C455">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B455:B464">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C455:C464">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25973,7 +25920,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27459,7 +27406,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28961,7 +28908,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30907,7 +30854,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31657,7 +31604,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1743">
   <si>
     <t>date</t>
   </si>
@@ -5414,6 +5414,20 @@
   </si>
   <si>
     <t>行情起步加分 换手加分 低开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+  </si>
+  <si>
+    <t>7-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+  </si>
+  <si>
+    <t>中迪投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手加分 低开加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6050,7 +6064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6125,6 +6139,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -6481,9 +6501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G459" sqref="G459"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G471" sqref="G471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25404,7 +25424,7 @@
         <v>4.22</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G449:G462" si="17">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462" si="17">(F462-E462)/E462*100</f>
         <v>24.483775811209426</v>
       </c>
       <c r="H462" s="22" t="s">
@@ -25438,13 +25458,13 @@
       </c>
     </row>
     <row r="464" spans="1:16">
-      <c r="A464" s="25">
+      <c r="A464" s="26">
         <v>20191121</v>
       </c>
-      <c r="B464" s="25">
+      <c r="B464" s="26">
         <v>10</v>
       </c>
-      <c r="C464" s="25">
+      <c r="C464" s="26">
         <v>6</v>
       </c>
       <c r="D464" s="25" t="s">
@@ -25457,7 +25477,17 @@
         <v>459</v>
       </c>
     </row>
-    <row r="465" spans="15:16">
+    <row r="465" spans="1:16">
+      <c r="A465" s="26">
+        <v>20191122</v>
+      </c>
+      <c r="B465" s="26">
+        <v>12</v>
+      </c>
+      <c r="C465" s="26"/>
+      <c r="D465" s="27" t="s">
+        <v>1739</v>
+      </c>
       <c r="O465">
         <v>20171226</v>
       </c>
@@ -25465,7 +25495,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="15:16">
+    <row r="466" spans="1:16">
+      <c r="A466" s="26">
+        <v>20191125</v>
+      </c>
+      <c r="B466" s="26">
+        <v>14</v>
+      </c>
+      <c r="C466" s="26"/>
+      <c r="D466" s="27" t="s">
+        <v>1740</v>
+      </c>
       <c r="O466">
         <v>20171227</v>
       </c>
@@ -25473,7 +25513,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="15:16">
+    <row r="467" spans="1:16">
+      <c r="A467" s="26">
+        <v>20191126</v>
+      </c>
+      <c r="B467" s="26">
+        <v>10</v>
+      </c>
+      <c r="C467" s="26"/>
+      <c r="D467" s="27" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E467">
+        <v>6.19</v>
+      </c>
+      <c r="F467">
+        <v>6.19</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467" s="22" t="s">
+        <v>1742</v>
+      </c>
       <c r="O467">
         <v>20171228</v>
       </c>
@@ -25481,7 +25543,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="15:16">
+    <row r="468" spans="1:16">
+      <c r="A468" s="26">
+        <v>20191127</v>
+      </c>
+      <c r="B468" s="26">
+        <v>9</v>
+      </c>
+      <c r="C468" s="26"/>
       <c r="O468">
         <v>20171229</v>
       </c>
@@ -25489,7 +25558,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="15:16">
+    <row r="469" spans="1:16">
+      <c r="A469" s="26">
+        <v>20191128</v>
+      </c>
+      <c r="B469" s="26">
+        <v>8</v>
+      </c>
+      <c r="C469" s="26"/>
       <c r="O469">
         <v>20180102</v>
       </c>
@@ -25497,7 +25573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="15:16">
+    <row r="470" spans="1:16">
       <c r="O470">
         <v>20180103</v>
       </c>
@@ -25505,7 +25581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="471" spans="15:16">
+    <row r="471" spans="1:16">
       <c r="O471">
         <v>20180104</v>
       </c>
@@ -25513,7 +25589,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="472" spans="15:16">
+    <row r="472" spans="1:16">
       <c r="O472">
         <v>20180105</v>
       </c>
@@ -25521,7 +25597,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="473" spans="15:16">
+    <row r="473" spans="1:16">
       <c r="O473">
         <v>20180108</v>
       </c>
@@ -25529,7 +25605,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="474" spans="15:16">
+    <row r="474" spans="1:16">
       <c r="O474">
         <v>20180109</v>
       </c>
@@ -25537,7 +25613,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="475" spans="15:16">
+    <row r="475" spans="1:16">
       <c r="O475">
         <v>20180110</v>
       </c>
@@ -25545,7 +25621,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="476" spans="15:16">
+    <row r="476" spans="1:16">
       <c r="O476">
         <v>20180111</v>
       </c>
@@ -25553,7 +25629,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="477" spans="15:16">
+    <row r="477" spans="1:16">
       <c r="O477">
         <v>20180112</v>
       </c>
@@ -25561,7 +25637,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="478" spans="15:16">
+    <row r="478" spans="1:16">
       <c r="O478">
         <v>20180115</v>
       </c>
@@ -25569,7 +25645,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="479" spans="15:16">
+    <row r="479" spans="1:16">
       <c r="O479">
         <v>20180116</v>
       </c>
@@ -25577,7 +25653,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="480" spans="15:16">
+    <row r="480" spans="1:16">
       <c r="O480">
         <v>20180117</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1744">
   <si>
     <t>date</t>
   </si>
@@ -5427,7 +5427,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>换手加分 低开加分</t>
+    <t>缩量减分 高开减分 秒板缩量减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手加分 低开加分 只要是放量就可以选系统的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6501,9 +6505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G471" sqref="G471"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H471" sqref="H471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24482,7 +24486,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1314</v>
+        <v>1742</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -25534,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="H467" s="22" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25574,6 +25578,12 @@
       </c>
     </row>
     <row r="470" spans="1:16">
+      <c r="A470" s="27">
+        <v>20191129</v>
+      </c>
+      <c r="B470">
+        <v>8</v>
+      </c>
       <c r="O470">
         <v>20180103</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1756">
   <si>
     <t>date</t>
   </si>
@@ -5417,21 +5417,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
-  </si>
-  <si>
     <t>7-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
-  </si>
-  <si>
-    <t>中迪投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缩量减分 高开减分 秒板缩量减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>换手加分 低开加分 只要是放量就可以选系统的</t>
+    <t>6-麦克奥迪-300341.SZ-非实体-福建-0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-中迪投资-000609.SZ-实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>3-四川金顶-600678.SH-实体-四川-18.0</t>
+  </si>
+  <si>
+    <t>2-海联讯-300277.SZ-实体-深圳-14.0</t>
+  </si>
+  <si>
+    <t>3-青海华鼎-600243.SH-实体-青海-14.0</t>
+  </si>
+  <si>
+    <t>4-青海华鼎-600243.SH-实体-青海-18.0</t>
+  </si>
+  <si>
+    <t>3-华森制药-002907.SZ-实体-重庆-7.0</t>
+  </si>
+  <si>
+    <t>4-万通智控-300643.SZ-实体-浙江-31.0</t>
+  </si>
+  <si>
+    <t>5-万通智控-300643.SZ-实体-浙江-32.0</t>
+  </si>
+  <si>
+    <t>6-万通智控-300643.SZ-实体-浙江-37.0</t>
+  </si>
+  <si>
+    <t>isLianban</t>
+  </si>
+  <si>
+    <t>isLianbanST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">换手加分 低开加分 只要是放量就可以选系统的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情起步加分 行情缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 一字板减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6068,7 +6106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6150,9 +6188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6198,7 +6233,63 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6505,29 +6596,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H471" sqref="H471"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D468" sqref="D468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="26" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1752</v>
+      </c>
       <c r="D1" t="s">
         <v>985</v>
       </c>
@@ -22528,7 +22625,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.5">
+    <row r="341" spans="1:16" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22551,7 +22648,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22574,7 +22671,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22699,7 +22796,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22868,7 +22965,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24325,7 +24422,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -24486,7 +24583,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -25425,11 +25522,11 @@
         <v>3.39</v>
       </c>
       <c r="F462">
-        <v>4.22</v>
+        <v>3.4</v>
       </c>
       <c r="G462" s="25">
         <f t="shared" ref="G462" si="17">(F462-E462)/E462*100</f>
-        <v>24.483775811209426</v>
+        <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
         <v>1738</v>
@@ -25442,16 +25539,16 @@
       </c>
     </row>
     <row r="463" spans="1:16">
-      <c r="A463" s="25">
+      <c r="A463" s="26">
         <v>20191120</v>
       </c>
-      <c r="B463" s="25">
+      <c r="B463" s="26">
         <v>14</v>
       </c>
-      <c r="C463" s="25">
+      <c r="C463" s="26">
         <v>7</v>
       </c>
-      <c r="D463" s="25" t="s">
+      <c r="D463" s="26" t="s">
         <v>1735</v>
       </c>
       <c r="O463">
@@ -25471,7 +25568,7 @@
       <c r="C464" s="26">
         <v>6</v>
       </c>
-      <c r="D464" s="25" t="s">
+      <c r="D464" s="26" t="s">
         <v>1736</v>
       </c>
       <c r="O464">
@@ -25489,8 +25586,8 @@
         <v>12</v>
       </c>
       <c r="C465" s="26"/>
-      <c r="D465" s="27" t="s">
-        <v>1739</v>
+      <c r="D465" s="26" t="s">
+        <v>1741</v>
       </c>
       <c r="O465">
         <v>20171226</v>
@@ -25506,9 +25603,14 @@
       <c r="B466" s="26">
         <v>14</v>
       </c>
-      <c r="C466" s="26"/>
-      <c r="D466" s="27" t="s">
-        <v>1740</v>
+      <c r="C466" s="26">
+        <v>10</v>
+      </c>
+      <c r="D466" s="26" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H466" s="21" t="s">
+        <v>1755</v>
       </c>
       <c r="O466">
         <v>20171227</v>
@@ -25524,9 +25626,11 @@
       <c r="B467" s="26">
         <v>10</v>
       </c>
-      <c r="C467" s="26"/>
-      <c r="D467" s="27" t="s">
-        <v>1741</v>
+      <c r="C467" s="26">
+        <v>6</v>
+      </c>
+      <c r="D467" s="26" t="s">
+        <v>1742</v>
       </c>
       <c r="E467">
         <v>6.19</v>
@@ -25538,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="H467" s="22" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25554,7 +25658,12 @@
       <c r="B468" s="26">
         <v>9</v>
       </c>
-      <c r="C468" s="26"/>
+      <c r="C468" s="26">
+        <v>4</v>
+      </c>
+      <c r="D468" s="26" t="s">
+        <v>1743</v>
+      </c>
       <c r="O468">
         <v>20171229</v>
       </c>
@@ -25569,7 +25678,12 @@
       <c r="B469" s="26">
         <v>8</v>
       </c>
-      <c r="C469" s="26"/>
+      <c r="C469" s="26">
+        <v>3</v>
+      </c>
+      <c r="D469" s="26" t="s">
+        <v>1744</v>
+      </c>
       <c r="O469">
         <v>20180102</v>
       </c>
@@ -25578,11 +25692,17 @@
       </c>
     </row>
     <row r="470" spans="1:16">
-      <c r="A470" s="27">
+      <c r="A470" s="26">
         <v>20191129</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="26">
         <v>8</v>
+      </c>
+      <c r="C470" s="26">
+        <v>4</v>
+      </c>
+      <c r="D470" s="26" t="s">
+        <v>1745</v>
       </c>
       <c r="O470">
         <v>20180103</v>
@@ -25592,6 +25712,18 @@
       </c>
     </row>
     <row r="471" spans="1:16">
+      <c r="A471" s="26">
+        <v>20191202</v>
+      </c>
+      <c r="B471" s="26">
+        <v>9</v>
+      </c>
+      <c r="C471" s="26">
+        <v>5</v>
+      </c>
+      <c r="D471" s="26" t="s">
+        <v>1746</v>
+      </c>
       <c r="O471">
         <v>20180104</v>
       </c>
@@ -25600,6 +25732,18 @@
       </c>
     </row>
     <row r="472" spans="1:16">
+      <c r="A472" s="26">
+        <v>20191203</v>
+      </c>
+      <c r="B472" s="26">
+        <v>8</v>
+      </c>
+      <c r="C472" s="26">
+        <v>4</v>
+      </c>
+      <c r="D472" s="26" t="s">
+        <v>1747</v>
+      </c>
       <c r="O472">
         <v>20180105</v>
       </c>
@@ -25608,6 +25752,24 @@
       </c>
     </row>
     <row r="473" spans="1:16">
+      <c r="A473" s="26">
+        <v>20191204</v>
+      </c>
+      <c r="B473" s="26">
+        <v>13</v>
+      </c>
+      <c r="C473" s="26">
+        <v>8</v>
+      </c>
+      <c r="D473" s="26" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E473">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="H473" s="22" t="s">
+        <v>1754</v>
+      </c>
       <c r="O473">
         <v>20180108</v>
       </c>
@@ -25616,6 +25778,18 @@
       </c>
     </row>
     <row r="474" spans="1:16">
+      <c r="A474" s="26">
+        <v>20191205</v>
+      </c>
+      <c r="B474" s="26">
+        <v>11</v>
+      </c>
+      <c r="C474" s="26">
+        <v>5</v>
+      </c>
+      <c r="D474" s="26" t="s">
+        <v>1749</v>
+      </c>
       <c r="O474">
         <v>20180109</v>
       </c>
@@ -25624,6 +25798,18 @@
       </c>
     </row>
     <row r="475" spans="1:16">
+      <c r="A475" s="26">
+        <v>20191206</v>
+      </c>
+      <c r="B475" s="26">
+        <v>15</v>
+      </c>
+      <c r="C475" s="26">
+        <v>9</v>
+      </c>
+      <c r="D475" s="26" t="s">
+        <v>1750</v>
+      </c>
       <c r="O475">
         <v>20180110</v>
       </c>
@@ -25984,12 +26170,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="48" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="47" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B471:B475 B463:B469">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C463:C475">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26006,7 +26212,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27492,7 +27698,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28994,7 +29200,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -30940,7 +31146,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31690,7 +31896,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1757">
   <si>
     <t>date</t>
   </si>
@@ -5471,6 +5471,9 @@
   <si>
     <t>缩量减分 一字板减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-漫步者-002351.SZ-实体-nan-20.0</t>
   </si>
 </sst>
 </file>
@@ -6233,14 +6236,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -6258,28 +6254,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6597,8 +6572,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D468" sqref="D468"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H475" sqref="H475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25525,7 +25500,7 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462" si="17">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G473" si="17">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
@@ -25551,6 +25526,7 @@
       <c r="D463" s="26" t="s">
         <v>1735</v>
       </c>
+      <c r="G463" s="26"/>
       <c r="O463">
         <v>20171222</v>
       </c>
@@ -25571,6 +25547,7 @@
       <c r="D464" s="26" t="s">
         <v>1736</v>
       </c>
+      <c r="G464" s="26"/>
       <c r="O464">
         <v>20171225</v>
       </c>
@@ -25589,6 +25566,7 @@
       <c r="D465" s="26" t="s">
         <v>1741</v>
       </c>
+      <c r="G465" s="26"/>
       <c r="O465">
         <v>20171226</v>
       </c>
@@ -25609,6 +25587,7 @@
       <c r="D466" s="26" t="s">
         <v>1739</v>
       </c>
+      <c r="G466" s="26"/>
       <c r="H466" s="21" t="s">
         <v>1755</v>
       </c>
@@ -25638,7 +25617,8 @@
       <c r="F467">
         <v>6.19</v>
       </c>
-      <c r="G467">
+      <c r="G467" s="26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H467" s="22" t="s">
@@ -25664,6 +25644,7 @@
       <c r="D468" s="26" t="s">
         <v>1743</v>
       </c>
+      <c r="G468" s="26"/>
       <c r="O468">
         <v>20171229</v>
       </c>
@@ -25684,6 +25665,7 @@
       <c r="D469" s="26" t="s">
         <v>1744</v>
       </c>
+      <c r="G469" s="26"/>
       <c r="O469">
         <v>20180102</v>
       </c>
@@ -25704,6 +25686,7 @@
       <c r="D470" s="26" t="s">
         <v>1745</v>
       </c>
+      <c r="G470" s="26"/>
       <c r="O470">
         <v>20180103</v>
       </c>
@@ -25724,6 +25707,7 @@
       <c r="D471" s="26" t="s">
         <v>1746</v>
       </c>
+      <c r="G471" s="26"/>
       <c r="O471">
         <v>20180104</v>
       </c>
@@ -25744,6 +25728,7 @@
       <c r="D472" s="26" t="s">
         <v>1747</v>
       </c>
+      <c r="G472" s="26"/>
       <c r="O472">
         <v>20180105</v>
       </c>
@@ -25767,6 +25752,13 @@
       <c r="E473">
         <v>16.940000000000001</v>
       </c>
+      <c r="F473">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G473" s="26">
+        <f t="shared" si="17"/>
+        <v>15.702479338842975</v>
+      </c>
       <c r="H473" s="22" t="s">
         <v>1754</v>
       </c>
@@ -25818,6 +25810,18 @@
       </c>
     </row>
     <row r="476" spans="1:16">
+      <c r="A476" s="26">
+        <v>20191209</v>
+      </c>
+      <c r="B476" s="26">
+        <v>14</v>
+      </c>
+      <c r="C476" s="26">
+        <v>9</v>
+      </c>
+      <c r="D476" s="26" t="s">
+        <v>1756</v>
+      </c>
       <c r="O476">
         <v>20180111</v>
       </c>
@@ -26170,32 +26174,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="48" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="47" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="47" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B471:B475 B463:B469">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C463:C475">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1758">
   <si>
     <t>date</t>
   </si>
@@ -5474,6 +5474,10 @@
   </si>
   <si>
     <t>4-漫步者-002351.SZ-实体-nan-20.0</t>
+  </si>
+  <si>
+    <t>5-漫步者-002351.SZ-实体-nan-20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6572,13 +6576,13 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H475" sqref="H475"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E477" sqref="E477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
@@ -25830,6 +25834,18 @@
       </c>
     </row>
     <row r="477" spans="1:16">
+      <c r="A477">
+        <v>20191210</v>
+      </c>
+      <c r="B477">
+        <v>14</v>
+      </c>
+      <c r="C477">
+        <v>8</v>
+      </c>
+      <c r="D477" s="26" t="s">
+        <v>1757</v>
+      </c>
       <c r="O477">
         <v>20180112</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5461,10 +5461,6 @@
     <t>isLianbanST</t>
   </si>
   <si>
-    <t xml:space="preserve">换手加分 低开加分 只要是放量就可以选系统的 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行情起步加分 行情缩量减分 高开减分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5477,6 +5473,10 @@
   </si>
   <si>
     <t>5-漫步者-002351.SZ-实体-nan-20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手加分 低开加分 只要是放量就可以选系统的 跌停板 排版出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6576,22 +6576,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E477" sqref="E477"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H471" sqref="H471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22604,7 +22604,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="43.2">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22650,7 +22650,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24401,7 +24401,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25427,10 +25427,11 @@
         <v>27</v>
       </c>
       <c r="F459">
-        <v>27</v>
-      </c>
-      <c r="G459" s="25">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="G459" s="26">
+        <f t="shared" ref="G459:G461" si="17">(F459-E459)/E459*100</f>
+        <v>3.7037037037037033</v>
       </c>
       <c r="H459" s="22" t="s">
         <v>1737</v>
@@ -25455,7 +25456,7 @@
       <c r="D460" s="25" t="s">
         <v>1732</v>
       </c>
-      <c r="G460" s="25"/>
+      <c r="G460" s="26"/>
       <c r="O460">
         <v>20171219</v>
       </c>
@@ -25476,7 +25477,7 @@
       <c r="D461" s="25" t="s">
         <v>1733</v>
       </c>
-      <c r="G461" s="25"/>
+      <c r="G461" s="26"/>
       <c r="O461">
         <v>20171220</v>
       </c>
@@ -25504,7 +25505,7 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G473" si="17">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G473" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
@@ -25593,7 +25594,7 @@
       </c>
       <c r="G466" s="26"/>
       <c r="H466" s="21" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="O466">
         <v>20171227</v>
@@ -25619,14 +25620,14 @@
         <v>6.19</v>
       </c>
       <c r="F467">
-        <v>6.19</v>
+        <v>5.98</v>
       </c>
       <c r="G467" s="26">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>-3.3925686591276247</v>
       </c>
       <c r="H467" s="22" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25760,11 +25761,11 @@
         <v>19.600000000000001</v>
       </c>
       <c r="G473" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15.702479338842975</v>
       </c>
       <c r="H473" s="22" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="O473">
         <v>20180108</v>
@@ -25824,7 +25825,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="O476">
         <v>20180111</v>
@@ -25844,7 +25845,10 @@
         <v>8</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>1757</v>
+        <v>1756</v>
+      </c>
+      <c r="E477">
+        <v>24.04</v>
       </c>
       <c r="O477">
         <v>20180112</v>
@@ -26232,7 +26236,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27718,7 +27722,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29220,7 +29224,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31166,7 +31170,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31916,7 +31920,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1760">
   <si>
     <t>date</t>
   </si>
@@ -5477,6 +5477,14 @@
   </si>
   <si>
     <t>换手加分 低开加分 只要是放量就可以选系统的 跌停板 排版出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁百货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手加分 遭遇减持利空 如果竞价红直接砸 否则盘中拉红砸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6576,8 +6584,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H471" sqref="H471"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D479" sqref="D479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25430,7 +25438,7 @@
         <v>28</v>
       </c>
       <c r="G459" s="26">
-        <f t="shared" ref="G459:G461" si="17">(F459-E459)/E459*100</f>
+        <f t="shared" ref="G459" si="17">(F459-E459)/E459*100</f>
         <v>3.7037037037037033</v>
       </c>
       <c r="H459" s="22" t="s">
@@ -25505,7 +25513,7 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G473" si="18">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G477" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
@@ -25787,6 +25795,7 @@
       <c r="D474" s="26" t="s">
         <v>1749</v>
       </c>
+      <c r="G474" s="26"/>
       <c r="O474">
         <v>20180109</v>
       </c>
@@ -25807,6 +25816,7 @@
       <c r="D475" s="26" t="s">
         <v>1750</v>
       </c>
+      <c r="G475" s="26"/>
       <c r="O475">
         <v>20180110</v>
       </c>
@@ -25827,6 +25837,7 @@
       <c r="D476" s="26" t="s">
         <v>1755</v>
       </c>
+      <c r="G476" s="26"/>
       <c r="O476">
         <v>20180111</v>
       </c>
@@ -25850,6 +25861,16 @@
       <c r="E477">
         <v>24.04</v>
       </c>
+      <c r="F477">
+        <v>26.6</v>
+      </c>
+      <c r="G477" s="26">
+        <f t="shared" si="18"/>
+        <v>10.64891846921798</v>
+      </c>
+      <c r="H477" s="22" t="s">
+        <v>1759</v>
+      </c>
       <c r="O477">
         <v>20180112</v>
       </c>
@@ -25858,6 +25879,15 @@
       </c>
     </row>
     <row r="478" spans="1:16">
+      <c r="B478">
+        <v>11</v>
+      </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478" s="26" t="s">
+        <v>1758</v>
+      </c>
       <c r="O478">
         <v>20180115</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="1761">
   <si>
     <t>date</t>
   </si>
@@ -5476,15 +5476,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>换手加分 低开加分 只要是放量就可以选系统的 跌停板 排版出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南宁百货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>换手加分 遭遇减持利空 如果竞价红直接砸 否则盘中拉红砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停价开盘放弃 缩量秒板减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手加分 低开加分 只要是放量就可以选系统的 跌停板 排版出来
+如果并驾齐驱 且都放量 都低开 选成交额大的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6584,8 +6589,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D479" sqref="D479"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H449" sqref="H449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18832,7 +18837,7 @@
         <v>1560</v>
       </c>
       <c r="H223" s="21" t="s">
-        <v>1311</v>
+        <v>1759</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -25611,7 +25616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16">
+    <row r="467" spans="1:16" ht="27">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -25634,8 +25639,8 @@
         <f t="shared" si="18"/>
         <v>-3.3925686591276247</v>
       </c>
-      <c r="H467" s="22" t="s">
-        <v>1757</v>
+      <c r="H467" s="24" t="s">
+        <v>1760</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25869,7 +25874,7 @@
         <v>10.64891846921798</v>
       </c>
       <c r="H477" s="22" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="O477">
         <v>20180112</v>
@@ -25886,7 +25891,7 @@
         <v>4</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="O478">
         <v>20180115</v>
@@ -25896,6 +25901,15 @@
       </c>
     </row>
     <row r="479" spans="1:16">
+      <c r="B479">
+        <v>9</v>
+      </c>
+      <c r="C479">
+        <v>4</v>
+      </c>
+      <c r="D479" s="26" t="s">
+        <v>1757</v>
+      </c>
       <c r="O479">
         <v>20180116</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1763">
   <si>
     <t>date</t>
   </si>
@@ -5469,17 +5469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-漫步者-002351.SZ-实体-nan-20.0</t>
-  </si>
-  <si>
-    <t>5-漫步者-002351.SZ-实体-nan-20.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南宁百货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>换手加分 遭遇减持利空 如果竞价红直接砸 否则盘中拉红砸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5491,6 +5480,21 @@
     <t>换手加分 低开加分 只要是放量就可以选系统的 跌停板 排版出来
 如果并驾齐驱 且都放量 都低开 选成交额大的</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-漫步者-002351.SZ-实体-深圳-23.0</t>
+  </si>
+  <si>
+    <t>5-漫步者-002351.SZ-实体-深圳-29.0</t>
+  </si>
+  <si>
+    <t>6-南宁百货-600712.SH-非实体-广西-11.0</t>
+  </si>
+  <si>
+    <t>7-南宁百货-600712.SH-非实体-广西-11.0</t>
+  </si>
+  <si>
+    <t>8-南宁百货-600712.SH-实体-广西-13.0</t>
   </si>
 </sst>
 </file>
@@ -6253,7 +6257,35 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6589,22 +6621,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H449" sqref="H449"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D489" sqref="D489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -18837,7 +18869,7 @@
         <v>1560</v>
       </c>
       <c r="H223" s="21" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -22617,7 +22649,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.5">
+    <row r="341" spans="1:16" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22640,7 +22672,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22663,7 +22695,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22788,7 +22820,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22957,7 +22989,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24414,7 +24446,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25616,7 +25648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="27">
+    <row r="467" spans="1:16" ht="28.8">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -25640,7 +25672,7 @@
         <v>-3.3925686591276247</v>
       </c>
       <c r="H467" s="24" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25840,7 +25872,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="G476" s="26"/>
       <c r="O476">
@@ -25851,17 +25883,17 @@
       </c>
     </row>
     <row r="477" spans="1:16">
-      <c r="A477">
+      <c r="A477" s="26">
         <v>20191210</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="26">
         <v>14</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="26">
         <v>8</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="E477">
         <v>24.04</v>
@@ -25874,7 +25906,7 @@
         <v>10.64891846921798</v>
       </c>
       <c r="H477" s="22" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="O477">
         <v>20180112</v>
@@ -25884,14 +25916,17 @@
       </c>
     </row>
     <row r="478" spans="1:16">
-      <c r="B478">
+      <c r="A478" s="26">
+        <v>20191211</v>
+      </c>
+      <c r="B478" s="26">
         <v>11</v>
       </c>
-      <c r="C478">
-        <v>4</v>
+      <c r="C478" s="26">
+        <v>5</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="O478">
         <v>20180115</v>
@@ -25901,14 +25936,17 @@
       </c>
     </row>
     <row r="479" spans="1:16">
-      <c r="B479">
+      <c r="A479" s="26">
+        <v>20191212</v>
+      </c>
+      <c r="B479" s="26">
         <v>9</v>
       </c>
-      <c r="C479">
-        <v>4</v>
+      <c r="C479" s="26">
+        <v>6</v>
       </c>
       <c r="D479" s="26" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="O479">
         <v>20180116</v>
@@ -25918,6 +25956,18 @@
       </c>
     </row>
     <row r="480" spans="1:16">
+      <c r="A480" s="26">
+        <v>20191213</v>
+      </c>
+      <c r="B480" s="26">
+        <v>7</v>
+      </c>
+      <c r="C480" s="26">
+        <v>4</v>
+      </c>
+      <c r="D480" s="26" t="s">
+        <v>1762</v>
+      </c>
       <c r="O480">
         <v>20180117</v>
       </c>
@@ -26238,32 +26288,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="50" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="49" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B471:B475 B463:B469">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C463:C475">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B471:B480">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C471:C480">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26280,7 +26340,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -27766,7 +27826,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29268,7 +29328,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31214,7 +31274,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31964,7 +32024,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1774">
   <si>
     <t>date</t>
   </si>
@@ -5494,7 +5494,40 @@
     <t>7-南宁百货-600712.SH-非实体-广西-11.0</t>
   </si>
   <si>
-    <t>8-南宁百货-600712.SH-实体-广西-13.0</t>
+    <t>9-南宁百货-600712.SH-实体-广西-23.0</t>
+  </si>
+  <si>
+    <t>4-东睦股份-600114.SH-实体-浙江-7.0</t>
+  </si>
+  <si>
+    <t>5-东睦股份-600114.SH-实体-浙江-12.0</t>
+  </si>
+  <si>
+    <t>5-星期六-002291.SZ-实体-广东-40.0</t>
+  </si>
+  <si>
+    <t>6-星期六-002291.SZ-实体-广东-45.0</t>
+  </si>
+  <si>
+    <t>4-万讯自控-300112.SZ-实体-深圳-21.0</t>
+  </si>
+  <si>
+    <t>3-威唐工业-300707.SZ-实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>4-威唐工业-300707.SZ-非实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>5-威唐工业-300707.SZ-实体-江苏-27.0</t>
+  </si>
+  <si>
+    <t>6-威唐工业-300707.SZ-实体-江苏-30.0</t>
+  </si>
+  <si>
+    <t>6-欣龙控股-000955.SZ-实体-海南-5.0</t>
+  </si>
+  <si>
+    <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
   </si>
 </sst>
 </file>
@@ -6257,7 +6290,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -6276,6 +6309,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6622,7 +6669,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D489" sqref="D489"/>
+      <selection pane="bottomLeft" activeCell="H488" sqref="H488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25957,13 +26004,13 @@
     </row>
     <row r="480" spans="1:16">
       <c r="A480" s="26">
-        <v>20191213</v>
+        <v>20191216</v>
       </c>
       <c r="B480" s="26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C480" s="26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D480" s="26" t="s">
         <v>1762</v>
@@ -25975,7 +26022,19 @@
         <v>470</v>
       </c>
     </row>
-    <row r="481" spans="15:18">
+    <row r="481" spans="1:18">
+      <c r="A481" s="26">
+        <v>20191217</v>
+      </c>
+      <c r="B481" s="26">
+        <v>19</v>
+      </c>
+      <c r="C481" s="26">
+        <v>15</v>
+      </c>
+      <c r="D481" s="26" t="s">
+        <v>1763</v>
+      </c>
       <c r="O481">
         <v>20180118</v>
       </c>
@@ -25983,7 +26042,19 @@
         <v>471</v>
       </c>
     </row>
-    <row r="482" spans="15:18">
+    <row r="482" spans="1:18">
+      <c r="A482" s="26">
+        <v>20191218</v>
+      </c>
+      <c r="B482" s="26">
+        <v>17</v>
+      </c>
+      <c r="C482" s="26">
+        <v>12</v>
+      </c>
+      <c r="D482" s="26" t="s">
+        <v>1764</v>
+      </c>
       <c r="O482">
         <v>20180119</v>
       </c>
@@ -25991,7 +26062,19 @@
         <v>472</v>
       </c>
     </row>
-    <row r="483" spans="15:18">
+    <row r="483" spans="1:18">
+      <c r="A483" s="26">
+        <v>20191219</v>
+      </c>
+      <c r="B483" s="26">
+        <v>15</v>
+      </c>
+      <c r="C483" s="26">
+        <v>10</v>
+      </c>
+      <c r="D483" s="26" t="s">
+        <v>1765</v>
+      </c>
       <c r="O483">
         <v>20180122</v>
       </c>
@@ -25999,7 +26082,19 @@
         <v>473</v>
       </c>
     </row>
-    <row r="484" spans="15:18">
+    <row r="484" spans="1:18">
+      <c r="A484" s="26">
+        <v>20191220</v>
+      </c>
+      <c r="B484" s="26">
+        <v>15</v>
+      </c>
+      <c r="C484" s="26">
+        <v>10</v>
+      </c>
+      <c r="D484" s="26" t="s">
+        <v>1766</v>
+      </c>
       <c r="O484">
         <v>20180123</v>
       </c>
@@ -26007,7 +26102,19 @@
         <v>474</v>
       </c>
     </row>
-    <row r="485" spans="15:18">
+    <row r="485" spans="1:18">
+      <c r="A485" s="26">
+        <v>20191223</v>
+      </c>
+      <c r="B485" s="26">
+        <v>8</v>
+      </c>
+      <c r="C485" s="26">
+        <v>5</v>
+      </c>
+      <c r="D485" s="26" t="s">
+        <v>1767</v>
+      </c>
       <c r="O485">
         <v>20180124</v>
       </c>
@@ -26015,7 +26122,19 @@
         <v>475</v>
       </c>
     </row>
-    <row r="486" spans="15:18">
+    <row r="486" spans="1:18">
+      <c r="A486" s="26">
+        <v>20191224</v>
+      </c>
+      <c r="B486" s="26">
+        <v>9</v>
+      </c>
+      <c r="C486" s="26">
+        <v>5</v>
+      </c>
+      <c r="D486" s="26" t="s">
+        <v>1768</v>
+      </c>
       <c r="O486">
         <v>20180125</v>
       </c>
@@ -26023,7 +26142,19 @@
         <v>476</v>
       </c>
     </row>
-    <row r="487" spans="15:18">
+    <row r="487" spans="1:18">
+      <c r="A487" s="26">
+        <v>20191225</v>
+      </c>
+      <c r="B487" s="26">
+        <v>11</v>
+      </c>
+      <c r="C487" s="26">
+        <v>8</v>
+      </c>
+      <c r="D487" s="26" t="s">
+        <v>1769</v>
+      </c>
       <c r="O487">
         <v>20180126</v>
       </c>
@@ -26031,7 +26162,19 @@
         <v>477</v>
       </c>
     </row>
-    <row r="488" spans="15:18">
+    <row r="488" spans="1:18">
+      <c r="A488" s="26">
+        <v>20191226</v>
+      </c>
+      <c r="B488" s="26">
+        <v>14</v>
+      </c>
+      <c r="C488" s="26">
+        <v>10</v>
+      </c>
+      <c r="D488" s="26" t="s">
+        <v>1770</v>
+      </c>
       <c r="O488">
         <v>20180129</v>
       </c>
@@ -26039,7 +26182,19 @@
         <v>478</v>
       </c>
     </row>
-    <row r="489" spans="15:18">
+    <row r="489" spans="1:18">
+      <c r="A489" s="26">
+        <v>20191227</v>
+      </c>
+      <c r="B489" s="26">
+        <v>18</v>
+      </c>
+      <c r="C489" s="26">
+        <v>13</v>
+      </c>
+      <c r="D489" s="26" t="s">
+        <v>1771</v>
+      </c>
       <c r="O489">
         <v>20180130</v>
       </c>
@@ -26047,7 +26202,19 @@
         <v>479</v>
       </c>
     </row>
-    <row r="490" spans="15:18">
+    <row r="490" spans="1:18">
+      <c r="A490" s="26">
+        <v>20191230</v>
+      </c>
+      <c r="B490" s="26">
+        <v>12</v>
+      </c>
+      <c r="C490" s="26">
+        <v>11</v>
+      </c>
+      <c r="D490" s="26" t="s">
+        <v>1772</v>
+      </c>
       <c r="O490">
         <v>20180131</v>
       </c>
@@ -26055,7 +26222,19 @@
         <v>480</v>
       </c>
     </row>
-    <row r="491" spans="15:18">
+    <row r="491" spans="1:18">
+      <c r="A491" s="26">
+        <v>20191231</v>
+      </c>
+      <c r="B491" s="26">
+        <v>17</v>
+      </c>
+      <c r="C491" s="26">
+        <v>14</v>
+      </c>
+      <c r="D491" s="26" t="s">
+        <v>1773</v>
+      </c>
       <c r="O491">
         <v>20160104</v>
       </c>
@@ -26069,7 +26248,7 @@
         <v>42.61</v>
       </c>
     </row>
-    <row r="492" spans="15:18">
+    <row r="492" spans="1:18">
       <c r="O492">
         <v>20160105</v>
       </c>
@@ -26077,7 +26256,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="493" spans="15:18">
+    <row r="493" spans="1:18">
       <c r="O493">
         <v>20160106</v>
       </c>
@@ -26091,7 +26270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="494" spans="15:18">
+    <row r="494" spans="1:18">
       <c r="O494">
         <v>20160107</v>
       </c>
@@ -26099,7 +26278,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="495" spans="15:18">
+    <row r="495" spans="1:18">
       <c r="O495">
         <v>20160108</v>
       </c>
@@ -26113,7 +26292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="15:18">
+    <row r="496" spans="1:18">
       <c r="O496">
         <v>20160111</v>
       </c>
@@ -26288,41 +26467,51 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="52" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="49" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="51" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B471:B475 B463:B469">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C463:C475">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C463:C475">
+  <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="B471:B480">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C471:C480">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B471:B480">
+  <conditionalFormatting sqref="B477:B491">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C471:C480">
+  <conditionalFormatting sqref="C477:C491">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1775">
   <si>
     <t>date</t>
   </si>
@@ -5528,6 +5528,9 @@
   </si>
   <si>
     <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
+  </si>
+  <si>
+    <t>8-南宁百货-600712.SH-实体-广西-13.0</t>
   </si>
 </sst>
 </file>
@@ -6290,25 +6293,11 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6669,7 +6658,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H488" sqref="H488"/>
+      <selection pane="bottomLeft" activeCell="D479" sqref="D479:D492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26004,16 +25993,16 @@
     </row>
     <row r="480" spans="1:16">
       <c r="A480" s="26">
-        <v>20191216</v>
+        <v>20191213</v>
       </c>
       <c r="B480" s="26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C480" s="26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D480" s="26" t="s">
-        <v>1762</v>
+        <v>1774</v>
       </c>
       <c r="O480">
         <v>20180117</v>
@@ -26024,16 +26013,16 @@
     </row>
     <row r="481" spans="1:18">
       <c r="A481" s="26">
-        <v>20191217</v>
+        <v>20191216</v>
       </c>
       <c r="B481" s="26">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C481" s="26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D481" s="26" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="O481">
         <v>20180118</v>
@@ -26044,16 +26033,16 @@
     </row>
     <row r="482" spans="1:18">
       <c r="A482" s="26">
-        <v>20191218</v>
+        <v>20191217</v>
       </c>
       <c r="B482" s="26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C482" s="26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="O482">
         <v>20180119</v>
@@ -26064,16 +26053,16 @@
     </row>
     <row r="483" spans="1:18">
       <c r="A483" s="26">
-        <v>20191219</v>
+        <v>20191218</v>
       </c>
       <c r="B483" s="26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C483" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="O483">
         <v>20180122</v>
@@ -26084,7 +26073,7 @@
     </row>
     <row r="484" spans="1:18">
       <c r="A484" s="26">
-        <v>20191220</v>
+        <v>20191219</v>
       </c>
       <c r="B484" s="26">
         <v>15</v>
@@ -26093,7 +26082,7 @@
         <v>10</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="O484">
         <v>20180123</v>
@@ -26104,16 +26093,16 @@
     </row>
     <row r="485" spans="1:18">
       <c r="A485" s="26">
-        <v>20191223</v>
+        <v>20191220</v>
       </c>
       <c r="B485" s="26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C485" s="26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D485" s="26" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="O485">
         <v>20180124</v>
@@ -26124,16 +26113,16 @@
     </row>
     <row r="486" spans="1:18">
       <c r="A486" s="26">
-        <v>20191224</v>
+        <v>20191223</v>
       </c>
       <c r="B486" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C486" s="26">
         <v>5</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="O486">
         <v>20180125</v>
@@ -26144,16 +26133,16 @@
     </row>
     <row r="487" spans="1:18">
       <c r="A487" s="26">
-        <v>20191225</v>
+        <v>20191224</v>
       </c>
       <c r="B487" s="26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C487" s="26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D487" s="26" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="O487">
         <v>20180126</v>
@@ -26164,16 +26153,16 @@
     </row>
     <row r="488" spans="1:18">
       <c r="A488" s="26">
-        <v>20191226</v>
+        <v>20191225</v>
       </c>
       <c r="B488" s="26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C488" s="26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="O488">
         <v>20180129</v>
@@ -26184,16 +26173,16 @@
     </row>
     <row r="489" spans="1:18">
       <c r="A489" s="26">
-        <v>20191227</v>
+        <v>20191226</v>
       </c>
       <c r="B489" s="26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C489" s="26">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O489">
         <v>20180130</v>
@@ -26204,16 +26193,16 @@
     </row>
     <row r="490" spans="1:18">
       <c r="A490" s="26">
-        <v>20191230</v>
+        <v>20191227</v>
       </c>
       <c r="B490" s="26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C490" s="26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="O490">
         <v>20180131</v>
@@ -26224,16 +26213,16 @@
     </row>
     <row r="491" spans="1:18">
       <c r="A491" s="26">
-        <v>20191231</v>
+        <v>20191230</v>
       </c>
       <c r="B491" s="26">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C491" s="26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="O491">
         <v>20160104</v>
@@ -26249,6 +26238,18 @@
       </c>
     </row>
     <row r="492" spans="1:18">
+      <c r="A492" s="26">
+        <v>20191231</v>
+      </c>
+      <c r="B492" s="26">
+        <v>17</v>
+      </c>
+      <c r="C492" s="26">
+        <v>14</v>
+      </c>
+      <c r="D492" s="26" t="s">
+        <v>1773</v>
+      </c>
       <c r="O492">
         <v>20160105</v>
       </c>
@@ -26467,52 +26468,52 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="52" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="51" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B471:B475 B463:B469">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C463:C475">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B471:B480">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C471:C480">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B477:B491">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C477:C491">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1778">
   <si>
     <t>date</t>
   </si>
@@ -3889,9 +3889,6 @@
     <t>9-深赛格-000058.SZ-实体-深圳-17.0</t>
   </si>
   <si>
-    <t>4-宝塔实业-000595.SZ-实体-宁夏-20.0</t>
-  </si>
-  <si>
     <t>5-宝塔实业-000595.SZ-实体-宁夏-23.0</t>
   </si>
   <si>
@@ -5181,9 +5178,6 @@
   </si>
   <si>
     <t>5-古鳌科技-300551.SZ-实体-上海-9.0</t>
-  </si>
-  <si>
-    <t>4-文化长城-300089.SZ-非实体-广东-16.0</t>
   </si>
   <si>
     <t>5-文化长城-300089.SZ-实体-广东-29.0</t>
@@ -5428,9 +5422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-中迪投资-000609.SZ-实体-北京-10.0</t>
-  </si>
-  <si>
     <t>3-四川金顶-600678.SH-实体-四川-18.0</t>
   </si>
   <si>
@@ -5459,14 +5450,6 @@
   </si>
   <si>
     <t>isLianbanST</t>
-  </si>
-  <si>
-    <t>行情起步加分 行情缩量减分 高开减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩量减分 一字板减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>换手加分 遭遇减持利空 如果竞价红直接砸 否则盘中拉红砸</t>
@@ -5488,49 +5471,82 @@
     <t>5-漫步者-002351.SZ-实体-深圳-29.0</t>
   </si>
   <si>
+    <t>7-南宁百货-600712.SH-非实体-广西-11.0</t>
+  </si>
+  <si>
+    <t>9-南宁百货-600712.SH-实体-广西-23.0</t>
+  </si>
+  <si>
+    <t>4-东睦股份-600114.SH-实体-浙江-7.0</t>
+  </si>
+  <si>
+    <t>5-东睦股份-600114.SH-实体-浙江-12.0</t>
+  </si>
+  <si>
+    <t>5-星期六-002291.SZ-实体-广东-40.0</t>
+  </si>
+  <si>
+    <t>6-星期六-002291.SZ-实体-广东-45.0</t>
+  </si>
+  <si>
+    <t>4-万讯自控-300112.SZ-实体-深圳-21.0</t>
+  </si>
+  <si>
+    <t>3-威唐工业-300707.SZ-实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>4-威唐工业-300707.SZ-非实体-江苏-19.0</t>
+  </si>
+  <si>
+    <t>5-威唐工业-300707.SZ-实体-江苏-27.0</t>
+  </si>
+  <si>
+    <t>6-威唐工业-300707.SZ-实体-江苏-30.0</t>
+  </si>
+  <si>
+    <t>6-欣龙控股-000955.SZ-实体-海南-5.0</t>
+  </si>
+  <si>
+    <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
+  </si>
+  <si>
+    <t>8-南宁百货-600712.SH-实体-广西-13.0</t>
+  </si>
+  <si>
     <t>6-南宁百货-600712.SH-非实体-广西-11.0</t>
-  </si>
-  <si>
-    <t>7-南宁百货-600712.SH-非实体-广西-11.0</t>
-  </si>
-  <si>
-    <t>9-南宁百货-600712.SH-实体-广西-23.0</t>
-  </si>
-  <si>
-    <t>4-东睦股份-600114.SH-实体-浙江-7.0</t>
-  </si>
-  <si>
-    <t>5-东睦股份-600114.SH-实体-浙江-12.0</t>
-  </si>
-  <si>
-    <t>5-星期六-002291.SZ-实体-广东-40.0</t>
-  </si>
-  <si>
-    <t>6-星期六-002291.SZ-实体-广东-45.0</t>
-  </si>
-  <si>
-    <t>4-万讯自控-300112.SZ-实体-深圳-21.0</t>
-  </si>
-  <si>
-    <t>3-威唐工业-300707.SZ-实体-江苏-19.0</t>
-  </si>
-  <si>
-    <t>4-威唐工业-300707.SZ-非实体-江苏-19.0</t>
-  </si>
-  <si>
-    <t>5-威唐工业-300707.SZ-实体-江苏-27.0</t>
-  </si>
-  <si>
-    <t>6-威唐工业-300707.SZ-实体-江苏-30.0</t>
-  </si>
-  <si>
-    <t>6-欣龙控股-000955.SZ-实体-海南-5.0</t>
-  </si>
-  <si>
-    <t>7-欣龙控股-000955.SZ-实体-海南-15.0</t>
-  </si>
-  <si>
-    <t>8-南宁百货-600712.SH-实体-广西-13.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 行情起步加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 平开加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-中迪投资-000609.SZ-实体-北京-10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 3一字板以上放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-文化长城-300089.SZ-非实体-广东-16.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-宝塔实业-000595.SZ-实体-宁夏-20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量减分 高开减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6293,63 +6309,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -6657,22 +6617,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D479" sqref="D479:D492"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -6680,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D1" t="s">
         <v>985</v>
@@ -7008,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I6" t="s">
         <v>1016</v>
@@ -7059,7 +7019,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I7" t="s">
         <v>1017</v>
@@ -7116,7 +7076,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E8">
         <v>14.45</v>
@@ -7187,7 +7147,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E9">
         <v>40.479999999999997</v>
@@ -7200,7 +7160,7 @@
         <v>-4.3725296442687656</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -7261,7 +7221,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I10" t="s">
         <v>1018</v>
@@ -7328,7 +7288,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E11">
         <v>4.95</v>
@@ -7399,7 +7359,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I12" t="s">
         <v>986</v>
@@ -7466,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E13">
         <v>36.93</v>
@@ -7537,7 +7497,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E14">
         <v>9.93</v>
@@ -7608,7 +7568,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I15" t="s">
         <v>459</v>
@@ -7649,7 +7609,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I16" t="s">
         <v>1020</v>
@@ -7700,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E17">
         <v>26</v>
@@ -7751,7 +7711,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I18" t="s">
         <v>1021</v>
@@ -7812,7 +7772,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I19" t="s">
         <v>1022</v>
@@ -7863,7 +7823,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E20">
         <v>11.87</v>
@@ -7934,7 +7894,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E21">
         <v>7.18</v>
@@ -7985,7 +7945,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E22">
         <v>8.8699999999999992</v>
@@ -8046,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I23" t="s">
         <v>1025</v>
@@ -8097,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I24" t="s">
         <v>1026</v>
@@ -8148,7 +8108,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E25">
         <v>15.27</v>
@@ -8205,7 +8165,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I26" t="s">
         <v>1016</v>
@@ -8266,7 +8226,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8323,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -8364,7 +8324,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I29" t="s">
         <v>1027</v>
@@ -8415,7 +8375,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I30" t="s">
         <v>1028</v>
@@ -8466,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -8517,7 +8477,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I32" t="s">
         <v>1029</v>
@@ -8574,7 +8534,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I33" t="s">
         <v>1030</v>
@@ -8615,7 +8575,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -8678,7 +8638,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I35" t="s">
         <v>1031</v>
@@ -8745,7 +8705,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I36" t="s">
         <v>1032</v>
@@ -8802,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I37" t="s">
         <v>1033</v>
@@ -8843,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I38" t="s">
         <v>1034</v>
@@ -8904,7 +8864,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I39" t="s">
         <v>1035</v>
@@ -8955,7 +8915,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I40" t="s">
         <v>1036</v>
@@ -8996,7 +8956,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E41">
         <v>15.3</v>
@@ -9063,7 +9023,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -9114,7 +9074,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I43" t="s">
         <v>1037</v>
@@ -9165,7 +9125,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E44">
         <v>12.11</v>
@@ -9236,7 +9196,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E45">
         <v>15.6</v>
@@ -9303,7 +9263,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I46" t="s">
         <v>1039</v>
@@ -9344,7 +9304,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E47">
         <v>79.77</v>
@@ -9405,7 +9365,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I48" t="s">
         <v>1041</v>
@@ -9462,7 +9422,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E49">
         <v>7.48</v>
@@ -9523,7 +9483,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E50">
         <v>10.34</v>
@@ -9590,7 +9550,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E51">
         <v>18.04</v>
@@ -9647,7 +9607,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9708,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I53" t="s">
         <v>1045</v>
@@ -9749,7 +9709,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -9800,7 +9760,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -9851,7 +9811,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I56" t="s">
         <v>1046</v>
@@ -9898,7 +9858,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E57">
         <v>18.75</v>
@@ -9949,7 +9909,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I58" t="s">
         <v>1048</v>
@@ -10000,7 +9960,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I59" t="s">
         <v>1049</v>
@@ -10051,7 +10011,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I60" t="s">
         <v>1050</v>
@@ -10102,7 +10062,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I61" t="s">
         <v>1051</v>
@@ -10163,7 +10123,7 @@
         <v>10</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E62">
         <v>35.9</v>
@@ -10214,7 +10174,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E63">
         <v>56.45</v>
@@ -10275,7 +10235,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I64" t="s">
         <v>1053</v>
@@ -10316,7 +10276,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I65" t="s">
         <v>1054</v>
@@ -10367,7 +10327,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E66">
         <v>45</v>
@@ -10376,7 +10336,7 @@
         <v>38</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="I66" t="s">
         <v>1055</v>
@@ -10417,7 +10377,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I67" t="s">
         <v>1056</v>
@@ -10468,7 +10428,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I68" t="s">
         <v>1057</v>
@@ -10519,7 +10479,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E69">
         <v>51</v>
@@ -10570,7 +10530,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E70">
         <v>40.18</v>
@@ -10631,7 +10591,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E71">
         <v>71</v>
@@ -10640,7 +10600,7 @@
         <v>62</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="I71" t="s">
         <v>1058</v>
@@ -10681,7 +10641,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -10732,7 +10692,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I73" t="s">
         <v>1059</v>
@@ -10793,7 +10753,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E74">
         <v>42.29</v>
@@ -10854,7 +10814,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I75" t="s">
         <v>1061</v>
@@ -10901,7 +10861,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I76" t="s">
         <v>1062</v>
@@ -10942,7 +10902,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I77" t="s">
         <v>1063</v>
@@ -10993,7 +10953,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I78" t="s">
         <v>1064</v>
@@ -11044,7 +11004,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I79" t="s">
         <v>1065</v>
@@ -11095,7 +11055,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E80">
         <v>6.5</v>
@@ -11104,7 +11064,7 @@
         <v>5.75</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I80" t="s">
         <v>1066</v>
@@ -11151,7 +11111,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E81">
         <v>22.88</v>
@@ -11160,7 +11120,7 @@
         <v>18.7</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -11207,7 +11167,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I82" t="s">
         <v>1067</v>
@@ -11258,7 +11218,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E83">
         <v>19.02</v>
@@ -11319,7 +11279,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I84" t="s">
         <v>1068</v>
@@ -11366,7 +11326,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -11417,7 +11377,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I86" t="s">
         <v>1069</v>
@@ -11468,7 +11428,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -11519,7 +11479,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E88">
         <v>15.11</v>
@@ -11570,7 +11530,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E89">
         <v>32.770000000000003</v>
@@ -11579,7 +11539,7 @@
         <v>25.8</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I89" t="s">
         <v>1071</v>
@@ -11630,7 +11590,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I90" t="s">
         <v>1072</v>
@@ -11671,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I91" t="s">
         <v>1073</v>
@@ -11712,7 +11672,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I92" t="s">
         <v>1074</v>
@@ -11763,7 +11723,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E93">
         <v>45.88</v>
@@ -11824,7 +11784,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E94">
         <v>50</v>
@@ -11895,7 +11855,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I95" t="s">
         <v>1076</v>
@@ -11956,7 +11916,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I96" t="s">
         <v>1077</v>
@@ -12007,7 +11967,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I97" t="s">
         <v>1078</v>
@@ -12058,7 +12018,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I98" t="s">
         <v>1079</v>
@@ -12109,7 +12069,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E99">
         <v>32.549999999999997</v>
@@ -12118,7 +12078,7 @@
         <v>30.5</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="I99" t="s">
         <v>1080</v>
@@ -12185,7 +12145,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E100">
         <v>22.79</v>
@@ -12246,7 +12206,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -12297,7 +12257,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -12348,7 +12308,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -12389,7 +12349,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I104" t="s">
         <v>1082</v>
@@ -12440,7 +12400,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -12491,7 +12451,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -12542,7 +12502,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E107">
         <v>14.38</v>
@@ -12603,7 +12563,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E108">
         <v>16.8</v>
@@ -12664,7 +12624,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I109" t="s">
         <v>1084</v>
@@ -12725,7 +12685,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I110" t="s">
         <v>1085</v>
@@ -12766,7 +12726,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -12823,7 +12783,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -12884,7 +12844,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -12941,7 +12901,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E114">
         <v>12.73</v>
@@ -12950,7 +12910,7 @@
         <v>11.2</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I114" t="s">
         <v>1086</v>
@@ -13001,7 +12961,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -13052,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -13093,7 +13053,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I117" t="s">
         <v>1087</v>
@@ -13144,7 +13104,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -13201,7 +13161,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I119" t="s">
         <v>1088</v>
@@ -13258,7 +13218,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -13309,7 +13269,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -13360,7 +13320,7 @@
         <v>10</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E122">
         <v>11.63</v>
@@ -13373,7 +13333,7 @@
         <v>20.378331900257944</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -13420,7 +13380,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I123" t="s">
         <v>1089</v>
@@ -13471,7 +13431,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I124" t="s">
         <v>1090</v>
@@ -13518,7 +13478,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -13569,7 +13529,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I126" t="s">
         <v>1091</v>
@@ -13610,7 +13570,7 @@
         <v>10</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E127">
         <v>10.050000000000001</v>
@@ -13623,7 +13583,7 @@
         <v>-7.6616915422885707</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I127" t="s">
         <v>1092</v>
@@ -13680,7 +13640,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -13731,7 +13691,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -13788,7 +13748,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I130" t="s">
         <v>1093</v>
@@ -13845,7 +13805,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E131">
         <v>78</v>
@@ -13858,7 +13818,7 @@
         <v>-12.179487179487179</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I131" t="s">
         <v>1094</v>
@@ -13931,7 +13891,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E132">
         <v>10.37</v>
@@ -13944,7 +13904,7 @@
         <v>35.004821600771471</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="I132" t="s">
         <v>1095</v>
@@ -13991,7 +13951,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I133" t="s">
         <v>1096</v>
@@ -14042,7 +14002,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I134" t="s">
         <v>1097</v>
@@ -14093,10 +14053,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="I135" t="s">
         <v>1098</v>
@@ -14153,7 +14113,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I136" t="s">
         <v>1099</v>
@@ -14210,7 +14170,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I137" t="s">
         <v>1100</v>
@@ -14261,7 +14221,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E138">
         <v>8.8000000000000007</v>
@@ -14274,7 +14234,7 @@
         <v>11.363636363636363</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -14335,7 +14295,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E139">
         <v>4.4800000000000004</v>
@@ -14348,7 +14308,7 @@
         <v>24.999999999999982</v>
       </c>
       <c r="H139" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I139" t="s">
         <v>1059</v>
@@ -14405,7 +14365,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I140" t="s">
         <v>1101</v>
@@ -14462,7 +14422,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I141" t="s">
         <v>1102</v>
@@ -14513,7 +14473,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I142" t="s">
         <v>1103</v>
@@ -14570,7 +14530,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -14627,7 +14587,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E144">
         <v>6.39</v>
@@ -14640,7 +14600,7 @@
         <v>4.5383411580594686</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I144" t="s">
         <v>1104</v>
@@ -14707,7 +14667,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E145">
         <v>5.23</v>
@@ -14720,7 +14680,7 @@
         <v>-0.5736137667304062</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -14787,7 +14747,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I146" t="s">
         <v>1105</v>
@@ -14838,7 +14798,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I147" t="s">
         <v>1106</v>
@@ -14899,7 +14859,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -14960,7 +14920,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -15021,7 +14981,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -15072,7 +15032,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E151">
         <v>11.6</v>
@@ -15085,7 +15045,7 @@
         <v>7.7586206896551753</v>
       </c>
       <c r="H151" s="22" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I151" t="s">
         <v>1107</v>
@@ -15132,7 +15092,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -15173,7 +15133,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I153" t="s">
         <v>1108</v>
@@ -15224,7 +15184,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -15265,10 +15225,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="I155" t="s">
         <v>995</v>
@@ -15319,7 +15279,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -15380,7 +15340,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -15441,7 +15401,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -15492,7 +15452,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -15549,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15600,7 +15560,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I161" t="s">
         <v>1109</v>
@@ -15651,7 +15611,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15708,7 +15668,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15749,7 +15709,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15806,7 +15766,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I165" t="s">
         <v>1110</v>
@@ -15867,7 +15827,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15924,7 +15884,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15975,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -16016,7 +15976,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -16067,7 +16027,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -16118,7 +16078,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E171">
         <v>6.74</v>
@@ -16131,7 +16091,7 @@
         <v>8.0118694362017813</v>
       </c>
       <c r="H171" s="22" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I171" t="s">
         <v>1051</v>
@@ -16182,7 +16142,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E172">
         <v>7.91</v>
@@ -16191,7 +16151,7 @@
         <v>8.48</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I172" t="s">
         <v>1111</v>
@@ -16242,7 +16202,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E173">
         <v>10.050000000000001</v>
@@ -16255,7 +16215,7 @@
         <v>3.4825870646766131</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I173" t="s">
         <v>1112</v>
@@ -16306,7 +16266,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I174" t="s">
         <v>1113</v>
@@ -16363,7 +16323,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16426,7 +16386,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16477,7 +16437,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16538,7 +16498,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I178" t="s">
         <v>1055</v>
@@ -16589,7 +16549,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16656,7 +16616,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I180" t="s">
         <v>1114</v>
@@ -16713,7 +16673,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I181" t="s">
         <v>1115</v>
@@ -16754,10 +16714,10 @@
         <v>11</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -16808,7 +16768,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E183">
         <v>8.81</v>
@@ -16817,7 +16777,7 @@
         <v>7.8</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16858,7 +16818,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I184" t="s">
         <v>1116</v>
@@ -16915,7 +16875,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185">
@@ -16967,7 +16927,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E186">
         <v>9.35</v>
@@ -16976,7 +16936,7 @@
         <v>8.4</v>
       </c>
       <c r="H186" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17027,7 +16987,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I187" t="s">
         <v>1117</v>
@@ -17078,7 +17038,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I188" t="s">
         <v>1118</v>
@@ -17129,7 +17089,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17196,7 +17156,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E190">
         <v>44.44</v>
@@ -17209,7 +17169,7 @@
         <v>7.9657965796579644</v>
       </c>
       <c r="H190" s="22" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17260,7 +17220,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17311,7 +17271,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17362,7 +17322,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -17413,7 +17373,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I194" t="s">
         <v>1119</v>
@@ -17466,10 +17426,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H195" s="21" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17530,7 +17490,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I196" t="s">
         <v>1120</v>
@@ -17581,7 +17541,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -17638,7 +17598,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I198" t="s">
         <v>1121</v>
@@ -17689,7 +17649,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G199" s="25"/>
       <c r="I199" t="s">
@@ -17741,7 +17701,7 @@
         <v>26</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G200" s="25"/>
       <c r="I200">
@@ -17793,7 +17753,7 @@
         <v>13</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E201">
         <v>31.8</v>
@@ -17806,7 +17766,7 @@
         <v>4.3396226415094308</v>
       </c>
       <c r="H201" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -17867,7 +17827,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" t="s">
@@ -17915,7 +17875,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -17972,7 +17932,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18023,7 +17983,7 @@
         <v>10</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I205" t="s">
         <v>1124</v>
@@ -18074,7 +18034,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E206">
         <v>24</v>
@@ -18087,7 +18047,7 @@
         <v>7.291666666666667</v>
       </c>
       <c r="H206" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I206" t="s">
         <v>1125</v>
@@ -18128,10 +18088,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="I207" t="s">
         <v>1126</v>
@@ -18172,7 +18132,7 @@
         <v>16</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E208">
         <v>5.57</v>
@@ -18185,7 +18145,7 @@
         <v>9.5152603231597723</v>
       </c>
       <c r="H208" s="22" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="I208" t="s">
         <v>1127</v>
@@ -18232,7 +18192,7 @@
         <v>16</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G209" s="25"/>
       <c r="I209">
@@ -18274,7 +18234,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G210" s="25"/>
       <c r="I210" t="s">
@@ -18326,7 +18286,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G211" s="25"/>
       <c r="I211">
@@ -18368,7 +18328,7 @@
         <v>13</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E212">
         <v>7.38</v>
@@ -18381,7 +18341,7 @@
         <v>32.791327913279147</v>
       </c>
       <c r="H212" s="22" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -18428,7 +18388,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -18475,7 +18435,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -18516,10 +18476,10 @@
         <v>30</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H215" s="21" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="I215" t="s">
         <v>1128</v>
@@ -18570,7 +18530,7 @@
         <v>19</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E216">
         <v>9.32</v>
@@ -18579,7 +18539,7 @@
         <v>9.52</v>
       </c>
       <c r="H216" s="21" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -18630,7 +18590,7 @@
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I217" t="s">
         <v>1129</v>
@@ -18681,7 +18641,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E218">
         <v>10.53</v>
@@ -18694,7 +18654,7 @@
         <v>6.9325735992402704</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I218" t="s">
         <v>1130</v>
@@ -18735,7 +18695,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I219" t="s">
         <v>1131</v>
@@ -18776,7 +18736,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -18817,7 +18777,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I221" t="s">
         <v>1132</v>
@@ -18858,10 +18818,10 @@
         <v>10</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H222" s="21" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="I222" t="s">
         <v>1133</v>
@@ -18902,10 +18862,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H223" s="21" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -18946,7 +18906,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -18987,7 +18947,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -19028,7 +18988,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -19069,7 +19029,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -19110,7 +19070,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -19157,7 +19117,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E229">
         <v>5.9</v>
@@ -19208,7 +19168,7 @@
         <v>16</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -19249,7 +19209,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E231">
         <v>24.9</v>
@@ -19258,7 +19218,7 @@
         <v>24.52</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -19309,7 +19269,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -19350,7 +19310,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -19391,7 +19351,7 @@
         <v>2</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -19432,7 +19392,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -19473,7 +19433,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -19514,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -19555,7 +19515,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -19596,7 +19556,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -19637,7 +19597,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -19678,7 +19638,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -19719,7 +19679,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -19766,7 +19726,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -19807,7 +19767,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -19848,10 +19808,10 @@
         <v>15</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H245" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I245" t="s">
         <v>1135</v>
@@ -19892,7 +19852,7 @@
         <v>7</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E246">
         <v>10.1</v>
@@ -19905,7 +19865,7 @@
         <v>14.554455445544562</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I246" t="s">
         <v>1136</v>
@@ -19934,7 +19894,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="I247" t="s">
         <v>1137</v>
@@ -19957,7 +19917,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I248" t="s">
         <v>1138</v>
@@ -19980,7 +19940,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="I249" t="s">
         <v>1139</v>
@@ -20003,7 +19963,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E250">
         <v>4.8499999999999996</v>
@@ -20016,7 +19976,7 @@
         <v>44.329896907216501</v>
       </c>
       <c r="H250" s="22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I250" t="s">
         <v>1140</v>
@@ -20039,7 +19999,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I251" t="s">
         <v>1141</v>
@@ -20062,7 +20022,7 @@
         <v>19</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="I252" t="s">
         <v>1142</v>
@@ -20085,7 +20045,7 @@
         <v>16</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I253" t="s">
         <v>1143</v>
@@ -20108,7 +20068,7 @@
         <v>15</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I254" t="s">
         <v>1144</v>
@@ -20131,7 +20091,7 @@
         <v>13</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I255" t="s">
         <v>1145</v>
@@ -20154,10 +20114,10 @@
         <v>16</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H256" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I256" t="s">
         <v>1146</v>
@@ -20180,7 +20140,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E257">
         <v>27.85</v>
@@ -20193,7 +20153,7 @@
         <v>3.087971274685815</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I257" t="s">
         <v>1147</v>
@@ -20216,7 +20176,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="I258" t="s">
         <v>1148</v>
@@ -20239,7 +20199,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I259" t="s">
         <v>1149</v>
@@ -20262,7 +20222,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I260" t="s">
         <v>1150</v>
@@ -20285,7 +20245,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -20308,7 +20268,7 @@
         <v>8</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E262">
         <v>6.03</v>
@@ -20321,7 +20281,7 @@
         <v>6.9651741293532323</v>
       </c>
       <c r="H262" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -20344,7 +20304,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="I263" t="s">
         <v>1151</v>
@@ -20367,7 +20327,7 @@
         <v>9</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I264" t="s">
         <v>1152</v>
@@ -20390,7 +20350,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I265" t="s">
         <v>1153</v>
@@ -20413,7 +20373,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E266">
         <v>8.1999999999999993</v>
@@ -20426,7 +20386,7 @@
         <v>-6.0975609756097455</v>
       </c>
       <c r="H266" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I266" t="s">
         <v>1154</v>
@@ -20449,7 +20409,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -20472,7 +20432,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I268" t="s">
         <v>1155</v>
@@ -20495,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -20518,7 +20478,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -20541,7 +20501,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I271" t="s">
         <v>1156</v>
@@ -20564,10 +20524,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I272" t="s">
         <v>1157</v>
@@ -20607,7 +20567,7 @@
         <v>16</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I273" t="s">
         <v>1158</v>
@@ -20646,7 +20606,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -20685,7 +20645,7 @@
         <v>15</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I275" t="s">
         <v>1160</v>
@@ -20708,7 +20668,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I276" t="s">
         <v>1161</v>
@@ -20747,7 +20707,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I277" t="s">
         <v>1162</v>
@@ -20770,7 +20730,7 @@
         <v>21</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I278" t="s">
         <v>1163</v>
@@ -20793,7 +20753,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I279" t="s">
         <v>1164</v>
@@ -20832,7 +20792,7 @@
         <v>17</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="I280" t="s">
         <v>1165</v>
@@ -20855,7 +20815,7 @@
         <v>28</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -20868,7 +20828,7 @@
         <v>17.142857142857132</v>
       </c>
       <c r="H281" s="22" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I281" t="s">
         <v>1166</v>
@@ -20897,7 +20857,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I282" t="s">
         <v>1167</v>
@@ -20920,10 +20880,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H283" s="21" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="I283" t="s">
         <v>1168</v>
@@ -20952,7 +20912,7 @@
         <v>15</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E284">
         <v>14.94</v>
@@ -20965,7 +20925,7 @@
         <v>21.419009370816607</v>
       </c>
       <c r="H284" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I284" t="s">
         <v>1169</v>
@@ -21004,7 +20964,7 @@
         <v>7</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E285">
         <v>7.06</v>
@@ -21017,7 +20977,7 @@
         <v>83.852691218130332</v>
       </c>
       <c r="H285" s="22" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I285" t="s">
         <v>1170</v>
@@ -21046,7 +21006,7 @@
         <v>7</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E286">
         <v>14.84</v>
@@ -21059,7 +21019,7 @@
         <v>52.762803234501362</v>
       </c>
       <c r="H286" s="22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I286" t="s">
         <v>1171</v>
@@ -21088,7 +21048,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I287" t="s">
         <v>1172</v>
@@ -21111,7 +21071,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I288" t="s">
         <v>987</v>
@@ -21134,7 +21094,7 @@
         <v>60</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I289" t="s">
         <v>988</v>
@@ -21157,7 +21117,7 @@
         <v>79</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I290" t="s">
         <v>989</v>
@@ -21180,7 +21140,7 @@
         <v>31</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I291" t="s">
         <v>990</v>
@@ -21203,7 +21163,7 @@
         <v>19</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E292">
         <v>16</v>
@@ -21216,7 +21176,7 @@
         <v>9.5625000000000071</v>
       </c>
       <c r="H292" s="22" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I292" t="s">
         <v>991</v>
@@ -21245,7 +21205,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E293">
         <v>8</v>
@@ -21258,7 +21218,7 @@
         <v>-4.5000000000000036</v>
       </c>
       <c r="H293" s="21" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="I293" t="s">
         <v>1173</v>
@@ -21287,7 +21247,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I294" t="s">
         <v>1174</v>
@@ -21310,7 +21270,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E295">
         <v>16</v>
@@ -21323,7 +21283,7 @@
         <v>13.749999999999996</v>
       </c>
       <c r="H295" s="22" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I295" t="s">
         <v>992</v>
@@ -21352,7 +21312,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I296" t="s">
         <v>993</v>
@@ -21391,7 +21351,7 @@
         <v>10</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E297">
         <v>8.3800000000000008</v>
@@ -21404,7 +21364,7 @@
         <v>2.1479713603818578</v>
       </c>
       <c r="H297" s="22" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I297" t="s">
         <v>994</v>
@@ -21433,7 +21393,7 @@
         <v>19</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E298">
         <v>14.02</v>
@@ -21446,7 +21406,7 @@
         <v>9.8430813124108472</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="I298" t="s">
         <v>995</v>
@@ -21475,7 +21435,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I299" t="s">
         <v>996</v>
@@ -21498,7 +21458,7 @@
         <v>23</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E300">
         <v>10.64</v>
@@ -21511,7 +21471,7 @@
         <v>5.26315789473683</v>
       </c>
       <c r="H300" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I300" t="s">
         <v>997</v>
@@ -21540,7 +21500,7 @@
         <v>24</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I301" t="s">
         <v>998</v>
@@ -21579,7 +21539,7 @@
         <v>24</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E302">
         <v>18.88</v>
@@ -21592,7 +21552,7 @@
         <v>10.169491525423737</v>
       </c>
       <c r="H302" s="22" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I302" t="s">
         <v>999</v>
@@ -21621,7 +21581,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E303">
         <v>14.04</v>
@@ -21634,7 +21594,7 @@
         <v>18.945868945868948</v>
       </c>
       <c r="H303" s="22" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I303" t="s">
         <v>1000</v>
@@ -21663,7 +21623,7 @@
         <v>18</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I304" t="s">
         <v>1001</v>
@@ -21686,7 +21646,7 @@
         <v>10</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I305" t="s">
         <v>1002</v>
@@ -21719,7 +21679,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I306" t="s">
         <v>1003</v>
@@ -21752,7 +21712,7 @@
         <v>28</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E307">
         <v>18.940000000000001</v>
@@ -21765,7 +21725,7 @@
         <v>2.4287222808869973</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I307" t="s">
         <v>1004</v>
@@ -21794,7 +21754,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E308">
         <v>16.7</v>
@@ -21803,7 +21763,7 @@
         <v>16.05</v>
       </c>
       <c r="H308" s="21" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I308" t="s">
         <v>1005</v>
@@ -21832,7 +21792,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E309">
         <v>7.44</v>
@@ -21845,7 +21805,7 @@
         <v>7.5268817204301026</v>
       </c>
       <c r="H309" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I309" t="s">
         <v>1006</v>
@@ -21874,7 +21834,7 @@
         <v>26</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I310" t="s">
         <v>1007</v>
@@ -21913,7 +21873,7 @@
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E311">
         <v>11.6</v>
@@ -21926,7 +21886,7 @@
         <v>-3.4482758620689689</v>
       </c>
       <c r="H311" s="21" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="I311" t="s">
         <v>1008</v>
@@ -21955,7 +21915,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="I312" t="s">
         <v>1009</v>
@@ -21978,7 +21938,7 @@
         <v>19</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E313">
         <v>8.1999999999999993</v>
@@ -21991,7 +21951,7 @@
         <v>-2.4390243902438939</v>
       </c>
       <c r="H313" s="21" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="I313" t="s">
         <v>1010</v>
@@ -22020,10 +21980,10 @@
         <v>14</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H314" s="21" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="I314" t="s">
         <v>1011</v>
@@ -22046,7 +22006,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="O315">
         <v>20170519</v>
@@ -22066,7 +22026,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="O316">
         <v>20170522</v>
@@ -22086,7 +22046,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E317">
         <v>17.07</v>
@@ -22099,7 +22059,7 @@
         <v>10.134739308728765</v>
       </c>
       <c r="H317" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O317">
         <v>20170523</v>
@@ -22119,7 +22079,7 @@
         <v>26</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="O318">
         <v>20170524</v>
@@ -22139,7 +22099,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E319">
         <v>20.55</v>
@@ -22148,7 +22108,7 @@
         <v>23.1</v>
       </c>
       <c r="H319" s="21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O319">
         <v>20170525</v>
@@ -22168,7 +22128,7 @@
         <v>18</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E320">
         <v>13.15</v>
@@ -22181,7 +22141,7 @@
         <v>10.114068441064639</v>
       </c>
       <c r="H320" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O320">
         <v>20170526</v>
@@ -22224,7 +22184,7 @@
         <v>1176</v>
       </c>
       <c r="H322" s="21" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="O322">
         <v>20170601</v>
@@ -22287,7 +22247,7 @@
         <v>1179</v>
       </c>
       <c r="H325" s="21" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="O325">
         <v>20170606</v>
@@ -22350,7 +22310,7 @@
         <v>1182</v>
       </c>
       <c r="H328" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O328">
         <v>20170609</v>
@@ -22379,7 +22339,7 @@
         <v>18.510000000000002</v>
       </c>
       <c r="H329" s="21" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="O329">
         <v>20170612</v>
@@ -22412,7 +22372,7 @@
         <v>3.2204789430223006</v>
       </c>
       <c r="H330" s="22" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O330">
         <v>20170613</v>
@@ -22445,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="22" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="O331">
         <v>20170614</v>
@@ -22478,7 +22438,7 @@
         <v>3.0303030303030365</v>
       </c>
       <c r="H332" s="21" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="O332">
         <v>20170615</v>
@@ -22501,7 +22461,7 @@
         <v>1187</v>
       </c>
       <c r="H333" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O333">
         <v>20170616</v>
@@ -22584,7 +22544,7 @@
         <v>10.140093395597074</v>
       </c>
       <c r="H336" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O336">
         <v>20170621</v>
@@ -22627,7 +22587,7 @@
         <v>1192</v>
       </c>
       <c r="H338" s="21" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="O338">
         <v>20170623</v>
@@ -22676,7 +22636,7 @@
         <v>8.52</v>
       </c>
       <c r="H340" s="21" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="O340">
         <v>20170627</v>
@@ -22685,7 +22645,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="43.2">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22699,7 +22659,7 @@
         <v>1258</v>
       </c>
       <c r="H341" s="23" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22708,7 +22668,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22722,7 +22682,7 @@
         <v>1194</v>
       </c>
       <c r="H342" s="23" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -22731,7 +22691,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22745,7 +22705,7 @@
         <v>1195</v>
       </c>
       <c r="H343" s="23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O343">
         <v>20170630</v>
@@ -22794,7 +22754,7 @@
         <v>31</v>
       </c>
       <c r="H345" s="21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="O345">
         <v>20170704</v>
@@ -22827,7 +22787,7 @@
         <v>9.0014064697608944</v>
       </c>
       <c r="H346" s="22" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="O346">
         <v>20170705</v>
@@ -22856,7 +22816,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -22870,7 +22830,7 @@
         <v>1200</v>
       </c>
       <c r="H348" s="23" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="O348">
         <v>20170707</v>
@@ -22903,7 +22863,7 @@
         <v>1.0356150543066343</v>
       </c>
       <c r="H349" s="22" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O349">
         <v>20170710</v>
@@ -22956,7 +22916,7 @@
         <v>33.140283140283152</v>
       </c>
       <c r="H351" s="22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O351">
         <v>20170712</v>
@@ -23025,7 +22985,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -23039,7 +22999,7 @@
         <v>1208</v>
       </c>
       <c r="H355" s="23" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O355">
         <v>20170718</v>
@@ -23132,7 +23092,7 @@
         <v>12.903225806451612</v>
       </c>
       <c r="H359" s="22" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O359">
         <v>20170724</v>
@@ -23177,7 +23137,7 @@
       </c>
       <c r="G361" s="4"/>
       <c r="H361" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="O361">
         <v>20170726</v>
@@ -23201,7 +23161,7 @@
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="21" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -23225,7 +23185,7 @@
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>1243</v>
@@ -23252,7 +23212,7 @@
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O364">
         <v>20170731</v>
@@ -23276,7 +23236,7 @@
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O365">
         <v>20170801</v>
@@ -23300,7 +23260,7 @@
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O366">
         <v>20170802</v>
@@ -23324,7 +23284,7 @@
       </c>
       <c r="G367" s="4"/>
       <c r="H367" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O367">
         <v>20170803</v>
@@ -23348,7 +23308,7 @@
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="O368">
         <v>20170804</v>
@@ -23570,7 +23530,7 @@
         <v>9.3939393939393963</v>
       </c>
       <c r="H378" s="22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="O378">
         <v>20170818</v>
@@ -23615,7 +23575,7 @@
       </c>
       <c r="G380" s="6"/>
       <c r="H380" s="21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="O380">
         <v>20170822</v>
@@ -23702,7 +23662,7 @@
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="21" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23726,7 +23686,7 @@
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="21" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -23843,7 +23803,7 @@
         <v>14.057507987220447</v>
       </c>
       <c r="H390" s="22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="O390">
         <v>20170905</v>
@@ -23863,7 +23823,7 @@
         <v>4</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E391">
         <v>8.99</v>
@@ -23876,7 +23836,7 @@
         <v>-1.0011123470522787</v>
       </c>
       <c r="H391" s="21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="O391">
         <v>20170906</v>
@@ -23896,11 +23856,11 @@
         <v>6</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G392" s="13"/>
       <c r="H392" s="21" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O392">
         <v>20170907</v>
@@ -23933,7 +23893,7 @@
         <v>4.8412698412698365</v>
       </c>
       <c r="H393" s="22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="O393">
         <v>20170908</v>
@@ -23987,7 +23947,7 @@
         <v>-4.1424169804861375</v>
       </c>
       <c r="H395" s="22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O395">
         <v>20170912</v>
@@ -24146,7 +24106,7 @@
         <v>-7.1005917159763277</v>
       </c>
       <c r="H402" s="21" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -24191,7 +24151,7 @@
       </c>
       <c r="G404" s="13"/>
       <c r="H404" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O404">
         <v>20170925</v>
@@ -24248,7 +24208,7 @@
       </c>
       <c r="G406" s="13"/>
       <c r="H406" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="O406">
         <v>20170927</v>
@@ -24363,8 +24323,8 @@
       <c r="C411" s="13">
         <v>6</v>
       </c>
-      <c r="D411" s="13" t="s">
-        <v>1267</v>
+      <c r="D411" s="26" t="s">
+        <v>1776</v>
       </c>
       <c r="E411">
         <v>4.2699999999999996</v>
@@ -24377,7 +24337,7 @@
         <v>14.754098360655757</v>
       </c>
       <c r="H411" s="22" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="O411">
         <v>20171011</v>
@@ -24397,7 +24357,7 @@
         <v>11</v>
       </c>
       <c r="D412" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G412" s="13"/>
       <c r="O412">
@@ -24418,7 +24378,7 @@
         <v>15</v>
       </c>
       <c r="D413" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G413" s="13"/>
       <c r="O413">
@@ -24439,7 +24399,7 @@
         <v>12</v>
       </c>
       <c r="D414" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E414">
         <v>10.88</v>
@@ -24452,7 +24412,7 @@
         <v>3.8602941176470575</v>
       </c>
       <c r="H414" s="22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O414">
         <v>20171016</v>
@@ -24472,7 +24432,7 @@
         <v>11</v>
       </c>
       <c r="D415" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G415" s="13"/>
       <c r="O415">
@@ -24482,7 +24442,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -24492,8 +24452,8 @@
       <c r="C416" s="13">
         <v>9</v>
       </c>
-      <c r="D416" s="13" t="s">
-        <v>1279</v>
+      <c r="D416" s="26" t="s">
+        <v>1278</v>
       </c>
       <c r="E416">
         <v>30.99</v>
@@ -24503,7 +24463,7 @@
       </c>
       <c r="G416" s="13"/>
       <c r="H416" s="24" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="O416">
         <v>20171018</v>
@@ -24523,7 +24483,7 @@
         <v>15</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G417" s="13"/>
       <c r="O417">
@@ -24544,7 +24504,7 @@
         <v>16</v>
       </c>
       <c r="D418" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E418">
         <v>13.59</v>
@@ -24554,7 +24514,7 @@
       </c>
       <c r="G418" s="13"/>
       <c r="H418" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="O418">
         <v>20171020</v>
@@ -24574,7 +24534,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E419">
         <v>9</v>
@@ -24584,7 +24544,7 @@
       </c>
       <c r="G419" s="13"/>
       <c r="H419" s="21" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="O419">
         <v>20171023</v>
@@ -24604,7 +24564,7 @@
         <v>7</v>
       </c>
       <c r="D420" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E420">
         <v>12.5</v>
@@ -24614,7 +24574,7 @@
       </c>
       <c r="G420" s="13"/>
       <c r="H420" s="21" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O420">
         <v>20171024</v>
@@ -24634,7 +24594,7 @@
         <v>10</v>
       </c>
       <c r="D421" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E421">
         <v>22</v>
@@ -24643,7 +24603,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24663,7 +24623,7 @@
         <v>6</v>
       </c>
       <c r="D422" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G422" s="13"/>
       <c r="O422">
@@ -24684,7 +24644,7 @@
         <v>7</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E423">
         <v>28.61</v>
@@ -24697,7 +24657,7 @@
         <v>28.940929744844464</v>
       </c>
       <c r="H423" s="22" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="O423">
         <v>20171027</v>
@@ -24717,7 +24677,7 @@
         <v>9</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G424" s="16"/>
       <c r="O424">
@@ -24738,7 +24698,7 @@
         <v>7</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G425" s="16"/>
       <c r="O425">
@@ -24759,11 +24719,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="G426" s="16"/>
       <c r="H426" s="22" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24783,7 +24743,7 @@
         <v>10</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E427">
         <v>16</v>
@@ -24796,7 +24756,7 @@
         <v>68.5</v>
       </c>
       <c r="H427" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O427">
         <v>20171102</v>
@@ -24816,7 +24776,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G428" s="25"/>
       <c r="O428">
@@ -24837,7 +24797,7 @@
         <v>7</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G429" s="25"/>
       <c r="O429">
@@ -24858,11 +24818,11 @@
         <v>5</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G430" s="25"/>
       <c r="H430" s="21" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -24882,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G431" s="25"/>
       <c r="O431">
@@ -24903,11 +24863,11 @@
         <v>7</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G432" s="25"/>
       <c r="H432" s="21" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="O432">
         <v>20171109</v>
@@ -24927,7 +24887,7 @@
         <v>7</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G433" s="25"/>
       <c r="O433">
@@ -24948,11 +24908,11 @@
         <v>8</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G434" s="25"/>
       <c r="H434" s="21" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="O434">
         <v>20171113</v>
@@ -24972,7 +24932,7 @@
         <v>8</v>
       </c>
       <c r="D435" s="18" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G435" s="25"/>
       <c r="O435">
@@ -24993,11 +24953,11 @@
         <v>16</v>
       </c>
       <c r="D436" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G436" s="25"/>
       <c r="H436" s="21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="O436">
         <v>20171115</v>
@@ -25017,11 +24977,11 @@
         <v>11</v>
       </c>
       <c r="D437" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G437" s="25"/>
       <c r="H437" s="21" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -25041,7 +25001,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G438" s="25"/>
       <c r="O438">
@@ -25062,7 +25022,7 @@
         <v>3</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G439" s="25"/>
       <c r="O439">
@@ -25083,11 +25043,11 @@
         <v>8</v>
       </c>
       <c r="D440" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G440" s="25"/>
       <c r="H440" s="21" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -25107,7 +25067,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G441" s="25"/>
       <c r="O441">
@@ -25128,7 +25088,7 @@
         <v>5</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G442" s="25"/>
       <c r="O442">
@@ -25149,7 +25109,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G443" s="25"/>
       <c r="O443">
@@ -25170,7 +25130,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="O444">
         <v>20171127</v>
@@ -25190,10 +25150,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H445" s="21" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="O445">
         <v>20171128</v>
@@ -25213,10 +25173,10 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H446" s="21" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="O446">
         <v>20171129</v>
@@ -25235,11 +25195,11 @@
       <c r="C447" s="25">
         <v>16</v>
       </c>
-      <c r="D447" s="25" t="s">
-        <v>1677</v>
+      <c r="D447" s="26" t="s">
+        <v>1775</v>
       </c>
       <c r="H447" s="21" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="O447">
         <v>20171130</v>
@@ -25259,7 +25219,7 @@
         <v>8</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E448">
         <v>5.35</v>
@@ -25272,7 +25232,7 @@
         <v>8.9719626168224398</v>
       </c>
       <c r="H448" s="22" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="O448">
         <v>20171201</v>
@@ -25292,7 +25252,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="G449" s="25"/>
       <c r="O449">
@@ -25313,7 +25273,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="G450" s="25"/>
       <c r="O450">
@@ -25334,7 +25294,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G451" s="25"/>
       <c r="O451">
@@ -25355,7 +25315,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="G452" s="25"/>
       <c r="O452">
@@ -25376,7 +25336,7 @@
         <v>5</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G453" s="25"/>
       <c r="O453">
@@ -25397,7 +25357,7 @@
         <v>4</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G454" s="25"/>
       <c r="O454">
@@ -25418,7 +25378,7 @@
         <v>6</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G455" s="25"/>
       <c r="O455">
@@ -25439,7 +25399,7 @@
         <v>3</v>
       </c>
       <c r="D456" s="25" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G456" s="25"/>
       <c r="O456">
@@ -25460,7 +25420,7 @@
         <v>4</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G457" s="25"/>
       <c r="O457">
@@ -25481,7 +25441,7 @@
         <v>5</v>
       </c>
       <c r="D458" s="25" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G458" s="25"/>
       <c r="O458">
@@ -25502,7 +25462,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="25" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E459">
         <v>27</v>
@@ -25515,7 +25475,7 @@
         <v>3.7037037037037033</v>
       </c>
       <c r="H459" s="22" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="O459">
         <v>20171218</v>
@@ -25535,7 +25495,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G460" s="26"/>
       <c r="O460">
@@ -25556,7 +25516,7 @@
         <v>4</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="G461" s="26"/>
       <c r="O461">
@@ -25577,7 +25537,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="E462">
         <v>3.39</v>
@@ -25586,11 +25546,11 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G477" si="18">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G492" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="O462">
         <v>20171221</v>
@@ -25610,7 +25570,7 @@
         <v>7</v>
       </c>
       <c r="D463" s="26" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="G463" s="26"/>
       <c r="O463">
@@ -25631,7 +25591,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="26" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G464" s="26"/>
       <c r="O464">
@@ -25650,7 +25610,7 @@
       </c>
       <c r="C465" s="26"/>
       <c r="D465" s="26" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="G465" s="26"/>
       <c r="O465">
@@ -25671,11 +25631,11 @@
         <v>10</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G466" s="26"/>
       <c r="H466" s="21" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="O466">
         <v>20171227</v>
@@ -25684,7 +25644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="28.8">
+    <row r="467" spans="1:16" ht="27">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -25695,7 +25655,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>1742</v>
+        <v>1773</v>
       </c>
       <c r="E467">
         <v>6.19</v>
@@ -25708,7 +25668,7 @@
         <v>-3.3925686591276247</v>
       </c>
       <c r="H467" s="24" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25728,7 +25688,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="26" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="G468" s="26"/>
       <c r="O468">
@@ -25749,7 +25709,7 @@
         <v>3</v>
       </c>
       <c r="D469" s="26" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="G469" s="26"/>
       <c r="O469">
@@ -25770,7 +25730,7 @@
         <v>4</v>
       </c>
       <c r="D470" s="26" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="G470" s="26"/>
       <c r="O470">
@@ -25791,7 +25751,7 @@
         <v>5</v>
       </c>
       <c r="D471" s="26" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="G471" s="26"/>
       <c r="O471">
@@ -25812,7 +25772,7 @@
         <v>4</v>
       </c>
       <c r="D472" s="26" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="G472" s="26"/>
       <c r="O472">
@@ -25833,7 +25793,7 @@
         <v>8</v>
       </c>
       <c r="D473" s="26" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="E473">
         <v>16.940000000000001</v>
@@ -25846,7 +25806,7 @@
         <v>15.702479338842975</v>
       </c>
       <c r="H473" s="22" t="s">
-        <v>1753</v>
+        <v>1681</v>
       </c>
       <c r="O473">
         <v>20180108</v>
@@ -25866,7 +25826,7 @@
         <v>5</v>
       </c>
       <c r="D474" s="26" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="G474" s="26"/>
       <c r="O474">
@@ -25887,7 +25847,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="26" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="G475" s="26"/>
       <c r="O475">
@@ -25908,7 +25868,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="G476" s="26"/>
       <c r="O476">
@@ -25929,7 +25889,7 @@
         <v>8</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="E477">
         <v>24.04</v>
@@ -25942,7 +25902,7 @@
         <v>10.64891846921798</v>
       </c>
       <c r="H477" s="22" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="O477">
         <v>20180112</v>
@@ -25962,8 +25922,9 @@
         <v>5</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>1760</v>
-      </c>
+        <v>1769</v>
+      </c>
+      <c r="G478" s="26"/>
       <c r="O478">
         <v>20180115</v>
       </c>
@@ -25982,8 +25943,9 @@
         <v>6</v>
       </c>
       <c r="D479" s="26" t="s">
-        <v>1761</v>
-      </c>
+        <v>1755</v>
+      </c>
+      <c r="G479" s="26"/>
       <c r="O479">
         <v>20180116</v>
       </c>
@@ -26002,8 +25964,9 @@
         <v>4</v>
       </c>
       <c r="D480" s="26" t="s">
-        <v>1774</v>
-      </c>
+        <v>1768</v>
+      </c>
+      <c r="G480" s="26"/>
       <c r="O480">
         <v>20180117</v>
       </c>
@@ -26022,7 +25985,20 @@
         <v>10</v>
       </c>
       <c r="D481" s="26" t="s">
-        <v>1762</v>
+        <v>1756</v>
+      </c>
+      <c r="E481">
+        <v>9.27</v>
+      </c>
+      <c r="F481">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G481" s="26">
+        <f>(F481-E481)/E481*100</f>
+        <v>5.7173678532901961</v>
+      </c>
+      <c r="H481" s="22" t="s">
+        <v>1337</v>
       </c>
       <c r="O481">
         <v>20180118</v>
@@ -26042,7 +26018,20 @@
         <v>15</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>1763</v>
+        <v>1757</v>
+      </c>
+      <c r="E482">
+        <v>10.1</v>
+      </c>
+      <c r="F482">
+        <v>8.91</v>
+      </c>
+      <c r="G482" s="26">
+        <f t="shared" si="18"/>
+        <v>-11.782178217821777</v>
+      </c>
+      <c r="H482" s="21" t="s">
+        <v>1777</v>
       </c>
       <c r="O482">
         <v>20180119</v>
@@ -26062,8 +26051,9 @@
         <v>12</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>1764</v>
-      </c>
+        <v>1758</v>
+      </c>
+      <c r="G483" s="26"/>
       <c r="O483">
         <v>20180122</v>
       </c>
@@ -26082,7 +26072,20 @@
         <v>10</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>1765</v>
+        <v>1759</v>
+      </c>
+      <c r="E484">
+        <v>12.18</v>
+      </c>
+      <c r="F484">
+        <v>13.28</v>
+      </c>
+      <c r="G484" s="26">
+        <f t="shared" si="18"/>
+        <v>9.0311986863710967</v>
+      </c>
+      <c r="H484" s="22" t="s">
+        <v>1772</v>
       </c>
       <c r="O484">
         <v>20180123</v>
@@ -26102,8 +26105,9 @@
         <v>10</v>
       </c>
       <c r="D485" s="26" t="s">
-        <v>1766</v>
-      </c>
+        <v>1760</v>
+      </c>
+      <c r="G485" s="26"/>
       <c r="O485">
         <v>20180124</v>
       </c>
@@ -26122,8 +26126,9 @@
         <v>5</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>1767</v>
-      </c>
+        <v>1761</v>
+      </c>
+      <c r="G486" s="26"/>
       <c r="O486">
         <v>20180125</v>
       </c>
@@ -26142,8 +26147,9 @@
         <v>5</v>
       </c>
       <c r="D487" s="26" t="s">
-        <v>1768</v>
-      </c>
+        <v>1762</v>
+      </c>
+      <c r="G487" s="26"/>
       <c r="O487">
         <v>20180126</v>
       </c>
@@ -26162,7 +26168,20 @@
         <v>8</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>1769</v>
+        <v>1763</v>
+      </c>
+      <c r="E488">
+        <v>18</v>
+      </c>
+      <c r="F488">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="G488" s="26">
+        <f t="shared" si="18"/>
+        <v>8.6666666666666607</v>
+      </c>
+      <c r="H488" s="22" t="s">
+        <v>1770</v>
       </c>
       <c r="O488">
         <v>20180129</v>
@@ -26182,8 +26201,9 @@
         <v>10</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>1770</v>
-      </c>
+        <v>1764</v>
+      </c>
+      <c r="G489" s="26"/>
       <c r="O489">
         <v>20180130</v>
       </c>
@@ -26202,8 +26222,9 @@
         <v>13</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>1771</v>
-      </c>
+        <v>1765</v>
+      </c>
+      <c r="G490" s="26"/>
       <c r="O490">
         <v>20180131</v>
       </c>
@@ -26222,7 +26243,20 @@
         <v>11</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>1772</v>
+        <v>1766</v>
+      </c>
+      <c r="E491">
+        <v>7.47</v>
+      </c>
+      <c r="F491">
+        <v>9.02</v>
+      </c>
+      <c r="G491" s="26">
+        <f>(F491-E491)/E491*100</f>
+        <v>20.74966532797858</v>
+      </c>
+      <c r="H491" s="22" t="s">
+        <v>1771</v>
       </c>
       <c r="O491">
         <v>20160104</v>
@@ -26248,7 +26282,7 @@
         <v>14</v>
       </c>
       <c r="D492" s="26" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="O492">
         <v>20160105</v>
@@ -26468,52 +26502,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="51" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B471:B475 B463:B469">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C463:C475">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B471:B480">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C471:C480">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B477:B491">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C477:C491">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26530,7 +26524,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28016,7 +28010,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29518,7 +29512,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31464,7 +31458,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32214,7 +32208,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="2017" sheetId="4" r:id="rId4"/>
     <sheet name="2015" sheetId="5" r:id="rId5"/>
     <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="龙头标准" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1790">
   <si>
     <t>date</t>
   </si>
@@ -5545,7 +5546,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩量减分 高开减分</t>
+    <t>8-欣龙控股-000955.SZ-实体-海南-15.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大北农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否符合条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有利空(
+减持 解禁 暴雷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否市行情起步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一个龙头是否大面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否连续3个一字板以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否缩量板
+(缩量秒板
+缩量一字板) 非行情起步阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘幅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否并架模式
+(相同题材 选最强)
+(都缩量 选开最低)
+(都放量 都低开 好好考虑)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5553,7 +5608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5751,6 +5806,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -6182,7 +6255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6263,6 +6336,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6616,9 +6701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A430" sqref="A430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25546,7 +25631,7 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G492" si="18">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G488" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
@@ -26031,7 +26116,7 @@
         <v>-11.782178217821777</v>
       </c>
       <c r="H482" s="21" t="s">
-        <v>1777</v>
+        <v>1300</v>
       </c>
       <c r="O482">
         <v>20180119</v>
@@ -26149,7 +26234,6 @@
       <c r="D487" s="26" t="s">
         <v>1762</v>
       </c>
-      <c r="G487" s="26"/>
       <c r="O487">
         <v>20180126</v>
       </c>
@@ -26176,10 +26260,7 @@
       <c r="F488">
         <v>19.559999999999999</v>
       </c>
-      <c r="G488" s="26">
-        <f t="shared" si="18"/>
-        <v>8.6666666666666607</v>
-      </c>
+      <c r="G488" s="26"/>
       <c r="H488" s="22" t="s">
         <v>1770</v>
       </c>
@@ -26203,7 +26284,10 @@
       <c r="D489" s="26" t="s">
         <v>1764</v>
       </c>
-      <c r="G489" s="26"/>
+      <c r="G489" s="26">
+        <f>(F488-E488)/E488*100</f>
+        <v>8.6666666666666607</v>
+      </c>
       <c r="O489">
         <v>20180130</v>
       </c>
@@ -26249,12 +26333,9 @@
         <v>7.47</v>
       </c>
       <c r="F491">
-        <v>9.02</v>
-      </c>
-      <c r="G491" s="26">
-        <f>(F491-E491)/E491*100</f>
-        <v>20.74966532797858</v>
-      </c>
+        <v>8.43</v>
+      </c>
+      <c r="G491" s="26"/>
       <c r="H491" s="22" t="s">
         <v>1771</v>
       </c>
@@ -26284,6 +26365,10 @@
       <c r="D492" s="26" t="s">
         <v>1767</v>
       </c>
+      <c r="G492" s="26">
+        <f>(F491-E491)/E491*100</f>
+        <v>12.851405622489958</v>
+      </c>
       <c r="O492">
         <v>20160105</v>
       </c>
@@ -26292,6 +26377,9 @@
       </c>
     </row>
     <row r="493" spans="1:18">
+      <c r="D493" s="26" t="s">
+        <v>1777</v>
+      </c>
       <c r="O493">
         <v>20160106</v>
       </c>
@@ -26306,6 +26394,9 @@
       </c>
     </row>
     <row r="494" spans="1:18">
+      <c r="D494" s="26" t="s">
+        <v>1778</v>
+      </c>
       <c r="O494">
         <v>20160107</v>
       </c>
@@ -32468,4 +32559,70 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="28" customFormat="1" ht="48.75" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="2017" sheetId="4" r:id="rId4"/>
     <sheet name="2015" sheetId="5" r:id="rId5"/>
     <sheet name="2014" sheetId="6" r:id="rId6"/>
-    <sheet name="龙头标准" sheetId="7" r:id="rId7"/>
+    <sheet name="龙头战法" sheetId="7" r:id="rId7"/>
+    <sheet name="低吸战法" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1798">
   <si>
     <t>date</t>
   </si>
@@ -4551,9 +4552,6 @@
     <t>6-天华超净-300390.SZ-实体-江苏-33.0</t>
   </si>
   <si>
-    <t>3-通产丽星-002243.SZ-非实体-深圳-18.0</t>
-  </si>
-  <si>
     <t>4-通产丽星-002243.SZ-实体-深圳-18.0</t>
   </si>
   <si>
@@ -5603,12 +5601,50 @@
 (都放量 都低开 好好考虑)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否涨停价开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是第一次买入机会
+(一字板 缩量板不算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体市场情绪如何
+(大面多吗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-通产丽星-002243.SZ-非实体-深圳-18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整天数最好不要超过5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">调整越快速越好 越充分越好 幅度越大越好 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不宜调整太久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字板 或者无量调整不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前2次买入机会最好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5826,6 +5862,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6255,7 +6299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6348,6 +6392,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6702,8 +6752,8 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A430" sqref="A430"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6725,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1748</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>1749</v>
       </c>
       <c r="D1" t="s">
         <v>985</v>
@@ -7245,7 +7295,7 @@
         <v>-4.3725296442687656</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -10421,7 +10471,7 @@
         <v>38</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I66" t="s">
         <v>1055</v>
@@ -10685,7 +10735,7 @@
         <v>62</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="I71" t="s">
         <v>1058</v>
@@ -11149,7 +11199,7 @@
         <v>5.75</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I80" t="s">
         <v>1066</v>
@@ -11205,7 +11255,7 @@
         <v>18.7</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -11624,7 +11674,7 @@
         <v>25.8</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I89" t="s">
         <v>1071</v>
@@ -12163,7 +12213,7 @@
         <v>30.5</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I99" t="s">
         <v>1080</v>
@@ -12995,7 +13045,7 @@
         <v>11.2</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I114" t="s">
         <v>1086</v>
@@ -13418,7 +13468,7 @@
         <v>20.378331900257944</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -13668,7 +13718,7 @@
         <v>-7.6616915422885707</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I127" t="s">
         <v>1092</v>
@@ -13903,7 +13953,7 @@
         <v>-12.179487179487179</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I131" t="s">
         <v>1094</v>
@@ -13989,7 +14039,7 @@
         <v>35.004821600771471</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I132" t="s">
         <v>1095</v>
@@ -14137,11 +14187,11 @@
       <c r="C135">
         <v>9</v>
       </c>
-      <c r="D135" s="25" t="s">
-        <v>1471</v>
+      <c r="D135" s="26" t="s">
+        <v>1792</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I135" t="s">
         <v>1098</v>
@@ -14198,7 +14248,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I136" t="s">
         <v>1099</v>
@@ -14255,7 +14305,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I137" t="s">
         <v>1100</v>
@@ -14306,7 +14356,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E138">
         <v>8.8000000000000007</v>
@@ -14319,7 +14369,7 @@
         <v>11.363636363636363</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -14380,7 +14430,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E139">
         <v>4.4800000000000004</v>
@@ -14393,7 +14443,7 @@
         <v>24.999999999999982</v>
       </c>
       <c r="H139" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I139" t="s">
         <v>1059</v>
@@ -14450,7 +14500,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I140" t="s">
         <v>1101</v>
@@ -14507,7 +14557,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I141" t="s">
         <v>1102</v>
@@ -14558,7 +14608,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I142" t="s">
         <v>1103</v>
@@ -14615,7 +14665,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -14672,7 +14722,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E144">
         <v>6.39</v>
@@ -14685,7 +14735,7 @@
         <v>4.5383411580594686</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I144" t="s">
         <v>1104</v>
@@ -14752,7 +14802,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E145">
         <v>5.23</v>
@@ -14765,7 +14815,7 @@
         <v>-0.5736137667304062</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -14832,7 +14882,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I146" t="s">
         <v>1105</v>
@@ -14883,7 +14933,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I147" t="s">
         <v>1106</v>
@@ -14944,7 +14994,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -15005,7 +15055,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -15066,7 +15116,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -15117,7 +15167,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E151">
         <v>11.6</v>
@@ -15130,7 +15180,7 @@
         <v>7.7586206896551753</v>
       </c>
       <c r="H151" s="22" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I151" t="s">
         <v>1107</v>
@@ -15177,7 +15227,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -15218,7 +15268,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I153" t="s">
         <v>1108</v>
@@ -15269,7 +15319,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -15310,10 +15360,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I155" t="s">
         <v>995</v>
@@ -15364,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -15425,7 +15475,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -15486,7 +15536,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -15537,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -15594,7 +15644,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15645,7 +15695,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I161" t="s">
         <v>1109</v>
@@ -15696,7 +15746,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15753,7 +15803,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15794,7 +15844,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15851,7 +15901,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I165" t="s">
         <v>1110</v>
@@ -15912,7 +15962,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15969,7 +16019,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -16020,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -16061,7 +16111,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -16112,7 +16162,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -16163,7 +16213,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E171">
         <v>6.74</v>
@@ -16176,7 +16226,7 @@
         <v>8.0118694362017813</v>
       </c>
       <c r="H171" s="22" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I171" t="s">
         <v>1051</v>
@@ -16227,7 +16277,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E172">
         <v>7.91</v>
@@ -16236,7 +16286,7 @@
         <v>8.48</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I172" t="s">
         <v>1111</v>
@@ -16287,7 +16337,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E173">
         <v>10.050000000000001</v>
@@ -16300,7 +16350,7 @@
         <v>3.4825870646766131</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I173" t="s">
         <v>1112</v>
@@ -16351,7 +16401,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I174" t="s">
         <v>1113</v>
@@ -16408,7 +16458,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16471,7 +16521,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16522,7 +16572,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16583,7 +16633,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I178" t="s">
         <v>1055</v>
@@ -16634,7 +16684,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16701,7 +16751,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I180" t="s">
         <v>1114</v>
@@ -16758,7 +16808,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I181" t="s">
         <v>1115</v>
@@ -16799,7 +16849,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H182" s="21" t="s">
         <v>1310</v>
@@ -16853,7 +16903,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E183">
         <v>8.81</v>
@@ -16862,7 +16912,7 @@
         <v>7.8</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16903,7 +16953,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I184" t="s">
         <v>1116</v>
@@ -16960,7 +17010,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185">
@@ -17012,7 +17062,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E186">
         <v>9.35</v>
@@ -17072,7 +17122,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I187" t="s">
         <v>1117</v>
@@ -17123,7 +17173,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I188" t="s">
         <v>1118</v>
@@ -17174,7 +17224,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17241,7 +17291,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E190">
         <v>44.44</v>
@@ -17254,7 +17304,7 @@
         <v>7.9657965796579644</v>
       </c>
       <c r="H190" s="22" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17305,7 +17355,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17356,7 +17406,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17407,7 +17457,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -17458,7 +17508,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="I194" t="s">
         <v>1119</v>
@@ -17511,10 +17561,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H195" s="21" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17575,7 +17625,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I196" t="s">
         <v>1120</v>
@@ -17626,7 +17676,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -17683,7 +17733,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I198" t="s">
         <v>1121</v>
@@ -17734,7 +17784,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G199" s="25"/>
       <c r="I199" t="s">
@@ -17786,7 +17836,7 @@
         <v>26</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G200" s="25"/>
       <c r="I200">
@@ -17838,7 +17888,7 @@
         <v>13</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E201">
         <v>31.8</v>
@@ -17851,7 +17901,7 @@
         <v>4.3396226415094308</v>
       </c>
       <c r="H201" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -17912,7 +17962,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" t="s">
@@ -17960,7 +18010,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18017,7 +18067,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18068,7 +18118,7 @@
         <v>10</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I205" t="s">
         <v>1124</v>
@@ -18119,7 +18169,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E206">
         <v>24</v>
@@ -18132,7 +18182,7 @@
         <v>7.291666666666667</v>
       </c>
       <c r="H206" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I206" t="s">
         <v>1125</v>
@@ -18173,10 +18223,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I207" t="s">
         <v>1126</v>
@@ -18217,7 +18267,7 @@
         <v>16</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E208">
         <v>5.57</v>
@@ -18230,7 +18280,7 @@
         <v>9.5152603231597723</v>
       </c>
       <c r="H208" s="22" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="I208" t="s">
         <v>1127</v>
@@ -18277,7 +18327,7 @@
         <v>16</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G209" s="25"/>
       <c r="I209">
@@ -18319,7 +18369,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G210" s="25"/>
       <c r="I210" t="s">
@@ -18371,7 +18421,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G211" s="25"/>
       <c r="I211">
@@ -18413,7 +18463,7 @@
         <v>13</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E212">
         <v>7.38</v>
@@ -18426,7 +18476,7 @@
         <v>32.791327913279147</v>
       </c>
       <c r="H212" s="22" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -18473,7 +18523,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -18520,7 +18570,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -18561,10 +18611,10 @@
         <v>30</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H215" s="21" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="I215" t="s">
         <v>1128</v>
@@ -18615,7 +18665,7 @@
         <v>19</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E216">
         <v>9.32</v>
@@ -18624,7 +18674,7 @@
         <v>9.52</v>
       </c>
       <c r="H216" s="21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -18675,7 +18725,7 @@
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="I217" t="s">
         <v>1129</v>
@@ -18726,7 +18776,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E218">
         <v>10.53</v>
@@ -18739,7 +18789,7 @@
         <v>6.9325735992402704</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I218" t="s">
         <v>1130</v>
@@ -18780,7 +18830,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="I219" t="s">
         <v>1131</v>
@@ -18821,7 +18871,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -18862,7 +18912,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I221" t="s">
         <v>1132</v>
@@ -18903,10 +18953,10 @@
         <v>10</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H222" s="21" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="I222" t="s">
         <v>1133</v>
@@ -18947,10 +18997,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H223" s="21" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -18991,7 +19041,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -19032,7 +19082,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -19073,7 +19123,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -19114,7 +19164,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -19155,7 +19205,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -19202,7 +19252,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E229">
         <v>5.9</v>
@@ -19253,7 +19303,7 @@
         <v>16</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -19294,7 +19344,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E231">
         <v>24.9</v>
@@ -19354,7 +19404,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -19395,7 +19445,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -19436,7 +19486,7 @@
         <v>2</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -19477,7 +19527,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -19518,7 +19568,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -19559,7 +19609,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -19600,7 +19650,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -19641,7 +19691,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -19682,7 +19732,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -19723,7 +19773,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -19764,7 +19814,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -19811,7 +19861,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -19852,7 +19902,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -19893,7 +19943,7 @@
         <v>15</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H245" s="21" t="s">
         <v>1310</v>
@@ -19937,7 +19987,7 @@
         <v>7</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E246">
         <v>10.1</v>
@@ -19979,7 +20029,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I247" t="s">
         <v>1137</v>
@@ -20002,7 +20052,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="I248" t="s">
         <v>1138</v>
@@ -20025,7 +20075,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I249" t="s">
         <v>1139</v>
@@ -20048,7 +20098,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E250">
         <v>4.8499999999999996</v>
@@ -20084,7 +20134,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="I251" t="s">
         <v>1141</v>
@@ -20107,7 +20157,7 @@
         <v>19</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I252" t="s">
         <v>1142</v>
@@ -20130,7 +20180,7 @@
         <v>16</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="I253" t="s">
         <v>1143</v>
@@ -20153,7 +20203,7 @@
         <v>15</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I254" t="s">
         <v>1144</v>
@@ -20176,7 +20226,7 @@
         <v>13</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I255" t="s">
         <v>1145</v>
@@ -20199,7 +20249,7 @@
         <v>16</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H256" s="21" t="s">
         <v>1310</v>
@@ -20225,7 +20275,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E257">
         <v>27.85</v>
@@ -20261,7 +20311,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="I258" t="s">
         <v>1148</v>
@@ -20284,7 +20334,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="I259" t="s">
         <v>1149</v>
@@ -20307,7 +20357,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I260" t="s">
         <v>1150</v>
@@ -20330,7 +20380,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -20353,7 +20403,7 @@
         <v>8</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E262">
         <v>6.03</v>
@@ -20389,7 +20439,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I263" t="s">
         <v>1151</v>
@@ -20412,7 +20462,7 @@
         <v>9</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="I264" t="s">
         <v>1152</v>
@@ -20435,7 +20485,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I265" t="s">
         <v>1153</v>
@@ -20458,7 +20508,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E266">
         <v>8.1999999999999993</v>
@@ -20494,7 +20544,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -20517,7 +20567,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I268" t="s">
         <v>1155</v>
@@ -20540,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -20563,7 +20613,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -20586,7 +20636,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I271" t="s">
         <v>1156</v>
@@ -20609,10 +20659,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I272" t="s">
         <v>1157</v>
@@ -20652,7 +20702,7 @@
         <v>16</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I273" t="s">
         <v>1158</v>
@@ -20691,7 +20741,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -20730,7 +20780,7 @@
         <v>15</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I275" t="s">
         <v>1160</v>
@@ -20753,7 +20803,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I276" t="s">
         <v>1161</v>
@@ -20792,7 +20842,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I277" t="s">
         <v>1162</v>
@@ -20815,7 +20865,7 @@
         <v>21</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I278" t="s">
         <v>1163</v>
@@ -20838,7 +20888,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I279" t="s">
         <v>1164</v>
@@ -20877,7 +20927,7 @@
         <v>17</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I280" t="s">
         <v>1165</v>
@@ -20900,7 +20950,7 @@
         <v>28</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -20942,7 +20992,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I282" t="s">
         <v>1167</v>
@@ -20965,10 +21015,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H283" s="21" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I283" t="s">
         <v>1168</v>
@@ -20997,7 +21047,7 @@
         <v>15</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E284">
         <v>14.94</v>
@@ -21010,7 +21060,7 @@
         <v>21.419009370816607</v>
       </c>
       <c r="H284" s="22" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I284" t="s">
         <v>1169</v>
@@ -21049,7 +21099,7 @@
         <v>7</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E285">
         <v>7.06</v>
@@ -21091,7 +21141,7 @@
         <v>7</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E286">
         <v>14.84</v>
@@ -21133,7 +21183,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I287" t="s">
         <v>1172</v>
@@ -21156,7 +21206,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I288" t="s">
         <v>987</v>
@@ -21179,7 +21229,7 @@
         <v>60</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I289" t="s">
         <v>988</v>
@@ -21202,7 +21252,7 @@
         <v>79</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I290" t="s">
         <v>989</v>
@@ -21225,7 +21275,7 @@
         <v>31</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I291" t="s">
         <v>990</v>
@@ -21248,7 +21298,7 @@
         <v>19</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E292">
         <v>16</v>
@@ -21290,7 +21340,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E293">
         <v>8</v>
@@ -21303,7 +21353,7 @@
         <v>-4.5000000000000036</v>
       </c>
       <c r="H293" s="21" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I293" t="s">
         <v>1173</v>
@@ -21332,7 +21382,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I294" t="s">
         <v>1174</v>
@@ -21355,7 +21405,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E295">
         <v>16</v>
@@ -21397,7 +21447,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I296" t="s">
         <v>993</v>
@@ -21436,7 +21486,7 @@
         <v>10</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E297">
         <v>8.3800000000000008</v>
@@ -21478,7 +21528,7 @@
         <v>19</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E298">
         <v>14.02</v>
@@ -21491,7 +21541,7 @@
         <v>9.8430813124108472</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I298" t="s">
         <v>995</v>
@@ -21520,7 +21570,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I299" t="s">
         <v>996</v>
@@ -21543,7 +21593,7 @@
         <v>23</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E300">
         <v>10.64</v>
@@ -21585,7 +21635,7 @@
         <v>24</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I301" t="s">
         <v>998</v>
@@ -21624,7 +21674,7 @@
         <v>24</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E302">
         <v>18.88</v>
@@ -21666,7 +21716,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E303">
         <v>14.04</v>
@@ -21708,7 +21758,7 @@
         <v>18</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I304" t="s">
         <v>1001</v>
@@ -21731,7 +21781,7 @@
         <v>10</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I305" t="s">
         <v>1002</v>
@@ -21764,7 +21814,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I306" t="s">
         <v>1003</v>
@@ -21797,7 +21847,7 @@
         <v>28</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E307">
         <v>18.940000000000001</v>
@@ -21810,7 +21860,7 @@
         <v>2.4287222808869973</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I307" t="s">
         <v>1004</v>
@@ -21839,7 +21889,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E308">
         <v>16.7</v>
@@ -21877,7 +21927,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E309">
         <v>7.44</v>
@@ -21919,7 +21969,7 @@
         <v>26</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="I310" t="s">
         <v>1007</v>
@@ -21958,7 +22008,7 @@
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E311">
         <v>11.6</v>
@@ -21971,7 +22021,7 @@
         <v>-3.4482758620689689</v>
       </c>
       <c r="H311" s="21" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I311" t="s">
         <v>1008</v>
@@ -22000,7 +22050,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="I312" t="s">
         <v>1009</v>
@@ -22023,7 +22073,7 @@
         <v>19</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E313">
         <v>8.1999999999999993</v>
@@ -22036,7 +22086,7 @@
         <v>-2.4390243902438939</v>
       </c>
       <c r="H313" s="21" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I313" t="s">
         <v>1010</v>
@@ -22065,10 +22115,10 @@
         <v>14</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H314" s="21" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I314" t="s">
         <v>1011</v>
@@ -22091,7 +22141,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="O315">
         <v>20170519</v>
@@ -22111,7 +22161,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="O316">
         <v>20170522</v>
@@ -22131,7 +22181,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E317">
         <v>17.07</v>
@@ -22164,7 +22214,7 @@
         <v>26</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="O318">
         <v>20170524</v>
@@ -22184,7 +22234,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E319">
         <v>20.55</v>
@@ -22213,7 +22263,7 @@
         <v>18</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E320">
         <v>13.15</v>
@@ -22332,7 +22382,7 @@
         <v>1179</v>
       </c>
       <c r="H325" s="21" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="O325">
         <v>20170606</v>
@@ -22424,7 +22474,7 @@
         <v>18.510000000000002</v>
       </c>
       <c r="H329" s="21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="O329">
         <v>20170612</v>
@@ -22490,7 +22540,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="22" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="O331">
         <v>20170614</v>
@@ -22523,7 +22573,7 @@
         <v>3.0303030303030365</v>
       </c>
       <c r="H332" s="21" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="O332">
         <v>20170615</v>
@@ -22672,7 +22722,7 @@
         <v>1192</v>
       </c>
       <c r="H338" s="21" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O338">
         <v>20170623</v>
@@ -22721,7 +22771,7 @@
         <v>8.52</v>
       </c>
       <c r="H340" s="21" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O340">
         <v>20170627</v>
@@ -22744,7 +22794,7 @@
         <v>1258</v>
       </c>
       <c r="H341" s="23" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22767,7 +22817,7 @@
         <v>1194</v>
       </c>
       <c r="H342" s="23" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -23246,7 +23296,7 @@
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="21" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -23747,7 +23797,7 @@
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="21" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23771,7 +23821,7 @@
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="21" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -24191,7 +24241,7 @@
         <v>-7.1005917159763277</v>
       </c>
       <c r="H402" s="21" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -24409,7 +24459,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="26" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E411">
         <v>4.2699999999999996</v>
@@ -24548,7 +24598,7 @@
       </c>
       <c r="G416" s="13"/>
       <c r="H416" s="24" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="O416">
         <v>20171018</v>
@@ -24688,7 +24738,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24804,11 +24854,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G426" s="16"/>
       <c r="H426" s="22" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24907,7 +24957,7 @@
       </c>
       <c r="G430" s="25"/>
       <c r="H430" s="21" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -24952,7 +25002,7 @@
       </c>
       <c r="G432" s="25"/>
       <c r="H432" s="21" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O432">
         <v>20171109</v>
@@ -24997,7 +25047,7 @@
       </c>
       <c r="G434" s="25"/>
       <c r="H434" s="21" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="O434">
         <v>20171113</v>
@@ -25066,7 +25116,7 @@
       </c>
       <c r="G437" s="25"/>
       <c r="H437" s="21" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -25132,7 +25182,7 @@
       </c>
       <c r="G440" s="25"/>
       <c r="H440" s="21" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -25194,7 +25244,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G443" s="25"/>
       <c r="O443">
@@ -25215,7 +25265,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O444">
         <v>20171127</v>
@@ -25235,10 +25285,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H445" s="21" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O445">
         <v>20171128</v>
@@ -25258,10 +25308,10 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H446" s="21" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="O446">
         <v>20171129</v>
@@ -25281,10 +25331,10 @@
         <v>16</v>
       </c>
       <c r="D447" s="26" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H447" s="21" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O447">
         <v>20171130</v>
@@ -25304,7 +25354,7 @@
         <v>8</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E448">
         <v>5.35</v>
@@ -25317,7 +25367,7 @@
         <v>8.9719626168224398</v>
       </c>
       <c r="H448" s="22" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O448">
         <v>20171201</v>
@@ -25337,7 +25387,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G449" s="25"/>
       <c r="O449">
@@ -25358,7 +25408,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G450" s="25"/>
       <c r="O450">
@@ -25379,7 +25429,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="G451" s="25"/>
       <c r="O451">
@@ -25400,7 +25450,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="G452" s="25"/>
       <c r="O452">
@@ -25421,7 +25471,7 @@
         <v>5</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G453" s="25"/>
       <c r="O453">
@@ -25442,7 +25492,7 @@
         <v>4</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G454" s="25"/>
       <c r="O454">
@@ -25463,7 +25513,7 @@
         <v>6</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G455" s="25"/>
       <c r="O455">
@@ -25484,7 +25534,7 @@
         <v>3</v>
       </c>
       <c r="D456" s="25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="G456" s="25"/>
       <c r="O456">
@@ -25505,7 +25555,7 @@
         <v>4</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G457" s="25"/>
       <c r="O457">
@@ -25526,7 +25576,7 @@
         <v>5</v>
       </c>
       <c r="D458" s="25" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G458" s="25"/>
       <c r="O458">
@@ -25547,7 +25597,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="25" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E459">
         <v>27</v>
@@ -25560,7 +25610,7 @@
         <v>3.7037037037037033</v>
       </c>
       <c r="H459" s="22" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="O459">
         <v>20171218</v>
@@ -25580,7 +25630,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G460" s="26"/>
       <c r="O460">
@@ -25601,7 +25651,7 @@
         <v>4</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G461" s="26"/>
       <c r="O461">
@@ -25622,7 +25672,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E462">
         <v>3.39</v>
@@ -25631,11 +25681,11 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G488" si="18">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G484" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="O462">
         <v>20171221</v>
@@ -25655,7 +25705,7 @@
         <v>7</v>
       </c>
       <c r="D463" s="26" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G463" s="26"/>
       <c r="O463">
@@ -25676,7 +25726,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="26" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="G464" s="26"/>
       <c r="O464">
@@ -25695,7 +25745,7 @@
       </c>
       <c r="C465" s="26"/>
       <c r="D465" s="26" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G465" s="26"/>
       <c r="O465">
@@ -25716,11 +25766,11 @@
         <v>10</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G466" s="26"/>
       <c r="H466" s="21" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="O466">
         <v>20171227</v>
@@ -25740,7 +25790,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E467">
         <v>6.19</v>
@@ -25753,7 +25803,7 @@
         <v>-3.3925686591276247</v>
       </c>
       <c r="H467" s="24" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25773,7 +25823,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="26" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G468" s="26"/>
       <c r="O468">
@@ -25794,7 +25844,7 @@
         <v>3</v>
       </c>
       <c r="D469" s="26" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G469" s="26"/>
       <c r="O469">
@@ -25815,7 +25865,7 @@
         <v>4</v>
       </c>
       <c r="D470" s="26" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G470" s="26"/>
       <c r="O470">
@@ -25836,7 +25886,7 @@
         <v>5</v>
       </c>
       <c r="D471" s="26" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G471" s="26"/>
       <c r="O471">
@@ -25857,7 +25907,7 @@
         <v>4</v>
       </c>
       <c r="D472" s="26" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G472" s="26"/>
       <c r="O472">
@@ -25878,7 +25928,7 @@
         <v>8</v>
       </c>
       <c r="D473" s="26" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E473">
         <v>16.940000000000001</v>
@@ -25891,7 +25941,7 @@
         <v>15.702479338842975</v>
       </c>
       <c r="H473" s="22" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="O473">
         <v>20180108</v>
@@ -25911,7 +25961,7 @@
         <v>5</v>
       </c>
       <c r="D474" s="26" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G474" s="26"/>
       <c r="O474">
@@ -25932,7 +25982,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="26" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G475" s="26"/>
       <c r="O475">
@@ -25953,7 +26003,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G476" s="26"/>
       <c r="O476">
@@ -25974,7 +26024,7 @@
         <v>8</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E477">
         <v>24.04</v>
@@ -25987,7 +26037,7 @@
         <v>10.64891846921798</v>
       </c>
       <c r="H477" s="22" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="O477">
         <v>20180112</v>
@@ -26007,7 +26057,7 @@
         <v>5</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G478" s="26"/>
       <c r="O478">
@@ -26028,7 +26078,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="26" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G479" s="26"/>
       <c r="O479">
@@ -26049,7 +26099,7 @@
         <v>4</v>
       </c>
       <c r="D480" s="26" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G480" s="26"/>
       <c r="O480">
@@ -26070,7 +26120,7 @@
         <v>10</v>
       </c>
       <c r="D481" s="26" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E481">
         <v>9.27</v>
@@ -26103,7 +26153,7 @@
         <v>15</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E482">
         <v>10.1</v>
@@ -26136,7 +26186,7 @@
         <v>12</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G483" s="26"/>
       <c r="O483">
@@ -26157,7 +26207,7 @@
         <v>10</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E484">
         <v>12.18</v>
@@ -26170,7 +26220,7 @@
         <v>9.0311986863710967</v>
       </c>
       <c r="H484" s="22" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="O484">
         <v>20180123</v>
@@ -26190,7 +26240,7 @@
         <v>10</v>
       </c>
       <c r="D485" s="26" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G485" s="26"/>
       <c r="O485">
@@ -26211,7 +26261,7 @@
         <v>5</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G486" s="26"/>
       <c r="O486">
@@ -26232,7 +26282,7 @@
         <v>5</v>
       </c>
       <c r="D487" s="26" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="O487">
         <v>20180126</v>
@@ -26252,7 +26302,7 @@
         <v>8</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E488">
         <v>18</v>
@@ -26262,7 +26312,7 @@
       </c>
       <c r="G488" s="26"/>
       <c r="H488" s="22" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="O488">
         <v>20180129</v>
@@ -26282,7 +26332,7 @@
         <v>10</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G489" s="26">
         <f>(F488-E488)/E488*100</f>
@@ -26306,7 +26356,7 @@
         <v>13</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G490" s="26"/>
       <c r="O490">
@@ -26327,7 +26377,7 @@
         <v>11</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E491">
         <v>7.47</v>
@@ -26337,7 +26387,7 @@
       </c>
       <c r="G491" s="26"/>
       <c r="H491" s="22" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O491">
         <v>20160104</v>
@@ -26363,7 +26413,7 @@
         <v>14</v>
       </c>
       <c r="D492" s="26" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G492" s="26">
         <f>(F491-E491)/E491*100</f>
@@ -26378,7 +26428,7 @@
     </row>
     <row r="493" spans="1:18">
       <c r="D493" s="26" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="O493">
         <v>20160106</v>
@@ -26395,7 +26445,7 @@
     </row>
     <row r="494" spans="1:18">
       <c r="D494" s="26" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="O494">
         <v>20160107</v>
@@ -32563,10 +32613,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32579,50 +32629,102 @@
     <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1" ht="48.75" thickBot="1">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="48.75" thickBot="1">
       <c r="A1" s="27" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1779</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>1780</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>1781</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>1782</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>1783</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>1784</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>1785</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>1786</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="29" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>1787</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>1788</v>
-      </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" thickTop="1"/>
+      <c r="M1" s="29" t="s">
+        <v>1790</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A1" s="31" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="7"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1803">
   <si>
     <t>date</t>
   </si>
@@ -5544,14 +5544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8-欣龙控股-000955.SZ-实体-海南-15.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大北农</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5638,6 +5630,27 @@
   <si>
     <t>前2次买入机会最好</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-欣龙控股-000955.SZ-实体-海南-20.0</t>
+  </si>
+  <si>
+    <t>4-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>5-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>6-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>7-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>5-荃银高科-300087.SZ-实体-安徽-10.0</t>
+  </si>
+  <si>
+    <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
   </si>
 </sst>
 </file>
@@ -6444,7 +6457,35 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6751,23 +6792,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F498" sqref="F498"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -14188,7 +14229,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H135" s="21" t="s">
         <v>1716</v>
@@ -22780,7 +22821,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.5">
+    <row r="341" spans="1:16" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22803,7 +22844,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22826,7 +22867,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22951,7 +22992,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -23120,7 +23161,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24577,7 +24618,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25779,7 +25820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="27">
+    <row r="467" spans="1:16" ht="28.8">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -26427,8 +26468,17 @@
       </c>
     </row>
     <row r="493" spans="1:18">
+      <c r="A493" s="26">
+        <v>20200102</v>
+      </c>
+      <c r="B493" s="26">
+        <v>24</v>
+      </c>
+      <c r="C493" s="26">
+        <v>19</v>
+      </c>
       <c r="D493" s="26" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="O493">
         <v>20160106</v>
@@ -26444,8 +26494,17 @@
       </c>
     </row>
     <row r="494" spans="1:18">
+      <c r="A494" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="B494" s="26">
+        <v>24</v>
+      </c>
+      <c r="C494" s="26">
+        <v>19</v>
+      </c>
       <c r="D494" s="26" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="O494">
         <v>20160107</v>
@@ -26455,6 +26514,18 @@
       </c>
     </row>
     <row r="495" spans="1:18">
+      <c r="A495" s="26">
+        <v>20200106</v>
+      </c>
+      <c r="B495" s="26">
+        <v>20</v>
+      </c>
+      <c r="C495" s="26">
+        <v>16</v>
+      </c>
+      <c r="D495" s="26" t="s">
+        <v>1798</v>
+      </c>
       <c r="O495">
         <v>20160108</v>
       </c>
@@ -26469,6 +26540,18 @@
       </c>
     </row>
     <row r="496" spans="1:18">
+      <c r="A496" s="26">
+        <v>20200107</v>
+      </c>
+      <c r="B496" s="26">
+        <v>24</v>
+      </c>
+      <c r="C496" s="26">
+        <v>19</v>
+      </c>
+      <c r="D496" s="26" t="s">
+        <v>1799</v>
+      </c>
       <c r="O496">
         <v>20160111</v>
       </c>
@@ -26482,7 +26565,19 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="497" spans="15:18">
+    <row r="497" spans="1:18">
+      <c r="A497" s="26">
+        <v>20200108</v>
+      </c>
+      <c r="B497" s="26">
+        <v>19</v>
+      </c>
+      <c r="C497" s="26">
+        <v>14</v>
+      </c>
+      <c r="D497" s="26" t="s">
+        <v>1800</v>
+      </c>
       <c r="O497">
         <v>20160112</v>
       </c>
@@ -26490,7 +26585,19 @@
         <v>487</v>
       </c>
     </row>
-    <row r="498" spans="15:18">
+    <row r="498" spans="1:18">
+      <c r="A498" s="26">
+        <v>20200109</v>
+      </c>
+      <c r="B498" s="26">
+        <v>9</v>
+      </c>
+      <c r="C498" s="26">
+        <v>6</v>
+      </c>
+      <c r="D498" s="26" t="s">
+        <v>1801</v>
+      </c>
       <c r="O498">
         <v>20160113</v>
       </c>
@@ -26504,7 +26611,19 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="499" spans="15:18">
+    <row r="499" spans="1:18">
+      <c r="A499" s="26">
+        <v>20200110</v>
+      </c>
+      <c r="B499" s="26">
+        <v>11</v>
+      </c>
+      <c r="C499" s="26">
+        <v>9</v>
+      </c>
+      <c r="D499" s="26" t="s">
+        <v>1802</v>
+      </c>
       <c r="O499">
         <v>20160114</v>
       </c>
@@ -26518,7 +26637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="15:18">
+    <row r="500" spans="1:18">
       <c r="O500">
         <v>20160115</v>
       </c>
@@ -26532,7 +26651,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="501" spans="15:18">
+    <row r="501" spans="1:18">
       <c r="O501">
         <v>20160118</v>
       </c>
@@ -26540,7 +26659,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="502" spans="15:18">
+    <row r="502" spans="1:18">
       <c r="O502">
         <v>20160119</v>
       </c>
@@ -26554,7 +26673,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="503" spans="15:18">
+    <row r="503" spans="1:18">
       <c r="O503">
         <v>20160120</v>
       </c>
@@ -26568,7 +26687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="15:18">
+    <row r="504" spans="1:18">
       <c r="O504">
         <v>20160121</v>
       </c>
@@ -26576,7 +26695,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="505" spans="15:18">
+    <row r="505" spans="1:18">
       <c r="O505">
         <v>20160122</v>
       </c>
@@ -26584,7 +26703,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="506" spans="15:18">
+    <row r="506" spans="1:18">
       <c r="O506">
         <v>20160125</v>
       </c>
@@ -26592,7 +26711,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="507" spans="15:18">
+    <row r="507" spans="1:18">
       <c r="O507">
         <v>20160126</v>
       </c>
@@ -26600,7 +26719,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="508" spans="15:18">
+    <row r="508" spans="1:18">
       <c r="O508">
         <v>20160127</v>
       </c>
@@ -26608,7 +26727,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="509" spans="15:18">
+    <row r="509" spans="1:18">
       <c r="O509">
         <v>20160128</v>
       </c>
@@ -26616,7 +26735,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="510" spans="15:18">
+    <row r="510" spans="1:18">
       <c r="O510">
         <v>20160129</v>
       </c>
@@ -26624,7 +26743,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="511" spans="15:18">
+    <row r="511" spans="1:18">
       <c r="O511">
         <v>20160201</v>
       </c>
@@ -26632,7 +26751,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="512" spans="15:18">
+    <row r="512" spans="1:18">
       <c r="O512">
         <v>20160202</v>
       </c>
@@ -26643,12 +26762,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="54" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B491:B499">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C491:C499">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26665,7 +26794,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28151,7 +28280,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29653,7 +29782,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31599,7 +31728,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32349,7 +32478,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32619,69 +32748,69 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="48.75" thickBot="1">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="60.6" thickBot="1">
       <c r="A1" s="27" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1778</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>1779</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>1780</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>1781</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>1782</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>1783</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>1784</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="J1" s="29" t="s">
+        <v>1786</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>1785</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>1786</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="L1" s="28" t="s">
+        <v>1787</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>1788</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>1787</v>
-      </c>
-      <c r="L1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>1789</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>1790</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickTop="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32693,34 +32822,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="31" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>1793</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>1794</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>1795</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>1797</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1810">
   <si>
     <t>date</t>
   </si>
@@ -5650,14 +5650,39 @@
     <t>5-荃银高科-300087.SZ-实体-安徽-10.0</t>
   </si>
   <si>
+    <t>3-友阿股份-002277.SZ-实体-湖南-15.0</t>
+  </si>
+  <si>
+    <t>3-安妮股份-002235.SZ-实体-福建-18.0</t>
+  </si>
+  <si>
+    <t>3-英维克-002837.SZ-实体-深圳-14.0</t>
+  </si>
+  <si>
+    <t>4-英维克-002837.SZ-实体-深圳-21.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-英维克-002837.SZ-实体-深圳-27.0</t>
+  </si>
+  <si>
     <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减持放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三个一字板以上 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5883,6 +5908,15 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6312,7 +6346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6412,6 +6446,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6468,14 +6505,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6793,22 +6830,22 @@
   <dimension ref="A1:AN512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F498" sqref="F498"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G494" sqref="G494:G508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22821,7 +22858,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="43.2">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22844,7 +22881,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22867,7 +22904,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -22992,7 +23029,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -23161,7 +23198,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24618,7 +24655,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25722,7 +25759,7 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G484" si="18">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G501" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
@@ -25820,7 +25857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="28.8">
+    <row r="467" spans="1:16" ht="27">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -26325,6 +26362,8 @@
       <c r="D487" s="26" t="s">
         <v>1761</v>
       </c>
+      <c r="E487" s="33"/>
+      <c r="G487" s="26"/>
       <c r="O487">
         <v>20180126</v>
       </c>
@@ -26351,7 +26390,10 @@
       <c r="F488">
         <v>19.559999999999999</v>
       </c>
-      <c r="G488" s="26"/>
+      <c r="G488" s="26">
+        <f t="shared" si="18"/>
+        <v>8.6666666666666607</v>
+      </c>
       <c r="H488" s="22" t="s">
         <v>1769</v>
       </c>
@@ -26375,10 +26417,7 @@
       <c r="D489" s="26" t="s">
         <v>1763</v>
       </c>
-      <c r="G489" s="26">
-        <f>(F488-E488)/E488*100</f>
-        <v>8.6666666666666607</v>
-      </c>
+      <c r="G489" s="26"/>
       <c r="O489">
         <v>20180130</v>
       </c>
@@ -26426,7 +26465,10 @@
       <c r="F491">
         <v>8.43</v>
       </c>
-      <c r="G491" s="26"/>
+      <c r="G491" s="26">
+        <f t="shared" si="18"/>
+        <v>12.851405622489958</v>
+      </c>
       <c r="H491" s="22" t="s">
         <v>1770</v>
       </c>
@@ -26456,10 +26498,7 @@
       <c r="D492" s="26" t="s">
         <v>1766</v>
       </c>
-      <c r="G492" s="26">
-        <f>(F491-E491)/E491*100</f>
-        <v>12.851405622489958</v>
-      </c>
+      <c r="G492" s="26"/>
       <c r="O492">
         <v>20160105</v>
       </c>
@@ -26480,6 +26519,7 @@
       <c r="D493" s="26" t="s">
         <v>1796</v>
       </c>
+      <c r="G493" s="26"/>
       <c r="O493">
         <v>20160106</v>
       </c>
@@ -26506,6 +26546,10 @@
       <c r="D494" s="26" t="s">
         <v>1797</v>
       </c>
+      <c r="G494" s="26"/>
+      <c r="H494" s="21" t="s">
+        <v>1809</v>
+      </c>
       <c r="O494">
         <v>20160107</v>
       </c>
@@ -26526,6 +26570,7 @@
       <c r="D495" s="26" t="s">
         <v>1798</v>
       </c>
+      <c r="G495" s="26"/>
       <c r="O495">
         <v>20160108</v>
       </c>
@@ -26552,6 +26597,7 @@
       <c r="D496" s="26" t="s">
         <v>1799</v>
       </c>
+      <c r="G496" s="26"/>
       <c r="O496">
         <v>20160111</v>
       </c>
@@ -26578,6 +26624,7 @@
       <c r="D497" s="26" t="s">
         <v>1800</v>
       </c>
+      <c r="G497" s="26"/>
       <c r="O497">
         <v>20160112</v>
       </c>
@@ -26598,6 +26645,7 @@
       <c r="D498" s="26" t="s">
         <v>1801</v>
       </c>
+      <c r="G498" s="26"/>
       <c r="O498">
         <v>20160113</v>
       </c>
@@ -26622,7 +26670,11 @@
         <v>9</v>
       </c>
       <c r="D499" s="26" t="s">
-        <v>1802</v>
+        <v>1807</v>
+      </c>
+      <c r="G499" s="26"/>
+      <c r="H499" s="21" t="s">
+        <v>1809</v>
       </c>
       <c r="O499">
         <v>20160114</v>
@@ -26638,6 +26690,19 @@
       </c>
     </row>
     <row r="500" spans="1:18">
+      <c r="A500" s="26">
+        <v>20200113</v>
+      </c>
+      <c r="B500" s="26">
+        <v>9</v>
+      </c>
+      <c r="C500" s="26">
+        <v>6</v>
+      </c>
+      <c r="D500" s="26" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G500" s="26"/>
       <c r="O500">
         <v>20160115</v>
       </c>
@@ -26652,6 +26717,28 @@
       </c>
     </row>
     <row r="501" spans="1:18">
+      <c r="A501" s="26">
+        <v>20200114</v>
+      </c>
+      <c r="B501" s="26">
+        <v>14</v>
+      </c>
+      <c r="C501" s="26">
+        <v>10</v>
+      </c>
+      <c r="D501" s="26" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E501">
+        <v>12.5</v>
+      </c>
+      <c r="F501">
+        <v>11.9</v>
+      </c>
+      <c r="G501" s="26">
+        <f t="shared" si="18"/>
+        <v>-4.7999999999999972</v>
+      </c>
       <c r="O501">
         <v>20160118</v>
       </c>
@@ -26660,6 +26747,18 @@
       </c>
     </row>
     <row r="502" spans="1:18">
+      <c r="A502" s="26">
+        <v>20200115</v>
+      </c>
+      <c r="B502" s="26">
+        <v>9</v>
+      </c>
+      <c r="C502" s="26">
+        <v>5</v>
+      </c>
+      <c r="D502" s="26" t="s">
+        <v>1804</v>
+      </c>
       <c r="O502">
         <v>20160119</v>
       </c>
@@ -26674,6 +26773,21 @@
       </c>
     </row>
     <row r="503" spans="1:18">
+      <c r="A503" s="26">
+        <v>20200116</v>
+      </c>
+      <c r="B503" s="26">
+        <v>10</v>
+      </c>
+      <c r="C503" s="26">
+        <v>5</v>
+      </c>
+      <c r="D503" s="26" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H503" s="21" t="s">
+        <v>1808</v>
+      </c>
       <c r="O503">
         <v>20160120</v>
       </c>
@@ -26688,6 +26802,18 @@
       </c>
     </row>
     <row r="504" spans="1:18">
+      <c r="A504" s="26">
+        <v>20200117</v>
+      </c>
+      <c r="B504" s="26">
+        <v>13</v>
+      </c>
+      <c r="C504" s="26">
+        <v>7</v>
+      </c>
+      <c r="D504" s="26" t="s">
+        <v>1806</v>
+      </c>
       <c r="O504">
         <v>20160121</v>
       </c>
@@ -26762,22 +26888,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="56" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="53" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="55" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B491:B499">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C491:C499">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B499:B504">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C499:C504">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26794,7 +26930,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28280,7 +28416,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29782,7 +29918,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31728,7 +31864,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32478,7 +32614,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32748,25 +32884,25 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="60.6" thickBot="1">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="48.75" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>1776</v>
       </c>
@@ -32810,7 +32946,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1"/>
+    <row r="2" spans="1:14" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32826,16 +32962,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>1791</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1804">
   <si>
     <t>date</t>
   </si>
@@ -5651,6 +5651,10 @@
   </si>
   <si>
     <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
+  </si>
+  <si>
+    <t>10块以下是否要考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6457,25 +6461,11 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6792,7 +6782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F498" sqref="F498"/>
     </sheetView>
@@ -26762,22 +26752,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="54" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="53" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="53" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B491:B499">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C491:C499">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32742,10 +32732,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -32766,7 +32756,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="60.6" thickBot="1">
+    <row r="1" spans="1:15" s="28" customFormat="1" ht="60.6" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>1776</v>
       </c>
@@ -32809,8 +32799,11 @@
       <c r="N1" s="29" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1"/>
+      <c r="O1" s="28" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1811">
   <si>
     <t>date</t>
   </si>
@@ -5675,6 +5675,10 @@
   </si>
   <si>
     <t>连续三个一字板以上 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10块以下是否考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6829,23 +6833,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G494" sqref="G494:G508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -22858,7 +22862,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.5">
+    <row r="341" spans="1:16" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22881,7 +22885,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="27">
+    <row r="342" spans="1:16" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22904,7 +22908,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="27">
+    <row r="343" spans="1:16" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -23029,7 +23033,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="27">
+    <row r="348" spans="1:16" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="27">
+    <row r="355" spans="1:16" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -24655,7 +24659,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="27">
+    <row r="416" spans="1:16" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -25857,7 +25861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="27">
+    <row r="467" spans="1:16" ht="28.8">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -26930,7 +26934,7 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28416,7 +28420,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29918,7 +29922,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31864,7 +31868,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32614,7 +32618,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32878,31 +32882,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="48.75" thickBot="1">
+    <row r="1" spans="1:15" s="28" customFormat="1" ht="60.6" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>1776</v>
       </c>
@@ -32945,8 +32949,11 @@
       <c r="N1" s="29" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickTop="1"/>
+      <c r="O1" s="28" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32962,16 +32969,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>1791</v>
       </c>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1812">
   <si>
     <t>date</t>
   </si>
@@ -5675,6 +5675,15 @@
   </si>
   <si>
     <t>连续三个一字板以上 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10块钱以下是否考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否出现首次
+买入机会(一字板 缩量板无效[非起步])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6829,9 +6838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G494" sqref="G494:G508"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32878,31 +32887,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="48.75" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="48.75" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>1776</v>
       </c>
@@ -32913,40 +32924,46 @@
         <v>1778</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>1779</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>1780</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>1781</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>1782</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>1783</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>1784</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>1786</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>1785</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>1787</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>1788</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickTop="1"/>
+      <c r="P1" s="28" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1812">
   <si>
     <t>date</t>
   </si>
@@ -5679,6 +5679,12 @@
   </si>
   <si>
     <t>10块以下是否考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否首次出现
+买入机会
+(一字板 缩量板无效[非起步])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32882,31 +32888,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="28" customFormat="1" ht="60.6" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>1776</v>
       </c>
@@ -32917,43 +32924,46 @@
         <v>1778</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>1779</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>1780</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>1781</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>1782</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>1783</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>1784</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>1786</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>1785</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>1787</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>1788</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>1789</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickTop="1"/>
+    <row r="2" spans="1:16" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -5587,104 +5587,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否涨停价开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是第一次买入机会
+(一字板 缩量板不算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体市场情绪如何
+(大面多吗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-通产丽星-002243.SZ-非实体-深圳-18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整天数最好不要超过5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">调整越快速越好 越充分越好 幅度越大越好 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不宜调整太久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字板 或者无量调整不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前2次买入机会最好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-欣龙控股-000955.SZ-实体-海南-20.0</t>
+  </si>
+  <si>
+    <t>4-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>5-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>6-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>7-大北农-002385.SZ-非实体-北京-10.0</t>
+  </si>
+  <si>
+    <t>5-荃银高科-300087.SZ-实体-安徽-10.0</t>
+  </si>
+  <si>
+    <t>3-友阿股份-002277.SZ-实体-湖南-15.0</t>
+  </si>
+  <si>
+    <t>3-安妮股份-002235.SZ-实体-福建-18.0</t>
+  </si>
+  <si>
+    <t>3-英维克-002837.SZ-实体-深圳-14.0</t>
+  </si>
+  <si>
+    <t>4-英维克-002837.SZ-实体-深圳-21.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-英维克-002837.SZ-实体-深圳-27.0</t>
+  </si>
+  <si>
+    <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减持放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三个一字板以上 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10块以下是否考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否首次出现
+买入机会
+(一字板 缩量板无效[非起步])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是否并架模式
 (相同题材 选最强)
 (都缩量 选开最低)
-(都放量 都低开 好好考虑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否涨停价开盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是第一次买入机会
-(一字板 缩量板不算)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体市场情绪如何
-(大面多吗)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-通产丽星-002243.SZ-非实体-深圳-18.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整天数最好不要超过5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">调整越快速越好 越充分越好 幅度越大越好 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不宜调整太久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一字板 或者无量调整不好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前2次买入机会最好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-欣龙控股-000955.SZ-实体-海南-20.0</t>
-  </si>
-  <si>
-    <t>4-大北农-002385.SZ-非实体-北京-10.0</t>
-  </si>
-  <si>
-    <t>5-大北农-002385.SZ-非实体-北京-10.0</t>
-  </si>
-  <si>
-    <t>6-大北农-002385.SZ-非实体-北京-10.0</t>
-  </si>
-  <si>
-    <t>7-大北农-002385.SZ-非实体-北京-10.0</t>
-  </si>
-  <si>
-    <t>5-荃银高科-300087.SZ-实体-安徽-10.0</t>
-  </si>
-  <si>
-    <t>3-友阿股份-002277.SZ-实体-湖南-15.0</t>
-  </si>
-  <si>
-    <t>3-安妮股份-002235.SZ-实体-福建-18.0</t>
-  </si>
-  <si>
-    <t>3-英维克-002837.SZ-实体-深圳-14.0</t>
-  </si>
-  <si>
-    <t>4-英维克-002837.SZ-实体-深圳-21.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-英维克-002837.SZ-实体-深圳-27.0</t>
-  </si>
-  <si>
-    <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减持放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续三个一字板以上 放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10块以下是否考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否首次出现
-买入机会
-(一字板 缩量板无效[非起步])</t>
+(都放量 使用半路战法)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14276,7 +14276,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H135" s="21" t="s">
         <v>1716</v>
@@ -26527,7 +26527,7 @@
         <v>19</v>
       </c>
       <c r="D493" s="26" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G493" s="26"/>
       <c r="O493">
@@ -26554,11 +26554,11 @@
         <v>19</v>
       </c>
       <c r="D494" s="26" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G494" s="26"/>
       <c r="H494" s="21" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O494">
         <v>20160107</v>
@@ -26578,7 +26578,7 @@
         <v>16</v>
       </c>
       <c r="D495" s="26" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G495" s="26"/>
       <c r="O495">
@@ -26605,7 +26605,7 @@
         <v>19</v>
       </c>
       <c r="D496" s="26" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G496" s="26"/>
       <c r="O496">
@@ -26632,7 +26632,7 @@
         <v>14</v>
       </c>
       <c r="D497" s="26" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G497" s="26"/>
       <c r="O497">
@@ -26653,7 +26653,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="26" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G498" s="26"/>
       <c r="O498">
@@ -26680,11 +26680,11 @@
         <v>9</v>
       </c>
       <c r="D499" s="26" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G499" s="26"/>
       <c r="H499" s="21" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O499">
         <v>20160114</v>
@@ -26710,7 +26710,7 @@
         <v>6</v>
       </c>
       <c r="D500" s="26" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G500" s="26"/>
       <c r="O500">
@@ -26737,7 +26737,7 @@
         <v>10</v>
       </c>
       <c r="D501" s="26" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E501">
         <v>12.5</v>
@@ -26767,7 +26767,7 @@
         <v>5</v>
       </c>
       <c r="D502" s="26" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="O502">
         <v>20160119</v>
@@ -26793,10 +26793,10 @@
         <v>5</v>
       </c>
       <c r="D503" s="26" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H503" s="21" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="O503">
         <v>20160120</v>
@@ -26822,7 +26822,7 @@
         <v>7</v>
       </c>
       <c r="D504" s="26" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="O504">
         <v>20160121</v>
@@ -32891,7 +32891,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -32913,7 +32913,7 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="72.599999999999994" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="48.6" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>1776</v>
       </c>
@@ -32924,7 +32924,7 @@
         <v>1778</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>1779</v>
@@ -32945,22 +32945,22 @@
         <v>1784</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>1786</v>
+        <v>1811</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>1785</v>
       </c>
       <c r="M1" s="28" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>1787</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>1788</v>
       </c>
-      <c r="O1" s="29" t="s">
-        <v>1789</v>
-      </c>
       <c r="P1" s="28" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1"/>
@@ -32990,19 +32990,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="32" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="31" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1791</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>1792</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>1793</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>1794</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>1795</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="2014" sheetId="6" r:id="rId6"/>
     <sheet name="龙头战法" sheetId="7" r:id="rId7"/>
     <sheet name="低吸战法" sheetId="8" r:id="rId8"/>
+    <sheet name="烂板战法" sheetId="9" r:id="rId9"/>
+    <sheet name="半路战法" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1833">
   <si>
     <t>date</t>
   </si>
@@ -4077,19 +4079,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩量太厉害减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前龙森远大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前龙宝德大面放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前龙一拖大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5660,10 +5654,6 @@
   </si>
   <si>
     <t>4-康跃科技-300391.SZ-实体-山东-0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减持放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5687,12 +5677,96 @@
 (都放量 使用半路战法)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>放量加分</t>
+  </si>
+  <si>
+    <t>6-联环药业</t>
+  </si>
+  <si>
+    <t>7-联环药业</t>
+  </si>
+  <si>
+    <t>8-联环药业</t>
+  </si>
+  <si>
+    <t>9-联环药业</t>
+  </si>
+  <si>
+    <t>10-联环药业</t>
+  </si>
+  <si>
+    <t>8-三五互联</t>
+  </si>
+  <si>
+    <t>连续三个一字板以上 放弃</t>
+  </si>
+  <si>
+    <t>7-道恩股份</t>
+  </si>
+  <si>
+    <t>8-世纪天鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-模塑科技-000700.SZ-实体-江苏-33.0</t>
+  </si>
+  <si>
+    <t>5-模塑科技-000700.SZ-实体-江苏-40.0</t>
+  </si>
+  <si>
+    <t>6-模塑科技-000700.SZ-实体-江苏-46.0</t>
+  </si>
+  <si>
+    <t>7-模塑科技-000700.SZ-实体-江苏-58.0</t>
+  </si>
+  <si>
+    <t>放量加分 成交额 10块以上也是要考虑的问题 系统选股优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙一拖大面放弃 缩量秒板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量太厉害减分 缩量秒板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减持利空放弃 前龙大面[最高点-收盘价]超过%11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-秀强股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字板缩量 放弃 前龙世纪天鸿大面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-秀强股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 行情起步加分 行情起步階段可以縮量 但是前面不能有连续三个一字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【从头都是到最后一个板之前都是一字板】 7个板以上放弃 无量 
+如果最后爆量 隔日低开 还是可以考虑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5927,6 +6001,126 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6228,7 +6422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6355,8 +6549,260 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6459,50 +6905,152 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="84">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="126">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="86"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="87"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="88"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="90"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="91"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="92"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="51"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="96"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="97"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="98"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="57"/>
+    <cellStyle name="60% - 强调文字颜色 3 3" xfId="99"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="58"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="100"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="59"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="101"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="60"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="102"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 1 2" xfId="62"/>
+    <cellStyle name="标题 1 3" xfId="104"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 2 2" xfId="63"/>
+    <cellStyle name="标题 2 3" xfId="105"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 3 2" xfId="64"/>
+    <cellStyle name="标题 3 3" xfId="106"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="标题 4 2" xfId="65"/>
+    <cellStyle name="标题 4 3" xfId="107"/>
+    <cellStyle name="标题 5" xfId="61"/>
+    <cellStyle name="标题 6" xfId="103"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="差 2" xfId="66"/>
+    <cellStyle name="差 3" xfId="108"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="42"/>
+    <cellStyle name="常规 3" xfId="84"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="好 2" xfId="67"/>
+    <cellStyle name="好 3" xfId="109"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="汇总 2" xfId="68"/>
+    <cellStyle name="汇总 3" xfId="110"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="计算 2" xfId="69"/>
+    <cellStyle name="计算 3" xfId="111"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="检查单元格 2" xfId="70"/>
+    <cellStyle name="检查单元格 3" xfId="112"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="解释性文本 2" xfId="71"/>
+    <cellStyle name="解释性文本 3" xfId="113"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="警告文本 2" xfId="72"/>
+    <cellStyle name="警告文本 3" xfId="114"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="链接单元格 2" xfId="73"/>
+    <cellStyle name="链接单元格 3" xfId="115"/>
     <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="74"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="116"/>
     <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="75"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="76"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="118"/>
     <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="77"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="119"/>
     <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="78"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="120"/>
     <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="79"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="121"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="适中 2" xfId="80"/>
+    <cellStyle name="适中 3" xfId="122"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输出 2" xfId="81"/>
+    <cellStyle name="输出 3" xfId="123"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输入 2" xfId="82"/>
+    <cellStyle name="输入 3" xfId="124"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="83"/>
+    <cellStyle name="注释 3" xfId="125"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -6837,25 +7385,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN512"/>
+  <dimension ref="A1:AN518"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G494" sqref="G494:G508"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G517" sqref="G517"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -6863,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D1" t="s">
         <v>985</v>
@@ -7191,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I6" t="s">
         <v>1016</v>
@@ -7242,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I7" t="s">
         <v>1017</v>
@@ -7299,7 +7847,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E8">
         <v>14.45</v>
@@ -7370,7 +7918,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E9">
         <v>40.479999999999997</v>
@@ -7383,7 +7931,7 @@
         <v>-4.3725296442687656</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -7444,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I10" t="s">
         <v>1018</v>
@@ -7511,7 +8059,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E11">
         <v>4.95</v>
@@ -7582,7 +8130,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I12" t="s">
         <v>986</v>
@@ -7649,7 +8197,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E13">
         <v>36.93</v>
@@ -7720,7 +8268,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E14">
         <v>9.93</v>
@@ -7791,7 +8339,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I15" t="s">
         <v>459</v>
@@ -7832,7 +8380,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I16" t="s">
         <v>1020</v>
@@ -7883,7 +8431,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E17">
         <v>26</v>
@@ -7934,7 +8482,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I18" t="s">
         <v>1021</v>
@@ -7995,7 +8543,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I19" t="s">
         <v>1022</v>
@@ -8046,7 +8594,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E20">
         <v>11.87</v>
@@ -8117,7 +8665,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E21">
         <v>7.18</v>
@@ -8168,7 +8716,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E22">
         <v>8.8699999999999992</v>
@@ -8229,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I23" t="s">
         <v>1025</v>
@@ -8280,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I24" t="s">
         <v>1026</v>
@@ -8331,7 +8879,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E25">
         <v>15.27</v>
@@ -8388,7 +8936,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I26" t="s">
         <v>1016</v>
@@ -8449,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -8506,7 +9054,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -8547,7 +9095,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I29" t="s">
         <v>1027</v>
@@ -8598,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I30" t="s">
         <v>1028</v>
@@ -8649,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -8700,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I32" t="s">
         <v>1029</v>
@@ -8757,7 +9305,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I33" t="s">
         <v>1030</v>
@@ -8798,7 +9346,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -8861,7 +9409,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I35" t="s">
         <v>1031</v>
@@ -8928,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I36" t="s">
         <v>1032</v>
@@ -8985,7 +9533,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I37" t="s">
         <v>1033</v>
@@ -9026,7 +9574,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I38" t="s">
         <v>1034</v>
@@ -9087,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I39" t="s">
         <v>1035</v>
@@ -9138,7 +9686,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I40" t="s">
         <v>1036</v>
@@ -9179,7 +9727,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E41">
         <v>15.3</v>
@@ -9246,7 +9794,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -9297,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I43" t="s">
         <v>1037</v>
@@ -9348,7 +9896,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E44">
         <v>12.11</v>
@@ -9419,7 +9967,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E45">
         <v>15.6</v>
@@ -9486,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I46" t="s">
         <v>1039</v>
@@ -9527,7 +10075,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E47">
         <v>79.77</v>
@@ -9588,7 +10136,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I48" t="s">
         <v>1041</v>
@@ -9645,7 +10193,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E49">
         <v>7.48</v>
@@ -9706,7 +10254,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E50">
         <v>10.34</v>
@@ -9773,7 +10321,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E51">
         <v>18.04</v>
@@ -9830,7 +10378,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9891,7 +10439,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I53" t="s">
         <v>1045</v>
@@ -9932,7 +10480,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -9983,7 +10531,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -10034,7 +10582,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I56" t="s">
         <v>1046</v>
@@ -10081,7 +10629,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E57">
         <v>18.75</v>
@@ -10132,7 +10680,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I58" t="s">
         <v>1048</v>
@@ -10183,7 +10731,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I59" t="s">
         <v>1049</v>
@@ -10234,7 +10782,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I60" t="s">
         <v>1050</v>
@@ -10285,7 +10833,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I61" t="s">
         <v>1051</v>
@@ -10346,7 +10894,7 @@
         <v>10</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E62">
         <v>35.9</v>
@@ -10397,7 +10945,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E63">
         <v>56.45</v>
@@ -10458,7 +11006,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I64" t="s">
         <v>1053</v>
@@ -10499,7 +11047,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I65" t="s">
         <v>1054</v>
@@ -10550,7 +11098,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E66">
         <v>45</v>
@@ -10559,7 +11107,7 @@
         <v>38</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="I66" t="s">
         <v>1055</v>
@@ -10600,7 +11148,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I67" t="s">
         <v>1056</v>
@@ -10651,7 +11199,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I68" t="s">
         <v>1057</v>
@@ -10702,7 +11250,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E69">
         <v>51</v>
@@ -10753,7 +11301,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E70">
         <v>40.18</v>
@@ -10814,7 +11362,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E71">
         <v>71</v>
@@ -10823,7 +11371,7 @@
         <v>62</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="I71" t="s">
         <v>1058</v>
@@ -10864,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -10915,7 +11463,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I73" t="s">
         <v>1059</v>
@@ -10976,7 +11524,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E74">
         <v>42.29</v>
@@ -11037,7 +11585,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I75" t="s">
         <v>1061</v>
@@ -11084,7 +11632,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I76" t="s">
         <v>1062</v>
@@ -11125,7 +11673,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I77" t="s">
         <v>1063</v>
@@ -11176,7 +11724,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I78" t="s">
         <v>1064</v>
@@ -11227,7 +11775,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I79" t="s">
         <v>1065</v>
@@ -11278,7 +11826,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E80">
         <v>6.5</v>
@@ -11287,7 +11835,7 @@
         <v>5.75</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I80" t="s">
         <v>1066</v>
@@ -11334,7 +11882,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E81">
         <v>22.88</v>
@@ -11343,7 +11891,7 @@
         <v>18.7</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -11390,7 +11938,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I82" t="s">
         <v>1067</v>
@@ -11441,7 +11989,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E83">
         <v>19.02</v>
@@ -11502,7 +12050,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I84" t="s">
         <v>1068</v>
@@ -11549,7 +12097,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -11600,7 +12148,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I86" t="s">
         <v>1069</v>
@@ -11651,7 +12199,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -11702,7 +12250,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E88">
         <v>15.11</v>
@@ -11753,7 +12301,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E89">
         <v>32.770000000000003</v>
@@ -11762,7 +12310,7 @@
         <v>25.8</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="I89" t="s">
         <v>1071</v>
@@ -11813,7 +12361,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I90" t="s">
         <v>1072</v>
@@ -11854,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I91" t="s">
         <v>1073</v>
@@ -11895,7 +12443,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I92" t="s">
         <v>1074</v>
@@ -11946,7 +12494,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E93">
         <v>45.88</v>
@@ -12007,7 +12555,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E94">
         <v>50</v>
@@ -12078,7 +12626,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I95" t="s">
         <v>1076</v>
@@ -12139,7 +12687,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I96" t="s">
         <v>1077</v>
@@ -12190,7 +12738,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I97" t="s">
         <v>1078</v>
@@ -12241,7 +12789,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I98" t="s">
         <v>1079</v>
@@ -12292,7 +12840,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E99">
         <v>32.549999999999997</v>
@@ -12301,7 +12849,7 @@
         <v>30.5</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="I99" t="s">
         <v>1080</v>
@@ -12368,7 +12916,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E100">
         <v>22.79</v>
@@ -12429,7 +12977,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -12480,7 +13028,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -12531,7 +13079,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -12572,7 +13120,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I104" t="s">
         <v>1082</v>
@@ -12623,7 +13171,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -12674,7 +13222,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -12725,7 +13273,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E107">
         <v>14.38</v>
@@ -12786,7 +13334,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E108">
         <v>16.8</v>
@@ -12847,7 +13395,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I109" t="s">
         <v>1084</v>
@@ -12908,7 +13456,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I110" t="s">
         <v>1085</v>
@@ -12949,7 +13497,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -13006,7 +13554,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -13067,7 +13615,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -13124,7 +13672,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E114">
         <v>12.73</v>
@@ -13133,7 +13681,7 @@
         <v>11.2</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="I114" t="s">
         <v>1086</v>
@@ -13184,7 +13732,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -13235,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -13276,7 +13824,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I117" t="s">
         <v>1087</v>
@@ -13327,7 +13875,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -13384,7 +13932,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="I119" t="s">
         <v>1088</v>
@@ -13441,7 +13989,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -13492,7 +14040,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -13543,7 +14091,7 @@
         <v>10</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E122">
         <v>11.63</v>
@@ -13556,7 +14104,7 @@
         <v>20.378331900257944</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -13603,7 +14151,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I123" t="s">
         <v>1089</v>
@@ -13654,7 +14202,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="I124" t="s">
         <v>1090</v>
@@ -13701,7 +14249,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -13752,7 +14300,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="I126" t="s">
         <v>1091</v>
@@ -13793,7 +14341,7 @@
         <v>10</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E127">
         <v>10.050000000000001</v>
@@ -13806,7 +14354,7 @@
         <v>-7.6616915422885707</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I127" t="s">
         <v>1092</v>
@@ -13863,7 +14411,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -13914,7 +14462,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -13971,7 +14519,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="I130" t="s">
         <v>1093</v>
@@ -14028,7 +14576,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E131">
         <v>78</v>
@@ -14041,7 +14589,7 @@
         <v>-12.179487179487179</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="I131" t="s">
         <v>1094</v>
@@ -14114,7 +14662,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E132">
         <v>10.37</v>
@@ -14127,7 +14675,7 @@
         <v>35.004821600771471</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="I132" t="s">
         <v>1095</v>
@@ -14174,7 +14722,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I133" t="s">
         <v>1096</v>
@@ -14225,7 +14773,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="I134" t="s">
         <v>1097</v>
@@ -14276,10 +14824,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="I135" t="s">
         <v>1098</v>
@@ -14336,7 +14884,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="I136" t="s">
         <v>1099</v>
@@ -14393,7 +14941,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="I137" t="s">
         <v>1100</v>
@@ -14444,7 +14992,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E138">
         <v>8.8000000000000007</v>
@@ -14457,7 +15005,7 @@
         <v>11.363636363636363</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -14518,7 +15066,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E139">
         <v>4.4800000000000004</v>
@@ -14531,7 +15079,7 @@
         <v>24.999999999999982</v>
       </c>
       <c r="H139" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I139" t="s">
         <v>1059</v>
@@ -14588,7 +15136,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="I140" t="s">
         <v>1101</v>
@@ -14645,7 +15193,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="I141" t="s">
         <v>1102</v>
@@ -14696,7 +15244,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="I142" t="s">
         <v>1103</v>
@@ -14753,7 +15301,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -14810,7 +15358,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E144">
         <v>6.39</v>
@@ -14823,7 +15371,7 @@
         <v>4.5383411580594686</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I144" t="s">
         <v>1104</v>
@@ -14890,7 +15438,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E145">
         <v>5.23</v>
@@ -14903,7 +15451,7 @@
         <v>-0.5736137667304062</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -14970,7 +15518,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="I146" t="s">
         <v>1105</v>
@@ -15021,7 +15569,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="I147" t="s">
         <v>1106</v>
@@ -15082,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -15143,7 +15691,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -15204,7 +15752,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -15255,7 +15803,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E151">
         <v>11.6</v>
@@ -15268,7 +15816,7 @@
         <v>7.7586206896551753</v>
       </c>
       <c r="H151" s="22" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="I151" t="s">
         <v>1107</v>
@@ -15315,7 +15863,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -15356,7 +15904,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="I153" t="s">
         <v>1108</v>
@@ -15407,7 +15955,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -15448,10 +15996,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="I155" t="s">
         <v>995</v>
@@ -15502,7 +16050,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -15563,7 +16111,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -15624,7 +16172,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -15675,7 +16223,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -15732,7 +16280,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15783,7 +16331,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I161" t="s">
         <v>1109</v>
@@ -15834,7 +16382,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15891,7 +16439,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15932,7 +16480,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15989,7 +16537,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I165" t="s">
         <v>1110</v>
@@ -16050,7 +16598,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -16107,7 +16655,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -16158,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -16199,7 +16747,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -16250,7 +16798,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -16301,7 +16849,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E171">
         <v>6.74</v>
@@ -16314,7 +16862,7 @@
         <v>8.0118694362017813</v>
       </c>
       <c r="H171" s="22" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="I171" t="s">
         <v>1051</v>
@@ -16365,7 +16913,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E172">
         <v>7.91</v>
@@ -16374,7 +16922,7 @@
         <v>8.48</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I172" t="s">
         <v>1111</v>
@@ -16425,7 +16973,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E173">
         <v>10.050000000000001</v>
@@ -16438,7 +16986,7 @@
         <v>3.4825870646766131</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="I173" t="s">
         <v>1112</v>
@@ -16489,7 +17037,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="I174" t="s">
         <v>1113</v>
@@ -16546,7 +17094,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16609,7 +17157,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16660,7 +17208,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16721,7 +17269,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="I178" t="s">
         <v>1055</v>
@@ -16772,7 +17320,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16839,7 +17387,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="I180" t="s">
         <v>1114</v>
@@ -16896,7 +17444,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="I181" t="s">
         <v>1115</v>
@@ -16937,7 +17485,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="H182" s="21" t="s">
         <v>1310</v>
@@ -16991,7 +17539,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E183">
         <v>8.81</v>
@@ -17000,7 +17548,7 @@
         <v>7.8</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -17041,7 +17589,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="I184" t="s">
         <v>1116</v>
@@ -17098,7 +17646,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185">
@@ -17150,7 +17698,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E186">
         <v>9.35</v>
@@ -17159,7 +17707,7 @@
         <v>8.4</v>
       </c>
       <c r="H186" s="21" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17210,7 +17758,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="I187" t="s">
         <v>1117</v>
@@ -17261,7 +17809,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="I188" t="s">
         <v>1118</v>
@@ -17312,7 +17860,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17379,7 +17927,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E190">
         <v>44.44</v>
@@ -17392,7 +17940,7 @@
         <v>7.9657965796579644</v>
       </c>
       <c r="H190" s="22" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17443,7 +17991,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17494,7 +18042,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17545,7 +18093,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -17596,7 +18144,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="I194" t="s">
         <v>1119</v>
@@ -17649,10 +18197,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="H195" s="21" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -17713,7 +18261,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="I196" t="s">
         <v>1120</v>
@@ -17764,7 +18312,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -17821,7 +18369,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="I198" t="s">
         <v>1121</v>
@@ -17872,7 +18420,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="G199" s="25"/>
       <c r="I199" t="s">
@@ -17924,7 +18472,7 @@
         <v>26</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="G200" s="25"/>
       <c r="I200">
@@ -17976,7 +18524,7 @@
         <v>13</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E201">
         <v>31.8</v>
@@ -17989,7 +18537,7 @@
         <v>4.3396226415094308</v>
       </c>
       <c r="H201" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -18050,7 +18598,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" t="s">
@@ -18098,7 +18646,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18155,7 +18703,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18206,7 +18754,7 @@
         <v>10</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="I205" t="s">
         <v>1124</v>
@@ -18257,7 +18805,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E206">
         <v>24</v>
@@ -18270,7 +18818,7 @@
         <v>7.291666666666667</v>
       </c>
       <c r="H206" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I206" t="s">
         <v>1125</v>
@@ -18311,10 +18859,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="I207" t="s">
         <v>1126</v>
@@ -18355,7 +18903,7 @@
         <v>16</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E208">
         <v>5.57</v>
@@ -18368,7 +18916,7 @@
         <v>9.5152603231597723</v>
       </c>
       <c r="H208" s="22" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I208" t="s">
         <v>1127</v>
@@ -18415,7 +18963,7 @@
         <v>16</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="G209" s="25"/>
       <c r="I209">
@@ -18457,7 +19005,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="G210" s="25"/>
       <c r="I210" t="s">
@@ -18509,7 +19057,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="G211" s="25"/>
       <c r="I211">
@@ -18551,7 +19099,7 @@
         <v>13</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E212">
         <v>7.38</v>
@@ -18564,7 +19112,7 @@
         <v>32.791327913279147</v>
       </c>
       <c r="H212" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -18611,7 +19159,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -18658,7 +19206,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -18699,10 +19247,10 @@
         <v>30</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H215" s="21" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="I215" t="s">
         <v>1128</v>
@@ -18753,7 +19301,7 @@
         <v>19</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E216">
         <v>9.32</v>
@@ -18762,7 +19310,7 @@
         <v>9.52</v>
       </c>
       <c r="H216" s="21" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -18813,7 +19361,7 @@
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="I217" t="s">
         <v>1129</v>
@@ -18864,7 +19412,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E218">
         <v>10.53</v>
@@ -18877,7 +19425,7 @@
         <v>6.9325735992402704</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I218" t="s">
         <v>1130</v>
@@ -18918,7 +19466,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="I219" t="s">
         <v>1131</v>
@@ -18959,7 +19507,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -19000,7 +19548,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="I221" t="s">
         <v>1132</v>
@@ -19041,10 +19589,10 @@
         <v>10</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="H222" s="21" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="I222" t="s">
         <v>1133</v>
@@ -19085,10 +19633,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H223" s="21" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -19129,7 +19677,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -19170,7 +19718,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -19211,7 +19759,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -19252,7 +19800,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -19293,7 +19841,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -19340,7 +19888,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E229">
         <v>5.9</v>
@@ -19391,7 +19939,7 @@
         <v>16</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -19432,7 +19980,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E231">
         <v>24.9</v>
@@ -19441,7 +19989,7 @@
         <v>24.52</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -19492,7 +20040,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -19533,7 +20081,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -19574,7 +20122,7 @@
         <v>2</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -19615,7 +20163,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -19656,7 +20204,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -19697,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -19738,7 +20286,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -19779,7 +20327,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -19820,7 +20368,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -19861,7 +20409,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -19902,7 +20450,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -19949,7 +20497,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -19990,7 +20538,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -20031,7 +20579,7 @@
         <v>15</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="H245" s="21" t="s">
         <v>1310</v>
@@ -20075,7 +20623,7 @@
         <v>7</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E246">
         <v>10.1</v>
@@ -20088,7 +20636,7 @@
         <v>14.554455445544562</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I246" t="s">
         <v>1136</v>
@@ -20117,7 +20665,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="I247" t="s">
         <v>1137</v>
@@ -20140,7 +20688,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="I248" t="s">
         <v>1138</v>
@@ -20163,7 +20711,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="I249" t="s">
         <v>1139</v>
@@ -20186,7 +20734,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E250">
         <v>4.8499999999999996</v>
@@ -20199,7 +20747,7 @@
         <v>44.329896907216501</v>
       </c>
       <c r="H250" s="22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I250" t="s">
         <v>1140</v>
@@ -20222,7 +20770,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="I251" t="s">
         <v>1141</v>
@@ -20245,7 +20793,7 @@
         <v>19</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="I252" t="s">
         <v>1142</v>
@@ -20268,7 +20816,7 @@
         <v>16</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="I253" t="s">
         <v>1143</v>
@@ -20291,7 +20839,7 @@
         <v>15</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="I254" t="s">
         <v>1144</v>
@@ -20314,7 +20862,7 @@
         <v>13</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="I255" t="s">
         <v>1145</v>
@@ -20337,7 +20885,7 @@
         <v>16</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H256" s="21" t="s">
         <v>1310</v>
@@ -20363,7 +20911,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E257">
         <v>27.85</v>
@@ -20376,7 +20924,7 @@
         <v>3.087971274685815</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I257" t="s">
         <v>1147</v>
@@ -20399,7 +20947,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="I258" t="s">
         <v>1148</v>
@@ -20422,7 +20970,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="I259" t="s">
         <v>1149</v>
@@ -20445,7 +20993,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="I260" t="s">
         <v>1150</v>
@@ -20468,7 +21016,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -20491,7 +21039,7 @@
         <v>8</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E262">
         <v>6.03</v>
@@ -20504,7 +21052,7 @@
         <v>6.9651741293532323</v>
       </c>
       <c r="H262" s="22" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -20527,7 +21075,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="I263" t="s">
         <v>1151</v>
@@ -20550,7 +21098,7 @@
         <v>9</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="I264" t="s">
         <v>1152</v>
@@ -20573,7 +21121,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="I265" t="s">
         <v>1153</v>
@@ -20596,7 +21144,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E266">
         <v>8.1999999999999993</v>
@@ -20632,7 +21180,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -20655,7 +21203,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="I268" t="s">
         <v>1155</v>
@@ -20678,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -20701,7 +21249,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -20724,7 +21272,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="I271" t="s">
         <v>1156</v>
@@ -20747,10 +21295,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="I272" t="s">
         <v>1157</v>
@@ -20790,7 +21338,7 @@
         <v>16</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="I273" t="s">
         <v>1158</v>
@@ -20829,7 +21377,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -20868,7 +21416,7 @@
         <v>15</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="I275" t="s">
         <v>1160</v>
@@ -20891,7 +21439,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="I276" t="s">
         <v>1161</v>
@@ -20930,7 +21478,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="I277" t="s">
         <v>1162</v>
@@ -20953,7 +21501,7 @@
         <v>21</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="I278" t="s">
         <v>1163</v>
@@ -20976,7 +21524,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="I279" t="s">
         <v>1164</v>
@@ -21015,7 +21563,7 @@
         <v>17</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="I280" t="s">
         <v>1165</v>
@@ -21038,7 +21586,7 @@
         <v>28</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -21080,7 +21628,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="I282" t="s">
         <v>1167</v>
@@ -21103,10 +21651,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="H283" s="21" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="I283" t="s">
         <v>1168</v>
@@ -21135,7 +21683,7 @@
         <v>15</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E284">
         <v>14.94</v>
@@ -21148,7 +21696,7 @@
         <v>21.419009370816607</v>
       </c>
       <c r="H284" s="22" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="I284" t="s">
         <v>1169</v>
@@ -21187,7 +21735,7 @@
         <v>7</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E285">
         <v>7.06</v>
@@ -21229,7 +21777,7 @@
         <v>7</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E286">
         <v>14.84</v>
@@ -21271,7 +21819,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="I287" t="s">
         <v>1172</v>
@@ -21294,7 +21842,7 @@
         <v>50</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="I288" t="s">
         <v>987</v>
@@ -21317,7 +21865,7 @@
         <v>60</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="I289" t="s">
         <v>988</v>
@@ -21340,7 +21888,7 @@
         <v>79</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="I290" t="s">
         <v>989</v>
@@ -21363,7 +21911,7 @@
         <v>31</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="I291" t="s">
         <v>990</v>
@@ -21386,7 +21934,7 @@
         <v>19</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E292">
         <v>16</v>
@@ -21428,7 +21976,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E293">
         <v>8</v>
@@ -21441,7 +21989,7 @@
         <v>-4.5000000000000036</v>
       </c>
       <c r="H293" s="21" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="I293" t="s">
         <v>1173</v>
@@ -21470,7 +22018,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="I294" t="s">
         <v>1174</v>
@@ -21493,7 +22041,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E295">
         <v>16</v>
@@ -21535,7 +22083,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="I296" t="s">
         <v>993</v>
@@ -21574,7 +22122,7 @@
         <v>10</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E297">
         <v>8.3800000000000008</v>
@@ -21616,7 +22164,7 @@
         <v>19</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E298">
         <v>14.02</v>
@@ -21629,7 +22177,7 @@
         <v>9.8430813124108472</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="I298" t="s">
         <v>995</v>
@@ -21658,7 +22206,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="I299" t="s">
         <v>996</v>
@@ -21681,7 +22229,7 @@
         <v>23</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E300">
         <v>10.64</v>
@@ -21723,7 +22271,7 @@
         <v>24</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="I301" t="s">
         <v>998</v>
@@ -21762,7 +22310,7 @@
         <v>24</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E302">
         <v>18.88</v>
@@ -21804,7 +22352,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E303">
         <v>14.04</v>
@@ -21846,7 +22394,7 @@
         <v>18</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="I304" t="s">
         <v>1001</v>
@@ -21869,7 +22417,7 @@
         <v>10</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="I305" t="s">
         <v>1002</v>
@@ -21902,7 +22450,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="I306" t="s">
         <v>1003</v>
@@ -21935,7 +22483,7 @@
         <v>28</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="E307">
         <v>18.940000000000001</v>
@@ -21948,7 +22496,7 @@
         <v>2.4287222808869973</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="I307" t="s">
         <v>1004</v>
@@ -21977,7 +22525,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E308">
         <v>16.7</v>
@@ -22015,7 +22563,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E309">
         <v>7.44</v>
@@ -22057,7 +22605,7 @@
         <v>26</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="I310" t="s">
         <v>1007</v>
@@ -22096,7 +22644,7 @@
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="E311">
         <v>11.6</v>
@@ -22109,7 +22657,7 @@
         <v>-3.4482758620689689</v>
       </c>
       <c r="H311" s="21" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="I311" t="s">
         <v>1008</v>
@@ -22138,7 +22686,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="I312" t="s">
         <v>1009</v>
@@ -22161,7 +22709,7 @@
         <v>19</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E313">
         <v>8.1999999999999993</v>
@@ -22174,7 +22722,7 @@
         <v>-2.4390243902438939</v>
       </c>
       <c r="H313" s="21" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="I313" t="s">
         <v>1010</v>
@@ -22203,10 +22751,10 @@
         <v>14</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="H314" s="21" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="I314" t="s">
         <v>1011</v>
@@ -22229,7 +22777,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="O315">
         <v>20170519</v>
@@ -22249,7 +22797,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="O316">
         <v>20170522</v>
@@ -22269,7 +22817,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="E317">
         <v>17.07</v>
@@ -22302,7 +22850,7 @@
         <v>26</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="O318">
         <v>20170524</v>
@@ -22322,7 +22870,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E319">
         <v>20.55</v>
@@ -22351,7 +22899,7 @@
         <v>18</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E320">
         <v>13.15</v>
@@ -22470,7 +23018,7 @@
         <v>1179</v>
       </c>
       <c r="H325" s="21" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="O325">
         <v>20170606</v>
@@ -22562,7 +23110,7 @@
         <v>18.510000000000002</v>
       </c>
       <c r="H329" s="21" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="O329">
         <v>20170612</v>
@@ -22628,7 +23176,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="22" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="O331">
         <v>20170614</v>
@@ -22661,7 +23209,7 @@
         <v>3.0303030303030365</v>
       </c>
       <c r="H332" s="21" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="O332">
         <v>20170615</v>
@@ -22810,7 +23358,7 @@
         <v>1192</v>
       </c>
       <c r="H338" s="21" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="O338">
         <v>20170623</v>
@@ -22859,7 +23407,7 @@
         <v>8.52</v>
       </c>
       <c r="H340" s="21" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="O340">
         <v>20170627</v>
@@ -22868,7 +23416,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="43.2">
+    <row r="341" spans="1:16" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -22882,7 +23430,7 @@
         <v>1258</v>
       </c>
       <c r="H341" s="23" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="O341">
         <v>20170628</v>
@@ -22891,7 +23439,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="28.8">
+    <row r="342" spans="1:16" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -22905,7 +23453,7 @@
         <v>1194</v>
       </c>
       <c r="H342" s="23" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="O342">
         <v>20170629</v>
@@ -22914,7 +23462,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="28.8">
+    <row r="343" spans="1:16" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -23039,7 +23587,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="28.8">
+    <row r="348" spans="1:16" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -23208,7 +23756,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="28.8">
+    <row r="355" spans="1:16" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -23384,7 +23932,7 @@
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="21" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="O362">
         <v>20170727</v>
@@ -23407,8 +23955,8 @@
         <v>1216</v>
       </c>
       <c r="G363" s="4"/>
-      <c r="H363" s="21" t="s">
-        <v>1320</v>
+      <c r="H363" s="36" t="s">
+        <v>1825</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>1243</v>
@@ -23434,8 +23982,8 @@
         <v>1217</v>
       </c>
       <c r="G364" s="4"/>
-      <c r="H364" s="21" t="s">
-        <v>1323</v>
+      <c r="H364" s="36" t="s">
+        <v>1824</v>
       </c>
       <c r="O364">
         <v>20170731</v>
@@ -23459,7 +24007,7 @@
       </c>
       <c r="G365" s="4"/>
       <c r="H365" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O365">
         <v>20170801</v>
@@ -23483,7 +24031,7 @@
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O366">
         <v>20170802</v>
@@ -23507,7 +24055,7 @@
       </c>
       <c r="G367" s="4"/>
       <c r="H367" s="21" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="O367">
         <v>20170803</v>
@@ -23531,7 +24079,7 @@
       </c>
       <c r="G368" s="4"/>
       <c r="H368" s="21" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="O368">
         <v>20170804</v>
@@ -23752,8 +24300,8 @@
         <f t="shared" si="14"/>
         <v>9.3939393939393963</v>
       </c>
-      <c r="H378" s="22" t="s">
-        <v>1325</v>
+      <c r="H378" s="37" t="s">
+        <v>1831</v>
       </c>
       <c r="O378">
         <v>20170818</v>
@@ -23797,8 +24345,8 @@
         <v>1232</v>
       </c>
       <c r="G380" s="6"/>
-      <c r="H380" s="21" t="s">
-        <v>1326</v>
+      <c r="H380" s="36" t="s">
+        <v>1324</v>
       </c>
       <c r="O380">
         <v>20170822</v>
@@ -23885,7 +24433,7 @@
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="21" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="O384">
         <v>20170828</v>
@@ -23909,7 +24457,7 @@
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="21" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="O385">
         <v>20170829</v>
@@ -24026,7 +24574,7 @@
         <v>14.057507987220447</v>
       </c>
       <c r="H390" s="22" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="O390">
         <v>20170905</v>
@@ -24083,7 +24631,7 @@
       </c>
       <c r="G392" s="13"/>
       <c r="H392" s="21" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="O392">
         <v>20170907</v>
@@ -24116,7 +24664,7 @@
         <v>4.8412698412698365</v>
       </c>
       <c r="H393" s="22" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="O393">
         <v>20170908</v>
@@ -24329,7 +24877,7 @@
         <v>-7.1005917159763277</v>
       </c>
       <c r="H402" s="21" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="O402">
         <v>20170921</v>
@@ -24374,7 +24922,7 @@
       </c>
       <c r="G404" s="13"/>
       <c r="H404" s="22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="O404">
         <v>20170925</v>
@@ -24431,7 +24979,7 @@
       </c>
       <c r="G406" s="13"/>
       <c r="H406" s="22" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O406">
         <v>20170927</v>
@@ -24547,7 +25095,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="26" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E411">
         <v>4.2699999999999996</v>
@@ -24560,7 +25108,7 @@
         <v>14.754098360655757</v>
       </c>
       <c r="H411" s="22" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="O411">
         <v>20171011</v>
@@ -24665,7 +25213,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="28.8">
+    <row r="416" spans="1:16" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -24686,7 +25234,7 @@
       </c>
       <c r="G416" s="13"/>
       <c r="H416" s="24" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="O416">
         <v>20171018</v>
@@ -24737,7 +25285,7 @@
       </c>
       <c r="G418" s="13"/>
       <c r="H418" s="21" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="O418">
         <v>20171020</v>
@@ -24767,7 +25315,7 @@
       </c>
       <c r="G419" s="13"/>
       <c r="H419" s="21" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="O419">
         <v>20171023</v>
@@ -24797,7 +25345,7 @@
       </c>
       <c r="G420" s="13"/>
       <c r="H420" s="21" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="O420">
         <v>20171024</v>
@@ -24826,7 +25374,7 @@
         <v>18.23</v>
       </c>
       <c r="H421" s="21" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="O421">
         <v>20171025</v>
@@ -24880,7 +25428,7 @@
         <v>28.940929744844464</v>
       </c>
       <c r="H423" s="22" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O423">
         <v>20171027</v>
@@ -24942,11 +25490,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G426" s="16"/>
       <c r="H426" s="22" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="O426">
         <v>20171101</v>
@@ -24979,7 +25527,7 @@
         <v>68.5</v>
       </c>
       <c r="H427" s="22" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O427">
         <v>20171102</v>
@@ -25045,7 +25593,7 @@
       </c>
       <c r="G430" s="25"/>
       <c r="H430" s="21" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="O430">
         <v>20171107</v>
@@ -25090,7 +25638,7 @@
       </c>
       <c r="G432" s="25"/>
       <c r="H432" s="21" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="O432">
         <v>20171109</v>
@@ -25135,7 +25683,7 @@
       </c>
       <c r="G434" s="25"/>
       <c r="H434" s="21" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="O434">
         <v>20171113</v>
@@ -25204,7 +25752,7 @@
       </c>
       <c r="G437" s="25"/>
       <c r="H437" s="21" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="O437">
         <v>20171116</v>
@@ -25270,7 +25818,7 @@
       </c>
       <c r="G440" s="25"/>
       <c r="H440" s="21" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="O440">
         <v>20171121</v>
@@ -25332,7 +25880,7 @@
         <v>5</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="G443" s="25"/>
       <c r="O443">
@@ -25353,7 +25901,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="O444">
         <v>20171127</v>
@@ -25373,10 +25921,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="H445" s="21" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="O445">
         <v>20171128</v>
@@ -25396,10 +25944,10 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="H446" s="21" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="O446">
         <v>20171129</v>
@@ -25419,10 +25967,10 @@
         <v>16</v>
       </c>
       <c r="D447" s="26" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H447" s="21" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="O447">
         <v>20171130</v>
@@ -25442,7 +25990,7 @@
         <v>8</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E448">
         <v>5.35</v>
@@ -25455,7 +26003,7 @@
         <v>8.9719626168224398</v>
       </c>
       <c r="H448" s="22" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="O448">
         <v>20171201</v>
@@ -25475,7 +26023,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="G449" s="25"/>
       <c r="O449">
@@ -25496,7 +26044,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="G450" s="25"/>
       <c r="O450">
@@ -25517,7 +26065,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="G451" s="25"/>
       <c r="O451">
@@ -25538,7 +26086,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G452" s="25"/>
       <c r="O452">
@@ -25559,7 +26107,7 @@
         <v>5</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G453" s="25"/>
       <c r="O453">
@@ -25580,7 +26128,7 @@
         <v>4</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G454" s="25"/>
       <c r="O454">
@@ -25601,7 +26149,7 @@
         <v>6</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="G455" s="25"/>
       <c r="O455">
@@ -25622,7 +26170,7 @@
         <v>3</v>
       </c>
       <c r="D456" s="25" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G456" s="25"/>
       <c r="O456">
@@ -25643,7 +26191,7 @@
         <v>4</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G457" s="25"/>
       <c r="O457">
@@ -25664,7 +26212,7 @@
         <v>5</v>
       </c>
       <c r="D458" s="25" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G458" s="25"/>
       <c r="O458">
@@ -25685,7 +26233,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="25" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E459">
         <v>27</v>
@@ -25698,7 +26246,7 @@
         <v>3.7037037037037033</v>
       </c>
       <c r="H459" s="22" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="O459">
         <v>20171218</v>
@@ -25718,7 +26266,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G460" s="26"/>
       <c r="O460">
@@ -25739,7 +26287,7 @@
         <v>4</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G461" s="26"/>
       <c r="O461">
@@ -25760,7 +26308,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E462">
         <v>3.39</v>
@@ -25769,11 +26317,11 @@
         <v>3.4</v>
       </c>
       <c r="G462" s="25">
-        <f t="shared" ref="G462:G501" si="18">(F462-E462)/E462*100</f>
+        <f t="shared" ref="G462:G518" si="18">(F462-E462)/E462*100</f>
         <v>0.29498525073745685</v>
       </c>
       <c r="H462" s="22" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O462">
         <v>20171221</v>
@@ -25793,7 +26341,7 @@
         <v>7</v>
       </c>
       <c r="D463" s="26" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G463" s="26"/>
       <c r="O463">
@@ -25814,7 +26362,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="26" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="G464" s="26"/>
       <c r="O464">
@@ -25833,7 +26381,7 @@
       </c>
       <c r="C465" s="26"/>
       <c r="D465" s="26" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="G465" s="26"/>
       <c r="O465">
@@ -25854,11 +26402,11 @@
         <v>10</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G466" s="26"/>
       <c r="H466" s="21" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="O466">
         <v>20171227</v>
@@ -25867,7 +26415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="28.8">
+    <row r="467" spans="1:16" ht="27">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -25878,7 +26426,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E467">
         <v>6.19</v>
@@ -25891,7 +26439,7 @@
         <v>-3.3925686591276247</v>
       </c>
       <c r="H467" s="24" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="O467">
         <v>20171228</v>
@@ -25911,7 +26459,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="26" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G468" s="26"/>
       <c r="O468">
@@ -25932,7 +26480,7 @@
         <v>3</v>
       </c>
       <c r="D469" s="26" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="G469" s="26"/>
       <c r="O469">
@@ -25953,7 +26501,7 @@
         <v>4</v>
       </c>
       <c r="D470" s="26" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="G470" s="26"/>
       <c r="O470">
@@ -25974,7 +26522,7 @@
         <v>5</v>
       </c>
       <c r="D471" s="26" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="G471" s="26"/>
       <c r="O471">
@@ -25995,7 +26543,7 @@
         <v>4</v>
       </c>
       <c r="D472" s="26" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="G472" s="26"/>
       <c r="O472">
@@ -26016,7 +26564,7 @@
         <v>8</v>
       </c>
       <c r="D473" s="26" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E473">
         <v>16.940000000000001</v>
@@ -26029,7 +26577,7 @@
         <v>15.702479338842975</v>
       </c>
       <c r="H473" s="22" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="O473">
         <v>20180108</v>
@@ -26049,7 +26597,7 @@
         <v>5</v>
       </c>
       <c r="D474" s="26" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G474" s="26"/>
       <c r="O474">
@@ -26070,7 +26618,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="26" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G475" s="26"/>
       <c r="O475">
@@ -26091,7 +26639,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="G476" s="26"/>
       <c r="O476">
@@ -26112,7 +26660,7 @@
         <v>8</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="E477">
         <v>24.04</v>
@@ -26125,7 +26673,7 @@
         <v>10.64891846921798</v>
       </c>
       <c r="H477" s="22" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O477">
         <v>20180112</v>
@@ -26145,7 +26693,7 @@
         <v>5</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="G478" s="26"/>
       <c r="O478">
@@ -26166,7 +26714,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="26" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="G479" s="26"/>
       <c r="O479">
@@ -26187,7 +26735,7 @@
         <v>4</v>
       </c>
       <c r="D480" s="26" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="G480" s="26"/>
       <c r="O480">
@@ -26208,7 +26756,7 @@
         <v>10</v>
       </c>
       <c r="D481" s="26" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="E481">
         <v>9.27</v>
@@ -26221,7 +26769,7 @@
         <v>5.7173678532901961</v>
       </c>
       <c r="H481" s="22" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O481">
         <v>20180118</v>
@@ -26241,7 +26789,7 @@
         <v>15</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="E482">
         <v>10.1</v>
@@ -26274,7 +26822,7 @@
         <v>12</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G483" s="26"/>
       <c r="O483">
@@ -26295,7 +26843,7 @@
         <v>10</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="E484">
         <v>12.18</v>
@@ -26308,7 +26856,7 @@
         <v>9.0311986863710967</v>
       </c>
       <c r="H484" s="22" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="O484">
         <v>20180123</v>
@@ -26328,7 +26876,7 @@
         <v>10</v>
       </c>
       <c r="D485" s="26" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G485" s="26"/>
       <c r="O485">
@@ -26349,7 +26897,7 @@
         <v>5</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="G486" s="26"/>
       <c r="O486">
@@ -26370,7 +26918,7 @@
         <v>5</v>
       </c>
       <c r="D487" s="26" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="E487" s="33"/>
       <c r="G487" s="26"/>
@@ -26392,7 +26940,7 @@
         <v>8</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="E488">
         <v>18</v>
@@ -26405,7 +26953,7 @@
         <v>8.6666666666666607</v>
       </c>
       <c r="H488" s="22" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="O488">
         <v>20180129</v>
@@ -26425,7 +26973,7 @@
         <v>10</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="G489" s="26"/>
       <c r="O489">
@@ -26446,7 +26994,7 @@
         <v>13</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="G490" s="26"/>
       <c r="O490">
@@ -26467,7 +27015,7 @@
         <v>11</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="E491">
         <v>7.47</v>
@@ -26480,7 +27028,7 @@
         <v>12.851405622489958</v>
       </c>
       <c r="H491" s="22" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="O491">
         <v>20160104</v>
@@ -26506,7 +27054,7 @@
         <v>14</v>
       </c>
       <c r="D492" s="26" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="G492" s="26"/>
       <c r="O492">
@@ -26527,7 +27075,7 @@
         <v>19</v>
       </c>
       <c r="D493" s="26" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G493" s="26"/>
       <c r="O493">
@@ -26554,11 +27102,11 @@
         <v>19</v>
       </c>
       <c r="D494" s="26" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="G494" s="26"/>
       <c r="H494" s="21" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="O494">
         <v>20160107</v>
@@ -26578,7 +27126,7 @@
         <v>16</v>
       </c>
       <c r="D495" s="26" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G495" s="26"/>
       <c r="O495">
@@ -26605,7 +27153,7 @@
         <v>19</v>
       </c>
       <c r="D496" s="26" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="G496" s="26"/>
       <c r="O496">
@@ -26632,7 +27180,7 @@
         <v>14</v>
       </c>
       <c r="D497" s="26" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G497" s="26"/>
       <c r="O497">
@@ -26653,7 +27201,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="26" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="G498" s="26"/>
       <c r="O498">
@@ -26680,11 +27228,11 @@
         <v>9</v>
       </c>
       <c r="D499" s="26" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="G499" s="26"/>
       <c r="H499" s="21" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="O499">
         <v>20160114</v>
@@ -26710,7 +27258,7 @@
         <v>6</v>
       </c>
       <c r="D500" s="26" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="G500" s="26"/>
       <c r="O500">
@@ -26737,7 +27285,7 @@
         <v>10</v>
       </c>
       <c r="D501" s="26" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E501">
         <v>12.5</v>
@@ -26767,8 +27315,9 @@
         <v>5</v>
       </c>
       <c r="D502" s="26" t="s">
-        <v>1803</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="G502" s="35"/>
       <c r="O502">
         <v>20160119</v>
       </c>
@@ -26793,10 +27342,11 @@
         <v>5</v>
       </c>
       <c r="D503" s="26" t="s">
-        <v>1804</v>
-      </c>
-      <c r="H503" s="21" t="s">
-        <v>1807</v>
+        <v>1802</v>
+      </c>
+      <c r="G503" s="35"/>
+      <c r="H503" s="36" t="s">
+        <v>1658</v>
       </c>
       <c r="O503">
         <v>20160120</v>
@@ -26822,8 +27372,9 @@
         <v>7</v>
       </c>
       <c r="D504" s="26" t="s">
-        <v>1805</v>
-      </c>
+        <v>1803</v>
+      </c>
+      <c r="G504" s="35"/>
       <c r="O504">
         <v>20160121</v>
       </c>
@@ -26832,6 +27383,22 @@
       </c>
     </row>
     <row r="505" spans="1:18">
+      <c r="A505" s="38">
+        <v>20200120</v>
+      </c>
+      <c r="B505" s="38">
+        <v>12</v>
+      </c>
+      <c r="C505" s="38">
+        <v>6</v>
+      </c>
+      <c r="D505" s="39" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E505" s="35"/>
+      <c r="F505" s="35"/>
+      <c r="G505" s="35"/>
+      <c r="H505" s="35"/>
       <c r="O505">
         <v>20160122</v>
       </c>
@@ -26840,6 +27407,22 @@
       </c>
     </row>
     <row r="506" spans="1:18">
+      <c r="A506" s="38">
+        <v>20200121</v>
+      </c>
+      <c r="B506" s="38">
+        <v>28</v>
+      </c>
+      <c r="C506" s="38">
+        <v>22</v>
+      </c>
+      <c r="D506" s="39" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E506" s="35"/>
+      <c r="F506" s="35"/>
+      <c r="G506" s="35"/>
+      <c r="H506" s="35"/>
       <c r="O506">
         <v>20160125</v>
       </c>
@@ -26848,6 +27431,22 @@
       </c>
     </row>
     <row r="507" spans="1:18">
+      <c r="A507" s="38">
+        <v>20200122</v>
+      </c>
+      <c r="B507" s="38">
+        <v>11</v>
+      </c>
+      <c r="C507" s="38">
+        <v>9</v>
+      </c>
+      <c r="D507" s="39" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E507" s="35"/>
+      <c r="F507" s="35"/>
+      <c r="G507" s="35"/>
+      <c r="H507" s="35"/>
       <c r="O507">
         <v>20160126</v>
       </c>
@@ -26856,6 +27455,31 @@
       </c>
     </row>
     <row r="508" spans="1:18">
+      <c r="A508" s="38">
+        <v>20200123</v>
+      </c>
+      <c r="B508" s="38">
+        <v>12</v>
+      </c>
+      <c r="C508" s="38">
+        <v>11</v>
+      </c>
+      <c r="D508" s="39" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E508" s="35">
+        <v>9.51</v>
+      </c>
+      <c r="F508" s="35">
+        <v>12</v>
+      </c>
+      <c r="G508" s="35">
+        <f t="shared" si="18"/>
+        <v>26.182965299684547</v>
+      </c>
+      <c r="H508" s="37" t="s">
+        <v>1809</v>
+      </c>
       <c r="O508">
         <v>20160127</v>
       </c>
@@ -26864,6 +27488,20 @@
       </c>
     </row>
     <row r="509" spans="1:18">
+      <c r="A509" s="34">
+        <v>20200203</v>
+      </c>
+      <c r="B509" s="35">
+        <v>14</v>
+      </c>
+      <c r="C509" s="35"/>
+      <c r="D509" s="35" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E509" s="35"/>
+      <c r="F509" s="35"/>
+      <c r="G509" s="35"/>
+      <c r="H509" s="35"/>
       <c r="O509">
         <v>20160128</v>
       </c>
@@ -26872,6 +27510,20 @@
       </c>
     </row>
     <row r="510" spans="1:18">
+      <c r="A510" s="34">
+        <v>20200204</v>
+      </c>
+      <c r="B510" s="35">
+        <v>32</v>
+      </c>
+      <c r="C510" s="35"/>
+      <c r="D510" s="35" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E510" s="35"/>
+      <c r="F510" s="35"/>
+      <c r="G510" s="35"/>
+      <c r="H510" s="35"/>
       <c r="O510">
         <v>20160129</v>
       </c>
@@ -26880,6 +27532,20 @@
       </c>
     </row>
     <row r="511" spans="1:18">
+      <c r="A511" s="34">
+        <v>20200205</v>
+      </c>
+      <c r="B511" s="35">
+        <v>66</v>
+      </c>
+      <c r="C511" s="35"/>
+      <c r="D511" s="35" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E511" s="35"/>
+      <c r="F511" s="35"/>
+      <c r="G511" s="35"/>
+      <c r="H511" s="35"/>
       <c r="O511">
         <v>20160201</v>
       </c>
@@ -26888,11 +27554,149 @@
       </c>
     </row>
     <row r="512" spans="1:18">
+      <c r="A512" s="34">
+        <v>20200206</v>
+      </c>
+      <c r="B512" s="35">
+        <v>106</v>
+      </c>
+      <c r="C512" s="35"/>
+      <c r="D512" s="35" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E512" s="35"/>
+      <c r="F512" s="35"/>
+      <c r="G512" s="35"/>
+      <c r="H512" s="35"/>
       <c r="O512">
         <v>20160202</v>
       </c>
       <c r="P512" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="34">
+        <v>20200207</v>
+      </c>
+      <c r="B513" s="35">
+        <v>84</v>
+      </c>
+      <c r="C513" s="35"/>
+      <c r="D513" s="35" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E513" s="35">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="F513" s="35">
+        <v>21.4</v>
+      </c>
+      <c r="G513" s="35">
+        <f t="shared" si="18"/>
+        <v>26.47754137115837</v>
+      </c>
+      <c r="H513" s="37" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" s="34">
+        <v>20200210</v>
+      </c>
+      <c r="B514" s="35">
+        <v>33</v>
+      </c>
+      <c r="C514" s="35"/>
+      <c r="D514" s="35" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E514" s="35"/>
+      <c r="F514" s="35"/>
+      <c r="G514" s="35"/>
+      <c r="H514" s="36" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" s="34">
+        <v>20200211</v>
+      </c>
+      <c r="B515" s="35">
+        <v>17</v>
+      </c>
+      <c r="C515" s="35"/>
+      <c r="D515" s="35" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E515" s="35"/>
+      <c r="F515" s="35"/>
+      <c r="G515" s="35"/>
+      <c r="H515" s="36" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" ht="27">
+      <c r="A516">
+        <v>20200212</v>
+      </c>
+      <c r="B516">
+        <v>15</v>
+      </c>
+      <c r="D516" s="35" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E516">
+        <v>23.73</v>
+      </c>
+      <c r="F516">
+        <v>18.8</v>
+      </c>
+      <c r="G516" s="35">
+        <f t="shared" si="18"/>
+        <v>-20.775389801938474</v>
+      </c>
+      <c r="H516" s="23" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517">
+        <v>20200213</v>
+      </c>
+      <c r="B517">
+        <v>21</v>
+      </c>
+      <c r="D517" s="35" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G517" s="35"/>
+      <c r="H517" s="36" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518">
+        <v>202000214</v>
+      </c>
+      <c r="B518">
+        <v>16</v>
+      </c>
+      <c r="D518" s="35" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E518">
+        <v>9.5</v>
+      </c>
+      <c r="F518">
+        <v>10.29</v>
+      </c>
+      <c r="G518" s="35">
+        <f t="shared" si="18"/>
+        <v>8.3157894736842017</v>
+      </c>
+      <c r="H518" s="37" t="s">
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -26932,15 +27736,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -28426,7 +29245,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -29928,7 +30747,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -31874,7 +32693,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32624,7 +33443,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -32890,80 +33709,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="48.6" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="48.75" thickBot="1">
       <c r="A1" s="27" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1776</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="29" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>1777</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>1778</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>1779</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>1780</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>1781</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>1782</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="29" t="s">
+        <v>1808</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>1783</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>1784</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>1811</v>
-      </c>
-      <c r="L1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>1785</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>1786</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>1787</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>1788</v>
-      </c>
       <c r="P1" s="28" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1"/>
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32979,34 +33798,47 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="31" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>1790</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>1791</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>1792</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>1794</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="949">
   <si>
     <t>date</t>
   </si>
@@ -1161,10 +1161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前龙宝德大面放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前龙泰晶科技大面放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2339,10 +2335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东北票减分 庄股减分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缩量减分 水平附近开盘加分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2642,11 +2634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否是第一次买入机会
-(一字板 缩量板不算)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整体市场情绪如何
 (大面多吗)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2727,34 +2714,6 @@
     <t>放量加分</t>
   </si>
   <si>
-    <t>6-联环药业</t>
-  </si>
-  <si>
-    <t>7-联环药业</t>
-  </si>
-  <si>
-    <t>8-联环药业</t>
-  </si>
-  <si>
-    <t>9-联环药业</t>
-  </si>
-  <si>
-    <t>10-联环药业</t>
-  </si>
-  <si>
-    <t>8-三五互联</t>
-  </si>
-  <si>
-    <t>连续三个一字板以上 放弃</t>
-  </si>
-  <si>
-    <t>7-道恩股份</t>
-  </si>
-  <si>
-    <t>8-世纪天鸿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-模塑科技-000700.SZ-实体-江苏-33.0</t>
   </si>
   <si>
@@ -2780,10 +2739,6 @@
   </si>
   <si>
     <t>减持利空放弃 前龙大面[最高点-收盘价]超过%11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-秀强股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2845,9 +2800,6 @@
   </si>
   <si>
     <t>3-川环科技-300547.SZ</t>
-  </si>
-  <si>
-    <t>6-凯盛科技-600552.SH&amp;&amp;6-联得装备-300545.SZ</t>
   </si>
   <si>
     <t>2-万隆光电-300710.SZ&amp;&amp;2-华菱星马-600375.SH&amp;&amp;2-神奇制药-600613.SH&amp;&amp;2-德新交运-603032.SH&amp;&amp;2-龙津药业-002750.SZ&amp;&amp;2-同益股份-300538.SZ&amp;&amp;2-领益智造-002600.SZ</t>
@@ -3161,6 +3113,60 @@
   <si>
     <t>买入山顶设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前龙宝德大面放弃 都死掉 且有大面 符合前龙大面原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是第一次买入机会
+(一字缩量板 缩量秒板 缩量T字板 隔天涨停板开盘不算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-凯盛科技-600552.SH&amp;&amp;6-联得装备-300545.SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入联得装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北票减分 庄股减分 
+【从头到尾连续一字7个以上 
+开板后的第一个放量不是买入机会】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">连续三个一字板以上 放弃 缩量减分放弃 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-联环药业-600513.SH-非实体-江苏-12.0</t>
+  </si>
+  <si>
+    <t>7-联环药业-600513.SH-实体-江苏-18.0</t>
+  </si>
+  <si>
+    <t>8-联环药业-600513.SH-实体-江苏-23.0</t>
+  </si>
+  <si>
+    <t>9-联环药业-600513.SH-实体-江苏-23.0</t>
+  </si>
+  <si>
+    <t>10-联环药业-600513.SH-实体-江苏-23.0</t>
+  </si>
+  <si>
+    <t>8-三五互联-300051.SZ-实体-福建-10.0</t>
+  </si>
+  <si>
+    <t>7-道恩股份-002838.SZ-实体-山东-10.0</t>
+  </si>
+  <si>
+    <t>8-世纪天鸿-300654.SZ-实体-山东-8.0</t>
+  </si>
+  <si>
+    <t>8-秀强股份-300160.SZ-非实体-江苏-25.0</t>
   </si>
 </sst>
 </file>
@@ -4761,8 +4767,8 @@
   <dimension ref="A1:J533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D508" sqref="D508:D528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4785,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -4911,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
@@ -4928,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4945,7 +4951,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8">
         <v>14.45</v>
@@ -4972,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F9">
         <v>40.479999999999997</v>
@@ -4985,7 +4991,7 @@
         <v>-4.3725296442687656</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5002,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
@@ -5019,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11">
         <v>4.95</v>
@@ -5046,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -5063,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F13">
         <v>36.93</v>
@@ -5090,7 +5096,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14">
         <v>9.93</v>
@@ -5117,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
@@ -5134,7 +5140,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
@@ -5151,7 +5157,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F17">
         <v>26</v>
@@ -5178,7 +5184,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -5195,7 +5201,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
@@ -5212,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F20">
         <v>11.87</v>
@@ -5239,7 +5245,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F21">
         <v>7.18</v>
@@ -5266,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F22">
         <v>8.8699999999999992</v>
@@ -5293,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J23" t="s">
         <v>51</v>
@@ -5310,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J24" t="s">
         <v>52</v>
@@ -5327,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F25">
         <v>15.27</v>
@@ -5354,7 +5360,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -5371,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5388,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -5405,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J29" t="s">
         <v>53</v>
@@ -5422,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J30" t="s">
         <v>54</v>
@@ -5439,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5456,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J32" t="s">
         <v>55</v>
@@ -5473,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J33" t="s">
         <v>56</v>
@@ -5490,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5507,7 +5513,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J35" t="s">
         <v>57</v>
@@ -5524,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J36" t="s">
         <v>58</v>
@@ -5541,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J37" t="s">
         <v>59</v>
@@ -5558,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J38" t="s">
         <v>60</v>
@@ -5575,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J39" t="s">
         <v>61</v>
@@ -5592,7 +5598,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
         <v>62</v>
@@ -5609,7 +5615,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F41">
         <v>15.3</v>
@@ -5636,7 +5642,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5653,7 +5659,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J43" t="s">
         <v>63</v>
@@ -5670,7 +5676,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F44">
         <v>12.11</v>
@@ -5697,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F45">
         <v>15.6</v>
@@ -5724,7 +5730,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
         <v>65</v>
@@ -5741,7 +5747,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F47">
         <v>79.77</v>
@@ -5768,7 +5774,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
         <v>67</v>
@@ -5785,7 +5791,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F49">
         <v>7.48</v>
@@ -5812,7 +5818,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F50">
         <v>10.34</v>
@@ -5839,7 +5845,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F51">
         <v>18.04</v>
@@ -5866,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5883,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J53" t="s">
         <v>71</v>
@@ -5900,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5917,7 +5923,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5934,7 +5940,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J56" t="s">
         <v>72</v>
@@ -5951,7 +5957,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F57">
         <v>18.75</v>
@@ -5978,7 +5984,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J58" t="s">
         <v>74</v>
@@ -5995,7 +6001,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J59" t="s">
         <v>75</v>
@@ -6012,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J60" t="s">
         <v>76</v>
@@ -6029,7 +6035,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J61" t="s">
         <v>77</v>
@@ -6046,7 +6052,7 @@
         <v>10</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F62">
         <v>35.9</v>
@@ -6073,7 +6079,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F63">
         <v>56.45</v>
@@ -6100,7 +6106,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J64" t="s">
         <v>79</v>
@@ -6117,7 +6123,7 @@
         <v>17</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J65" t="s">
         <v>80</v>
@@ -6134,7 +6140,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F66">
         <v>45</v>
@@ -6143,7 +6149,7 @@
         <v>38</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J66" t="s">
         <v>81</v>
@@ -6160,7 +6166,7 @@
         <v>15</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J67" t="s">
         <v>82</v>
@@ -6177,7 +6183,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J68" t="s">
         <v>83</v>
@@ -6194,7 +6200,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F69">
         <v>51</v>
@@ -6221,7 +6227,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F70">
         <v>40.18</v>
@@ -6248,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F71">
         <v>71</v>
@@ -6257,7 +6263,7 @@
         <v>62</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J71" t="s">
         <v>84</v>
@@ -6274,7 +6280,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -6291,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J73" t="s">
         <v>85</v>
@@ -6308,7 +6314,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F74">
         <v>42.29</v>
@@ -6335,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J75" t="s">
         <v>87</v>
@@ -6352,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J76" t="s">
         <v>88</v>
@@ -6369,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J77" t="s">
         <v>89</v>
@@ -6386,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J78" t="s">
         <v>90</v>
@@ -6403,7 +6409,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J79" t="s">
         <v>91</v>
@@ -6420,7 +6426,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F80">
         <v>6.5</v>
@@ -6429,7 +6435,7 @@
         <v>5.75</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J80" t="s">
         <v>92</v>
@@ -6446,7 +6452,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F81">
         <v>22.88</v>
@@ -6455,7 +6461,7 @@
         <v>18.7</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -6472,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J82" t="s">
         <v>93</v>
@@ -6489,7 +6495,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F83">
         <v>19.02</v>
@@ -6516,7 +6522,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J84" t="s">
         <v>94</v>
@@ -6533,7 +6539,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -6550,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J86" t="s">
         <v>95</v>
@@ -6567,7 +6573,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -6584,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F88">
         <v>15.11</v>
@@ -6611,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F89">
         <v>32.770000000000003</v>
@@ -6620,7 +6626,7 @@
         <v>25.8</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J89" t="s">
         <v>97</v>
@@ -6637,7 +6643,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J90" t="s">
         <v>98</v>
@@ -6654,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J91" t="s">
         <v>99</v>
@@ -6671,7 +6677,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J92" t="s">
         <v>100</v>
@@ -6688,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F93">
         <v>45.88</v>
@@ -6715,7 +6721,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F94">
         <v>50</v>
@@ -6742,7 +6748,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J95" t="s">
         <v>102</v>
@@ -6759,7 +6765,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J96" t="s">
         <v>103</v>
@@ -6776,7 +6782,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J97" t="s">
         <v>104</v>
@@ -6793,7 +6799,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J98" t="s">
         <v>105</v>
@@ -6810,7 +6816,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F99">
         <v>32.549999999999997</v>
@@ -6819,7 +6825,7 @@
         <v>30.5</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J99" t="s">
         <v>106</v>
@@ -6836,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F100">
         <v>22.79</v>
@@ -6863,7 +6869,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6880,7 +6886,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6897,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6914,7 +6920,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J104" t="s">
         <v>108</v>
@@ -6931,7 +6937,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -6948,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6965,7 +6971,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F107">
         <v>14.38</v>
@@ -6992,7 +6998,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F108">
         <v>16.8</v>
@@ -7019,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J109" t="s">
         <v>110</v>
@@ -7036,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J110" t="s">
         <v>111</v>
@@ -7053,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -7070,7 +7076,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -7087,7 +7093,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -7104,7 +7110,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F114">
         <v>12.73</v>
@@ -7113,7 +7119,7 @@
         <v>11.2</v>
       </c>
       <c r="I114" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J114" t="s">
         <v>112</v>
@@ -7130,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7147,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -7164,7 +7170,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J117" t="s">
         <v>113</v>
@@ -7181,7 +7187,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7198,7 +7204,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J119" t="s">
         <v>114</v>
@@ -7215,7 +7221,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7232,7 +7238,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7249,7 +7255,7 @@
         <v>10</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F122">
         <v>11.63</v>
@@ -7262,7 +7268,7 @@
         <v>20.378331900257944</v>
       </c>
       <c r="I122" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7279,7 +7285,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J123" t="s">
         <v>115</v>
@@ -7296,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J124" t="s">
         <v>116</v>
@@ -7313,7 +7319,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7330,7 +7336,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J126" t="s">
         <v>117</v>
@@ -7347,7 +7353,7 @@
         <v>10</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F127">
         <v>10.050000000000001</v>
@@ -7360,7 +7366,7 @@
         <v>-7.6616915422885707</v>
       </c>
       <c r="I127" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J127" t="s">
         <v>118</v>
@@ -7377,7 +7383,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7394,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7411,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J130" t="s">
         <v>119</v>
@@ -7428,7 +7434,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F131">
         <v>78</v>
@@ -7441,7 +7447,7 @@
         <v>-12.179487179487179</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J131" t="s">
         <v>120</v>
@@ -7458,7 +7464,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F132">
         <v>10.37</v>
@@ -7471,7 +7477,7 @@
         <v>35.004821600771471</v>
       </c>
       <c r="I132" s="22" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J132" t="s">
         <v>121</v>
@@ -7488,7 +7494,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J133" t="s">
         <v>122</v>
@@ -7505,7 +7511,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J134" t="s">
         <v>123</v>
@@ -7522,10 +7528,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J135" t="s">
         <v>124</v>
@@ -7542,7 +7548,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J136" t="s">
         <v>125</v>
@@ -7559,7 +7565,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J137" t="s">
         <v>126</v>
@@ -7576,7 +7582,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F138">
         <v>8.8000000000000007</v>
@@ -7589,7 +7595,7 @@
         <v>11.363636363636363</v>
       </c>
       <c r="I138" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -7606,7 +7612,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F139">
         <v>4.4800000000000004</v>
@@ -7619,7 +7625,7 @@
         <v>24.999999999999982</v>
       </c>
       <c r="I139" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J139" t="s">
         <v>85</v>
@@ -7636,7 +7642,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J140" t="s">
         <v>127</v>
@@ -7653,7 +7659,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J141" t="s">
         <v>128</v>
@@ -7670,7 +7676,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J142" t="s">
         <v>129</v>
@@ -7687,7 +7693,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -7704,7 +7710,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F144">
         <v>6.39</v>
@@ -7717,7 +7723,7 @@
         <v>4.5383411580594686</v>
       </c>
       <c r="I144" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J144" t="s">
         <v>130</v>
@@ -7734,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F145">
         <v>5.23</v>
@@ -7747,7 +7753,7 @@
         <v>-0.5736137667304062</v>
       </c>
       <c r="I145" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -7764,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J146" t="s">
         <v>131</v>
@@ -7781,7 +7787,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J147" t="s">
         <v>132</v>
@@ -7798,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -7815,7 +7821,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -7832,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -7849,7 +7855,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F151">
         <v>11.6</v>
@@ -7862,7 +7868,7 @@
         <v>7.7586206896551753</v>
       </c>
       <c r="I151" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J151" t="s">
         <v>133</v>
@@ -7879,7 +7885,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -7896,7 +7902,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J153" t="s">
         <v>134</v>
@@ -7913,7 +7919,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -7930,10 +7936,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
@@ -7950,7 +7956,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -7967,7 +7973,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -7984,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -8001,7 +8007,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -8018,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -8035,7 +8041,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J161" t="s">
         <v>135</v>
@@ -8052,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -8069,7 +8075,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -8086,7 +8092,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -8103,7 +8109,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J165" t="s">
         <v>136</v>
@@ -8120,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -8137,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -8154,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -8171,7 +8177,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -8188,7 +8194,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -8205,7 +8211,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F171">
         <v>6.74</v>
@@ -8218,7 +8224,7 @@
         <v>8.0118694362017813</v>
       </c>
       <c r="I171" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J171" t="s">
         <v>77</v>
@@ -8235,7 +8241,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F172">
         <v>7.91</v>
@@ -8244,7 +8250,7 @@
         <v>8.48</v>
       </c>
       <c r="I172" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J172" t="s">
         <v>137</v>
@@ -8261,7 +8267,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F173">
         <v>10.050000000000001</v>
@@ -8274,7 +8280,7 @@
         <v>3.4825870646766131</v>
       </c>
       <c r="I173" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J173" t="s">
         <v>138</v>
@@ -8291,7 +8297,7 @@
         <v>10</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J174" t="s">
         <v>139</v>
@@ -8308,7 +8314,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -8325,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -8342,7 +8348,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -8359,7 +8365,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J178" t="s">
         <v>81</v>
@@ -8376,7 +8382,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -8393,7 +8399,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J180" t="s">
         <v>140</v>
@@ -8410,7 +8416,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J181" t="s">
         <v>141</v>
@@ -8427,7 +8433,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I182" s="21" t="s">
         <v>336</v>
@@ -8447,7 +8453,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F183">
         <v>8.81</v>
@@ -8456,7 +8462,7 @@
         <v>7.8</v>
       </c>
       <c r="I183" s="21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -8473,7 +8479,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J184" t="s">
         <v>142</v>
@@ -8490,7 +8496,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I185" s="1"/>
       <c r="J185">
@@ -8508,7 +8514,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F186">
         <v>9.35</v>
@@ -8517,7 +8523,7 @@
         <v>8.4</v>
       </c>
       <c r="I186" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -8534,7 +8540,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J187" t="s">
         <v>143</v>
@@ -8551,7 +8557,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J188" t="s">
         <v>144</v>
@@ -8568,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -8585,7 +8591,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F190">
         <v>44.44</v>
@@ -8598,7 +8604,7 @@
         <v>7.9657965796579644</v>
       </c>
       <c r="I190" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -8615,7 +8621,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -8632,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -8649,7 +8655,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -8666,7 +8672,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J194" t="s">
         <v>145</v>
@@ -8683,10 +8689,10 @@
         <v>7</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I195" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -8703,7 +8709,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J196" t="s">
         <v>146</v>
@@ -8720,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -8737,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J198" t="s">
         <v>147</v>
@@ -8754,7 +8760,7 @@
         <v>24</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H199" s="25"/>
       <c r="J199" t="s">
@@ -8772,7 +8778,7 @@
         <v>26</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H200" s="25"/>
       <c r="J200">
@@ -8790,7 +8796,7 @@
         <v>13</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F201">
         <v>31.8</v>
@@ -8803,7 +8809,7 @@
         <v>4.3396226415094308</v>
       </c>
       <c r="I201" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -8820,7 +8826,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" t="s">
@@ -8838,7 +8844,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -8855,7 +8861,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8872,7 +8878,7 @@
         <v>10</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J205" t="s">
         <v>150</v>
@@ -8889,7 +8895,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F206">
         <v>24</v>
@@ -8902,7 +8908,7 @@
         <v>7.291666666666667</v>
       </c>
       <c r="I206" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J206" t="s">
         <v>151</v>
@@ -8919,10 +8925,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I207" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J207" t="s">
         <v>152</v>
@@ -8939,7 +8945,7 @@
         <v>16</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F208">
         <v>5.57</v>
@@ -8952,7 +8958,7 @@
         <v>9.5152603231597723</v>
       </c>
       <c r="I208" s="22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J208" t="s">
         <v>153</v>
@@ -8969,7 +8975,7 @@
         <v>16</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H209" s="25"/>
       <c r="J209">
@@ -8987,7 +8993,7 @@
         <v>28</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H210" s="25"/>
       <c r="J210" t="s">
@@ -9005,7 +9011,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H211" s="25"/>
       <c r="J211">
@@ -9023,7 +9029,7 @@
         <v>13</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F212">
         <v>7.38</v>
@@ -9036,7 +9042,7 @@
         <v>32.791327913279147</v>
       </c>
       <c r="I212" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -9053,7 +9059,7 @@
         <v>22</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -9070,7 +9076,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -9087,10 +9093,10 @@
         <v>30</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I215" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J215" t="s">
         <v>154</v>
@@ -9107,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F216">
         <v>9.32</v>
@@ -9116,7 +9122,7 @@
         <v>9.52</v>
       </c>
       <c r="I216" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -9133,7 +9139,7 @@
         <v>17</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J217" t="s">
         <v>155</v>
@@ -9150,7 +9156,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F218">
         <v>10.53</v>
@@ -9163,7 +9169,7 @@
         <v>6.9325735992402704</v>
       </c>
       <c r="I218" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J218" t="s">
         <v>156</v>
@@ -9180,7 +9186,7 @@
         <v>20</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J219" t="s">
         <v>157</v>
@@ -9197,7 +9203,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -9214,7 +9220,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J221" t="s">
         <v>158</v>
@@ -9231,10 +9237,10 @@
         <v>10</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I222" s="21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J222" t="s">
         <v>159</v>
@@ -9251,10 +9257,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I223" s="21" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -9271,7 +9277,7 @@
         <v>2</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -9288,7 +9294,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9305,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -9322,7 +9328,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -9339,7 +9345,7 @@
         <v>4</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -9356,7 +9362,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F229">
         <v>5.9</v>
@@ -9383,7 +9389,7 @@
         <v>16</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -9400,10 +9406,10 @@
         <v>10</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E231" s="35" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F231">
         <v>24.9</v>
@@ -9412,7 +9418,7 @@
         <v>24.52</v>
       </c>
       <c r="I231" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -9429,7 +9435,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -9446,7 +9452,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -9463,10 +9469,10 @@
         <v>2</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E234" s="35" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -9483,10 +9489,10 @@
         <v>6</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E235" s="35" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -9503,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -9520,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J237">
         <v>0</v>
@@ -9537,7 +9543,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -9554,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -9571,7 +9577,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -9588,10 +9594,10 @@
         <v>3</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E241" s="35" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -9608,7 +9614,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -9625,7 +9631,7 @@
         <v>3</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -9642,7 +9648,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -9659,7 +9665,7 @@
         <v>15</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I245" s="21" t="s">
         <v>336</v>
@@ -9679,10 +9685,10 @@
         <v>7</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E246" s="35" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="F246">
         <v>10.1</v>
@@ -9695,7 +9701,7 @@
         <v>14.554455445544562</v>
       </c>
       <c r="I246" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J246" t="s">
         <v>162</v>
@@ -9712,10 +9718,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E247" s="35" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="J247" t="s">
         <v>163</v>
@@ -9732,7 +9738,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J248" t="s">
         <v>164</v>
@@ -9749,7 +9755,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J249" t="s">
         <v>165</v>
@@ -9766,7 +9772,7 @@
         <v>12</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F250">
         <v>4.8499999999999996</v>
@@ -9779,7 +9785,7 @@
         <v>44.329896907216501</v>
       </c>
       <c r="I250" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J250" t="s">
         <v>166</v>
@@ -9796,7 +9802,7 @@
         <v>17</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J251" t="s">
         <v>167</v>
@@ -9813,7 +9819,7 @@
         <v>19</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J252" t="s">
         <v>168</v>
@@ -9830,7 +9836,7 @@
         <v>16</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J253" t="s">
         <v>169</v>
@@ -9847,7 +9853,7 @@
         <v>15</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J254" t="s">
         <v>170</v>
@@ -9864,7 +9870,7 @@
         <v>13</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J255" t="s">
         <v>171</v>
@@ -9881,7 +9887,7 @@
         <v>16</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I256" s="21" t="s">
         <v>336</v>
@@ -9901,7 +9907,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F257">
         <v>27.85</v>
@@ -9914,7 +9920,7 @@
         <v>3.087971274685815</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J257" t="s">
         <v>173</v>
@@ -9931,10 +9937,10 @@
         <v>5</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E258" s="35" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="J258" t="s">
         <v>174</v>
@@ -9951,7 +9957,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J259" t="s">
         <v>175</v>
@@ -9968,7 +9974,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J260" t="s">
         <v>176</v>
@@ -9985,10 +9991,10 @@
         <v>4</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E261" s="35" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -10005,7 +10011,7 @@
         <v>8</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F262">
         <v>6.03</v>
@@ -10018,7 +10024,7 @@
         <v>6.9651741293532323</v>
       </c>
       <c r="I262" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -10035,7 +10041,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J263" t="s">
         <v>177</v>
@@ -10052,7 +10058,7 @@
         <v>9</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J264" t="s">
         <v>178</v>
@@ -10069,7 +10075,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J265" t="s">
         <v>179</v>
@@ -10086,7 +10092,7 @@
         <v>10</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F266">
         <v>8.1999999999999993</v>
@@ -10116,10 +10122,10 @@
         <v>6</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E267" s="35" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -10136,7 +10142,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J268" t="s">
         <v>181</v>
@@ -10153,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -10170,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -10187,7 +10193,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J271" t="s">
         <v>182</v>
@@ -10204,10 +10210,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I272" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J272" t="s">
         <v>183</v>
@@ -10224,7 +10230,7 @@
         <v>16</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J273" t="s">
         <v>184</v>
@@ -10241,7 +10247,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F274">
         <v>5</v>
@@ -10268,7 +10274,7 @@
         <v>15</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J275" t="s">
         <v>186</v>
@@ -10285,7 +10291,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J276" t="s">
         <v>187</v>
@@ -10302,7 +10308,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J277" t="s">
         <v>188</v>
@@ -10319,10 +10325,13 @@
         <v>21</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E278" s="35" t="s">
-        <v>863</v>
+        <v>936</v>
+      </c>
+      <c r="I278" s="35" t="s">
+        <v>937</v>
       </c>
       <c r="J278" t="s">
         <v>189</v>
@@ -10339,7 +10348,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J279" t="s">
         <v>190</v>
@@ -10356,7 +10365,7 @@
         <v>17</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J280" t="s">
         <v>191</v>
@@ -10373,7 +10382,7 @@
         <v>28</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F281">
         <v>7</v>
@@ -10403,7 +10412,7 @@
         <v>94</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J282" t="s">
         <v>193</v>
@@ -10420,10 +10429,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I283" s="21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J283" t="s">
         <v>194</v>
@@ -10440,7 +10449,7 @@
         <v>15</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F284">
         <v>14.94</v>
@@ -10453,7 +10462,7 @@
         <v>21.419009370816607</v>
       </c>
       <c r="I284" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J284" t="s">
         <v>195</v>
@@ -10470,7 +10479,7 @@
         <v>7</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F285">
         <v>7.06</v>
@@ -10500,10 +10509,10 @@
         <v>7</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E286" s="35" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="F286">
         <v>14.84</v>
@@ -10533,10 +10542,10 @@
         <v>31</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E287" s="35" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="J287" t="s">
         <v>198</v>
@@ -10553,10 +10562,10 @@
         <v>50</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E288" s="35" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="J288" t="s">
         <v>13</v>
@@ -10573,10 +10582,10 @@
         <v>60</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E289" s="35" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="J289" t="s">
         <v>14</v>
@@ -10593,10 +10602,10 @@
         <v>79</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E290" s="35" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="J290" t="s">
         <v>15</v>
@@ -10613,10 +10622,10 @@
         <v>31</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E291" s="35" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="J291" t="s">
         <v>16</v>
@@ -10633,7 +10642,7 @@
         <v>19</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F292">
         <v>16</v>
@@ -10663,7 +10672,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F293">
         <v>8</v>
@@ -10676,7 +10685,7 @@
         <v>-4.5000000000000036</v>
       </c>
       <c r="I293" s="21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J293" t="s">
         <v>199</v>
@@ -10693,7 +10702,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J294" t="s">
         <v>200</v>
@@ -10710,7 +10719,7 @@
         <v>8</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F295">
         <v>16</v>
@@ -10740,7 +10749,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J296" t="s">
         <v>19</v>
@@ -10757,10 +10766,10 @@
         <v>10</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E297" s="35" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="F297">
         <v>8.3800000000000008</v>
@@ -10790,7 +10799,7 @@
         <v>19</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F298">
         <v>14.02</v>
@@ -10803,7 +10812,7 @@
         <v>9.8430813124108472</v>
       </c>
       <c r="I298" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
@@ -10820,7 +10829,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J299" t="s">
         <v>22</v>
@@ -10837,7 +10846,7 @@
         <v>23</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F300">
         <v>10.64</v>
@@ -10867,7 +10876,7 @@
         <v>24</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J301" t="s">
         <v>24</v>
@@ -10884,7 +10893,7 @@
         <v>24</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F302">
         <v>18.88</v>
@@ -10914,7 +10923,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F303">
         <v>14.04</v>
@@ -10944,7 +10953,7 @@
         <v>18</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J304" t="s">
         <v>27</v>
@@ -10961,7 +10970,7 @@
         <v>10</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J305" t="s">
         <v>28</v>
@@ -10978,7 +10987,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J306" t="s">
         <v>29</v>
@@ -10995,7 +11004,7 @@
         <v>28</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F307">
         <v>18.940000000000001</v>
@@ -11008,7 +11017,7 @@
         <v>2.4287222808869973</v>
       </c>
       <c r="I307" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J307" t="s">
         <v>30</v>
@@ -11025,7 +11034,7 @@
         <v>28</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F308">
         <v>16.7</v>
@@ -11051,10 +11060,10 @@
         <v>22</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E309" s="35" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="F309">
         <v>7.44</v>
@@ -11084,10 +11093,10 @@
         <v>26</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E310" s="35" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="J310" t="s">
         <v>33</v>
@@ -11104,7 +11113,7 @@
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F311">
         <v>11.6</v>
@@ -11117,7 +11126,7 @@
         <v>-3.4482758620689689</v>
       </c>
       <c r="I311" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J311" t="s">
         <v>34</v>
@@ -11134,7 +11143,7 @@
         <v>26</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J312" t="s">
         <v>35</v>
@@ -11151,7 +11160,7 @@
         <v>19</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F313">
         <v>8.1999999999999993</v>
@@ -11164,7 +11173,7 @@
         <v>-2.4390243902438939</v>
       </c>
       <c r="I313" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J313" t="s">
         <v>36</v>
@@ -11181,10 +11190,10 @@
         <v>14</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I314" s="21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J314" t="s">
         <v>37</v>
@@ -11201,7 +11210,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -11215,7 +11224,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -11229,7 +11238,7 @@
         <v>18</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F317">
         <v>17.07</v>
@@ -11256,7 +11265,7 @@
         <v>26</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -11270,7 +11279,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F319">
         <v>20.55</v>
@@ -11293,10 +11302,10 @@
         <v>18</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E320" s="35" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F320">
         <v>13.15</v>
@@ -11326,7 +11335,7 @@
         <v>201</v>
       </c>
       <c r="E321" s="35" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -11374,7 +11383,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" ht="43.2">
       <c r="A325">
         <v>20190426</v>
       </c>
@@ -11387,8 +11396,8 @@
       <c r="D325" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="I325" s="21" t="s">
-        <v>721</v>
+      <c r="I325" s="23" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -11419,7 +11428,7 @@
         <v>207</v>
       </c>
       <c r="E327" s="35" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -11436,7 +11445,7 @@
         <v>208</v>
       </c>
       <c r="E328" s="35" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="I328" s="21" t="s">
         <v>336</v>
@@ -11455,14 +11464,8 @@
       <c r="D329" t="s">
         <v>209</v>
       </c>
-      <c r="F329">
-        <v>18.03</v>
-      </c>
-      <c r="G329">
-        <v>18.510000000000002</v>
-      </c>
       <c r="I329" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -11516,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="I331" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -11543,7 +11546,7 @@
         <v>3.0303030303030365</v>
       </c>
       <c r="I332" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -11656,7 +11659,7 @@
         <v>218</v>
       </c>
       <c r="I338" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -11693,7 +11696,7 @@
         <v>8.52</v>
       </c>
       <c r="I340" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="43.2">
@@ -11710,7 +11713,7 @@
         <v>284</v>
       </c>
       <c r="I341" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="28.8">
@@ -11727,7 +11730,7 @@
         <v>220</v>
       </c>
       <c r="I342" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="28.8">
@@ -11744,7 +11747,7 @@
         <v>221</v>
       </c>
       <c r="E343" s="35" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="I343" s="23" t="s">
         <v>338</v>
@@ -11764,7 +11767,7 @@
         <v>222</v>
       </c>
       <c r="E344" s="35" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -11781,7 +11784,7 @@
         <v>223</v>
       </c>
       <c r="E345" s="35" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="F345">
         <v>32.21</v>
@@ -12076,7 +12079,7 @@
         <v>240</v>
       </c>
       <c r="E361" s="35" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="H361" s="4"/>
       <c r="I361" s="21" t="s">
@@ -12098,7 +12101,7 @@
       </c>
       <c r="H362" s="4"/>
       <c r="I362" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -12116,7 +12119,7 @@
       </c>
       <c r="H363" s="4"/>
       <c r="I363" s="36" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="J363" s="6" t="s">
         <v>269</v>
@@ -12137,7 +12140,7 @@
       </c>
       <c r="H364" s="4"/>
       <c r="I364" s="36" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -12154,11 +12157,11 @@
         <v>244</v>
       </c>
       <c r="E365" s="35" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="H365" s="4"/>
-      <c r="I365" s="21" t="s">
-        <v>347</v>
+      <c r="I365" s="36" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -12194,7 +12197,7 @@
       </c>
       <c r="H367" s="4"/>
       <c r="I367" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -12211,11 +12214,11 @@
         <v>246</v>
       </c>
       <c r="E368" s="35" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="H368" s="4"/>
       <c r="I368" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -12247,7 +12250,7 @@
         <v>248</v>
       </c>
       <c r="E370" s="35" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="H370" s="4"/>
     </row>
@@ -12265,7 +12268,7 @@
         <v>249</v>
       </c>
       <c r="E371" s="35" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="H371" s="4"/>
     </row>
@@ -12298,7 +12301,7 @@
         <v>251</v>
       </c>
       <c r="E373" s="35" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="H373" s="4"/>
     </row>
@@ -12346,7 +12349,7 @@
         <v>254</v>
       </c>
       <c r="E376" s="35" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="H376" s="4"/>
     </row>
@@ -12389,7 +12392,7 @@
         <v>9.3939393939393963</v>
       </c>
       <c r="I378" s="37" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -12422,7 +12425,7 @@
       </c>
       <c r="H380" s="6"/>
       <c r="I380" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12485,7 +12488,7 @@
       </c>
       <c r="H384" s="6"/>
       <c r="I384" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -12502,11 +12505,11 @@
         <v>263</v>
       </c>
       <c r="E385" s="35" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="H385" s="6"/>
       <c r="I385" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -12593,7 +12596,7 @@
         <v>14.057507987220447</v>
       </c>
       <c r="I390" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -12610,7 +12613,7 @@
         <v>309</v>
       </c>
       <c r="E391" s="35" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="F391">
         <v>8.99</v>
@@ -12641,7 +12644,7 @@
       </c>
       <c r="H392" s="13"/>
       <c r="I392" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -12658,7 +12661,7 @@
         <v>270</v>
       </c>
       <c r="E393" s="35" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="F393">
         <v>63</v>
@@ -12671,7 +12674,7 @@
         <v>4.8412698412698365</v>
       </c>
       <c r="I393" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -12830,7 +12833,7 @@
         <v>-7.1005917159763277</v>
       </c>
       <c r="I402" s="21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -12863,7 +12866,7 @@
       </c>
       <c r="H404" s="13"/>
       <c r="I404" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -12908,7 +12911,7 @@
       </c>
       <c r="H406" s="13"/>
       <c r="I406" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -12994,10 +12997,10 @@
         <v>6</v>
       </c>
       <c r="D411" s="26" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E411" s="35" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="F411">
         <v>4.2699999999999996</v>
@@ -13010,7 +13013,7 @@
         <v>14.754098360655757</v>
       </c>
       <c r="I411" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -13099,7 +13102,7 @@
         <v>304</v>
       </c>
       <c r="E416" s="35" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="F416">
         <v>30.99</v>
@@ -13109,7 +13112,7 @@
       </c>
       <c r="H416" s="13"/>
       <c r="I416" s="24" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13126,11 +13129,11 @@
         <v>297</v>
       </c>
       <c r="E417" s="35" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="H417" s="13"/>
       <c r="I417" s="35" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13154,7 +13157,7 @@
       </c>
       <c r="H418" s="13"/>
       <c r="I418" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -13178,7 +13181,7 @@
       </c>
       <c r="H419" s="13"/>
       <c r="I419" s="36" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -13202,7 +13205,7 @@
       </c>
       <c r="H420" s="13"/>
       <c r="I420" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13225,7 +13228,7 @@
         <v>18.23</v>
       </c>
       <c r="I421" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13267,7 +13270,7 @@
         <v>28.940929744844464</v>
       </c>
       <c r="I423" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13311,11 +13314,11 @@
         <v>10</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H426" s="16"/>
       <c r="I426" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -13332,7 +13335,7 @@
         <v>307</v>
       </c>
       <c r="E427" s="35" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="F427">
         <v>16</v>
@@ -13345,7 +13348,7 @@
         <v>68.5</v>
       </c>
       <c r="I427" s="37" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -13393,7 +13396,7 @@
       </c>
       <c r="H430" s="25"/>
       <c r="I430" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -13410,7 +13413,7 @@
         <v>313</v>
       </c>
       <c r="E431" s="35" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="H431" s="25"/>
     </row>
@@ -13429,7 +13432,7 @@
       </c>
       <c r="H432" s="25"/>
       <c r="I432" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -13462,7 +13465,7 @@
       </c>
       <c r="H434" s="25"/>
       <c r="I434" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -13479,7 +13482,7 @@
         <v>317</v>
       </c>
       <c r="E435" s="35" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="H435" s="25"/>
     </row>
@@ -13497,7 +13500,7 @@
         <v>318</v>
       </c>
       <c r="E436" s="35" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="H436" s="25"/>
       <c r="I436" s="21" t="s">
@@ -13519,7 +13522,7 @@
       </c>
       <c r="H437" s="25"/>
       <c r="I437" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -13567,7 +13570,7 @@
       </c>
       <c r="H440" s="25"/>
       <c r="I440" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -13599,7 +13602,7 @@
         <v>324</v>
       </c>
       <c r="E442" s="35" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="H442" s="25"/>
     </row>
@@ -13614,10 +13617,10 @@
         <v>5</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E443" s="35" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="H443" s="25"/>
     </row>
@@ -13632,7 +13635,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -13646,10 +13649,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I445" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -13663,10 +13666,10 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I446" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -13680,10 +13683,10 @@
         <v>16</v>
       </c>
       <c r="D447" s="26" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I447" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -13697,7 +13700,7 @@
         <v>8</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F448">
         <v>5.35</v>
@@ -13710,7 +13713,7 @@
         <v>8.9719626168224398</v>
       </c>
       <c r="I448" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -13724,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H449" s="25"/>
     </row>
@@ -13739,7 +13742,7 @@
         <v>7</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H450" s="25"/>
     </row>
@@ -13754,7 +13757,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H451" s="25"/>
     </row>
@@ -13769,10 +13772,10 @@
         <v>6</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E452" s="35" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="H452" s="25"/>
     </row>
@@ -13787,7 +13790,7 @@
         <v>5</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H453" s="25"/>
     </row>
@@ -13802,7 +13805,7 @@
         <v>4</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H454" s="25"/>
     </row>
@@ -13817,10 +13820,10 @@
         <v>6</v>
       </c>
       <c r="D455" s="25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E455" s="35" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="H455" s="25"/>
     </row>
@@ -13835,7 +13838,7 @@
         <v>3</v>
       </c>
       <c r="D456" s="25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H456" s="25"/>
     </row>
@@ -13850,7 +13853,7 @@
         <v>4</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H457" s="25"/>
     </row>
@@ -13865,7 +13868,7 @@
         <v>5</v>
       </c>
       <c r="D458" s="25" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H458" s="25"/>
     </row>
@@ -13880,7 +13883,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="25" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F459">
         <v>27</v>
@@ -13893,7 +13896,7 @@
         <v>3.7037037037037033</v>
       </c>
       <c r="I459" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -13907,7 +13910,7 @@
         <v>5</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H460" s="26"/>
     </row>
@@ -13922,10 +13925,10 @@
         <v>4</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E461" s="35" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="H461" s="26"/>
     </row>
@@ -13940,7 +13943,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F462">
         <v>3.39</v>
@@ -13953,7 +13956,7 @@
         <v>0.29498525073745685</v>
       </c>
       <c r="I462" s="22" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -13967,7 +13970,7 @@
         <v>7</v>
       </c>
       <c r="D463" s="26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H463" s="26"/>
     </row>
@@ -13982,7 +13985,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H464" s="26"/>
     </row>
@@ -13995,7 +13998,7 @@
       </c>
       <c r="C465" s="26"/>
       <c r="D465" s="26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H465" s="26"/>
     </row>
@@ -14010,11 +14013,11 @@
         <v>10</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H466" s="26"/>
       <c r="I466" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="467" spans="1:9" ht="28.8">
@@ -14028,10 +14031,10 @@
         <v>6</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E467" s="35" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="F467">
         <v>6.19</v>
@@ -14044,7 +14047,7 @@
         <v>-3.3925686591276247</v>
       </c>
       <c r="I467" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -14058,7 +14061,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="26" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H468" s="26"/>
     </row>
@@ -14073,10 +14076,10 @@
         <v>3</v>
       </c>
       <c r="D469" s="26" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E469" s="35" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="H469" s="26"/>
     </row>
@@ -14091,7 +14094,7 @@
         <v>4</v>
       </c>
       <c r="D470" s="26" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H470" s="26"/>
     </row>
@@ -14106,7 +14109,7 @@
         <v>5</v>
       </c>
       <c r="D471" s="26" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H471" s="26"/>
     </row>
@@ -14121,10 +14124,10 @@
         <v>4</v>
       </c>
       <c r="D472" s="26" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E472" s="35" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="H472" s="26"/>
     </row>
@@ -14139,7 +14142,7 @@
         <v>8</v>
       </c>
       <c r="D473" s="26" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F473">
         <v>16.940000000000001</v>
@@ -14152,7 +14155,7 @@
         <v>15.702479338842975</v>
       </c>
       <c r="I473" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -14166,7 +14169,7 @@
         <v>5</v>
       </c>
       <c r="D474" s="26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H474" s="26"/>
     </row>
@@ -14181,7 +14184,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="26" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H475" s="26"/>
     </row>
@@ -14196,10 +14199,10 @@
         <v>9</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E476" s="35" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H476" s="26"/>
     </row>
@@ -14214,10 +14217,10 @@
         <v>8</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E477" s="35" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="F477">
         <v>24.04</v>
@@ -14230,7 +14233,7 @@
         <v>10.64891846921798</v>
       </c>
       <c r="I477" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -14244,7 +14247,7 @@
         <v>5</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H478" s="26"/>
     </row>
@@ -14259,7 +14262,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="26" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H479" s="26"/>
     </row>
@@ -14274,7 +14277,7 @@
         <v>4</v>
       </c>
       <c r="D480" s="26" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H480" s="26"/>
     </row>
@@ -14289,7 +14292,7 @@
         <v>10</v>
       </c>
       <c r="D481" s="26" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F481">
         <v>9.27</v>
@@ -14302,7 +14305,7 @@
         <v>5.7173678532901961</v>
       </c>
       <c r="I481" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -14316,7 +14319,7 @@
         <v>15</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F482">
         <v>10.1</v>
@@ -14343,7 +14346,7 @@
         <v>12</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H483" s="26"/>
     </row>
@@ -14358,10 +14361,10 @@
         <v>10</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E484" s="35" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F484">
         <v>8.25</v>
@@ -14374,7 +14377,7 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="I484" s="37" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -14388,7 +14391,7 @@
         <v>10</v>
       </c>
       <c r="D485" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H485" s="26"/>
     </row>
@@ -14403,7 +14406,7 @@
         <v>5</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H486" s="26"/>
     </row>
@@ -14418,7 +14421,7 @@
         <v>5</v>
       </c>
       <c r="D487" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F487" s="33"/>
       <c r="H487" s="26"/>
@@ -14434,7 +14437,7 @@
         <v>8</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F488">
         <v>18</v>
@@ -14447,7 +14450,7 @@
         <v>8.6666666666666607</v>
       </c>
       <c r="I488" s="37" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -14461,7 +14464,7 @@
         <v>10</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H489" s="26"/>
     </row>
@@ -14476,7 +14479,7 @@
         <v>13</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H490" s="26"/>
     </row>
@@ -14491,7 +14494,7 @@
         <v>11</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F491">
         <v>7.47</v>
@@ -14504,7 +14507,7 @@
         <v>12.851405622489958</v>
       </c>
       <c r="I491" s="22" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -14518,7 +14521,7 @@
         <v>14</v>
       </c>
       <c r="D492" s="26" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H492" s="26"/>
     </row>
@@ -14533,7 +14536,7 @@
         <v>19</v>
       </c>
       <c r="D493" s="26" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H493" s="26"/>
     </row>
@@ -14548,14 +14551,14 @@
         <v>19</v>
       </c>
       <c r="D494" s="26" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E494" s="35" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="H494" s="26"/>
       <c r="I494" s="36" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -14569,7 +14572,7 @@
         <v>16</v>
       </c>
       <c r="D495" s="26" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H495" s="26"/>
     </row>
@@ -14584,7 +14587,7 @@
         <v>19</v>
       </c>
       <c r="D496" s="26" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="H496" s="26"/>
     </row>
@@ -14599,7 +14602,7 @@
         <v>14</v>
       </c>
       <c r="D497" s="26" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H497" s="26"/>
     </row>
@@ -14614,7 +14617,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="26" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H498" s="26"/>
     </row>
@@ -14629,11 +14632,11 @@
         <v>9</v>
       </c>
       <c r="D499" s="26" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H499" s="26"/>
       <c r="I499" s="36" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -14647,10 +14650,10 @@
         <v>6</v>
       </c>
       <c r="D500" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E500" s="35" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="H500" s="26"/>
     </row>
@@ -14665,10 +14668,10 @@
         <v>10</v>
       </c>
       <c r="D501" s="26" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E501" s="35" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="F501">
         <v>12.5</v>
@@ -14681,7 +14684,7 @@
         <v>-4.7999999999999972</v>
       </c>
       <c r="I501" s="37" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -14695,10 +14698,10 @@
         <v>5</v>
       </c>
       <c r="D502" s="26" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E502" s="35" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="H502" s="35"/>
     </row>
@@ -14713,11 +14716,11 @@
         <v>5</v>
       </c>
       <c r="D503" s="26" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H503" s="35"/>
       <c r="I503" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -14731,7 +14734,7 @@
         <v>7</v>
       </c>
       <c r="D504" s="26" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H504" s="35"/>
     </row>
@@ -14746,7 +14749,7 @@
         <v>6</v>
       </c>
       <c r="D505" s="39" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="F505" s="35"/>
       <c r="G505" s="35"/>
@@ -14764,7 +14767,7 @@
         <v>22</v>
       </c>
       <c r="D506" s="39" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="F506" s="35"/>
       <c r="G506" s="35"/>
@@ -14782,7 +14785,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="39" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="F507" s="35"/>
       <c r="G507" s="35"/>
@@ -14793,14 +14796,14 @@
       <c r="A508" s="38">
         <v>20200123</v>
       </c>
-      <c r="B508" s="38">
+      <c r="B508" s="35">
         <v>12</v>
       </c>
-      <c r="C508" s="38">
+      <c r="C508" s="35">
         <v>11</v>
       </c>
-      <c r="D508" s="39" t="s">
-        <v>841</v>
+      <c r="D508" s="35" t="s">
+        <v>829</v>
       </c>
       <c r="F508" s="35">
         <v>9.51</v>
@@ -14813,7 +14816,7 @@
         <v>26.182965299684547</v>
       </c>
       <c r="I508" s="37" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -14821,11 +14824,13 @@
         <v>20200203</v>
       </c>
       <c r="B509" s="35">
-        <v>14</v>
-      </c>
-      <c r="C509" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="C509" s="35">
+        <v>13</v>
+      </c>
       <c r="D509" s="35" t="s">
-        <v>829</v>
+        <v>940</v>
       </c>
       <c r="F509" s="35"/>
       <c r="G509" s="35"/>
@@ -14837,11 +14842,13 @@
         <v>20200204</v>
       </c>
       <c r="B510" s="35">
-        <v>32</v>
-      </c>
-      <c r="C510" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="C510" s="35">
+        <v>29</v>
+      </c>
       <c r="D510" s="35" t="s">
-        <v>830</v>
+        <v>941</v>
       </c>
       <c r="F510" s="35"/>
       <c r="G510" s="35"/>
@@ -14853,11 +14860,13 @@
         <v>20200205</v>
       </c>
       <c r="B511" s="35">
-        <v>66</v>
-      </c>
-      <c r="C511" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="C511" s="35">
+        <v>62</v>
+      </c>
       <c r="D511" s="35" t="s">
-        <v>831</v>
+        <v>942</v>
       </c>
       <c r="F511" s="35"/>
       <c r="G511" s="35"/>
@@ -14871,9 +14880,11 @@
       <c r="B512" s="35">
         <v>106</v>
       </c>
-      <c r="C512" s="35"/>
+      <c r="C512" s="35">
+        <v>90</v>
+      </c>
       <c r="D512" s="35" t="s">
-        <v>832</v>
+        <v>943</v>
       </c>
       <c r="F512" s="35"/>
       <c r="G512" s="35"/>
@@ -14885,11 +14896,13 @@
         <v>20200207</v>
       </c>
       <c r="B513" s="35">
-        <v>84</v>
-      </c>
-      <c r="C513" s="35"/>
+        <v>87</v>
+      </c>
+      <c r="C513" s="35">
+        <v>70</v>
+      </c>
       <c r="D513" s="35" t="s">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="F513" s="35">
         <v>16.920000000000002</v>
@@ -14902,7 +14915,7 @@
         <v>26.47754137115837</v>
       </c>
       <c r="I513" s="37" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -14912,15 +14925,17 @@
       <c r="B514" s="35">
         <v>33</v>
       </c>
-      <c r="C514" s="35"/>
+      <c r="C514" s="35">
+        <v>25</v>
+      </c>
       <c r="D514" s="35" t="s">
-        <v>834</v>
+        <v>945</v>
       </c>
       <c r="F514" s="35"/>
       <c r="G514" s="35"/>
       <c r="H514" s="35"/>
       <c r="I514" s="36" t="s">
-        <v>835</v>
+        <v>939</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -14928,31 +14943,36 @@
         <v>20200211</v>
       </c>
       <c r="B515" s="35">
-        <v>17</v>
-      </c>
-      <c r="C515" s="35"/>
+        <v>16</v>
+      </c>
+      <c r="C515" s="35">
+        <v>10</v>
+      </c>
       <c r="D515" s="35" t="s">
-        <v>836</v>
+        <v>946</v>
       </c>
       <c r="E515" s="35" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="F515" s="35"/>
       <c r="G515" s="35"/>
       <c r="H515" s="35"/>
       <c r="I515" s="36" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="28.8">
       <c r="A516">
         <v>20200212</v>
       </c>
-      <c r="B516">
+      <c r="B516" s="35">
         <v>15</v>
       </c>
+      <c r="C516" s="35">
+        <v>10</v>
+      </c>
       <c r="D516" s="35" t="s">
-        <v>837</v>
+        <v>947</v>
       </c>
       <c r="F516">
         <v>23.73</v>
@@ -14965,22 +14985,25 @@
         <v>-20.775389801938474</v>
       </c>
       <c r="I516" s="23" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
     </row>
     <row r="517" spans="1:9">
       <c r="A517">
         <v>20200213</v>
       </c>
-      <c r="B517">
+      <c r="B517" s="35">
         <v>21</v>
       </c>
+      <c r="C517" s="35">
+        <v>15</v>
+      </c>
       <c r="D517" s="35" t="s">
-        <v>846</v>
+        <v>948</v>
       </c>
       <c r="H517" s="35"/>
       <c r="I517" s="36" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -14994,7 +15017,7 @@
         <v>10</v>
       </c>
       <c r="D518" s="35" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="F518">
         <v>9.5</v>
@@ -15007,7 +15030,7 @@
         <v>8.3157894736842017</v>
       </c>
       <c r="I518" s="37" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -15021,7 +15044,7 @@
         <v>32</v>
       </c>
       <c r="D519" s="35" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -15035,7 +15058,7 @@
         <v>41</v>
       </c>
       <c r="D520" s="35" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -15049,10 +15072,10 @@
         <v>22</v>
       </c>
       <c r="D521" s="35" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="I521" s="37" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="522" spans="1:9">
@@ -15066,13 +15089,13 @@
         <v>19</v>
       </c>
       <c r="D522" s="35" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E522" s="35" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="I522" s="37" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -15086,10 +15109,10 @@
         <v>26</v>
       </c>
       <c r="D523" s="35" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E523" s="35" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="I523" s="37"/>
     </row>
@@ -15104,7 +15127,7 @@
         <v>38</v>
       </c>
       <c r="D524" s="35" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="I524" s="37"/>
     </row>
@@ -15119,7 +15142,7 @@
         <v>52</v>
       </c>
       <c r="D525" s="35" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="I525" s="37"/>
     </row>
@@ -15134,13 +15157,13 @@
         <v>30</v>
       </c>
       <c r="D526" s="35" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="E526" s="35" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I526" s="37" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -15154,10 +15177,10 @@
         <v>17</v>
       </c>
       <c r="D527" s="35" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="I527" s="37" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -15171,13 +15194,13 @@
         <v>8</v>
       </c>
       <c r="D528" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="E528" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="I528" s="37" t="s">
         <v>922</v>
-      </c>
-      <c r="E528" s="35" t="s">
-        <v>932</v>
-      </c>
-      <c r="I528" s="37" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -15185,10 +15208,10 @@
         <v>20200229</v>
       </c>
       <c r="E529" s="35" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="I529" s="35" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="43.2">
@@ -15196,10 +15219,10 @@
         <v>20200302</v>
       </c>
       <c r="E530" s="35" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="I530" s="24" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -15207,7 +15230,7 @@
         <v>20200303</v>
       </c>
       <c r="E531" s="35" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
     </row>
     <row r="532" spans="1:9">
@@ -15220,10 +15243,10 @@
         <v>20200305</v>
       </c>
       <c r="E533" s="35" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="I533" s="37" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -21216,8 +21239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -21241,52 +21264,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="28" customFormat="1" ht="60.6" thickBot="1">
       <c r="A1" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>798</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>799</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>801</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>851</v>
-      </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>803</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>852</v>
-      </c>
-      <c r="L1" s="28" t="s">
+      <c r="N1" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="O1" s="29" t="s">
         <v>804</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>805</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>807</v>
-      </c>
       <c r="P1" s="28" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1"/>
@@ -21316,19 +21339,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="32" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>809</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>810</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>811</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>812</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="765">
   <si>
     <t>date</t>
   </si>
@@ -2320,9 +2320,6 @@
     <t>7-和胜股份-002824.SZ-非实体-广东-16.0</t>
   </si>
   <si>
-    <t>3-斯莱克-300382.SZ-实体-江苏-23.0</t>
-  </si>
-  <si>
     <t>7-世纪天鸿-300654.SZ</t>
   </si>
   <si>
@@ -2341,59 +2338,6 @@
   </si>
   <si>
     <t>选湘电股份 成交额大|通风电子涨停板没封死不算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉钟精机，斯莱克，克劳斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>宏润建设，汉钟精机，斯莱克，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>克劳斯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3-克劳斯-600579.SH&amp;&amp;宏润建设&amp;&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>汉钟精机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;&amp;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏润建设，克劳斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2509,10 +2453,6 @@
   <si>
     <t>【从头都是到最后一个板开板之前都是一字板】 7个板【含7板】以上放弃 无量 
 如果最后爆量 隔日低开 还是可以考虑的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-宏润建设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2544,13 +2484,49 @@
   <si>
     <t>可以使用半路战法解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-宏润建设-002062.SZ-实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>3-汉钟精机-002158.SZ&amp;&amp;3-克劳斯-600579.SH&amp;&amp;3-斯莱克-300382.SZ</t>
+  </si>
+  <si>
+    <t>4-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>4-克劳斯-600579.SH&amp;&amp;4-斯莱克-300382.SZ&amp;&amp;4-汉钟精机-002158.SZ</t>
+  </si>
+  <si>
+    <t>5-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>5-克劳斯-600579.SH&amp;&amp;5-汉钟精机-002158.SZ</t>
+  </si>
+  <si>
+    <t>6-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>6-克劳斯-600579.SH</t>
+  </si>
+  <si>
+    <t>7-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>7-克劳斯-600579.SH</t>
+  </si>
+  <si>
+    <t>8-宏润建设-002062.SZ-实体-浙江-28.0</t>
+  </si>
+  <si>
+    <t>8-保变电气-600550.SH-实体-河北-42.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2715,14 +2691,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3325,256 +3293,256 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3621,7 +3589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3645,13 +3613,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3660,25 +3628,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3690,13 +3658,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="84">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="84">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4136,23 +4104,23 @@
   <dimension ref="A1:J534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D495" sqref="D495:E495"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="E534"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.6640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8866,10 +8834,10 @@
         <v>440</v>
       </c>
       <c r="E278" s="35" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I278" s="35" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9505,7 +9473,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="35" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E309" s="35" t="s">
         <v>659</v>
@@ -9521,7 +9489,7 @@
         <v>7.5268817204301026</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -9623,7 +9591,7 @@
         <v>475</v>
       </c>
       <c r="I314" s="36" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -9810,7 +9778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="54">
+    <row r="325" spans="1:9" ht="57.6">
       <c r="A325">
         <v>20190426</v>
       </c>
@@ -9824,7 +9792,7 @@
         <v>13</v>
       </c>
       <c r="I325" s="23" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -10126,7 +10094,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="40.5">
+    <row r="341" spans="1:9" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -10143,7 +10111,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="27">
+    <row r="342" spans="1:9" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -10160,7 +10128,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="27">
+    <row r="343" spans="1:9" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -10264,7 +10232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="27">
+    <row r="348" spans="1:9" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -10391,7 +10359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="27">
+    <row r="355" spans="1:10" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -10586,7 +10554,7 @@
       </c>
       <c r="H365" s="4"/>
       <c r="I365" s="36" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -11509,7 +11477,7 @@
       </c>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:10" ht="27">
+    <row r="416" spans="1:10" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -11533,7 +11501,7 @@
       </c>
       <c r="H416" s="13"/>
       <c r="I416" s="24" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -11554,7 +11522,7 @@
       </c>
       <c r="H417" s="13"/>
       <c r="I417" s="35" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -11602,7 +11570,7 @@
       </c>
       <c r="H419" s="13"/>
       <c r="I419" s="36" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -11769,7 +11737,7 @@
         <v>68.5</v>
       </c>
       <c r="I427" s="37" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -12441,7 +12409,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="27">
+    <row r="467" spans="1:9" ht="28.8">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -12798,7 +12766,7 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="I484" s="37" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -12871,7 +12839,7 @@
         <v>8.6666666666666607</v>
       </c>
       <c r="I488" s="37" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -12979,7 +12947,7 @@
       </c>
       <c r="H494" s="26"/>
       <c r="I494" s="36" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -13057,7 +13025,7 @@
       </c>
       <c r="H499" s="26"/>
       <c r="I499" s="36" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -13105,7 +13073,7 @@
         <v>-4.7999999999999972</v>
       </c>
       <c r="I501" s="37" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -13251,7 +13219,7 @@
         <v>13</v>
       </c>
       <c r="D509" s="35" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F509" s="35"/>
       <c r="G509" s="35"/>
@@ -13269,7 +13237,7 @@
         <v>29</v>
       </c>
       <c r="D510" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F510" s="35"/>
       <c r="G510" s="35"/>
@@ -13287,7 +13255,7 @@
         <v>62</v>
       </c>
       <c r="D511" s="35" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F511" s="35"/>
       <c r="G511" s="35"/>
@@ -13305,7 +13273,7 @@
         <v>90</v>
       </c>
       <c r="D512" s="35" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F512" s="35"/>
       <c r="G512" s="35"/>
@@ -13323,7 +13291,7 @@
         <v>70</v>
       </c>
       <c r="D513" s="35" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F513" s="35">
         <v>16.920000000000002</v>
@@ -13350,13 +13318,13 @@
         <v>25</v>
       </c>
       <c r="D514" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F514" s="35"/>
       <c r="G514" s="35"/>
       <c r="H514" s="35"/>
       <c r="I514" s="36" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -13370,10 +13338,10 @@
         <v>10</v>
       </c>
       <c r="D515" s="35" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E515" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F515" s="35"/>
       <c r="G515" s="35"/>
@@ -13382,7 +13350,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="40.5">
+    <row r="516" spans="1:9" ht="43.2">
       <c r="A516">
         <v>20200212</v>
       </c>
@@ -13393,7 +13361,7 @@
         <v>10</v>
       </c>
       <c r="D516" s="35" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F516">
         <v>23.73</v>
@@ -13403,7 +13371,7 @@
       </c>
       <c r="H516" s="35"/>
       <c r="I516" s="23" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -13417,7 +13385,7 @@
         <v>15</v>
       </c>
       <c r="D517" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H517" s="35"/>
       <c r="I517" s="36" t="s">
@@ -13513,11 +13481,11 @@
         <v>704</v>
       </c>
       <c r="E522" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H522" s="35"/>
       <c r="I522" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -13534,7 +13502,7 @@
         <v>705</v>
       </c>
       <c r="E523" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H523" s="35"/>
       <c r="I523" s="37"/>
@@ -13594,7 +13562,7 @@
         <v>708</v>
       </c>
       <c r="E526" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F526">
         <v>12.1</v>
@@ -13607,7 +13575,7 @@
         <v>-7.9338842975206534</v>
       </c>
       <c r="I526" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -13625,7 +13593,7 @@
       </c>
       <c r="H527" s="35"/>
       <c r="I527" s="37" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -13633,16 +13601,16 @@
         <v>20200228</v>
       </c>
       <c r="B528" s="35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C528" s="35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D528" s="35" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="E528" s="35" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
       <c r="F528">
         <v>14</v>
@@ -13655,18 +13623,24 @@
         <v>16.071428571428573</v>
       </c>
       <c r="I528" s="37" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="529" spans="1:9">
       <c r="A529" s="35">
-        <v>20200229</v>
+        <v>20200302</v>
+      </c>
+      <c r="B529" s="35">
+        <v>20</v>
+      </c>
+      <c r="C529" s="35">
+        <v>15</v>
       </c>
       <c r="D529" s="35" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="E529" s="35" t="s">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="F529">
         <v>8.14</v>
@@ -13679,68 +13653,95 @@
         <v>46.191646191646186</v>
       </c>
       <c r="I529" s="35" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" ht="40.5">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="43.2">
       <c r="A530" s="35">
-        <v>20200302</v>
+        <v>20200303</v>
+      </c>
+      <c r="B530" s="35">
+        <v>48</v>
+      </c>
+      <c r="C530" s="35">
+        <v>40</v>
       </c>
       <c r="D530" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="E530" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="I530" s="24" t="s">
         <v>717</v>
-      </c>
-      <c r="E530" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="I530" s="24" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="531" spans="1:9">
       <c r="A531" s="35">
-        <v>20200303</v>
+        <v>20200304</v>
+      </c>
+      <c r="B531" s="35">
+        <v>32</v>
+      </c>
+      <c r="C531" s="35">
+        <v>23</v>
       </c>
       <c r="D531" s="35" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
       <c r="E531" s="35" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="532" spans="1:9">
       <c r="A532" s="35">
-        <v>20200304</v>
+        <v>20200305</v>
+      </c>
+      <c r="B532" s="35">
+        <v>41</v>
+      </c>
+      <c r="C532" s="35">
+        <v>32</v>
       </c>
       <c r="D532" s="35" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="E532" s="35" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
     </row>
     <row r="533" spans="1:9">
       <c r="A533" s="35">
-        <v>20200305</v>
+        <v>20200306</v>
+      </c>
+      <c r="B533" s="35">
+        <v>34</v>
+      </c>
+      <c r="C533" s="35">
+        <v>27</v>
       </c>
       <c r="D533" s="35" t="s">
-        <v>720</v>
-      </c>
-      <c r="E533" s="35" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="I533" s="37" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="534" spans="1:9">
       <c r="A534" s="35">
-        <v>20200306</v>
+        <v>20200309</v>
+      </c>
+      <c r="B534" s="35">
+        <v>23</v>
+      </c>
+      <c r="C534" s="35">
+        <v>18</v>
       </c>
       <c r="D534" s="35" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="I534" s="37" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -13768,14 +13769,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -13792,7 +13793,7 @@
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -15278,7 +15279,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -16780,7 +16781,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -18726,7 +18727,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -19476,7 +19477,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -19746,26 +19747,26 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="60.75" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="60.6" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>597</v>
       </c>
@@ -19806,7 +19807,7 @@
         <v>606</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="O1" s="29" t="s">
         <v>607</v>
@@ -19815,7 +19816,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25" thickTop="1"/>
+    <row r="2" spans="1:16" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19831,16 +19832,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>609</v>
       </c>
@@ -19857,7 +19858,7 @@
         <v>613</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -19872,7 +19873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="761">
   <si>
     <t>date</t>
   </si>
@@ -2503,10 +2503,6 @@
     <t>8-秀强股份-300160.SZ-非实体-江苏-25.0</t>
   </si>
   <si>
-    <t>减持放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【从头都是到最后一个板开板之前都是一字板】 7个板【含7板】以上放弃 无量 
 如果最后爆量 隔日低开 还是可以考虑的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2543,6 +2539,18 @@
   </si>
   <si>
     <t>可以使用半路战法解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-保变电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-保变电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-保变电气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4133,11 +4141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J534"/>
+  <dimension ref="A1:J537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D495" sqref="D495:E495"/>
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I534" sqref="I534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9505,7 +9513,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E309" s="35" t="s">
         <v>659</v>
@@ -9521,7 +9529,7 @@
         <v>7.5268817204301026</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -9623,7 +9631,7 @@
         <v>475</v>
       </c>
       <c r="I314" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -9824,7 +9832,7 @@
         <v>13</v>
       </c>
       <c r="I325" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -13403,7 +13411,7 @@
       </c>
       <c r="H516" s="35"/>
       <c r="I516" s="23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -13603,7 +13611,7 @@
         <v>11.14</v>
       </c>
       <c r="H526" s="35">
-        <f t="shared" ref="H526:H529" si="10">(G526-F526)/F526*100</f>
+        <f t="shared" ref="H526:H535" si="10">(G526-F526)/F526*100</f>
         <v>-7.9338842975206534</v>
       </c>
       <c r="I526" s="37" t="s">
@@ -13678,7 +13686,7 @@
         <f t="shared" si="10"/>
         <v>46.191646191646186</v>
       </c>
-      <c r="I529" s="35" t="s">
+      <c r="I529" s="37" t="s">
         <v>729</v>
       </c>
     </row>
@@ -13692,6 +13700,7 @@
       <c r="E530" s="35" t="s">
         <v>717</v>
       </c>
+      <c r="H530" s="35"/>
       <c r="I530" s="24" t="s">
         <v>722</v>
       </c>
@@ -13706,6 +13715,7 @@
       <c r="E531" s="35" t="s">
         <v>720</v>
       </c>
+      <c r="H531" s="35"/>
     </row>
     <row r="532" spans="1:9">
       <c r="A532" s="35">
@@ -13717,6 +13727,7 @@
       <c r="E532" s="35" t="s">
         <v>720</v>
       </c>
+      <c r="H532" s="35"/>
     </row>
     <row r="533" spans="1:9">
       <c r="A533" s="35">
@@ -13728,6 +13739,7 @@
       <c r="E533" s="35" t="s">
         <v>720</v>
       </c>
+      <c r="H533" s="35"/>
       <c r="I533" s="37" t="s">
         <v>721</v>
       </c>
@@ -13737,10 +13749,48 @@
         <v>20200306</v>
       </c>
       <c r="D534" s="35" t="s">
-        <v>751</v>
-      </c>
-      <c r="I534" s="37" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="H534" s="35"/>
+      <c r="I534" s="36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" s="35">
+        <v>20200309</v>
+      </c>
+      <c r="D535" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="F535">
+        <v>6.89</v>
+      </c>
+      <c r="G535">
+        <v>8.1</v>
+      </c>
+      <c r="H535" s="35">
+        <f t="shared" si="10"/>
+        <v>17.561683599419446</v>
+      </c>
+      <c r="I535" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" s="35">
+        <v>20200310</v>
+      </c>
+      <c r="D536" s="35" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" s="35">
+        <v>20200311</v>
+      </c>
+      <c r="D537" s="35" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -13772,10 +13822,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>756</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -19857,7 +19907,7 @@
         <v>613</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="767">
   <si>
     <t>date</t>
   </si>
@@ -2551,6 +2551,30 @@
   </si>
   <si>
     <t>10-保变电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-海特生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量加分 7.29跌停卖掉 美股暴跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续8个一字板以上 一字板太多 高度太高 美股暴跌9.9% 除非跌停开盘 否则放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-顺威股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交额大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-华脉科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4141,11 +4165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J537"/>
+  <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I534" sqref="I534"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13767,14 +13791,14 @@
         <v>6.89</v>
       </c>
       <c r="G535">
-        <v>8.1</v>
+        <v>7.29</v>
       </c>
       <c r="H535" s="35">
         <f t="shared" si="10"/>
-        <v>17.561683599419446</v>
+        <v>5.8055152394775096</v>
       </c>
       <c r="I535" s="37" t="s">
-        <v>147</v>
+        <v>762</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -13791,6 +13815,31 @@
       </c>
       <c r="D537" s="35" t="s">
         <v>760</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" s="35">
+        <v>20200312</v>
+      </c>
+      <c r="D538" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="I538" s="36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" s="35">
+        <v>20200313</v>
+      </c>
+      <c r="D539" s="35" t="s">
+        <v>764</v>
+      </c>
+      <c r="E539" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="I539" s="37" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="795">
   <si>
     <t>date</t>
   </si>
@@ -2341,10 +2341,6 @@
   </si>
   <si>
     <t>选湘电股份 成交额大|通风电子涨停板没封死不算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉钟精机，斯莱克，克劳斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2393,10 +2389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宏润建设，克劳斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宏润建设一字缩量放弃 克劳斯持仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2505,10 +2497,6 @@
   <si>
     <t>【从头都是到最后一个板开板之前都是一字板】 7个板【含7板】以上放弃 无量 
 如果最后爆量 隔日低开 还是可以考虑的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-宏润建设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2542,39 +2530,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8-保变电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-保变电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-保变电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-海特生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放量加分 7.29跌停卖掉 美股暴跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连续8个一字板以上 一字板太多 高度太高 美股暴跌9.9% 除非跌停开盘 否则放弃</t>
+    <t>4-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>4-克劳斯-600579.SH&amp;&amp;4-斯莱克-300382.SZ&amp;&amp;4-汉钟精机-002158.SZ</t>
+  </si>
+  <si>
+    <t>5-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>5-克劳斯-600579.SH&amp;&amp;5-汉钟精机-002158.SZ</t>
+  </si>
+  <si>
+    <t>6-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>6-克劳斯-600579.SH</t>
+  </si>
+  <si>
+    <t>7-宏润建设-002062.SZ-非实体-浙江-24.0</t>
+  </si>
+  <si>
+    <t>7-克劳斯-600579.SH</t>
+  </si>
+  <si>
+    <t>8-宏润建设-002062.SZ-实体-浙江-28.0</t>
+  </si>
+  <si>
+    <t>8-保变电气-600550.SH-实体-河北-42.0</t>
+  </si>
+  <si>
+    <t>9-保变电气-600550.SH-实体-河北-49.0</t>
+  </si>
+  <si>
+    <t>10-保变电气-600550.SH-实体-河北-52.0</t>
+  </si>
+  <si>
+    <t>10-海特生物-300683.SZ-实体-湖北-0.0</t>
+  </si>
+  <si>
+    <t>5-顺威股份-002676.SZ-实体-广东-10.0</t>
+  </si>
+  <si>
+    <t>5-华脉科技-603042.SH</t>
+  </si>
+  <si>
+    <t>保变电气跌停 放弃
+连续8个一字板以上 一字板太多 高度太高 美股暴跌9.9% 除非跌停开盘 否则放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-顺威股份</t>
+    <t>这段时间美股在暴跌 前所未有
+亚通股份跌停掉队【跌停淘汰，除非利空，否则情绪极坏】 全球股灾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成交额大</t>
+    <t>前龙大面 放弃空仓
+通达股份股份跌停掉队【跌停淘汰，除非利空，否则情绪极坏】 全球股灾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-华脉科技</t>
+    <t>买入亚通股份 理由成交额大 通达股份也是买入机会 但是美股暴跌
+京投发展跌停掉队【跌停淘汰，除非利空，否则情绪极坏】 全球股灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天买入，收盘跌停，隔天核按钮 前所未有【前龙顺威股份跌停】 全球股灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天买入，收盘涨停，隔天快速跌停出不来的，再隔天收盘再卖出
+当天买入，收盘跌停，隔天核按钮 全球股灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-顺威股份-002676.SZ-实体-广东-21.0</t>
+  </si>
+  <si>
+    <t>3-永安林业-000663.SZ-实体-福建-8.0</t>
+  </si>
+  <si>
+    <t>3-新天药业-002873.SZ&amp;&amp;3-亚通股份-600692.SH&amp;&amp;3-京投发展-600683.SH&amp;&amp;3-通达股份-002560.SZ</t>
+  </si>
+  <si>
+    <t>4-通达股份-002560.SZ-实体-河南-13.0</t>
+  </si>
+  <si>
+    <t>4-亚通股份-600692.SH&amp;&amp;4-新天药业-002873.SZ</t>
+  </si>
+  <si>
+    <t>5-通达股份-002560.SZ-实体-河南-19.0</t>
+  </si>
+  <si>
+    <t>5-新天药业-002873.SZ</t>
+  </si>
+  <si>
+    <t>4-日丰股份-002953.SZ-实体-广东-19.0</t>
+  </si>
+  <si>
+    <t>4-蓝英装备-300293.SZ</t>
+  </si>
+  <si>
+    <t>5-蓝英装备-300293.SZ-实体-辽宁-13.0</t>
+  </si>
+  <si>
+    <t>成交额大 顺威股份 
+前龙海特生物跌停 放弃 全球股灾
+华脉科技大面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-中嘉博创-000889.SZ-实体-河北-13.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-通润装备-002150.SZ&amp;&amp;2-金自天正-600560.SH&amp;&amp;2-哈尔斯-002615.SZ&amp;&amp;2-宜通世纪-300310.SZ&amp;&amp;2-亚威股份-002559.SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-中嘉博创&amp;&amp;3-通润装备&amp;&amp;3-金自天正&amp;&amp;3-亚威股份</t>
+  </si>
+  <si>
+    <t>3-金自天正</t>
+  </si>
+  <si>
+    <t>买入金自天正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金自天正 跌停出局 隔日放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3610,7 +3702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3729,6 +3821,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="84">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4165,11 +4272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J539"/>
+  <dimension ref="A1:J550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E534" sqref="E534"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D558" sqref="D558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8898,10 +9005,10 @@
         <v>440</v>
       </c>
       <c r="E278" s="35" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I278" s="35" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9537,7 +9644,7 @@
         <v>22</v>
       </c>
       <c r="D309" s="35" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E309" s="35" t="s">
         <v>659</v>
@@ -9553,7 +9660,7 @@
         <v>7.5268817204301026</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -9655,7 +9762,7 @@
         <v>475</v>
       </c>
       <c r="I314" s="36" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -9856,7 +9963,7 @@
         <v>13</v>
       </c>
       <c r="I325" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -10618,7 +10725,7 @@
       </c>
       <c r="H365" s="4"/>
       <c r="I365" s="36" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -11565,7 +11672,7 @@
       </c>
       <c r="H416" s="13"/>
       <c r="I416" s="24" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -11586,7 +11693,7 @@
       </c>
       <c r="H417" s="13"/>
       <c r="I417" s="35" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -11634,7 +11741,7 @@
       </c>
       <c r="H419" s="13"/>
       <c r="I419" s="36" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -11801,7 +11908,7 @@
         <v>68.5</v>
       </c>
       <c r="I427" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -12830,7 +12937,7 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="I484" s="37" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -12903,7 +13010,7 @@
         <v>8.6666666666666607</v>
       </c>
       <c r="I488" s="37" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -13011,7 +13118,7 @@
       </c>
       <c r="H494" s="26"/>
       <c r="I494" s="36" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -13089,7 +13196,7 @@
       </c>
       <c r="H499" s="26"/>
       <c r="I499" s="36" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -13137,7 +13244,7 @@
         <v>-4.7999999999999972</v>
       </c>
       <c r="I501" s="37" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -13283,7 +13390,7 @@
         <v>13</v>
       </c>
       <c r="D509" s="35" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F509" s="35"/>
       <c r="G509" s="35"/>
@@ -13301,7 +13408,7 @@
         <v>29</v>
       </c>
       <c r="D510" s="35" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F510" s="35"/>
       <c r="G510" s="35"/>
@@ -13319,7 +13426,7 @@
         <v>62</v>
       </c>
       <c r="D511" s="35" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F511" s="35"/>
       <c r="G511" s="35"/>
@@ -13337,7 +13444,7 @@
         <v>90</v>
       </c>
       <c r="D512" s="35" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F512" s="35"/>
       <c r="G512" s="35"/>
@@ -13355,7 +13462,7 @@
         <v>70</v>
       </c>
       <c r="D513" s="35" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F513" s="35">
         <v>16.920000000000002</v>
@@ -13382,13 +13489,13 @@
         <v>25</v>
       </c>
       <c r="D514" s="35" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F514" s="35"/>
       <c r="G514" s="35"/>
       <c r="H514" s="35"/>
       <c r="I514" s="36" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -13402,7 +13509,7 @@
         <v>10</v>
       </c>
       <c r="D515" s="35" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E515" s="35" t="s">
         <v>711</v>
@@ -13425,7 +13532,7 @@
         <v>10</v>
       </c>
       <c r="D516" s="35" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F516">
         <v>23.73</v>
@@ -13435,7 +13542,7 @@
       </c>
       <c r="H516" s="35"/>
       <c r="I516" s="23" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -13449,7 +13556,7 @@
         <v>15</v>
       </c>
       <c r="D517" s="35" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H517" s="35"/>
       <c r="I517" s="36" t="s">
@@ -13635,7 +13742,7 @@
         <v>11.14</v>
       </c>
       <c r="H526" s="35">
-        <f t="shared" ref="H526:H535" si="10">(G526-F526)/F526*100</f>
+        <f t="shared" ref="H526:H547" si="10">(G526-F526)/F526*100</f>
         <v>-7.9338842975206534</v>
       </c>
       <c r="I526" s="37" t="s">
@@ -13657,24 +13764,24 @@
       </c>
       <c r="H527" s="35"/>
       <c r="I527" s="37" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="528" spans="1:9">
-      <c r="A528" s="35">
+      <c r="A528" s="40">
         <v>20200228</v>
       </c>
-      <c r="B528" s="35">
-        <v>12</v>
-      </c>
-      <c r="C528" s="35">
-        <v>8</v>
+      <c r="B528" s="40">
+        <v>14</v>
+      </c>
+      <c r="C528" s="40">
+        <v>10</v>
       </c>
       <c r="D528" s="35" t="s">
         <v>710</v>
       </c>
       <c r="E528" s="35" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F528">
         <v>14</v>
@@ -13687,7 +13794,7 @@
         <v>16.071428571428573</v>
       </c>
       <c r="I528" s="37" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -13695,10 +13802,10 @@
         <v>20200229</v>
       </c>
       <c r="D529" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E529" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F529">
         <v>8.14</v>
@@ -13711,82 +13818,120 @@
         <v>46.191646191646186</v>
       </c>
       <c r="I529" s="37" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="40.5">
-      <c r="A530" s="35">
+      <c r="A530" s="41">
         <v>20200302</v>
       </c>
-      <c r="D530" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="E530" s="35" t="s">
-        <v>717</v>
+      <c r="B530" s="41">
+        <v>20</v>
+      </c>
+      <c r="C530" s="41">
+        <v>15</v>
+      </c>
+      <c r="D530" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="E530" s="42" t="s">
+        <v>757</v>
       </c>
       <c r="H530" s="35"/>
       <c r="I530" s="24" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="531" spans="1:9">
-      <c r="A531" s="35">
+      <c r="A531" s="41">
         <v>20200303</v>
       </c>
-      <c r="D531" s="35" t="s">
-        <v>720</v>
-      </c>
-      <c r="E531" s="35" t="s">
-        <v>720</v>
+      <c r="B531" s="41">
+        <v>48</v>
+      </c>
+      <c r="C531" s="41">
+        <v>40</v>
+      </c>
+      <c r="D531" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="E531" s="42" t="s">
+        <v>759</v>
       </c>
       <c r="H531" s="35"/>
     </row>
     <row r="532" spans="1:9">
-      <c r="A532" s="35">
+      <c r="A532" s="41">
         <v>20200304</v>
       </c>
-      <c r="D532" s="35" t="s">
-        <v>720</v>
-      </c>
-      <c r="E532" s="35" t="s">
-        <v>720</v>
+      <c r="B532" s="41">
+        <v>32</v>
+      </c>
+      <c r="C532" s="41">
+        <v>23</v>
+      </c>
+      <c r="D532" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="E532" s="42" t="s">
+        <v>761</v>
       </c>
       <c r="H532" s="35"/>
     </row>
     <row r="533" spans="1:9">
-      <c r="A533" s="35">
+      <c r="A533" s="41">
         <v>20200305</v>
       </c>
-      <c r="D533" s="35" t="s">
-        <v>720</v>
-      </c>
-      <c r="E533" s="35" t="s">
-        <v>720</v>
+      <c r="B533" s="41">
+        <v>41</v>
+      </c>
+      <c r="C533" s="41">
+        <v>32</v>
+      </c>
+      <c r="D533" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="E533" s="42" t="s">
+        <v>763</v>
       </c>
       <c r="H533" s="35"/>
       <c r="I533" s="37" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="534" spans="1:9">
-      <c r="A534" s="35">
+      <c r="A534" s="41">
         <v>20200306</v>
       </c>
-      <c r="D534" s="35" t="s">
-        <v>750</v>
-      </c>
+      <c r="B534" s="41">
+        <v>34</v>
+      </c>
+      <c r="C534" s="41">
+        <v>27</v>
+      </c>
+      <c r="D534" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="E534" s="42"/>
       <c r="H534" s="35"/>
       <c r="I534" s="36" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="535" spans="1:9">
-      <c r="A535" s="35">
+      <c r="A535" s="41">
         <v>20200309</v>
       </c>
-      <c r="D535" s="35" t="s">
-        <v>758</v>
-      </c>
+      <c r="B535" s="41">
+        <v>39</v>
+      </c>
+      <c r="C535" s="41">
+        <v>32</v>
+      </c>
+      <c r="D535" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="E535" s="42"/>
       <c r="F535">
         <v>6.89</v>
       </c>
@@ -13798,48 +13943,321 @@
         <v>5.8055152394775096</v>
       </c>
       <c r="I535" s="37" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="536" spans="1:9">
-      <c r="A536" s="35">
+      <c r="A536" s="41">
         <v>20200310</v>
       </c>
-      <c r="D536" s="35" t="s">
-        <v>759</v>
-      </c>
+      <c r="B536" s="41">
+        <v>21</v>
+      </c>
+      <c r="C536" s="41">
+        <v>17</v>
+      </c>
+      <c r="D536" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="E536" s="42"/>
+      <c r="H536" s="42"/>
     </row>
     <row r="537" spans="1:9">
-      <c r="A537" s="35">
+      <c r="A537" s="41">
         <v>20200311</v>
       </c>
-      <c r="D537" s="35" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9">
-      <c r="A538" s="35">
+      <c r="B537" s="41">
+        <v>39</v>
+      </c>
+      <c r="C537" s="41">
+        <v>32</v>
+      </c>
+      <c r="D537" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="E537" s="42"/>
+      <c r="H537" s="42"/>
+    </row>
+    <row r="538" spans="1:9" ht="40.5">
+      <c r="A538" s="41">
         <v>20200312</v>
       </c>
-      <c r="D538" s="35" t="s">
-        <v>761</v>
-      </c>
-      <c r="I538" s="36" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9">
-      <c r="A539" s="35">
+      <c r="B538" s="41">
+        <v>26</v>
+      </c>
+      <c r="C538" s="41">
+        <v>21</v>
+      </c>
+      <c r="D538" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="E538" s="42"/>
+      <c r="H538" s="42"/>
+      <c r="I538" s="23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" ht="40.5">
+      <c r="A539" s="41">
         <v>20200313</v>
       </c>
-      <c r="D539" s="35" t="s">
-        <v>764</v>
-      </c>
-      <c r="E539" s="35" t="s">
-        <v>766</v>
-      </c>
-      <c r="I539" s="37" t="s">
-        <v>765</v>
+      <c r="B539" s="41">
+        <v>16</v>
+      </c>
+      <c r="C539" s="41">
+        <v>14</v>
+      </c>
+      <c r="D539" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E539" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="H539" s="42"/>
+      <c r="I539" s="24" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="27">
+      <c r="A540" s="43">
+        <v>20200316</v>
+      </c>
+      <c r="B540" s="43">
+        <v>20</v>
+      </c>
+      <c r="C540" s="43">
+        <v>15</v>
+      </c>
+      <c r="D540" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="E540" s="44"/>
+      <c r="F540">
+        <v>5.23</v>
+      </c>
+      <c r="G540">
+        <v>5.23</v>
+      </c>
+      <c r="H540" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I540" s="24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" s="43">
+        <v>20200317</v>
+      </c>
+      <c r="B541" s="43">
+        <v>18</v>
+      </c>
+      <c r="C541" s="43">
+        <v>10</v>
+      </c>
+      <c r="D541" s="44" t="s">
+        <v>779</v>
+      </c>
+      <c r="E541" s="44" t="s">
+        <v>780</v>
+      </c>
+      <c r="F541">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G541">
+        <v>4.37</v>
+      </c>
+      <c r="H541" s="42">
+        <f t="shared" si="10"/>
+        <v>-10.082304526748976</v>
+      </c>
+      <c r="I541" s="36" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" ht="27">
+      <c r="A542" s="43">
+        <v>20200318</v>
+      </c>
+      <c r="B542" s="43">
+        <v>19</v>
+      </c>
+      <c r="C542" s="43">
+        <v>13</v>
+      </c>
+      <c r="D542" s="44" t="s">
+        <v>781</v>
+      </c>
+      <c r="E542" s="44" t="s">
+        <v>782</v>
+      </c>
+      <c r="F542">
+        <v>7.86</v>
+      </c>
+      <c r="G542">
+        <v>7.5</v>
+      </c>
+      <c r="H542" s="42">
+        <f t="shared" si="10"/>
+        <v>-4.5801526717557293</v>
+      </c>
+      <c r="I542" s="24" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="27">
+      <c r="A543" s="43">
+        <v>20200319</v>
+      </c>
+      <c r="B543" s="43">
+        <v>19</v>
+      </c>
+      <c r="C543" s="43">
+        <v>15</v>
+      </c>
+      <c r="D543" s="44" t="s">
+        <v>783</v>
+      </c>
+      <c r="E543" s="44" t="s">
+        <v>784</v>
+      </c>
+      <c r="F543">
+        <v>9.42</v>
+      </c>
+      <c r="G543">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H543" s="42">
+        <f t="shared" si="10"/>
+        <v>-4.7770700636942598</v>
+      </c>
+      <c r="I543" s="23" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="27">
+      <c r="A544" s="43">
+        <v>20200320</v>
+      </c>
+      <c r="B544" s="43">
+        <v>16</v>
+      </c>
+      <c r="C544" s="43">
+        <v>13</v>
+      </c>
+      <c r="D544" s="44" t="s">
+        <v>785</v>
+      </c>
+      <c r="E544" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="H544" s="44"/>
+      <c r="I544" s="23" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" s="43">
+        <v>20200323</v>
+      </c>
+      <c r="B545" s="43">
+        <v>16</v>
+      </c>
+      <c r="C545" s="43">
+        <v>11</v>
+      </c>
+      <c r="D545" s="44" t="s">
+        <v>787</v>
+      </c>
+      <c r="E545" s="44"/>
+      <c r="F545">
+        <v>13.53</v>
+      </c>
+      <c r="G545">
+        <v>13.48</v>
+      </c>
+      <c r="H545" s="44">
+        <f t="shared" si="10"/>
+        <v>-0.36954915003694705</v>
+      </c>
+      <c r="I545" s="36" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" s="43">
+        <v>20200324</v>
+      </c>
+      <c r="B546" s="43">
+        <v>8</v>
+      </c>
+      <c r="C546" s="43">
+        <v>6</v>
+      </c>
+      <c r="D546" s="44" t="s">
+        <v>789</v>
+      </c>
+      <c r="E546" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="H546" s="44"/>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547">
+        <v>20200325</v>
+      </c>
+      <c r="B547">
+        <v>17</v>
+      </c>
+      <c r="C547">
+        <v>10</v>
+      </c>
+      <c r="D547" t="s">
+        <v>792</v>
+      </c>
+      <c r="E547" s="35" t="s">
+        <v>791</v>
+      </c>
+      <c r="F547">
+        <v>12.57</v>
+      </c>
+      <c r="G547">
+        <v>10.86</v>
+      </c>
+      <c r="H547" s="44">
+        <f t="shared" si="10"/>
+        <v>-13.603818615751798</v>
+      </c>
+      <c r="I547" s="36" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" s="44">
+        <v>20200326</v>
+      </c>
+      <c r="B548">
+        <v>14</v>
+      </c>
+      <c r="I548" s="36" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" s="44">
+        <v>20200327</v>
+      </c>
+      <c r="B549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" s="44">
+        <v>20200330</v>
+      </c>
+      <c r="B550">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -13871,10 +14289,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -19905,7 +20323,7 @@
         <v>606</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="O1" s="29" t="s">
         <v>607</v>
@@ -19956,7 +20374,7 @@
         <v>613</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="810">
   <si>
     <t>date</t>
   </si>
@@ -2603,11 +2603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当天买入，收盘涨停，隔天快速跌停出不来的，再隔天收盘再卖出
-当天买入，收盘跌停，隔天核按钮 全球股灾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2662,11 +2657,77 @@
     <t>3-金自天正</t>
   </si>
   <si>
-    <t>买入金自天正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金自天正 跌停出局 隔日放弃</t>
+    <t>4-金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金自天正 跌停出局 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-继峰股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-继峰股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回暖 半仓 金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天买入，收盘涨停，隔天快速跌停出不来的，再隔天收盘再卖出
+当天买入，收盘跌停，隔天核按钮 全球股灾
+华脉科技大面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金自天正 1/4仓位 情绪股继续崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-继峰股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-天夏智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继峰股份跌停 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-云内动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天夏智慧跌停 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-神州泰岳，海联金汇，中嘉博创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云内动力跌停 放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-江南高纤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-江南高纤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4272,11 +4333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J550"/>
+  <dimension ref="A1:J561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D558" sqref="D558"/>
+      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H554" sqref="H554:H560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10107,10 +10168,6 @@
       <c r="G332">
         <v>6.46</v>
       </c>
-      <c r="H332">
-        <f t="shared" si="5"/>
-        <v>3.0303030303030365</v>
-      </c>
       <c r="I332" s="21" t="s">
         <v>522</v>
       </c>
@@ -13742,7 +13799,7 @@
         <v>11.14</v>
       </c>
       <c r="H526" s="35">
-        <f t="shared" ref="H526:H547" si="10">(G526-F526)/F526*100</f>
+        <f t="shared" ref="H526:H561" si="10">(G526-F526)/F526*100</f>
         <v>-7.9338842975206534</v>
       </c>
       <c r="I526" s="37" t="s">
@@ -14014,11 +14071,11 @@
         <v>770</v>
       </c>
       <c r="H539" s="42"/>
-      <c r="I539" s="24" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" ht="27">
+      <c r="I539" s="23" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="40.5">
       <c r="A540" s="43">
         <v>20200316</v>
       </c>
@@ -14029,7 +14086,7 @@
         <v>15</v>
       </c>
       <c r="D540" s="44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E540" s="44"/>
       <c r="F540">
@@ -14038,12 +14095,9 @@
       <c r="G540">
         <v>5.23</v>
       </c>
-      <c r="H540" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I540" s="24" t="s">
-        <v>776</v>
+      <c r="H540" s="42"/>
+      <c r="I540" s="23" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -14057,10 +14111,10 @@
         <v>10</v>
       </c>
       <c r="D541" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="E541" s="44" t="s">
         <v>779</v>
-      </c>
-      <c r="E541" s="44" t="s">
-        <v>780</v>
       </c>
       <c r="F541">
         <v>4.8600000000000003</v>
@@ -14068,10 +14122,7 @@
       <c r="G541">
         <v>4.37</v>
       </c>
-      <c r="H541" s="42">
-        <f t="shared" si="10"/>
-        <v>-10.082304526748976</v>
-      </c>
+      <c r="H541" s="42"/>
       <c r="I541" s="36" t="s">
         <v>775</v>
       </c>
@@ -14087,10 +14138,10 @@
         <v>13</v>
       </c>
       <c r="D542" s="44" t="s">
+        <v>780</v>
+      </c>
+      <c r="E542" s="44" t="s">
         <v>781</v>
-      </c>
-      <c r="E542" s="44" t="s">
-        <v>782</v>
       </c>
       <c r="F542">
         <v>7.86</v>
@@ -14098,11 +14149,8 @@
       <c r="G542">
         <v>7.5</v>
       </c>
-      <c r="H542" s="42">
-        <f t="shared" si="10"/>
-        <v>-4.5801526717557293</v>
-      </c>
-      <c r="I542" s="24" t="s">
+      <c r="H542" s="42"/>
+      <c r="I542" s="23" t="s">
         <v>774</v>
       </c>
     </row>
@@ -14117,10 +14165,10 @@
         <v>15</v>
       </c>
       <c r="D543" s="44" t="s">
+        <v>782</v>
+      </c>
+      <c r="E543" s="44" t="s">
         <v>783</v>
-      </c>
-      <c r="E543" s="44" t="s">
-        <v>784</v>
       </c>
       <c r="F543">
         <v>9.42</v>
@@ -14128,10 +14176,7 @@
       <c r="G543">
         <v>8.9700000000000006</v>
       </c>
-      <c r="H543" s="42">
-        <f t="shared" si="10"/>
-        <v>-4.7770700636942598</v>
-      </c>
+      <c r="H543" s="42"/>
       <c r="I543" s="23" t="s">
         <v>772</v>
       </c>
@@ -14147,10 +14192,10 @@
         <v>13</v>
       </c>
       <c r="D544" s="44" t="s">
+        <v>784</v>
+      </c>
+      <c r="E544" s="44" t="s">
         <v>785</v>
-      </c>
-      <c r="E544" s="44" t="s">
-        <v>786</v>
       </c>
       <c r="H544" s="44"/>
       <c r="I544" s="23" t="s">
@@ -14168,7 +14213,7 @@
         <v>11</v>
       </c>
       <c r="D545" s="44" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E545" s="44"/>
       <c r="F545">
@@ -14182,7 +14227,7 @@
         <v>-0.36954915003694705</v>
       </c>
       <c r="I545" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -14196,10 +14241,10 @@
         <v>6</v>
       </c>
       <c r="D546" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="E546" s="44" t="s">
         <v>789</v>
-      </c>
-      <c r="E546" s="44" t="s">
-        <v>790</v>
       </c>
       <c r="H546" s="44"/>
     </row>
@@ -14214,10 +14259,10 @@
         <v>10</v>
       </c>
       <c r="D547" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E547" s="35" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F547">
         <v>12.57</v>
@@ -14230,7 +14275,7 @@
         <v>-13.603818615751798</v>
       </c>
       <c r="I547" s="36" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -14240,8 +14285,9 @@
       <c r="B548">
         <v>14</v>
       </c>
+      <c r="H548" s="44"/>
       <c r="I548" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -14251,6 +14297,7 @@
       <c r="B549">
         <v>6</v>
       </c>
+      <c r="H549" s="44"/>
     </row>
     <row r="550" spans="1:9">
       <c r="A550" s="44">
@@ -14258,6 +14305,169 @@
       </c>
       <c r="B550">
         <v>7</v>
+      </c>
+      <c r="H550" s="44"/>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" s="44">
+        <v>20200331</v>
+      </c>
+      <c r="B551">
+        <v>8</v>
+      </c>
+      <c r="H551" s="44"/>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" s="44">
+        <v>20200401</v>
+      </c>
+      <c r="B552">
+        <v>9</v>
+      </c>
+      <c r="H552" s="44"/>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" s="44">
+        <v>20200402</v>
+      </c>
+      <c r="B553">
+        <v>12</v>
+      </c>
+      <c r="D553" s="44" t="s">
+        <v>792</v>
+      </c>
+      <c r="E553" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="F553">
+        <v>8.93</v>
+      </c>
+      <c r="G553">
+        <v>11.5</v>
+      </c>
+      <c r="H553" s="44">
+        <f t="shared" si="10"/>
+        <v>28.779395296752526</v>
+      </c>
+      <c r="I553" s="37" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" s="44">
+        <v>20200403</v>
+      </c>
+      <c r="B554">
+        <v>15</v>
+      </c>
+      <c r="D554" s="44" t="s">
+        <v>794</v>
+      </c>
+      <c r="E554" s="44" t="s">
+        <v>796</v>
+      </c>
+      <c r="H554" s="44"/>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" s="44">
+        <v>20200407</v>
+      </c>
+      <c r="B555">
+        <v>33</v>
+      </c>
+      <c r="D555" s="44" t="s">
+        <v>800</v>
+      </c>
+      <c r="E555" s="44" t="s">
+        <v>801</v>
+      </c>
+      <c r="H555" s="44"/>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" s="44">
+        <v>20200408</v>
+      </c>
+      <c r="B556">
+        <v>27</v>
+      </c>
+      <c r="D556" s="44" t="s">
+        <v>802</v>
+      </c>
+      <c r="H556" s="44"/>
+      <c r="I556" s="36" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" s="44">
+        <v>20200409</v>
+      </c>
+      <c r="B557">
+        <v>23</v>
+      </c>
+      <c r="D557" s="44" t="s">
+        <v>804</v>
+      </c>
+      <c r="H557" s="44"/>
+      <c r="I557" s="36" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" s="44">
+        <v>20200410</v>
+      </c>
+      <c r="B558">
+        <v>11</v>
+      </c>
+      <c r="D558" s="44" t="s">
+        <v>806</v>
+      </c>
+      <c r="H558" s="44"/>
+      <c r="I558" s="36" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" s="44">
+        <v>20200413</v>
+      </c>
+      <c r="B559">
+        <v>9</v>
+      </c>
+      <c r="H559" s="44"/>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" s="44">
+        <v>20200414</v>
+      </c>
+      <c r="B560">
+        <v>11</v>
+      </c>
+      <c r="D560" s="44" t="s">
+        <v>808</v>
+      </c>
+      <c r="H560" s="44"/>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" s="44">
+        <v>20200415</v>
+      </c>
+      <c r="B561">
+        <v>13</v>
+      </c>
+      <c r="D561" s="44" t="s">
+        <v>809</v>
+      </c>
+      <c r="F561">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G561">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H561" s="44">
+        <f t="shared" si="10"/>
+        <v>2.0689655172413968</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="低吸战法" sheetId="8" r:id="rId8"/>
     <sheet name="烂板战法" sheetId="9" r:id="rId9"/>
     <sheet name="半路战法" sheetId="10" r:id="rId10"/>
+    <sheet name="情绪把控" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="842">
   <si>
     <t>date</t>
   </si>
@@ -2579,11 +2580,6 @@
     <t>5-华脉科技-603042.SH</t>
   </si>
   <si>
-    <t>保变电气跌停 放弃
-连续8个一字板以上 一字板太多 高度太高 美股暴跌9.9% 除非跌停开盘 否则放弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这段时间美股在暴跌 前所未有
 亚通股份跌停掉队【跌停淘汰，除非利空，否则情绪极坏】 全球股灾</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2728,6 +2724,139 @@
   </si>
   <si>
     <t>5-江南高纤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-以岭药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以岭药业大面放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-国电南自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-国电南自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保变电气跌停 放弃
+连续8个一字板以上 一字板太多 高度太高 美股暴跌9.9% 除非跌停开盘 否则放弃【差值5个】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-新筑股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一字缩量放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京威股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深粮控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村电商+食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供销大集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村电商龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特高压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特高压+军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇金通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特高压龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-深粮控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3086,7 +3215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3266,8 +3395,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3379,6 +3514,43 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3763,7 +3935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3898,6 +4070,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="30" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="20" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="11" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="126">
@@ -4333,11 +4532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J561"/>
+  <dimension ref="A1:J566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H554" sqref="H554:H560"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13799,7 +13998,7 @@
         <v>11.14</v>
       </c>
       <c r="H526" s="35">
-        <f t="shared" ref="H526:H561" si="10">(G526-F526)/F526*100</f>
+        <f t="shared" ref="H526:H564" si="10">(G526-F526)/F526*100</f>
         <v>-7.9338842975206534</v>
       </c>
       <c r="I526" s="37" t="s">
@@ -14051,7 +14250,7 @@
       <c r="E538" s="42"/>
       <c r="H538" s="42"/>
       <c r="I538" s="23" t="s">
-        <v>771</v>
+        <v>816</v>
       </c>
     </row>
     <row r="539" spans="1:9" ht="40.5">
@@ -14072,7 +14271,7 @@
       </c>
       <c r="H539" s="42"/>
       <c r="I539" s="23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="40.5">
@@ -14086,7 +14285,7 @@
         <v>15</v>
       </c>
       <c r="D540" s="44" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E540" s="44"/>
       <c r="F540">
@@ -14097,7 +14296,7 @@
       </c>
       <c r="H540" s="42"/>
       <c r="I540" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -14111,10 +14310,10 @@
         <v>10</v>
       </c>
       <c r="D541" s="44" t="s">
+        <v>777</v>
+      </c>
+      <c r="E541" s="44" t="s">
         <v>778</v>
-      </c>
-      <c r="E541" s="44" t="s">
-        <v>779</v>
       </c>
       <c r="F541">
         <v>4.8600000000000003</v>
@@ -14124,7 +14323,7 @@
       </c>
       <c r="H541" s="42"/>
       <c r="I541" s="36" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="542" spans="1:9" ht="27">
@@ -14138,10 +14337,10 @@
         <v>13</v>
       </c>
       <c r="D542" s="44" t="s">
+        <v>779</v>
+      </c>
+      <c r="E542" s="44" t="s">
         <v>780</v>
-      </c>
-      <c r="E542" s="44" t="s">
-        <v>781</v>
       </c>
       <c r="F542">
         <v>7.86</v>
@@ -14151,7 +14350,7 @@
       </c>
       <c r="H542" s="42"/>
       <c r="I542" s="23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="543" spans="1:9" ht="27">
@@ -14165,10 +14364,10 @@
         <v>15</v>
       </c>
       <c r="D543" s="44" t="s">
+        <v>781</v>
+      </c>
+      <c r="E543" s="44" t="s">
         <v>782</v>
-      </c>
-      <c r="E543" s="44" t="s">
-        <v>783</v>
       </c>
       <c r="F543">
         <v>9.42</v>
@@ -14178,7 +14377,7 @@
       </c>
       <c r="H543" s="42"/>
       <c r="I543" s="23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="27">
@@ -14192,14 +14391,14 @@
         <v>13</v>
       </c>
       <c r="D544" s="44" t="s">
+        <v>783</v>
+      </c>
+      <c r="E544" s="44" t="s">
         <v>784</v>
-      </c>
-      <c r="E544" s="44" t="s">
-        <v>785</v>
       </c>
       <c r="H544" s="44"/>
       <c r="I544" s="23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -14213,7 +14412,7 @@
         <v>11</v>
       </c>
       <c r="D545" s="44" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E545" s="44"/>
       <c r="F545">
@@ -14227,7 +14426,7 @@
         <v>-0.36954915003694705</v>
       </c>
       <c r="I545" s="36" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -14241,10 +14440,10 @@
         <v>6</v>
       </c>
       <c r="D546" s="44" t="s">
+        <v>787</v>
+      </c>
+      <c r="E546" s="44" t="s">
         <v>788</v>
-      </c>
-      <c r="E546" s="44" t="s">
-        <v>789</v>
       </c>
       <c r="H546" s="44"/>
     </row>
@@ -14259,10 +14458,10 @@
         <v>10</v>
       </c>
       <c r="D547" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E547" s="35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F547">
         <v>12.57</v>
@@ -14275,7 +14474,7 @@
         <v>-13.603818615751798</v>
       </c>
       <c r="I547" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -14287,7 +14486,7 @@
       </c>
       <c r="H548" s="44"/>
       <c r="I548" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -14334,10 +14533,10 @@
         <v>12</v>
       </c>
       <c r="D553" s="44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E553" s="44" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F553">
         <v>8.93</v>
@@ -14350,7 +14549,7 @@
         <v>28.779395296752526</v>
       </c>
       <c r="I553" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -14361,10 +14560,10 @@
         <v>15</v>
       </c>
       <c r="D554" s="44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E554" s="44" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H554" s="44"/>
     </row>
@@ -14376,10 +14575,10 @@
         <v>33</v>
       </c>
       <c r="D555" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="E555" s="44" t="s">
         <v>800</v>
-      </c>
-      <c r="E555" s="44" t="s">
-        <v>801</v>
       </c>
       <c r="H555" s="44"/>
     </row>
@@ -14391,11 +14590,11 @@
         <v>27</v>
       </c>
       <c r="D556" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H556" s="44"/>
       <c r="I556" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -14406,11 +14605,11 @@
         <v>23</v>
       </c>
       <c r="D557" s="44" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H557" s="44"/>
       <c r="I557" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="558" spans="1:9">
@@ -14421,11 +14620,11 @@
         <v>11</v>
       </c>
       <c r="D558" s="44" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H558" s="44"/>
       <c r="I558" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -14445,11 +14644,11 @@
         <v>11</v>
       </c>
       <c r="D560" s="44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H560" s="44"/>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:9">
       <c r="A561" s="44">
         <v>20200415</v>
       </c>
@@ -14457,17 +14656,96 @@
         <v>13</v>
       </c>
       <c r="D561" s="44" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F561">
         <v>4.3499999999999996</v>
       </c>
       <c r="G561">
-        <v>4.4400000000000004</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="H561" s="44">
         <f t="shared" si="10"/>
-        <v>2.0689655172413968</v>
+        <v>3.9080459770114926</v>
+      </c>
+      <c r="I561" s="37" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9">
+      <c r="A562" s="44">
+        <v>20200416</v>
+      </c>
+      <c r="B562">
+        <v>19</v>
+      </c>
+      <c r="D562" s="44" t="s">
+        <v>809</v>
+      </c>
+      <c r="H562" s="44"/>
+      <c r="I562" s="36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" s="44">
+        <v>20200417</v>
+      </c>
+      <c r="B563">
+        <v>10</v>
+      </c>
+      <c r="D563" s="44" t="s">
+        <v>813</v>
+      </c>
+      <c r="H563" s="44"/>
+      <c r="I563" s="45" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" s="44">
+        <v>20200420</v>
+      </c>
+      <c r="B564">
+        <v>17</v>
+      </c>
+      <c r="D564" s="44" t="s">
+        <v>814</v>
+      </c>
+      <c r="F564">
+        <v>10.79</v>
+      </c>
+      <c r="G564">
+        <v>12.53</v>
+      </c>
+      <c r="H564" s="44">
+        <f t="shared" si="10"/>
+        <v>16.126042632066731</v>
+      </c>
+      <c r="I564" s="37" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565">
+        <v>20200423</v>
+      </c>
+      <c r="D565" s="44" t="s">
+        <v>817</v>
+      </c>
+      <c r="I565" s="36" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" s="44">
+        <v>20200424</v>
+      </c>
+      <c r="D566" s="44" t="s">
+        <v>840</v>
+      </c>
+      <c r="I566" s="37" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -14508,6 +14786,268 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:15" s="50" customFormat="1"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="48">
+        <v>20200424</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>825</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="47" t="s">
+        <v>832</v>
+      </c>
+      <c r="L5" s="46">
+        <v>3</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="N5" s="49"/>
+      <c r="O5" s="47" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>819</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>822</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>839</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>825</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>829</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>826</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>833</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>834</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="G7" s="51" t="s">
+        <v>827</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>823</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>828</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>830</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>836</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>831</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>837</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+    </row>
+    <row r="16" spans="1:15" s="50" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="M5:N5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="10"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="烂板战法" sheetId="9" r:id="rId9"/>
     <sheet name="半路战法" sheetId="10" r:id="rId10"/>
     <sheet name="情绪把控" sheetId="11" r:id="rId11"/>
+    <sheet name="情绪日历" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="849">
   <si>
     <t>date</t>
   </si>
@@ -2859,12 +2860,40 @@
     <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="43">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3214,8 +3243,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3401,8 +3474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3518,40 +3597,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="thick">
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3935,7 +3986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4074,10 +4125,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4086,16 +4137,61 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="20" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="11" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="44" fillId="0" borderId="1" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="1" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4535,23 +4631,23 @@
   <dimension ref="A1:J566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10209,7 +10305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="54">
+    <row r="325" spans="1:9" ht="57.6">
       <c r="A325">
         <v>20190426</v>
       </c>
@@ -10521,7 +10617,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="40.5">
+    <row r="341" spans="1:9" ht="43.2">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -10538,7 +10634,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="27">
+    <row r="342" spans="1:9" ht="28.8">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -10555,7 +10651,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="27">
+    <row r="343" spans="1:9" ht="28.8">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -10659,7 +10755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="27">
+    <row r="348" spans="1:9" ht="28.8">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -10786,7 +10882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="27">
+    <row r="355" spans="1:10" ht="28.8">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -11904,7 +12000,7 @@
       </c>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:10" ht="27">
+    <row r="416" spans="1:10" ht="28.8">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -12836,7 +12932,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="27">
+    <row r="467" spans="1:9" ht="28.8">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -13777,7 +13873,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="40.5">
+    <row r="516" spans="1:9" ht="43.2">
       <c r="A516">
         <v>20200212</v>
       </c>
@@ -14077,7 +14173,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="40.5">
+    <row r="530" spans="1:9" ht="43.2">
       <c r="A530" s="41">
         <v>20200302</v>
       </c>
@@ -14234,7 +14330,7 @@
       <c r="E537" s="42"/>
       <c r="H537" s="42"/>
     </row>
-    <row r="538" spans="1:9" ht="40.5">
+    <row r="538" spans="1:9" ht="43.2">
       <c r="A538" s="41">
         <v>20200312</v>
       </c>
@@ -14253,7 +14349,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="40.5">
+    <row r="539" spans="1:9" ht="43.2">
       <c r="A539" s="41">
         <v>20200313</v>
       </c>
@@ -14274,7 +14370,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="40.5">
+    <row r="540" spans="1:9" ht="43.2">
       <c r="A540" s="43">
         <v>20200316</v>
       </c>
@@ -14326,7 +14422,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="27">
+    <row r="542" spans="1:9" ht="28.8">
       <c r="A542" s="43">
         <v>20200318</v>
       </c>
@@ -14353,7 +14449,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="27">
+    <row r="543" spans="1:9" ht="28.8">
       <c r="A543" s="43">
         <v>20200319</v>
       </c>
@@ -14380,7 +14476,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="27">
+    <row r="544" spans="1:9" ht="28.8">
       <c r="A544" s="43">
         <v>20200320</v>
       </c>
@@ -14773,7 +14869,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
@@ -14791,263 +14887,2798 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:O16"/>
+  <dimension ref="A3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" s="50" customFormat="1"/>
-    <row r="5" spans="1:15">
-      <c r="A5" s="48">
-        <v>20200424</v>
-      </c>
-      <c r="B5" s="46">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
+      <c r="B3" s="66">
+        <v>24</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" spans="1:15" s="50" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickTop="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="58">
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>819</v>
       </c>
       <c r="D5" s="49"/>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="59" t="s">
         <v>820</v>
       </c>
-      <c r="G5" s="46">
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="56"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="46"/>
+      <c r="B6" s="60" t="s">
+        <v>821</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>819</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>822</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="46"/>
+      <c r="B7" s="58">
         <v>2</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="C7" s="49" t="s">
         <v>825</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="59" t="s">
         <v>832</v>
       </c>
-      <c r="L5" s="46">
+      <c r="F7" s="54"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="60" t="s">
+        <v>824</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="46"/>
+      <c r="B9" s="60" t="s">
+        <v>827</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>823</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>828</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="46"/>
+      <c r="B10" s="58">
         <v>3</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="C10" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="59" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51" t="s">
-        <v>821</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>819</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>822</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="46"/>
+      <c r="B11" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>834</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>838</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>831</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>837</v>
+      </c>
+      <c r="E12" s="60" t="s">
         <v>839</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>824</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>825</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>829</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>826</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>833</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>834</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>838</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="G7" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>823</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>828</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>830</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>831</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>837</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-    </row>
-    <row r="16" spans="1:15" s="50" customFormat="1"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+    </row>
+    <row r="16" spans="1:15" s="50" customFormat="1">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A15"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:E4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:AB82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:28" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A3" s="62">
+        <v>43922</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A5" s="61" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61" t="s">
+        <v>843</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61" t="s">
+        <v>844</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61" t="s">
+        <v>845</v>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61" t="s">
+        <v>846</v>
+      </c>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61" t="s">
+        <v>847</v>
+      </c>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61" t="s">
+        <v>848</v>
+      </c>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" thickTop="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63">
+        <v>1</v>
+      </c>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63">
+        <v>2</v>
+      </c>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63">
+        <v>3</v>
+      </c>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63">
+        <v>4</v>
+      </c>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+    </row>
+    <row r="18" spans="1:28" ht="15" thickBot="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+    </row>
+    <row r="19" spans="1:28" ht="15" thickTop="1">
+      <c r="A19" s="63">
+        <v>6</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63">
+        <v>7</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63">
+        <v>8</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63">
+        <v>9</v>
+      </c>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63">
+        <v>10</v>
+      </c>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63">
+        <v>11</v>
+      </c>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+    </row>
+    <row r="30" spans="1:28" ht="15" thickBot="1">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+    </row>
+    <row r="31" spans="1:28" ht="15" thickTop="1">
+      <c r="A31" s="63">
+        <v>13</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63">
+        <v>14</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63">
+        <v>15</v>
+      </c>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63">
+        <v>16</v>
+      </c>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63">
+        <v>17</v>
+      </c>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63">
+        <v>18</v>
+      </c>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+    </row>
+    <row r="42" spans="1:28" ht="15" thickBot="1">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+    </row>
+    <row r="43" spans="1:28" ht="16.2" thickTop="1">
+      <c r="A43" s="63">
+        <v>20</v>
+      </c>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63">
+        <v>21</v>
+      </c>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63">
+        <v>22</v>
+      </c>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63">
+        <v>23</v>
+      </c>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="67">
+        <v>24</v>
+      </c>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="63">
+        <v>25</v>
+      </c>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63">
+        <v>26</v>
+      </c>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+    </row>
+    <row r="44" spans="1:28" ht="17.399999999999999" customHeight="1">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="58">
+        <v>1</v>
+      </c>
+      <c r="R44" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="S44" s="47"/>
+      <c r="T44" s="59" t="s">
+        <v>820</v>
+      </c>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="64"/>
+    </row>
+    <row r="45" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="60" t="s">
+        <v>821</v>
+      </c>
+      <c r="R45" s="60" t="s">
+        <v>819</v>
+      </c>
+      <c r="S45" s="60" t="s">
+        <v>822</v>
+      </c>
+      <c r="T45" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="64"/>
+    </row>
+    <row r="46" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="58">
+        <v>2</v>
+      </c>
+      <c r="R46" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="S46" s="47"/>
+      <c r="T46" s="59" t="s">
+        <v>832</v>
+      </c>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="64"/>
+    </row>
+    <row r="47" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="60" t="s">
+        <v>824</v>
+      </c>
+      <c r="R47" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="S47" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="T47" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
+    </row>
+    <row r="48" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="60" t="s">
+        <v>827</v>
+      </c>
+      <c r="R48" s="60" t="s">
+        <v>823</v>
+      </c>
+      <c r="S48" s="60" t="s">
+        <v>828</v>
+      </c>
+      <c r="T48" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="64"/>
+    </row>
+    <row r="49" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="58">
+        <v>3</v>
+      </c>
+      <c r="R49" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="S49" s="47"/>
+      <c r="T49" s="59" t="s">
+        <v>832</v>
+      </c>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="64"/>
+    </row>
+    <row r="50" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="R50" s="60" t="s">
+        <v>834</v>
+      </c>
+      <c r="S50" s="60" t="s">
+        <v>838</v>
+      </c>
+      <c r="T50" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64"/>
+      <c r="AB50" s="64"/>
+    </row>
+    <row r="51" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="R51" s="60" t="s">
+        <v>831</v>
+      </c>
+      <c r="S51" s="60" t="s">
+        <v>837</v>
+      </c>
+      <c r="T51" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+    </row>
+    <row r="52" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64"/>
+      <c r="AB52" s="64"/>
+    </row>
+    <row r="53" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64"/>
+      <c r="AB53" s="64"/>
+    </row>
+    <row r="54" spans="1:28" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="64"/>
+      <c r="Z54" s="64"/>
+      <c r="AA54" s="64"/>
+      <c r="AB54" s="64"/>
+    </row>
+    <row r="55" spans="1:28" ht="14.4" customHeight="1" thickTop="1">
+      <c r="A55" s="63">
+        <v>27</v>
+      </c>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63">
+        <v>28</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63">
+        <v>29</v>
+      </c>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63">
+        <v>30</v>
+      </c>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="65"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+    </row>
+    <row r="56" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="65"/>
+    </row>
+    <row r="57" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
+      <c r="AB57" s="65"/>
+    </row>
+    <row r="58" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="65"/>
+      <c r="Z58" s="65"/>
+      <c r="AA58" s="65"/>
+      <c r="AB58" s="65"/>
+    </row>
+    <row r="59" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="65"/>
+      <c r="AB59" s="65"/>
+    </row>
+    <row r="60" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
+      <c r="AB60" s="65"/>
+    </row>
+    <row r="61" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="65"/>
+      <c r="Y61" s="65"/>
+      <c r="Z61" s="65"/>
+      <c r="AA61" s="65"/>
+      <c r="AB61" s="65"/>
+    </row>
+    <row r="62" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
+      <c r="Z62" s="65"/>
+      <c r="AA62" s="65"/>
+      <c r="AB62" s="65"/>
+    </row>
+    <row r="63" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="65"/>
+      <c r="Z63" s="65"/>
+      <c r="AA63" s="65"/>
+      <c r="AB63" s="65"/>
+    </row>
+    <row r="64" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="65"/>
+      <c r="Z64" s="65"/>
+      <c r="AA64" s="65"/>
+      <c r="AB64" s="65"/>
+    </row>
+    <row r="65" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="T65" s="64"/>
+      <c r="U65" s="65"/>
+      <c r="V65" s="65"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="65"/>
+      <c r="Y65" s="65"/>
+      <c r="Z65" s="65"/>
+      <c r="AA65" s="65"/>
+      <c r="AB65" s="65"/>
+    </row>
+    <row r="66" spans="1:28" ht="14.4" customHeight="1">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="64"/>
+      <c r="U66" s="65"/>
+      <c r="V66" s="65"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="65"/>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="65"/>
+      <c r="AA66" s="65"/>
+      <c r="AB66" s="65"/>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="Q52:T54"/>
+    <mergeCell ref="U31:X42"/>
+    <mergeCell ref="Y31:AB42"/>
+    <mergeCell ref="U43:X54"/>
+    <mergeCell ref="Y43:AB54"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="Y5:AB6"/>
+    <mergeCell ref="A3:AB4"/>
+    <mergeCell ref="U7:X18"/>
+    <mergeCell ref="Y7:AB18"/>
+    <mergeCell ref="U19:X30"/>
+    <mergeCell ref="Y19:AB30"/>
+    <mergeCell ref="A55:D66"/>
+    <mergeCell ref="E55:H66"/>
+    <mergeCell ref="I55:L66"/>
+    <mergeCell ref="M55:P66"/>
+    <mergeCell ref="Q55:T66"/>
+    <mergeCell ref="A31:D42"/>
+    <mergeCell ref="E31:H42"/>
+    <mergeCell ref="I31:L42"/>
+    <mergeCell ref="M31:P42"/>
+    <mergeCell ref="Q31:T42"/>
+    <mergeCell ref="A43:D54"/>
+    <mergeCell ref="E43:H54"/>
+    <mergeCell ref="I43:L54"/>
+    <mergeCell ref="M43:P54"/>
+    <mergeCell ref="A7:D18"/>
+    <mergeCell ref="E7:H18"/>
+    <mergeCell ref="I7:L18"/>
+    <mergeCell ref="M7:P18"/>
+    <mergeCell ref="Q7:T18"/>
+    <mergeCell ref="A19:D30"/>
+    <mergeCell ref="E19:H30"/>
+    <mergeCell ref="I19:L30"/>
+    <mergeCell ref="M19:P30"/>
+    <mergeCell ref="Q19:T30"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="M5:P6"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="Q5:T6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15059,7 +17690,7 @@
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -16545,7 +19176,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -18047,7 +20678,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -19993,7 +22624,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -20743,7 +23374,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -21013,26 +23644,26 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="60.75" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="60.6" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>597</v>
       </c>
@@ -21082,7 +23713,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25" thickTop="1"/>
+    <row r="2" spans="1:16" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21098,16 +23729,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>609</v>
       </c>
@@ -21139,7 +23770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12000" activeTab="11"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="892">
   <si>
     <t>date</t>
   </si>
@@ -2888,12 +2888,184 @@
     <t>星期日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>医药+病毒检测+口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达安基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业+农村电商+食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众应互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6天5板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天4板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒基达鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品+农业+农村电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11天9板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德威新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天2板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建研院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10天8板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明德生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天3板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇金股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="48">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3245,15 +3417,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="26"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -3271,7 +3434,25 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="36"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -3279,8 +3460,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -3481,7 +3669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3599,6 +3787,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
       <top style="thick">
         <color theme="4"/>
       </top>
@@ -3986,7 +4236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4128,9 +4378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4141,9 +4388,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4170,28 +4414,85 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="44" fillId="0" borderId="1" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="1" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="43" fillId="0" borderId="1" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="1" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="11" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4635,19 +4936,19 @@
       <selection pane="bottomLeft" activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="70.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10305,7 +10606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="57.6">
+    <row r="325" spans="1:9" ht="54">
       <c r="A325">
         <v>20190426</v>
       </c>
@@ -10617,7 +10918,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="43.2">
+    <row r="341" spans="1:9" ht="40.5">
       <c r="A341">
         <v>20190523</v>
       </c>
@@ -10634,7 +10935,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="28.8">
+    <row r="342" spans="1:9" ht="27">
       <c r="A342">
         <v>20190524</v>
       </c>
@@ -10651,7 +10952,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="28.8">
+    <row r="343" spans="1:9" ht="27">
       <c r="A343">
         <v>20190527</v>
       </c>
@@ -10755,7 +11056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="28.8">
+    <row r="348" spans="1:9" ht="27">
       <c r="A348">
         <v>20190603</v>
       </c>
@@ -10882,7 +11183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="28.8">
+    <row r="355" spans="1:10" ht="27">
       <c r="A355">
         <v>20190613</v>
       </c>
@@ -12000,7 +12301,7 @@
       </c>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:10" ht="28.8">
+    <row r="416" spans="1:10" ht="27">
       <c r="A416" s="13">
         <v>20190906</v>
       </c>
@@ -12932,7 +13233,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="28.8">
+    <row r="467" spans="1:9" ht="27">
       <c r="A467" s="26">
         <v>20191126</v>
       </c>
@@ -13873,7 +14174,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="43.2">
+    <row r="516" spans="1:9" ht="40.5">
       <c r="A516">
         <v>20200212</v>
       </c>
@@ -14173,7 +14474,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="43.2">
+    <row r="530" spans="1:9" ht="40.5">
       <c r="A530" s="41">
         <v>20200302</v>
       </c>
@@ -14330,7 +14631,7 @@
       <c r="E537" s="42"/>
       <c r="H537" s="42"/>
     </row>
-    <row r="538" spans="1:9" ht="43.2">
+    <row r="538" spans="1:9" ht="40.5">
       <c r="A538" s="41">
         <v>20200312</v>
       </c>
@@ -14349,7 +14650,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="43.2">
+    <row r="539" spans="1:9" ht="40.5">
       <c r="A539" s="41">
         <v>20200313</v>
       </c>
@@ -14370,7 +14671,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="43.2">
+    <row r="540" spans="1:9" ht="40.5">
       <c r="A540" s="43">
         <v>20200316</v>
       </c>
@@ -14422,7 +14723,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="28.8">
+    <row r="542" spans="1:9" ht="27">
       <c r="A542" s="43">
         <v>20200318</v>
       </c>
@@ -14449,7 +14750,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="28.8">
+    <row r="543" spans="1:9" ht="27">
       <c r="A543" s="43">
         <v>20200319</v>
       </c>
@@ -14476,7 +14777,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="28.8">
+    <row r="544" spans="1:9" ht="27">
       <c r="A544" s="43">
         <v>20200320</v>
       </c>
@@ -14869,7 +15170,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
@@ -14887,28 +15188,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:O17"/>
+  <dimension ref="A3:O61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="14.25" thickBot="1">
       <c r="B3" s="66">
         <v>24</v>
       </c>
@@ -14916,299 +15217,772 @@
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" spans="1:15" s="50" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:15" s="49" customFormat="1" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickTop="1">
+      <c r="F4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" thickTop="1">
       <c r="A5" s="46"/>
-      <c r="B5" s="58">
+      <c r="B5" s="56">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="61" t="s">
         <v>819</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="57" t="s">
         <v>820</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="56"/>
+      <c r="F5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="46"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>821</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="58" t="s">
         <v>819</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>839</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="F6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="46"/>
-      <c r="B7" s="58">
+      <c r="B7" s="56">
         <v>2</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>825</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="61" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="57" t="s">
         <v>832</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="F7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="46"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="58" t="s">
         <v>824</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="58" t="s">
         <v>829</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="58" t="s">
         <v>826</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
+      <c r="F8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="46"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>827</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="58" t="s">
         <v>823</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>830</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
+      <c r="F9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="46"/>
-      <c r="B10" s="58">
+      <c r="B10" s="56">
         <v>3</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="61" t="s">
         <v>831</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="57" t="s">
         <v>832</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="F10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="46"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>833</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="58" t="s">
         <v>834</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="58" t="s">
         <v>835</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
+      <c r="F11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="46"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>836</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>831</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="58" t="s">
         <v>839</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="F12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-    </row>
-    <row r="16" spans="1:15" s="50" customFormat="1">
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-    </row>
-    <row r="17" spans="6:15">
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A14" s="50"/>
+      <c r="B14" s="66">
+        <v>23</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+    </row>
+    <row r="16" spans="1:15" s="49" customFormat="1" ht="14.25" thickTop="1">
+      <c r="B16" s="56">
+        <v>1</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="57" t="s">
+        <v>850</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="58" t="s">
+        <v>851</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>852</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>862</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="56">
+        <v>2</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>853</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="57" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="58" t="s">
+        <v>854</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>855</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="47" customFormat="1">
+      <c r="B20" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="58" t="s">
+        <v>827</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>828</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="56">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>858</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="57" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="58" t="s">
+        <v>860</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="56">
+        <v>4</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>863</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="57" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="58" t="s">
+        <v>864</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>865</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="14.25" thickBot="1">
+      <c r="B28" s="66">
+        <v>22</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" thickTop="1" thickBot="1">
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="2:15" ht="14.25" thickTop="1">
+      <c r="B30" s="56">
+        <v>1</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>868</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="57" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" s="47" customFormat="1">
+      <c r="B32" s="58" t="s">
+        <v>827</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>828</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="56">
+        <v>2</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>870</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="57" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>870</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="56">
+        <v>3</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>874</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="57" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="58" t="s">
+        <v>876</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="56">
+        <v>4</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>831</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="57" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B40" s="66">
+        <v>21</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+    </row>
+    <row r="41" spans="2:5" ht="15" thickTop="1" thickBot="1">
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+    </row>
+    <row r="42" spans="2:5" ht="14.25" thickTop="1">
+      <c r="B42" s="56">
+        <v>1</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>880</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="57" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="56">
+        <v>2</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="57" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>883</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="56">
+        <v>3</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="57" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="58" t="s">
+        <v>885</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>852</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="56">
+        <v>4</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>868</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="57" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B52" s="66">
+        <v>20</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+    </row>
+    <row r="53" spans="2:5" ht="15" thickTop="1" thickBot="1">
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+    </row>
+    <row r="54" spans="2:5" ht="14.25" thickTop="1">
+      <c r="B54" s="56">
+        <v>1</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="57" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="58" t="s">
+        <v>851</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>888</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>880</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="57" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E57" s="58" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="56">
+        <v>3</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>858</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="57" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="58" t="s">
+        <v>890</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="56">
+        <v>4</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>831</v>
+      </c>
+      <c r="D60" s="61"/>
+      <c r="E60" s="57" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="E61" s="58" t="s">
+        <v>826</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="25">
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B3:E4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15220,2065 +15994,2337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:28" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A3" s="62">
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="64">
         <v>43922</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A5" s="61" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" thickTop="1" thickBot="1">
+      <c r="A5" s="65" t="s">
         <v>842</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>843</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>845</v>
       </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61" t="s">
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65" t="s">
         <v>848</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="1:28" ht="15" thickTop="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63">
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+    </row>
+    <row r="6" spans="1:28" ht="43.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+    </row>
+    <row r="7" spans="1:28" ht="14.25" thickTop="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62">
         <v>1</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63">
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62">
         <v>2</v>
       </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63">
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62">
         <v>3</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63">
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62">
         <v>4</v>
       </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63">
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62">
         <v>5</v>
       </c>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-    </row>
-    <row r="18" spans="1:28" ht="15" thickBot="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-    </row>
-    <row r="19" spans="1:28" ht="15" thickTop="1">
-      <c r="A19" s="63">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+    </row>
+    <row r="18" spans="1:28" ht="14.25" thickBot="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+    </row>
+    <row r="19" spans="1:28" ht="14.25" thickTop="1">
+      <c r="A19" s="62">
         <v>6</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62">
         <v>7</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63">
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62">
         <v>8</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63">
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62">
         <v>9</v>
       </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63">
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62">
         <v>10</v>
       </c>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63">
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62">
         <v>11</v>
       </c>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63">
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62">
         <v>12</v>
       </c>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-    </row>
-    <row r="30" spans="1:28" ht="15" thickBot="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-    </row>
-    <row r="31" spans="1:28" ht="15" thickTop="1">
-      <c r="A31" s="63">
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+    </row>
+    <row r="30" spans="1:28" ht="14.25" thickBot="1">
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+    </row>
+    <row r="31" spans="1:28" ht="14.25" thickTop="1">
+      <c r="A31" s="62">
         <v>13</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62">
         <v>14</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63">
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62">
         <v>15</v>
       </c>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63">
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62">
         <v>16</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63">
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62">
         <v>17</v>
       </c>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63">
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62">
         <v>18</v>
       </c>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63">
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62">
         <v>19</v>
       </c>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="64"/>
-      <c r="AA41" s="64"/>
-      <c r="AB41" s="64"/>
-    </row>
-    <row r="42" spans="1:28" ht="15" thickBot="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-    </row>
-    <row r="43" spans="1:28" ht="16.2" thickTop="1">
-      <c r="A43" s="63">
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+    </row>
+    <row r="42" spans="1:28" ht="14.25" thickBot="1">
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+    </row>
+    <row r="43" spans="1:28" ht="15" customHeight="1" thickTop="1">
+      <c r="A43" s="71">
         <v>20</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63">
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="72">
         <v>21</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63">
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="72">
         <v>22</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63">
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="71">
         <v>23</v>
       </c>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="67">
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="71">
         <v>24</v>
       </c>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="63">
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="62">
         <v>25</v>
       </c>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63"/>
-      <c r="Y43" s="63">
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62">
         <v>26</v>
       </c>
-      <c r="Z43" s="63"/>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="63"/>
-    </row>
-    <row r="44" spans="1:28" ht="17.399999999999999" customHeight="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="58">
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+    </row>
+    <row r="44" spans="1:28" ht="17.45" customHeight="1">
+      <c r="A44" s="67">
         <v>1</v>
       </c>
-      <c r="R44" s="47" t="s">
+      <c r="B44" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="68" t="s">
+        <v>889</v>
+      </c>
+      <c r="E44" s="56">
+        <v>1</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>880</v>
+      </c>
+      <c r="G44" s="61"/>
+      <c r="H44" s="68" t="s">
+        <v>882</v>
+      </c>
+      <c r="I44" s="56">
+        <v>1</v>
+      </c>
+      <c r="J44" s="61" t="s">
+        <v>868</v>
+      </c>
+      <c r="K44" s="61"/>
+      <c r="L44" s="57" t="s">
+        <v>869</v>
+      </c>
+      <c r="M44" s="67">
+        <v>1</v>
+      </c>
+      <c r="N44" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="O44" s="61"/>
+      <c r="P44" s="68" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q44" s="67">
+        <v>1</v>
+      </c>
+      <c r="R44" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="S44" s="47"/>
-      <c r="T44" s="59" t="s">
+      <c r="S44" s="48"/>
+      <c r="T44" s="68" t="s">
         <v>820</v>
       </c>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-    </row>
-    <row r="45" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="60" t="s">
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="63"/>
+    </row>
+    <row r="45" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A45" s="69" t="s">
+        <v>851</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>888</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>886</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>830</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="J45" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K45" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="L45" s="58" t="s">
+        <v>835</v>
+      </c>
+      <c r="M45" s="69" t="s">
+        <v>851</v>
+      </c>
+      <c r="N45" s="58" t="s">
+        <v>852</v>
+      </c>
+      <c r="O45" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="P45" s="70" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q45" s="69" t="s">
         <v>821</v>
       </c>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="58" t="s">
         <v>819</v>
       </c>
-      <c r="S45" s="60" t="s">
+      <c r="S45" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="T45" s="60" t="s">
+      <c r="T45" s="70" t="s">
         <v>839</v>
       </c>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="64"/>
-    </row>
-    <row r="46" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="58">
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+    </row>
+    <row r="46" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A46" s="67">
         <v>2</v>
       </c>
-      <c r="R46" s="47" t="s">
+      <c r="B46" s="61" t="s">
+        <v>880</v>
+      </c>
+      <c r="C46" s="61"/>
+      <c r="D46" s="68" t="s">
+        <v>887</v>
+      </c>
+      <c r="E46" s="56">
+        <v>2</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="G46" s="61"/>
+      <c r="H46" s="68" t="s">
+        <v>887</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>827</v>
+      </c>
+      <c r="J46" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="K46" s="58" t="s">
+        <v>828</v>
+      </c>
+      <c r="L46" s="58" t="s">
+        <v>856</v>
+      </c>
+      <c r="M46" s="67">
+        <v>2</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>853</v>
+      </c>
+      <c r="O46" s="61"/>
+      <c r="P46" s="68" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q46" s="67">
+        <v>2</v>
+      </c>
+      <c r="R46" s="48" t="s">
         <v>825</v>
       </c>
-      <c r="S46" s="47"/>
-      <c r="T46" s="59" t="s">
+      <c r="S46" s="48"/>
+      <c r="T46" s="68" t="s">
         <v>832</v>
       </c>
-      <c r="U46" s="64"/>
-      <c r="V46" s="64"/>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
-      <c r="AA46" s="64"/>
-      <c r="AB46" s="64"/>
-    </row>
-    <row r="47" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="60" t="s">
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="63"/>
+    </row>
+    <row r="47" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A47" s="69" t="s">
+        <v>881</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>835</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>883</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>884</v>
+      </c>
+      <c r="I47" s="56">
+        <v>2</v>
+      </c>
+      <c r="J47" s="61" t="s">
+        <v>870</v>
+      </c>
+      <c r="K47" s="61"/>
+      <c r="L47" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M47" s="69" t="s">
+        <v>854</v>
+      </c>
+      <c r="N47" s="58" t="s">
+        <v>855</v>
+      </c>
+      <c r="O47" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="P47" s="70" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q47" s="69" t="s">
         <v>824</v>
       </c>
-      <c r="R47" s="60" t="s">
+      <c r="R47" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="S47" s="60" t="s">
+      <c r="S47" s="58" t="s">
         <v>829</v>
       </c>
-      <c r="T47" s="60" t="s">
+      <c r="T47" s="70" t="s">
         <v>826</v>
       </c>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="64"/>
-      <c r="Z47" s="64"/>
-      <c r="AA47" s="64"/>
-      <c r="AB47" s="64"/>
-    </row>
-    <row r="48" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="60" t="s">
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="63"/>
+      <c r="AB47" s="63"/>
+    </row>
+    <row r="48" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A48" s="67">
+        <v>3</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>858</v>
+      </c>
+      <c r="C48" s="61"/>
+      <c r="D48" s="68" t="s">
+        <v>820</v>
+      </c>
+      <c r="E48" s="56">
+        <v>3</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>849</v>
+      </c>
+      <c r="G48" s="61"/>
+      <c r="H48" s="68" t="s">
+        <v>859</v>
+      </c>
+      <c r="I48" s="58" t="s">
+        <v>872</v>
+      </c>
+      <c r="J48" s="58" t="s">
+        <v>870</v>
+      </c>
+      <c r="K48" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="L48" s="58" t="s">
+        <v>873</v>
+      </c>
+      <c r="M48" s="69" t="s">
+        <v>824</v>
+      </c>
+      <c r="N48" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="O48" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="P48" s="70" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q48" s="69" t="s">
         <v>827</v>
       </c>
-      <c r="R48" s="60" t="s">
+      <c r="R48" s="58" t="s">
         <v>823</v>
       </c>
-      <c r="S48" s="60" t="s">
+      <c r="S48" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="T48" s="60" t="s">
+      <c r="T48" s="70" t="s">
         <v>830</v>
       </c>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="64"/>
-      <c r="Z48" s="64"/>
-      <c r="AA48" s="64"/>
-      <c r="AB48" s="64"/>
-    </row>
-    <row r="49" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="58">
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="63"/>
+    </row>
+    <row r="49" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A49" s="69" t="s">
+        <v>890</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>830</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>885</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>852</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="H49" s="70" t="s">
+        <v>886</v>
+      </c>
+      <c r="I49" s="56">
         <v>3</v>
       </c>
-      <c r="R49" s="47" t="s">
+      <c r="J49" s="61" t="s">
+        <v>874</v>
+      </c>
+      <c r="K49" s="61"/>
+      <c r="L49" s="57" t="s">
+        <v>875</v>
+      </c>
+      <c r="M49" s="69" t="s">
+        <v>827</v>
+      </c>
+      <c r="N49" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="O49" s="58" t="s">
+        <v>828</v>
+      </c>
+      <c r="P49" s="70" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q49" s="67">
+        <v>3</v>
+      </c>
+      <c r="R49" s="48" t="s">
         <v>831</v>
       </c>
-      <c r="S49" s="47"/>
-      <c r="T49" s="59" t="s">
+      <c r="S49" s="48"/>
+      <c r="T49" s="68" t="s">
         <v>832</v>
       </c>
-      <c r="U49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="64"/>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="64"/>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="64"/>
-    </row>
-    <row r="50" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="60" t="s">
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
+      <c r="AB49" s="63"/>
+    </row>
+    <row r="50" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A50" s="67">
+        <v>4</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>831</v>
+      </c>
+      <c r="C50" s="61"/>
+      <c r="D50" s="68" t="s">
+        <v>891</v>
+      </c>
+      <c r="E50" s="56">
+        <v>4</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>868</v>
+      </c>
+      <c r="G50" s="61"/>
+      <c r="H50" s="68" t="s">
+        <v>875</v>
+      </c>
+      <c r="I50" s="58" t="s">
+        <v>876</v>
+      </c>
+      <c r="J50" s="58" t="s">
+        <v>874</v>
+      </c>
+      <c r="K50" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="L50" s="58" t="s">
+        <v>877</v>
+      </c>
+      <c r="M50" s="67">
+        <v>3</v>
+      </c>
+      <c r="N50" s="61" t="s">
+        <v>858</v>
+      </c>
+      <c r="O50" s="61"/>
+      <c r="P50" s="68" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q50" s="69" t="s">
         <v>833</v>
       </c>
-      <c r="R50" s="60" t="s">
+      <c r="R50" s="58" t="s">
         <v>834</v>
       </c>
-      <c r="S50" s="60" t="s">
+      <c r="S50" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="T50" s="60" t="s">
+      <c r="T50" s="70" t="s">
         <v>835</v>
       </c>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64"/>
-      <c r="AB50" s="64"/>
-    </row>
-    <row r="51" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="60" t="s">
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+    </row>
+    <row r="51" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A51" s="69" t="s">
+        <v>878</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>826</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="H51" s="70" t="s">
+        <v>856</v>
+      </c>
+      <c r="I51" s="56">
+        <v>4</v>
+      </c>
+      <c r="J51" s="61" t="s">
+        <v>831</v>
+      </c>
+      <c r="K51" s="61"/>
+      <c r="L51" s="57" t="s">
+        <v>832</v>
+      </c>
+      <c r="M51" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="N51" s="58" t="s">
+        <v>858</v>
+      </c>
+      <c r="O51" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="P51" s="70" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q51" s="69" t="s">
         <v>836</v>
       </c>
-      <c r="R51" s="60" t="s">
+      <c r="R51" s="58" t="s">
         <v>831</v>
       </c>
-      <c r="S51" s="60" t="s">
+      <c r="S51" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="T51" s="60" t="s">
+      <c r="T51" s="70" t="s">
         <v>839</v>
       </c>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
-    </row>
-    <row r="52" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="48"/>
-      <c r="U52" s="64"/>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="64"/>
-      <c r="AB52" s="64"/>
-    </row>
-    <row r="53" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="64"/>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="64"/>
-      <c r="Z53" s="64"/>
-      <c r="AA53" s="64"/>
-      <c r="AB53" s="64"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="63"/>
+      <c r="AB51" s="63"/>
+    </row>
+    <row r="52" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A52" s="77" t="s">
+        <v>866</v>
+      </c>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="82" t="s">
+        <v>866</v>
+      </c>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="58" t="s">
+        <v>878</v>
+      </c>
+      <c r="J52" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="K52" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="L52" s="58" t="s">
+        <v>879</v>
+      </c>
+      <c r="M52" s="67">
+        <v>4</v>
+      </c>
+      <c r="N52" s="61" t="s">
+        <v>863</v>
+      </c>
+      <c r="O52" s="61"/>
+      <c r="P52" s="68" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q52" s="77" t="s">
+        <v>866</v>
+      </c>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="63"/>
+      <c r="AB52" s="63"/>
+    </row>
+    <row r="53" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A53" s="77"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="82" t="s">
+        <v>866</v>
+      </c>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="69" t="s">
+        <v>864</v>
+      </c>
+      <c r="N53" s="58" t="s">
+        <v>865</v>
+      </c>
+      <c r="O53" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="P53" s="70" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63"/>
+      <c r="Y53" s="63"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="63"/>
+      <c r="AB53" s="63"/>
     </row>
     <row r="54" spans="1:28" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="64"/>
-      <c r="V54" s="64"/>
-      <c r="W54" s="64"/>
-      <c r="X54" s="64"/>
-      <c r="Y54" s="64"/>
-      <c r="Z54" s="64"/>
-      <c r="AA54" s="64"/>
-      <c r="AB54" s="64"/>
-    </row>
-    <row r="55" spans="1:28" ht="14.4" customHeight="1" thickTop="1">
-      <c r="A55" s="63">
+      <c r="A54" s="74"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="74" t="s">
+        <v>867</v>
+      </c>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="63"/>
+      <c r="AB54" s="63"/>
+    </row>
+    <row r="55" spans="1:28" ht="14.45" customHeight="1" thickTop="1">
+      <c r="A55" s="62">
         <v>27</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63">
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62">
         <v>28</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63">
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62">
         <v>29</v>
       </c>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63">
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62">
         <v>30</v>
       </c>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-    </row>
-    <row r="56" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="65"/>
-      <c r="AA56" s="65"/>
-      <c r="AB56" s="65"/>
-    </row>
-    <row r="57" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="65"/>
-      <c r="AA57" s="65"/>
-      <c r="AB57" s="65"/>
-    </row>
-    <row r="58" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="65"/>
-      <c r="V58" s="65"/>
-      <c r="W58" s="65"/>
-      <c r="X58" s="65"/>
-      <c r="Y58" s="65"/>
-      <c r="Z58" s="65"/>
-      <c r="AA58" s="65"/>
-      <c r="AB58" s="65"/>
-    </row>
-    <row r="59" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="65"/>
-      <c r="AA59" s="65"/>
-      <c r="AB59" s="65"/>
-    </row>
-    <row r="60" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="65"/>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="65"/>
-      <c r="AA60" s="65"/>
-      <c r="AB60" s="65"/>
-    </row>
-    <row r="61" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="64"/>
-      <c r="S61" s="64"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="65"/>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
-      <c r="X61" s="65"/>
-      <c r="Y61" s="65"/>
-      <c r="Z61" s="65"/>
-      <c r="AA61" s="65"/>
-      <c r="AB61" s="65"/>
-    </row>
-    <row r="62" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="64"/>
-      <c r="S62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="65"/>
-      <c r="V62" s="65"/>
-      <c r="W62" s="65"/>
-      <c r="X62" s="65"/>
-      <c r="Y62" s="65"/>
-      <c r="Z62" s="65"/>
-      <c r="AA62" s="65"/>
-      <c r="AB62" s="65"/>
-    </row>
-    <row r="63" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="64"/>
-      <c r="R63" s="64"/>
-      <c r="S63" s="64"/>
-      <c r="T63" s="64"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
-      <c r="X63" s="65"/>
-      <c r="Y63" s="65"/>
-      <c r="Z63" s="65"/>
-      <c r="AA63" s="65"/>
-      <c r="AB63" s="65"/>
-    </row>
-    <row r="64" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="64"/>
-      <c r="S64" s="64"/>
-      <c r="T64" s="64"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="X64" s="65"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="65"/>
-      <c r="AA64" s="65"/>
-      <c r="AB64" s="65"/>
-    </row>
-    <row r="65" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
-      <c r="Q65" s="64"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="X65" s="65"/>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="65"/>
-      <c r="AA65" s="65"/>
-      <c r="AB65" s="65"/>
-    </row>
-    <row r="66" spans="1:28" ht="14.4" customHeight="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="65"/>
-      <c r="V66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="65"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="65"/>
-      <c r="AA66" s="65"/>
-      <c r="AB66" s="65"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+    </row>
+    <row r="56" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+    </row>
+    <row r="57" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+    </row>
+    <row r="58" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+    </row>
+    <row r="59" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+    </row>
+    <row r="60" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="59"/>
+    </row>
+    <row r="61" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+    </row>
+    <row r="62" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
+      <c r="AA62" s="59"/>
+      <c r="AB62" s="59"/>
+    </row>
+    <row r="63" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+    </row>
+    <row r="64" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59"/>
+    </row>
+    <row r="65" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+    </row>
+    <row r="66" spans="1:28" ht="14.45" customHeight="1">
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="63"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="44"/>
@@ -17633,18 +18679,36 @@
       <c r="T82" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="Q52:T54"/>
-    <mergeCell ref="U31:X42"/>
-    <mergeCell ref="Y31:AB42"/>
-    <mergeCell ref="U43:X54"/>
-    <mergeCell ref="Y43:AB54"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="Y5:AB6"/>
-    <mergeCell ref="A3:AB4"/>
-    <mergeCell ref="U7:X18"/>
-    <mergeCell ref="Y7:AB18"/>
+  <mergeCells count="62">
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I53:L54"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E52:H54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A19:D30"/>
+    <mergeCell ref="E19:H30"/>
+    <mergeCell ref="I19:L30"/>
+    <mergeCell ref="M19:P30"/>
+    <mergeCell ref="Q19:T30"/>
     <mergeCell ref="U19:X30"/>
     <mergeCell ref="Y19:AB30"/>
     <mergeCell ref="A55:D66"/>
@@ -17657,28 +18721,31 @@
     <mergeCell ref="I31:L42"/>
     <mergeCell ref="M31:P42"/>
     <mergeCell ref="Q31:T42"/>
-    <mergeCell ref="A43:D54"/>
-    <mergeCell ref="E43:H54"/>
-    <mergeCell ref="I43:L54"/>
-    <mergeCell ref="M43:P54"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="Y5:AB6"/>
+    <mergeCell ref="A3:AB4"/>
+    <mergeCell ref="U7:X18"/>
+    <mergeCell ref="Y7:AB18"/>
     <mergeCell ref="A7:D18"/>
     <mergeCell ref="E7:H18"/>
     <mergeCell ref="I7:L18"/>
     <mergeCell ref="M7:P18"/>
     <mergeCell ref="Q7:T18"/>
-    <mergeCell ref="A19:D30"/>
-    <mergeCell ref="E19:H30"/>
-    <mergeCell ref="I19:L30"/>
-    <mergeCell ref="M19:P30"/>
-    <mergeCell ref="Q19:T30"/>
     <mergeCell ref="E5:H6"/>
     <mergeCell ref="I5:L6"/>
     <mergeCell ref="M5:P6"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="Q52:T54"/>
+    <mergeCell ref="U31:X42"/>
+    <mergeCell ref="Y31:AB42"/>
+    <mergeCell ref="U43:X54"/>
+    <mergeCell ref="Y43:AB54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17690,7 +18757,7 @@
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -19176,7 +20243,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -20678,7 +21745,7 @@
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -22624,7 +23691,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -23374,7 +24441,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -23644,26 +24711,26 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="60.6" thickBot="1">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="60.75" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>597</v>
       </c>
@@ -23713,7 +24780,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1"/>
+    <row r="2" spans="1:16" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23729,16 +24796,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>609</v>
       </c>
@@ -23770,7 +24837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/xls/TT.xlsx
+++ b/src/main/resources/static/xls/TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="10"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="23250" windowHeight="12000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="903">
   <si>
     <t>date</t>
   </si>
@@ -3058,6 +3058,50 @@
   </si>
   <si>
     <t>3只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业+农村电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低位补涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉缆股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4236,7 +4280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4417,27 +4461,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="43" fillId="0" borderId="1" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="1" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4450,6 +4473,36 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="1" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4457,6 +4510,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4468,7 +4527,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4477,13 +4536,19 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="104" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="43" fillId="0" borderId="1" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4929,11 +4994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J566"/>
+  <dimension ref="A1:J569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E582" sqref="E582"/>
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H565" sqref="H565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14395,7 +14460,7 @@
         <v>11.14</v>
       </c>
       <c r="H526" s="35">
-        <f t="shared" ref="H526:H564" si="10">(G526-F526)/F526*100</f>
+        <f t="shared" ref="H526:H566" si="10">(G526-F526)/F526*100</f>
         <v>-7.9338842975206534</v>
       </c>
       <c r="I526" s="37" t="s">
@@ -15127,9 +15192,13 @@
       <c r="A565">
         <v>20200423</v>
       </c>
+      <c r="B565">
+        <v>20</v>
+      </c>
       <c r="D565" s="44" t="s">
         <v>817</v>
       </c>
+      <c r="H565" s="44"/>
       <c r="I565" s="36" t="s">
         <v>818</v>
       </c>
@@ -15138,11 +15207,48 @@
       <c r="A566" s="44">
         <v>20200424</v>
       </c>
+      <c r="B566">
+        <v>11</v>
+      </c>
       <c r="D566" s="44" t="s">
         <v>840</v>
       </c>
+      <c r="F566">
+        <v>10.98</v>
+      </c>
+      <c r="G566">
+        <v>10.01</v>
+      </c>
+      <c r="H566" s="44">
+        <f t="shared" si="10"/>
+        <v>-8.8342440801457265</v>
+      </c>
       <c r="I566" s="37" t="s">
         <v>841</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" s="44">
+        <v>20200427</v>
+      </c>
+      <c r="B567">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" s="44">
+        <v>20200428</v>
+      </c>
+      <c r="B568">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" s="44">
+        <v>20200429</v>
+      </c>
+      <c r="B569">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -15190,8 +15296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15210,19 +15316,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="14.25" thickBot="1">
-      <c r="B3" s="66">
+      <c r="B3" s="72">
         <v>24</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="G3" s="72">
+        <v>27</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:15" s="49" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="51"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
@@ -15234,18 +15350,28 @@
       <c r="B5" s="56">
         <v>1</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="71" t="s">
         <v>819</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="57" t="s">
         <v>820</v>
       </c>
       <c r="F5" s="52"/>
+      <c r="G5" s="56">
+        <v>1</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="57" t="s">
+        <v>893</v>
+      </c>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
       <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15">
@@ -15263,6 +15389,10 @@
         <v>839</v>
       </c>
       <c r="F6" s="52"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="52"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
@@ -15274,14 +15404,24 @@
       <c r="B7" s="56">
         <v>2</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="71" t="s">
         <v>853</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="57" t="s">
         <v>832</v>
       </c>
       <c r="F7" s="52"/>
+      <c r="G7" s="56">
+        <v>2</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>894</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="57" t="s">
+        <v>895</v>
+      </c>
       <c r="K7" s="52"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
@@ -15303,6 +15443,18 @@
         <v>826</v>
       </c>
       <c r="F8" s="52"/>
+      <c r="G8" s="58" t="s">
+        <v>827</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>826</v>
+      </c>
       <c r="K8" s="52"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
@@ -15324,6 +15476,16 @@
         <v>830</v>
       </c>
       <c r="F9" s="52"/>
+      <c r="G9" s="56">
+        <v>3</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>896</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="57" t="s">
+        <v>859</v>
+      </c>
       <c r="K9" s="52"/>
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
@@ -15335,14 +15497,20 @@
       <c r="B10" s="56">
         <v>3</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="71" t="s">
         <v>831</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="57" t="s">
         <v>832</v>
       </c>
       <c r="F10" s="52"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58" t="s">
+        <v>897</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="52"/>
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
@@ -15364,6 +15532,16 @@
         <v>835</v>
       </c>
       <c r="F11" s="52"/>
+      <c r="G11" s="56">
+        <v>4</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>831</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="57" t="s">
+        <v>875</v>
+      </c>
       <c r="K11" s="52"/>
       <c r="L11" s="55"/>
       <c r="M11" s="55"/>
@@ -15385,6 +15563,18 @@
         <v>839</v>
       </c>
       <c r="F12" s="52"/>
+      <c r="G12" s="58" t="s">
+        <v>898</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>856</v>
+      </c>
       <c r="K12" s="52"/>
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
@@ -15398,6 +15588,18 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="52"/>
+      <c r="G13" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>856</v>
+      </c>
       <c r="K13" s="52"/>
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
@@ -15406,12 +15608,12 @@
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1">
       <c r="A14" s="50"/>
-      <c r="B14" s="66">
+      <c r="B14" s="72">
         <v>23</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="55"/>
@@ -15421,44 +15623,46 @@
     </row>
     <row r="15" spans="1:15" ht="15" thickTop="1" thickBot="1">
       <c r="A15" s="50"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="52"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="G15" s="72">
+        <v>28</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="52"/>
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="55"/>
       <c r="O15" s="55"/>
     </row>
-    <row r="16" spans="1:15" s="49" customFormat="1" ht="14.25" thickTop="1">
+    <row r="16" spans="1:15" s="49" customFormat="1" ht="15" thickTop="1" thickBot="1">
       <c r="B16" s="56">
         <v>1</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="71" t="s">
         <v>849</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="57" t="s">
         <v>850</v>
       </c>
       <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
       <c r="O16" s="51"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" ht="14.25" thickTop="1">
       <c r="B17" s="58" t="s">
         <v>851</v>
       </c>
@@ -15472,10 +15676,16 @@
         <v>862</v>
       </c>
       <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+      <c r="G17" s="56">
+        <v>1</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>899</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="57" t="s">
+        <v>900</v>
+      </c>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
@@ -15486,13 +15696,19 @@
       <c r="B18" s="56">
         <v>2</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="71" t="s">
         <v>853</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="57" t="s">
         <v>857</v>
       </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58" t="s">
+        <v>897</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="58" t="s">
@@ -15507,6 +15723,16 @@
       <c r="E19" s="58" t="s">
         <v>856</v>
       </c>
+      <c r="G19" s="56">
+        <v>2</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="J19" s="57" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="20" spans="2:15" s="47" customFormat="1">
       <c r="B20" s="58" t="s">
@@ -15521,6 +15747,10 @@
       <c r="E20" s="58" t="s">
         <v>826</v>
       </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="58" t="s">
@@ -15535,18 +15765,26 @@
       <c r="E21" s="58" t="s">
         <v>830</v>
       </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="56">
         <v>3</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="71" t="s">
         <v>858</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="57" t="s">
         <v>859</v>
       </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="58" t="s">
@@ -15561,17 +15799,33 @@
       <c r="E23" s="58" t="s">
         <v>861</v>
       </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="56">
         <v>4</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="71" t="s">
         <v>863</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="57" t="s">
         <v>859</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>898</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -15587,31 +15841,63 @@
       <c r="E25" s="58" t="s">
         <v>835</v>
       </c>
+      <c r="G25" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="28" spans="2:15" ht="14.25" thickBot="1">
-      <c r="B28" s="66">
+      <c r="B28" s="72">
         <v>22</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="G28" s="72">
+        <v>29</v>
+      </c>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="2:15" ht="15" thickTop="1" thickBot="1">
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="2:15" ht="14.25" thickTop="1">
       <c r="B30" s="56">
         <v>1</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="71" t="s">
         <v>868</v>
       </c>
-      <c r="D30" s="61"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="57" t="s">
         <v>869</v>
+      </c>
+      <c r="G30" s="56">
+        <v>1</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>899</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="57" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -15627,6 +15913,10 @@
       <c r="E31" s="58" t="s">
         <v>835</v>
       </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="2:15" s="47" customFormat="1">
       <c r="B32" s="58" t="s">
@@ -15641,20 +15931,34 @@
       <c r="E32" s="58" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="G32" s="56">
+        <v>2</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>902</v>
+      </c>
+      <c r="I32" s="71"/>
+      <c r="J32" s="57" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="56">
         <v>2</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="71" t="s">
         <v>870</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="57" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="58" t="s">
         <v>872</v>
       </c>
@@ -15667,20 +15971,28 @@
       <c r="E34" s="58" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34" s="56"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="56">
         <v>3</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="71" t="s">
         <v>874</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="57" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="58" t="s">
         <v>876</v>
       </c>
@@ -15693,20 +16005,28 @@
       <c r="E36" s="58" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="G36" s="56"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="57"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="56">
         <v>4</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="71" t="s">
         <v>831</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="57" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="58" t="s">
         <v>878</v>
       </c>
@@ -15719,34 +16039,38 @@
       <c r="E38" s="58" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B40" s="66">
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+    </row>
+    <row r="40" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B40" s="72">
         <v>21</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-    </row>
-    <row r="41" spans="2:5" ht="15" thickTop="1" thickBot="1">
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-    </row>
-    <row r="42" spans="2:5" ht="14.25" thickTop="1">
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" thickTop="1" thickBot="1">
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" thickTop="1">
       <c r="B42" s="56">
         <v>1</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="57" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:10">
       <c r="B43" s="58" t="s">
         <v>881</v>
       </c>
@@ -15760,19 +16084,19 @@
         <v>830</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:10">
       <c r="B44" s="56">
         <v>2</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="71" t="s">
         <v>883</v>
       </c>
-      <c r="D44" s="61"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="57" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:10">
       <c r="B45" s="58" t="s">
         <v>872</v>
       </c>
@@ -15786,19 +16110,19 @@
         <v>884</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:10">
       <c r="B46" s="56">
         <v>3</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="71" t="s">
         <v>849</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="57" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:10">
       <c r="B47" s="58" t="s">
         <v>885</v>
       </c>
@@ -15812,14 +16136,14 @@
         <v>886</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:10">
       <c r="B48" s="56">
         <v>4</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="71" t="s">
         <v>868</v>
       </c>
-      <c r="D48" s="61"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="57" t="s">
         <v>875</v>
       </c>
@@ -15839,27 +16163,27 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B52" s="66">
+      <c r="B52" s="72">
         <v>20</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
     </row>
     <row r="53" spans="2:5" ht="15" thickTop="1" thickBot="1">
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
     </row>
     <row r="54" spans="2:5" ht="14.25" thickTop="1">
       <c r="B54" s="56">
         <v>1</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="71" t="s">
         <v>849</v>
       </c>
-      <c r="D54" s="61"/>
+      <c r="D54" s="71"/>
       <c r="E54" s="57" t="s">
         <v>889</v>
       </c>
@@ -15882,10 +16206,10 @@
       <c r="B56" s="56">
         <v>2</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D56" s="61"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="57" t="s">
         <v>887</v>
       </c>
@@ -15908,10 +16232,10 @@
       <c r="B58" s="56">
         <v>3</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="71" t="s">
         <v>858</v>
       </c>
-      <c r="D58" s="61"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="57" t="s">
         <v>820</v>
       </c>
@@ -15934,10 +16258,10 @@
       <c r="B60" s="56">
         <v>4</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="71" t="s">
         <v>831</v>
       </c>
-      <c r="D60" s="61"/>
+      <c r="D60" s="71"/>
       <c r="E60" s="57" t="s">
         <v>891</v>
       </c>
@@ -15957,32 +16281,47 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B40:E41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
+  <mergeCells count="40">
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G15:J16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B40:E41"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="G28:J29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15994,8 +16333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AB82"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:H66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16015,1365 +16354,1365 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="64">
+      <c r="A3" s="89">
         <v>43922</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
     </row>
     <row r="5" spans="1:28" ht="15" thickTop="1" thickBot="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="88" t="s">
         <v>842</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88" t="s">
         <v>843</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88" t="s">
         <v>844</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65" t="s">
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88" t="s">
         <v>845</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65" t="s">
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88" t="s">
         <v>847</v>
       </c>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65" t="s">
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88" t="s">
         <v>848</v>
       </c>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
     </row>
     <row r="6" spans="1:28" ht="43.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
     </row>
     <row r="7" spans="1:28" ht="14.25" thickTop="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77">
         <v>1</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77">
         <v>2</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62">
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77">
         <v>3</v>
       </c>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62">
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77">
         <v>4</v>
       </c>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62">
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77">
         <v>5</v>
       </c>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="63"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" thickTop="1">
-      <c r="A19" s="62">
+      <c r="A19" s="77">
         <v>6</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77">
         <v>7</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62">
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77">
         <v>8</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62">
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77">
         <v>9</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62">
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77">
         <v>10</v>
       </c>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62">
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77">
         <v>11</v>
       </c>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62">
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77">
         <v>12</v>
       </c>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="63"/>
-      <c r="AB30" s="63"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" thickTop="1">
-      <c r="A31" s="62">
+      <c r="A31" s="77">
         <v>13</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77">
         <v>14</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62">
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77">
         <v>15</v>
       </c>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62">
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77">
         <v>16</v>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62">
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77">
         <v>17</v>
       </c>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62">
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77">
         <v>18</v>
       </c>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62">
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77">
         <v>19</v>
       </c>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="63"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="78"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="78"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="78"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="78"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="78"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="78"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="63"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="78"/>
     </row>
     <row r="42" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
-      <c r="AA42" s="63"/>
-      <c r="AB42" s="63"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="78"/>
     </row>
     <row r="43" spans="1:28" ht="15" customHeight="1" thickTop="1">
-      <c r="A43" s="71">
+      <c r="A43" s="74">
         <v>20</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="72">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="75">
         <v>21</v>
       </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="72">
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="75">
         <v>22</v>
       </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="71">
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="74">
         <v>23</v>
       </c>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="71">
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="74">
         <v>24</v>
       </c>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="62">
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="77">
         <v>25</v>
       </c>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62">
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77">
         <v>26</v>
       </c>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
     </row>
     <row r="44" spans="1:28" ht="17.45" customHeight="1">
-      <c r="A44" s="67">
+      <c r="A44" s="60">
         <v>1</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="71" t="s">
         <v>849</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="68" t="s">
+      <c r="C44" s="71"/>
+      <c r="D44" s="61" t="s">
         <v>889</v>
       </c>
       <c r="E44" s="56">
         <v>1</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="68" t="s">
+      <c r="G44" s="71"/>
+      <c r="H44" s="61" t="s">
         <v>882</v>
       </c>
       <c r="I44" s="56">
         <v>1</v>
       </c>
-      <c r="J44" s="61" t="s">
+      <c r="J44" s="71" t="s">
         <v>868</v>
       </c>
-      <c r="K44" s="61"/>
+      <c r="K44" s="71"/>
       <c r="L44" s="57" t="s">
         <v>869</v>
       </c>
-      <c r="M44" s="67">
+      <c r="M44" s="60">
         <v>1</v>
       </c>
-      <c r="N44" s="61" t="s">
+      <c r="N44" s="71" t="s">
         <v>849</v>
       </c>
-      <c r="O44" s="61"/>
-      <c r="P44" s="68" t="s">
+      <c r="O44" s="71"/>
+      <c r="P44" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="Q44" s="67">
+      <c r="Q44" s="60">
         <v>1</v>
       </c>
       <c r="R44" s="48" t="s">
         <v>819</v>
       </c>
       <c r="S44" s="48"/>
-      <c r="T44" s="68" t="s">
+      <c r="T44" s="61" t="s">
         <v>820</v>
       </c>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
     </row>
     <row r="45" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="62" t="s">
         <v>851</v>
       </c>
       <c r="B45" s="58" t="s">
@@ -17382,7 +17721,7 @@
       <c r="C45" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="63" t="s">
         <v>886</v>
       </c>
       <c r="E45" s="58" t="s">
@@ -17394,7 +17733,7 @@
       <c r="G45" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="63" t="s">
         <v>830</v>
       </c>
       <c r="I45" s="58" t="s">
@@ -17409,7 +17748,7 @@
       <c r="L45" s="58" t="s">
         <v>835</v>
       </c>
-      <c r="M45" s="69" t="s">
+      <c r="M45" s="62" t="s">
         <v>851</v>
       </c>
       <c r="N45" s="58" t="s">
@@ -17418,10 +17757,10 @@
       <c r="O45" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="P45" s="70" t="s">
+      <c r="P45" s="63" t="s">
         <v>862</v>
       </c>
-      <c r="Q45" s="69" t="s">
+      <c r="Q45" s="62" t="s">
         <v>821</v>
       </c>
       <c r="R45" s="58" t="s">
@@ -17430,37 +17769,37 @@
       <c r="S45" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="T45" s="70" t="s">
+      <c r="T45" s="63" t="s">
         <v>839</v>
       </c>
-      <c r="U45" s="63"/>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="63"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="78"/>
+      <c r="W45" s="78"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="78"/>
+      <c r="AA45" s="78"/>
+      <c r="AB45" s="78"/>
     </row>
     <row r="46" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A46" s="67">
+      <c r="A46" s="60">
         <v>2</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="68" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="61" t="s">
         <v>887</v>
       </c>
       <c r="E46" s="56">
         <v>2</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="71" t="s">
         <v>883</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="68" t="s">
+      <c r="G46" s="71"/>
+      <c r="H46" s="61" t="s">
         <v>887</v>
       </c>
       <c r="I46" s="58" t="s">
@@ -17475,37 +17814,37 @@
       <c r="L46" s="58" t="s">
         <v>856</v>
       </c>
-      <c r="M46" s="67">
+      <c r="M46" s="60">
         <v>2</v>
       </c>
-      <c r="N46" s="61" t="s">
+      <c r="N46" s="71" t="s">
         <v>853</v>
       </c>
-      <c r="O46" s="61"/>
-      <c r="P46" s="68" t="s">
+      <c r="O46" s="71"/>
+      <c r="P46" s="61" t="s">
         <v>857</v>
       </c>
-      <c r="Q46" s="67">
+      <c r="Q46" s="60">
         <v>2</v>
       </c>
       <c r="R46" s="48" t="s">
         <v>825</v>
       </c>
       <c r="S46" s="48"/>
-      <c r="T46" s="68" t="s">
+      <c r="T46" s="61" t="s">
         <v>832</v>
       </c>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="78"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="78"/>
+      <c r="AB46" s="78"/>
     </row>
     <row r="47" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="62" t="s">
         <v>881</v>
       </c>
       <c r="B47" s="58" t="s">
@@ -17514,7 +17853,7 @@
       <c r="C47" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="63" t="s">
         <v>835</v>
       </c>
       <c r="E47" s="58" t="s">
@@ -17526,20 +17865,20 @@
       <c r="G47" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="63" t="s">
         <v>884</v>
       </c>
       <c r="I47" s="56">
         <v>2</v>
       </c>
-      <c r="J47" s="61" t="s">
+      <c r="J47" s="71" t="s">
         <v>870</v>
       </c>
-      <c r="K47" s="61"/>
+      <c r="K47" s="71"/>
       <c r="L47" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="M47" s="69" t="s">
+      <c r="M47" s="62" t="s">
         <v>854</v>
       </c>
       <c r="N47" s="58" t="s">
@@ -17548,10 +17887,10 @@
       <c r="O47" s="58" t="s">
         <v>829</v>
       </c>
-      <c r="P47" s="70" t="s">
+      <c r="P47" s="63" t="s">
         <v>856</v>
       </c>
-      <c r="Q47" s="69" t="s">
+      <c r="Q47" s="62" t="s">
         <v>824</v>
       </c>
       <c r="R47" s="58" t="s">
@@ -17560,37 +17899,37 @@
       <c r="S47" s="58" t="s">
         <v>829</v>
       </c>
-      <c r="T47" s="70" t="s">
+      <c r="T47" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="U47" s="63"/>
-      <c r="V47" s="63"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="63"/>
-      <c r="Y47" s="63"/>
-      <c r="Z47" s="63"/>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="63"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="78"/>
+      <c r="W47" s="78"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
+      <c r="AA47" s="78"/>
+      <c r="AB47" s="78"/>
     </row>
     <row r="48" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A48" s="67">
+      <c r="A48" s="60">
         <v>3</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="71" t="s">
         <v>858</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="68" t="s">
+      <c r="C48" s="71"/>
+      <c r="D48" s="61" t="s">
         <v>820</v>
       </c>
       <c r="E48" s="56">
         <v>3</v>
       </c>
-      <c r="F48" s="61" t="s">
+      <c r="F48" s="71" t="s">
         <v>849</v>
       </c>
-      <c r="G48" s="61"/>
-      <c r="H48" s="68" t="s">
+      <c r="G48" s="71"/>
+      <c r="H48" s="61" t="s">
         <v>859</v>
       </c>
       <c r="I48" s="58" t="s">
@@ -17605,7 +17944,7 @@
       <c r="L48" s="58" t="s">
         <v>873</v>
       </c>
-      <c r="M48" s="69" t="s">
+      <c r="M48" s="62" t="s">
         <v>824</v>
       </c>
       <c r="N48" s="58" t="s">
@@ -17614,10 +17953,10 @@
       <c r="O48" s="58" t="s">
         <v>829</v>
       </c>
-      <c r="P48" s="70" t="s">
+      <c r="P48" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="Q48" s="69" t="s">
+      <c r="Q48" s="62" t="s">
         <v>827</v>
       </c>
       <c r="R48" s="58" t="s">
@@ -17626,20 +17965,20 @@
       <c r="S48" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="T48" s="70" t="s">
+      <c r="T48" s="63" t="s">
         <v>830</v>
       </c>
-      <c r="U48" s="63"/>
-      <c r="V48" s="63"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="63"/>
-      <c r="Y48" s="63"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="63"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
+      <c r="AB48" s="78"/>
     </row>
     <row r="49" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="62" t="s">
         <v>890</v>
       </c>
       <c r="B49" s="58" t="s">
@@ -17648,7 +17987,7 @@
       <c r="C49" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="63" t="s">
         <v>830</v>
       </c>
       <c r="E49" s="58" t="s">
@@ -17660,20 +17999,20 @@
       <c r="G49" s="58" t="s">
         <v>822</v>
       </c>
-      <c r="H49" s="70" t="s">
+      <c r="H49" s="63" t="s">
         <v>886</v>
       </c>
       <c r="I49" s="56">
         <v>3</v>
       </c>
-      <c r="J49" s="61" t="s">
+      <c r="J49" s="71" t="s">
         <v>874</v>
       </c>
-      <c r="K49" s="61"/>
+      <c r="K49" s="71"/>
       <c r="L49" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="M49" s="69" t="s">
+      <c r="M49" s="62" t="s">
         <v>827</v>
       </c>
       <c r="N49" s="58" t="s">
@@ -17682,47 +18021,47 @@
       <c r="O49" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="P49" s="70" t="s">
+      <c r="P49" s="63" t="s">
         <v>830</v>
       </c>
-      <c r="Q49" s="67">
+      <c r="Q49" s="60">
         <v>3</v>
       </c>
       <c r="R49" s="48" t="s">
         <v>831</v>
       </c>
       <c r="S49" s="48"/>
-      <c r="T49" s="68" t="s">
+      <c r="T49" s="61" t="s">
         <v>832</v>
       </c>
-      <c r="U49" s="63"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="78"/>
     </row>
     <row r="50" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A50" s="67">
+      <c r="A50" s="60">
         <v>4</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="71" t="s">
         <v>831</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="68" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="61" t="s">
         <v>891</v>
       </c>
       <c r="E50" s="56">
         <v>4</v>
       </c>
-      <c r="F50" s="61" t="s">
+      <c r="F50" s="71" t="s">
         <v>868</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="68" t="s">
+      <c r="G50" s="71"/>
+      <c r="H50" s="61" t="s">
         <v>875</v>
       </c>
       <c r="I50" s="58" t="s">
@@ -17737,17 +18076,17 @@
       <c r="L50" s="58" t="s">
         <v>877</v>
       </c>
-      <c r="M50" s="67">
+      <c r="M50" s="60">
         <v>3</v>
       </c>
-      <c r="N50" s="61" t="s">
+      <c r="N50" s="71" t="s">
         <v>858</v>
       </c>
-      <c r="O50" s="61"/>
-      <c r="P50" s="68" t="s">
+      <c r="O50" s="71"/>
+      <c r="P50" s="61" t="s">
         <v>859</v>
       </c>
-      <c r="Q50" s="69" t="s">
+      <c r="Q50" s="62" t="s">
         <v>833</v>
       </c>
       <c r="R50" s="58" t="s">
@@ -17756,20 +18095,20 @@
       <c r="S50" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="T50" s="70" t="s">
+      <c r="T50" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="78"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+      <c r="AA50" s="78"/>
+      <c r="AB50" s="78"/>
     </row>
     <row r="51" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="62" t="s">
         <v>878</v>
       </c>
       <c r="B51" s="58" t="s">
@@ -17778,7 +18117,7 @@
       <c r="C51" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="63" t="s">
         <v>826</v>
       </c>
       <c r="E51" s="58" t="s">
@@ -17790,20 +18129,20 @@
       <c r="G51" s="58" t="s">
         <v>829</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="63" t="s">
         <v>856</v>
       </c>
       <c r="I51" s="56">
         <v>4</v>
       </c>
-      <c r="J51" s="61" t="s">
+      <c r="J51" s="71" t="s">
         <v>831</v>
       </c>
-      <c r="K51" s="61"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="57" t="s">
         <v>832</v>
       </c>
-      <c r="M51" s="69" t="s">
+      <c r="M51" s="62" t="s">
         <v>860</v>
       </c>
       <c r="N51" s="58" t="s">
@@ -17812,10 +18151,10 @@
       <c r="O51" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="P51" s="70" t="s">
+      <c r="P51" s="63" t="s">
         <v>861</v>
       </c>
-      <c r="Q51" s="69" t="s">
+      <c r="Q51" s="62" t="s">
         <v>836</v>
       </c>
       <c r="R51" s="58" t="s">
@@ -17824,31 +18163,31 @@
       <c r="S51" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="T51" s="70" t="s">
+      <c r="T51" s="63" t="s">
         <v>839</v>
       </c>
-      <c r="U51" s="63"/>
-      <c r="V51" s="63"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="63"/>
-      <c r="Y51" s="63"/>
-      <c r="Z51" s="63"/>
-      <c r="AA51" s="63"/>
-      <c r="AB51" s="63"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
+      <c r="AB51" s="78"/>
     </row>
     <row r="52" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="85" t="s">
         <v>866</v>
       </c>
       <c r="B52" s="82"/>
       <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="82" t="s">
         <v>866</v>
       </c>
       <c r="F52" s="82"/>
       <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="58" t="s">
         <v>878</v>
       </c>
@@ -17861,47 +18200,47 @@
       <c r="L52" s="58" t="s">
         <v>879</v>
       </c>
-      <c r="M52" s="67">
+      <c r="M52" s="60">
         <v>4</v>
       </c>
-      <c r="N52" s="61" t="s">
+      <c r="N52" s="71" t="s">
         <v>863</v>
       </c>
-      <c r="O52" s="61"/>
-      <c r="P52" s="68" t="s">
+      <c r="O52" s="71"/>
+      <c r="P52" s="61" t="s">
         <v>859</v>
       </c>
-      <c r="Q52" s="77" t="s">
+      <c r="Q52" s="85" t="s">
         <v>866</v>
       </c>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="63"/>
-      <c r="Y52" s="63"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="63"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="84"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="78"/>
     </row>
     <row r="53" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A53" s="77"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="82"/>
       <c r="C53" s="82"/>
-      <c r="D53" s="83"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="82"/>
       <c r="F53" s="82"/>
       <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
+      <c r="H53" s="90"/>
       <c r="I53" s="82" t="s">
         <v>866</v>
       </c>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="69" t="s">
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="62" t="s">
         <v>864</v>
       </c>
       <c r="N53" s="58" t="s">
@@ -17910,83 +18249,83 @@
       <c r="O53" s="58" t="s">
         <v>838</v>
       </c>
-      <c r="P53" s="70" t="s">
+      <c r="P53" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="63"/>
-      <c r="X53" s="63"/>
-      <c r="Y53" s="63"/>
-      <c r="Z53" s="63"/>
-      <c r="AA53" s="63"/>
-      <c r="AB53" s="63"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
+      <c r="AB53" s="78"/>
     </row>
     <row r="54" spans="1:28" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="74" t="s">
+      <c r="A54" s="79"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="79" t="s">
         <v>867</v>
       </c>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="76"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="63"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="63"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="78"/>
+      <c r="V54" s="78"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="78"/>
+      <c r="Y54" s="78"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="78"/>
+      <c r="AB54" s="78"/>
     </row>
     <row r="55" spans="1:28" ht="14.45" customHeight="1" thickTop="1">
-      <c r="A55" s="62">
+      <c r="A55" s="74">
         <v>27</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62">
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="74">
         <v>28</v>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62">
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="74">
         <v>29</v>
       </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62">
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77">
         <v>30</v>
       </c>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
       <c r="W55" s="59"/>
@@ -17997,26 +18336,44 @@
       <c r="AB55" s="59"/>
     </row>
     <row r="56" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
+      <c r="A56" s="60">
+        <v>1</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="61" t="s">
+        <v>893</v>
+      </c>
+      <c r="E56" s="60">
+        <v>1</v>
+      </c>
+      <c r="F56" s="71" t="s">
+        <v>899</v>
+      </c>
+      <c r="G56" s="71"/>
+      <c r="H56" s="61" t="s">
+        <v>900</v>
+      </c>
+      <c r="I56" s="56">
+        <v>1</v>
+      </c>
+      <c r="J56" s="71" t="s">
+        <v>899</v>
+      </c>
+      <c r="K56" s="71"/>
+      <c r="L56" s="57" t="s">
+        <v>901</v>
+      </c>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
       <c r="U56" s="59"/>
       <c r="V56" s="59"/>
       <c r="W56" s="59"/>
@@ -18027,26 +18384,28 @@
       <c r="AB56" s="59"/>
     </row>
     <row r="57" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="58" t="s">
+        <v>897</v>
+      </c>
+      <c r="G57" s="58"/>
       <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
       <c r="U57" s="59"/>
       <c r="V57" s="59"/>
       <c r="W57" s="59"/>
@@ -18057,26 +18416,44 @@
       <c r="AB57" s="59"/>
     </row>
     <row r="58" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
+      <c r="A58" s="60">
+        <v>2</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>894</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="61" t="s">
+        <v>895</v>
+      </c>
+      <c r="E58" s="60">
+        <v>2</v>
+      </c>
+      <c r="F58" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="G58" s="71"/>
+      <c r="H58" s="61" t="s">
+        <v>859</v>
+      </c>
+      <c r="I58" s="56">
+        <v>2</v>
+      </c>
+      <c r="J58" s="71" t="s">
+        <v>902</v>
+      </c>
+      <c r="K58" s="71"/>
+      <c r="L58" s="57" t="s">
+        <v>875</v>
+      </c>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
       <c r="U58" s="59"/>
       <c r="V58" s="59"/>
       <c r="W58" s="59"/>
@@ -18087,26 +18464,34 @@
       <c r="AB58" s="59"/>
     </row>
     <row r="59" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
+      <c r="A59" s="62" t="s">
+        <v>827</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>822</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>826</v>
+      </c>
+      <c r="E59" s="62"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
       <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
       <c r="U59" s="59"/>
       <c r="V59" s="59"/>
       <c r="W59" s="59"/>
@@ -18117,26 +18502,32 @@
       <c r="AB59" s="59"/>
     </row>
     <row r="60" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="63"/>
+      <c r="A60" s="60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>896</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="61" t="s">
+        <v>859</v>
+      </c>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
       <c r="U60" s="59"/>
       <c r="V60" s="59"/>
       <c r="W60" s="59"/>
@@ -18147,26 +18538,28 @@
       <c r="AB60" s="59"/>
     </row>
     <row r="61" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="58" t="s">
+        <v>897</v>
+      </c>
+      <c r="C61" s="58"/>
       <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
       <c r="U61" s="59"/>
       <c r="V61" s="59"/>
       <c r="W61" s="59"/>
@@ -18177,26 +18570,32 @@
       <c r="AB61" s="59"/>
     </row>
     <row r="62" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="63"/>
-      <c r="T62" s="63"/>
+      <c r="A62" s="60">
+        <v>4</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>831</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="61" t="s">
+        <v>875</v>
+      </c>
+      <c r="E62" s="65"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="78"/>
       <c r="U62" s="59"/>
       <c r="V62" s="59"/>
       <c r="W62" s="59"/>
@@ -18207,26 +18606,34 @@
       <c r="AB62" s="59"/>
     </row>
     <row r="63" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="63"/>
+      <c r="A63" s="62" t="s">
+        <v>898</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="D63" s="63" t="s">
+        <v>856</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
       <c r="U63" s="59"/>
       <c r="V63" s="59"/>
       <c r="W63" s="59"/>
@@ -18237,26 +18644,34 @@
       <c r="AB63" s="59"/>
     </row>
     <row r="64" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
+      <c r="A64" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>831</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>838</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>856</v>
+      </c>
+      <c r="E64" s="65"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="78"/>
+      <c r="N64" s="78"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
       <c r="U64" s="59"/>
       <c r="V64" s="59"/>
       <c r="W64" s="59"/>
@@ -18267,26 +18682,26 @@
       <c r="AB64" s="59"/>
     </row>
     <row r="65" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="63"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
       <c r="U65" s="59"/>
       <c r="V65" s="59"/>
       <c r="W65" s="59"/>
@@ -18296,27 +18711,27 @@
       <c r="AA65" s="59"/>
       <c r="AB65" s="59"/>
     </row>
-    <row r="66" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="63"/>
+    <row r="66" spans="1:28" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A66" s="68"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
       <c r="U66" s="59"/>
       <c r="V66" s="59"/>
       <c r="W66" s="59"/>
@@ -18326,7 +18741,7 @@
       <c r="AA66" s="59"/>
       <c r="AB66" s="59"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" ht="14.25" thickTop="1">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -18679,48 +19094,21 @@
       <c r="T82" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I53:L54"/>
+  <mergeCells count="70">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="A31:D42"/>
+    <mergeCell ref="E31:H42"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F50:G50"/>
     <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E52:H54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A19:D30"/>
-    <mergeCell ref="E19:H30"/>
-    <mergeCell ref="I19:L30"/>
-    <mergeCell ref="M19:P30"/>
-    <mergeCell ref="Q19:T30"/>
-    <mergeCell ref="U19:X30"/>
-    <mergeCell ref="Y19:AB30"/>
-    <mergeCell ref="A55:D66"/>
-    <mergeCell ref="E55:H66"/>
-    <mergeCell ref="I55:L66"/>
-    <mergeCell ref="M55:P66"/>
-    <mergeCell ref="Q55:T66"/>
-    <mergeCell ref="A31:D42"/>
-    <mergeCell ref="E31:H42"/>
-    <mergeCell ref="I31:L42"/>
-    <mergeCell ref="M31:P42"/>
-    <mergeCell ref="Q31:T42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="U5:X6"/>
     <mergeCell ref="Y5:AB6"/>
     <mergeCell ref="A3:AB4"/>
@@ -18736,12 +19124,47 @@
     <mergeCell ref="M5:P6"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="I31:L42"/>
+    <mergeCell ref="M31:P42"/>
+    <mergeCell ref="Q31:T42"/>
     <mergeCell ref="Q43:T43"/>
     <mergeCell ref="Q52:T54"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q19:T30"/>
+    <mergeCell ref="U19:X30"/>
+    <mergeCell ref="Y19:AB30"/>
+    <mergeCell ref="M55:P66"/>
+    <mergeCell ref="Q55:T66"/>
     <mergeCell ref="U31:X42"/>
     <mergeCell ref="Y31:AB42"/>
     <mergeCell ref="U43:X54"/>
     <mergeCell ref="Y43:AB54"/>
+    <mergeCell ref="A19:D30"/>
+    <mergeCell ref="E19:H30"/>
+    <mergeCell ref="I19:L30"/>
+    <mergeCell ref="M19:P30"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I53:L54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="E52:H54"/>
+    <mergeCell ref="A52:D54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
